--- a/LEC.xlsx
+++ b/LEC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\FOLPoints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Documents\Fantasy-of-Legend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7470B660-F170-4053-A7A4-EAD6FD08A803}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C716F8-4D90-4760-A396-E11512EAD56F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40065828-DACB-4FAF-8B4F-65B8FCADECA5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="146">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -346,42 +346,6 @@
   </si>
   <si>
     <t>SCHALKE 04</t>
-  </si>
-  <si>
-    <t>SCHALKE 05</t>
-  </si>
-  <si>
-    <t>SCHALKE 06</t>
-  </si>
-  <si>
-    <t>SCHALKE 07</t>
-  </si>
-  <si>
-    <t>SCHALKE 08</t>
-  </si>
-  <si>
-    <t>SCHALKE 09</t>
-  </si>
-  <si>
-    <t>SCHALKE 10</t>
-  </si>
-  <si>
-    <t>SCHALKE 11</t>
-  </si>
-  <si>
-    <t>SCHALKE 12</t>
-  </si>
-  <si>
-    <t>SCHALKE 13</t>
-  </si>
-  <si>
-    <t>SCHALKE 14</t>
-  </si>
-  <si>
-    <t>SCHALKE 15</t>
-  </si>
-  <si>
-    <t>SCHALKE 16</t>
   </si>
   <si>
     <t>Sacre</t>
@@ -511,7 +475,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +532,14 @@
       <color theme="0"/>
       <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -677,7 +649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,6 +729,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
@@ -1079,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6F4F5-5FE8-493F-8E1B-F71CC0CB1EFB}">
   <dimension ref="E3:AA705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3096,7 +3069,7 @@
         <v>7</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G86" s="12" t="s">
         <v>21</v>
@@ -3123,7 +3096,7 @@
         <v>7</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G87" s="12" t="s">
         <v>18</v>
@@ -3150,7 +3123,7 @@
         <v>7</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G88" s="12" t="s">
         <v>19</v>
@@ -3177,7 +3150,7 @@
         <v>7</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G89" s="12" t="s">
         <v>20</v>
@@ -3204,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G90" s="12" t="s">
         <v>17</v>
@@ -3231,7 +3204,7 @@
         <v>7</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G91" s="12" t="s">
         <v>21</v>
@@ -3258,7 +3231,7 @@
         <v>7</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G92" s="12" t="s">
         <v>18</v>
@@ -3285,7 +3258,7 @@
         <v>7</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G93" s="12" t="s">
         <v>19</v>
@@ -3296,7 +3269,7 @@
       <c r="I93" s="12"/>
       <c r="K93"/>
       <c r="L93"/>
-      <c r="M93"/>
+      <c r="M93" s="27"/>
       <c r="N93"/>
       <c r="T93"/>
       <c r="U93"/>
@@ -3312,7 +3285,7 @@
         <v>7</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G94" s="12" t="s">
         <v>19</v>
@@ -3339,7 +3312,7 @@
         <v>7</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G95" s="12" t="s">
         <v>20</v>
@@ -3366,7 +3339,7 @@
         <v>7</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G96" s="12" t="s">
         <v>19</v>
@@ -3393,7 +3366,7 @@
         <v>7</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G97" s="12" t="s">
         <v>22</v>
@@ -3439,13 +3412,13 @@
         <v>8</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G99" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H99" s="23" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="I99" s="13"/>
       <c r="K99"/>
@@ -3468,13 +3441,13 @@
         <v>8</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G100" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H100" s="23" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="I100" s="13"/>
       <c r="K100"/>
@@ -3489,13 +3462,13 @@
         <v>8</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G101" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H101" s="23" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="I101" s="13"/>
       <c r="K101"/>
@@ -3510,13 +3483,13 @@
         <v>8</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G102" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="I102" s="13"/>
       <c r="K102"/>
@@ -3531,13 +3504,13 @@
         <v>8</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G103" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H103" s="23" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I103" s="13"/>
       <c r="K103"/>
@@ -3552,13 +3525,13 @@
         <v>8</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G104" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H104" s="23" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I104" s="13"/>
       <c r="K104"/>
@@ -3573,13 +3546,13 @@
         <v>8</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G105" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H105" s="23" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I105" s="13"/>
       <c r="K105"/>
@@ -3594,13 +3567,13 @@
         <v>8</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G106" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H106" s="23" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I106" s="13"/>
       <c r="K106"/>
@@ -3615,13 +3588,13 @@
         <v>8</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G107" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H107" s="23" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="I107" s="13"/>
       <c r="K107"/>
@@ -3636,13 +3609,13 @@
         <v>8</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G108" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H108" s="23" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="I108" s="13"/>
       <c r="K108"/>
@@ -3664,13 +3637,13 @@
         <v>8</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G109" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H109" s="23" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="I109" s="13"/>
       <c r="K109"/>
@@ -3692,13 +3665,13 @@
         <v>8</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G110" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H110" s="23" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="I110" s="13"/>
       <c r="K110"/>
@@ -3740,13 +3713,13 @@
         <v>9</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G112" s="14" t="s">
         <v>18</v>
       </c>
       <c r="H112" s="24" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="I112" s="14"/>
       <c r="K112"/>
@@ -3768,13 +3741,13 @@
         <v>9</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G113" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H113" s="24" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="I113" s="14"/>
       <c r="K113"/>
@@ -3796,13 +3769,13 @@
         <v>9</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G114" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H114" s="24" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I114" s="14"/>
       <c r="K114"/>
@@ -3824,13 +3797,13 @@
         <v>9</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G115" s="14" t="s">
         <v>17</v>
       </c>
       <c r="H115" s="24" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="I115" s="14"/>
       <c r="K115"/>
@@ -3852,13 +3825,13 @@
         <v>9</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G116" s="14" t="s">
         <v>20</v>
       </c>
       <c r="H116" s="24" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="I116" s="14"/>
       <c r="K116"/>
@@ -3880,13 +3853,13 @@
         <v>9</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G117" s="14" t="s">
         <v>17</v>
       </c>
       <c r="H117" s="24" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="I117" s="14"/>
       <c r="K117"/>
@@ -3908,13 +3881,13 @@
         <v>9</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G118" s="14" t="s">
         <v>18</v>
       </c>
       <c r="H118" s="24" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I118" s="14"/>
       <c r="K118"/>
@@ -3936,13 +3909,13 @@
         <v>9</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G119" s="14" t="s">
         <v>20</v>
       </c>
       <c r="H119" s="24" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I119" s="14"/>
       <c r="K119"/>
@@ -3964,13 +3937,13 @@
         <v>9</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G120" s="14" t="s">
         <v>20</v>
       </c>
       <c r="H120" s="24" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I120" s="14"/>
       <c r="K120"/>
@@ -3992,13 +3965,13 @@
         <v>9</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G121" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H121" s="24" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I121" s="14"/>
       <c r="K121"/>
@@ -4020,13 +3993,13 @@
         <v>9</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G122" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H122" s="24" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="I122" s="14"/>
       <c r="K122"/>
@@ -4048,13 +4021,13 @@
         <v>9</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G123" s="14" t="s">
         <v>22</v>
       </c>
       <c r="H123" s="24" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="I123" s="14"/>
       <c r="K123"/>
@@ -4098,13 +4071,13 @@
         <v>10</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G125" s="15" t="s">
         <v>17</v>
       </c>
       <c r="H125" s="25" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="I125" s="15"/>
       <c r="K125"/>
@@ -4127,13 +4100,13 @@
         <v>10</v>
       </c>
       <c r="F126" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G126" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H126" s="25" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="I126" s="15"/>
       <c r="K126"/>
@@ -4156,13 +4129,13 @@
         <v>10</v>
       </c>
       <c r="F127" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G127" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H127" s="25" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="I127" s="15"/>
       <c r="K127"/>
@@ -4185,13 +4158,13 @@
         <v>10</v>
       </c>
       <c r="F128" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G128" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H128" s="25" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I128" s="15"/>
       <c r="K128"/>
@@ -4214,13 +4187,13 @@
         <v>10</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G129" s="15" t="s">
         <v>19</v>
       </c>
       <c r="H129" s="25" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="I129" s="15"/>
       <c r="K129"/>
@@ -4243,13 +4216,13 @@
         <v>10</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G130" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H130" s="25" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="I130" s="15"/>
       <c r="K130"/>
@@ -4272,13 +4245,13 @@
         <v>10</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G131" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H131" s="25" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="I131" s="15"/>
       <c r="K131"/>
@@ -4301,13 +4274,13 @@
         <v>10</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G132" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H132" s="25" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="I132" s="15"/>
       <c r="K132"/>
@@ -4330,13 +4303,13 @@
         <v>10</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G133" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H133" s="25" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I133" s="15"/>
       <c r="K133"/>
@@ -4359,13 +4332,13 @@
         <v>10</v>
       </c>
       <c r="F134" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G134" s="15" t="s">
         <v>19</v>
       </c>
       <c r="H134" s="25" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="I134" s="15"/>
       <c r="K134"/>
@@ -4388,13 +4361,13 @@
         <v>10</v>
       </c>
       <c r="F135" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G135" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H135" s="25" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I135" s="15"/>
       <c r="K135"/>
@@ -4417,13 +4390,13 @@
         <v>10</v>
       </c>
       <c r="F136" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G136" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H136" s="25" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="I136" s="15"/>
       <c r="K136"/>
@@ -4446,13 +4419,13 @@
         <v>10</v>
       </c>
       <c r="F137" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G137" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H137" s="25" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="I137" s="15"/>
       <c r="K137"/>
@@ -4475,13 +4448,13 @@
         <v>10</v>
       </c>
       <c r="F138" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G138" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H138" s="25" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I138" s="15"/>
       <c r="K138"/>

--- a/LEC.xlsx
+++ b/LEC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Documents\Fantasy-of-Legend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\FantasyOfLegends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C716F8-4D90-4760-A396-E11512EAD56F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE20FC86-1B18-44B6-BB6F-3C602F800021}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40065828-DACB-4FAF-8B4F-65B8FCADECA5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="148">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -469,6 +469,12 @@
   </si>
   <si>
     <t>Duke + Mephisto</t>
+  </si>
+  <si>
+    <t>TITULAR</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -649,15 +655,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -729,7 +732,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
@@ -1050,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6F4F5-5FE8-493F-8E1B-F71CC0CB1EFB}">
-  <dimension ref="E3:AA705"/>
+  <dimension ref="E3:AB705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M93" sqref="M93"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1064,215 +1072,560 @@
     <col min="7" max="7" width="26.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="45.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="10" max="27" width="12.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="24.28515625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="5:9" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="26" t="s">
+    <row r="3" spans="5:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="5:28" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="5:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="6">
+      <c r="J4" s="25">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K4" s="25">
+        <v>2</v>
+      </c>
+      <c r="L4" s="25">
+        <v>3</v>
+      </c>
+      <c r="M4" s="25">
+        <v>4</v>
+      </c>
+      <c r="N4" s="25">
+        <v>5</v>
+      </c>
+      <c r="O4" s="25">
+        <v>6</v>
+      </c>
+      <c r="P4" s="25">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>8</v>
+      </c>
+      <c r="R4" s="25">
+        <v>9</v>
+      </c>
+      <c r="S4" s="25">
+        <v>10</v>
+      </c>
+      <c r="T4" s="25">
+        <v>11</v>
+      </c>
+      <c r="U4" s="25">
+        <v>12</v>
+      </c>
+      <c r="V4" s="25">
+        <v>13</v>
+      </c>
+      <c r="W4" s="25">
+        <v>14</v>
+      </c>
+      <c r="X4" s="25">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="25">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="25">
+        <v>17</v>
+      </c>
+      <c r="AA4" s="25">
+        <v>18</v>
+      </c>
+      <c r="AB4" s="25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="5:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="6">
+      <c r="I5" s="6"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26">
+        <f>SUM(J5:AA5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="5:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="6">
+      <c r="I6" s="6"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26">
+        <f t="shared" ref="AB6:AB69" si="0">SUM(J6:AA6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="5:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="6">
+      <c r="I7" s="6"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="5:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="6">
+      <c r="I8" s="6"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="5:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="6">
+      <c r="I9" s="6"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="5:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="6">
+      <c r="I10" s="6"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="5:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="6">
+      <c r="I11" s="6"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="5:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="6">
+      <c r="I12" s="6"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="5:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="6">
+      <c r="I13" s="6"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="5:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="6">
+      <c r="I14" s="6"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="5">
         <v>1</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="5:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="6">
+      <c r="I15" s="6"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="5">
         <v>1</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="6"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="2">
         <v>2</v>
       </c>
@@ -1282,12 +1635,34 @@
       <c r="G18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="2">
         <v>2</v>
       </c>
@@ -1297,12 +1672,34 @@
       <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="2">
         <v>2</v>
       </c>
@@ -1312,12 +1709,34 @@
       <c r="G20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="2">
         <v>2</v>
       </c>
@@ -1327,12 +1746,34 @@
       <c r="G21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="2">
         <v>2</v>
       </c>
@@ -1342,14 +1783,34 @@
       <c r="G22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="2">
         <v>2</v>
       </c>
@@ -1359,12 +1820,34 @@
       <c r="G23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="2">
         <v>2</v>
       </c>
@@ -1374,12 +1857,34 @@
       <c r="G24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="2">
         <v>2</v>
       </c>
@@ -1389,12 +1894,34 @@
       <c r="G25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="2">
         <v>2</v>
       </c>
@@ -1404,12 +1931,34 @@
       <c r="G26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="2">
         <v>2</v>
       </c>
@@ -1419,12 +1968,34 @@
       <c r="G27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="2">
         <v>2</v>
       </c>
@@ -1434,12 +2005,34 @@
       <c r="G28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="2">
         <v>2</v>
       </c>
@@ -1449,3051 +2042,4071 @@
       <c r="G29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-    </row>
-    <row r="31" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="9">
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="8">
         <v>3</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="9"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-    </row>
-    <row r="32" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="9">
+      <c r="I31" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J31" s="26">
+        <v>17</v>
+      </c>
+      <c r="K31" s="26"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="8">
         <v>3</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-    </row>
-    <row r="33" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="9">
+      <c r="I32" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J32" s="26">
+        <v>13</v>
+      </c>
+      <c r="K32" s="26"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="8">
         <v>3</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-    </row>
-    <row r="34" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="9">
+      <c r="I33" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J33" s="26">
+        <v>39</v>
+      </c>
+      <c r="K33" s="26"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="8">
         <v>3</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="9"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-    </row>
-    <row r="35" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="9">
+      <c r="I34" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34" s="26">
+        <v>19</v>
+      </c>
+      <c r="K34" s="26"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="8">
         <v>3</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="9"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-    </row>
-    <row r="36" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="9">
+      <c r="I35" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" s="26">
+        <v>22</v>
+      </c>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="8">
         <v>3</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I36" s="9"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-    </row>
-    <row r="37" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="9">
+      <c r="I36" s="8"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="8">
         <v>3</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-      <c r="Z37"/>
-    </row>
-    <row r="38" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="9">
+      <c r="I37" s="8"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="8">
         <v>3</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-    </row>
-    <row r="39" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="9">
+      <c r="I38" s="8"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="8">
         <v>3</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I39" s="9"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
-      <c r="X39"/>
-      <c r="Y39"/>
-      <c r="Z39"/>
-    </row>
-    <row r="40" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="9">
+      <c r="I39" s="8"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="8">
         <v>3</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="9"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-      <c r="X40"/>
-      <c r="Y40"/>
-      <c r="Z40"/>
-    </row>
-    <row r="41" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="9">
+      <c r="I40" s="8"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="8">
         <v>3</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I41" s="9"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-      <c r="X41"/>
-      <c r="Y41"/>
-      <c r="Z41"/>
-    </row>
-    <row r="42" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="9">
+      <c r="I41" s="8"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="8">
         <v>3</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I42" s="9"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
-      <c r="W42"/>
-      <c r="X42"/>
-      <c r="Y42"/>
-      <c r="Z42"/>
-    </row>
-    <row r="43" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="9">
+      <c r="I42" s="8"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="8">
         <v>3</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I43" s="9"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43"/>
-      <c r="V43"/>
-      <c r="W43"/>
-      <c r="X43"/>
-      <c r="Y43"/>
-      <c r="Z43"/>
-    </row>
-    <row r="44" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-      <c r="Y44"/>
-      <c r="Z44"/>
-    </row>
-    <row r="45" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="10">
+      <c r="I43" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="26"/>
+      <c r="AB43" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="9">
         <v>4</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="17" t="s">
+      <c r="H45" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I45" s="10"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
-      <c r="U45"/>
-      <c r="V45"/>
-      <c r="W45"/>
-      <c r="X45"/>
-      <c r="Y45"/>
-      <c r="Z45"/>
-    </row>
-    <row r="46" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="10">
+      <c r="I45" s="9"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="26"/>
+      <c r="AB45" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="9">
         <v>4</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H46" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I46" s="10"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-      <c r="X46"/>
-      <c r="Y46"/>
-      <c r="Z46"/>
-    </row>
-    <row r="47" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="10">
+      <c r="I46" s="9"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="26"/>
+      <c r="AB46" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="9">
         <v>4</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="17" t="s">
+      <c r="H47" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I47" s="10"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
-      <c r="W47"/>
-      <c r="X47"/>
-      <c r="Y47"/>
-      <c r="Z47"/>
-    </row>
-    <row r="48" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="10">
+      <c r="I47" s="9"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="26"/>
+      <c r="AB47" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="9">
         <v>4</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="17" t="s">
+      <c r="H48" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I48" s="10"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
-      <c r="T48"/>
-      <c r="U48"/>
-      <c r="V48"/>
-      <c r="W48"/>
-      <c r="X48"/>
-      <c r="Y48"/>
-      <c r="Z48"/>
-    </row>
-    <row r="49" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="10">
+      <c r="I48" s="9"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="26"/>
+      <c r="AB48" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="9">
         <v>4</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H49" s="17" t="s">
+      <c r="H49" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I49" s="10"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
-      <c r="S49"/>
-      <c r="T49"/>
-      <c r="U49"/>
-      <c r="V49"/>
-      <c r="W49"/>
-      <c r="X49"/>
-      <c r="Y49"/>
-      <c r="Z49"/>
-    </row>
-    <row r="50" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="10">
+      <c r="I49" s="9"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="26"/>
+      <c r="AB49" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="9">
         <v>4</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="17" t="s">
+      <c r="H50" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I50" s="10"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50"/>
-      <c r="V50"/>
-      <c r="W50"/>
-      <c r="X50"/>
-      <c r="Y50"/>
-      <c r="Z50"/>
-    </row>
-    <row r="51" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="10">
+      <c r="I50" s="9"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="26"/>
+      <c r="AB50" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="9">
         <v>4</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="17" t="s">
+      <c r="H51" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I51" s="10"/>
-      <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
-      <c r="U51"/>
-      <c r="V51"/>
-      <c r="W51"/>
-      <c r="X51"/>
-      <c r="Y51"/>
-      <c r="Z51"/>
-    </row>
-    <row r="52" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="10">
+      <c r="I51" s="9"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="9">
         <v>4</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="17" t="s">
+      <c r="H52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I52" s="10"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
-      <c r="V52"/>
-      <c r="W52"/>
-      <c r="X52"/>
-      <c r="Y52"/>
-      <c r="Z52"/>
-    </row>
-    <row r="53" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="10">
+      <c r="I52" s="9"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="27"/>
+      <c r="V52" s="27"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="27"/>
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="26"/>
+      <c r="AB52" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="9">
         <v>4</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H53" s="17" t="s">
+      <c r="H53" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I53" s="10"/>
-      <c r="M53"/>
-      <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53"/>
-      <c r="Q53"/>
-      <c r="R53"/>
-      <c r="S53"/>
-      <c r="T53"/>
-      <c r="U53"/>
-      <c r="V53"/>
-      <c r="W53"/>
-      <c r="X53"/>
-      <c r="Y53"/>
-      <c r="Z53"/>
-    </row>
-    <row r="54" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="10">
+      <c r="I53" s="9"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="27"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="26"/>
+      <c r="AB53" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="9">
         <v>4</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="17" t="s">
+      <c r="H54" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I54" s="10"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54"/>
-      <c r="V54"/>
-      <c r="W54"/>
-      <c r="X54"/>
-      <c r="Y54"/>
-      <c r="Z54"/>
-    </row>
-    <row r="55" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="10">
+      <c r="I54" s="9"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="27"/>
+      <c r="V54" s="27"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="27"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="26"/>
+      <c r="AB54" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="9">
         <v>4</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G55" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H55" s="17" t="s">
+      <c r="H55" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I55" s="10"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
-      <c r="U55"/>
-      <c r="V55"/>
-      <c r="W55"/>
-      <c r="X55"/>
-      <c r="Y55"/>
-      <c r="Z55"/>
-    </row>
-    <row r="56" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="10">
+      <c r="I55" s="9"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="27"/>
+      <c r="V55" s="27"/>
+      <c r="W55" s="27"/>
+      <c r="X55" s="27"/>
+      <c r="Y55" s="27"/>
+      <c r="Z55" s="27"/>
+      <c r="AA55" s="26"/>
+      <c r="AB55" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="9">
         <v>4</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H56" s="17" t="s">
+      <c r="H56" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="I56" s="10"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
-      <c r="T56"/>
-      <c r="U56"/>
-      <c r="V56"/>
-      <c r="W56"/>
-      <c r="X56"/>
-      <c r="Y56"/>
-      <c r="Z56"/>
-    </row>
-    <row r="57" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E57" s="10">
+      <c r="I56" s="9"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="27"/>
+      <c r="T56" s="27"/>
+      <c r="U56" s="27"/>
+      <c r="V56" s="27"/>
+      <c r="W56" s="27"/>
+      <c r="X56" s="27"/>
+      <c r="Y56" s="27"/>
+      <c r="Z56" s="27"/>
+      <c r="AA56" s="26"/>
+      <c r="AB56" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="9">
         <v>4</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H57" s="17" t="s">
+      <c r="H57" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I57" s="10"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
-      <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57"/>
-      <c r="U57"/>
-      <c r="V57"/>
-      <c r="W57"/>
-      <c r="X57"/>
-      <c r="Y57"/>
-      <c r="Z57"/>
-    </row>
-    <row r="58" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="4"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-      <c r="W58"/>
-      <c r="X58"/>
-      <c r="Y58"/>
-      <c r="Z58"/>
-    </row>
-    <row r="59" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="8">
+      <c r="I57" s="9"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="26"/>
+      <c r="AB57" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="29"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="7">
         <v>5</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="19" t="s">
+      <c r="H59" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I59" s="8"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59"/>
-      <c r="W59"/>
-      <c r="X59"/>
-      <c r="Y59"/>
-      <c r="Z59"/>
-    </row>
-    <row r="60" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="8">
+      <c r="I59" s="7"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="27"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="26"/>
+      <c r="AB59" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="7">
         <v>5</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H60" s="19" t="s">
+      <c r="H60" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I60" s="8"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
-      <c r="T60"/>
-      <c r="U60"/>
-      <c r="V60"/>
-      <c r="W60"/>
-      <c r="X60"/>
-      <c r="Y60"/>
-      <c r="Z60"/>
-    </row>
-    <row r="61" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="8">
+      <c r="I60" s="7"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="27"/>
+      <c r="T60" s="27"/>
+      <c r="U60" s="27"/>
+      <c r="V60" s="27"/>
+      <c r="W60" s="27"/>
+      <c r="X60" s="27"/>
+      <c r="Y60" s="27"/>
+      <c r="Z60" s="27"/>
+      <c r="AA60" s="26"/>
+      <c r="AB60" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="7">
         <v>5</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H61" s="19" t="s">
+      <c r="H61" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I61" s="8"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
-      <c r="R61"/>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-      <c r="W61"/>
-      <c r="X61"/>
-      <c r="Y61"/>
-      <c r="Z61"/>
-    </row>
-    <row r="62" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="8">
+      <c r="I61" s="7"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="27"/>
+      <c r="T61" s="27"/>
+      <c r="U61" s="27"/>
+      <c r="V61" s="27"/>
+      <c r="W61" s="27"/>
+      <c r="X61" s="27"/>
+      <c r="Y61" s="27"/>
+      <c r="Z61" s="27"/>
+      <c r="AA61" s="26"/>
+      <c r="AB61" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="7">
         <v>5</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H62" s="19" t="s">
+      <c r="H62" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I62" s="8"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
-      <c r="U62"/>
-      <c r="V62"/>
-      <c r="W62"/>
-      <c r="X62"/>
-      <c r="Y62"/>
-      <c r="Z62"/>
-    </row>
-    <row r="63" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="8">
+      <c r="I62" s="7"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="27"/>
+      <c r="T62" s="27"/>
+      <c r="U62" s="27"/>
+      <c r="V62" s="27"/>
+      <c r="W62" s="27"/>
+      <c r="X62" s="27"/>
+      <c r="Y62" s="27"/>
+      <c r="Z62" s="27"/>
+      <c r="AA62" s="26"/>
+      <c r="AB62" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="7">
         <v>5</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H63" s="19" t="s">
+      <c r="H63" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I63" s="8"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="U63"/>
-      <c r="V63"/>
-      <c r="W63"/>
-      <c r="X63"/>
-    </row>
-    <row r="64" spans="5:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="8">
+      <c r="I63" s="7"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="27"/>
+      <c r="U63" s="27"/>
+      <c r="V63" s="27"/>
+      <c r="W63" s="27"/>
+      <c r="X63" s="27"/>
+      <c r="Y63" s="26"/>
+      <c r="Z63" s="26"/>
+      <c r="AA63" s="26"/>
+      <c r="AB63" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="7">
         <v>5</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="19" t="s">
+      <c r="H64" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I64" s="8"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-      <c r="O64"/>
-      <c r="P64"/>
-      <c r="Q64"/>
-      <c r="R64"/>
-      <c r="S64"/>
-      <c r="T64"/>
-      <c r="U64"/>
-      <c r="V64"/>
-      <c r="W64"/>
-      <c r="X64"/>
-    </row>
-    <row r="65" spans="5:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="8">
+      <c r="I64" s="7"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="27"/>
+      <c r="T64" s="27"/>
+      <c r="U64" s="27"/>
+      <c r="V64" s="27"/>
+      <c r="W64" s="27"/>
+      <c r="X64" s="27"/>
+      <c r="Y64" s="26"/>
+      <c r="Z64" s="26"/>
+      <c r="AA64" s="26"/>
+      <c r="AB64" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="7">
         <v>5</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="19" t="s">
+      <c r="H65" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="I65" s="8"/>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="O65"/>
-      <c r="P65"/>
-      <c r="Q65"/>
-      <c r="R65"/>
-      <c r="S65"/>
-      <c r="T65"/>
-      <c r="U65"/>
-      <c r="V65"/>
-      <c r="W65"/>
-      <c r="X65"/>
-      <c r="Y65"/>
-    </row>
-    <row r="66" spans="5:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="8">
+      <c r="I65" s="7"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="27"/>
+      <c r="U65" s="27"/>
+      <c r="V65" s="27"/>
+      <c r="W65" s="27"/>
+      <c r="X65" s="27"/>
+      <c r="Y65" s="27"/>
+      <c r="Z65" s="26"/>
+      <c r="AA65" s="26"/>
+      <c r="AB65" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="7">
         <v>5</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H66" s="19" t="s">
+      <c r="H66" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I66" s="8"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
-      <c r="U66"/>
-      <c r="V66"/>
-      <c r="W66"/>
-      <c r="X66"/>
-      <c r="Y66"/>
-    </row>
-    <row r="67" spans="5:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="8">
+      <c r="I66" s="7"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="27"/>
+      <c r="V66" s="27"/>
+      <c r="W66" s="27"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="26"/>
+      <c r="AA66" s="26"/>
+      <c r="AB66" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="7">
         <v>5</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H67" s="19" t="s">
+      <c r="H67" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="I67" s="8"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-      <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
-      <c r="R67"/>
-      <c r="S67"/>
-      <c r="T67"/>
-      <c r="U67"/>
-      <c r="V67"/>
-      <c r="W67"/>
-      <c r="X67"/>
-      <c r="Y67"/>
-    </row>
-    <row r="68" spans="5:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="8">
+      <c r="I67" s="7"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="27"/>
+      <c r="S67" s="27"/>
+      <c r="T67" s="27"/>
+      <c r="U67" s="27"/>
+      <c r="V67" s="27"/>
+      <c r="W67" s="27"/>
+      <c r="X67" s="27"/>
+      <c r="Y67" s="27"/>
+      <c r="Z67" s="26"/>
+      <c r="AA67" s="26"/>
+      <c r="AB67" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="7">
         <v>5</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H68" s="20" t="s">
+      <c r="H68" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I68" s="8"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
-      <c r="R68"/>
-      <c r="S68"/>
-      <c r="T68"/>
-      <c r="U68"/>
-      <c r="V68"/>
-      <c r="W68"/>
-      <c r="X68"/>
-      <c r="Y68"/>
-    </row>
-    <row r="69" spans="5:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="8">
+      <c r="I68" s="7"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="27"/>
+      <c r="S68" s="27"/>
+      <c r="T68" s="27"/>
+      <c r="U68" s="27"/>
+      <c r="V68" s="27"/>
+      <c r="W68" s="27"/>
+      <c r="X68" s="27"/>
+      <c r="Y68" s="27"/>
+      <c r="Z68" s="26"/>
+      <c r="AA68" s="26"/>
+      <c r="AB68" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="7">
         <v>5</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="20" t="s">
+      <c r="H69" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I69" s="8"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
-      <c r="T69"/>
-      <c r="U69"/>
-      <c r="V69"/>
-      <c r="W69"/>
-      <c r="X69"/>
-      <c r="Y69"/>
-    </row>
-    <row r="70" spans="5:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="8">
+      <c r="I69" s="7"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27"/>
+      <c r="T69" s="27"/>
+      <c r="U69" s="27"/>
+      <c r="V69" s="27"/>
+      <c r="W69" s="27"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="27"/>
+      <c r="Z69" s="26"/>
+      <c r="AA69" s="26"/>
+      <c r="AB69" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="7">
         <v>5</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H70" s="19" t="s">
+      <c r="H70" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I70" s="8"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
-      <c r="R70"/>
-      <c r="S70"/>
-      <c r="T70"/>
-      <c r="U70"/>
-      <c r="V70"/>
-      <c r="W70"/>
-      <c r="X70"/>
-      <c r="Y70"/>
-    </row>
-    <row r="71" spans="5:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="4"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-      <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
-      <c r="R71"/>
-      <c r="S71"/>
-      <c r="T71"/>
-      <c r="U71"/>
-      <c r="V71"/>
-      <c r="W71"/>
-      <c r="X71"/>
-      <c r="Y71"/>
-    </row>
-    <row r="72" spans="5:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="11">
+      <c r="I70" s="7"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="27"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="27"/>
+      <c r="T70" s="27"/>
+      <c r="U70" s="27"/>
+      <c r="V70" s="27"/>
+      <c r="W70" s="27"/>
+      <c r="X70" s="27"/>
+      <c r="Y70" s="27"/>
+      <c r="Z70" s="26"/>
+      <c r="AA70" s="26"/>
+      <c r="AB70" s="26">
+        <f t="shared" ref="AB70:AB133" si="1">SUM(J70:AA70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="29"/>
+      <c r="U71" s="29"/>
+      <c r="V71" s="29"/>
+      <c r="W71" s="29"/>
+      <c r="X71" s="29"/>
+      <c r="Y71" s="29"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="10">
         <v>6</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G72" s="11" t="s">
+      <c r="G72" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H72" s="21" t="s">
+      <c r="H72" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I72" s="11"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72"/>
-      <c r="T72"/>
-      <c r="U72"/>
-      <c r="V72"/>
-      <c r="W72"/>
-      <c r="X72"/>
-      <c r="Y72"/>
-    </row>
-    <row r="73" spans="5:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="11">
+      <c r="I72" s="10"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="27"/>
+      <c r="Q72" s="27"/>
+      <c r="R72" s="27"/>
+      <c r="S72" s="27"/>
+      <c r="T72" s="27"/>
+      <c r="U72" s="27"/>
+      <c r="V72" s="27"/>
+      <c r="W72" s="27"/>
+      <c r="X72" s="27"/>
+      <c r="Y72" s="27"/>
+      <c r="Z72" s="26"/>
+      <c r="AA72" s="26"/>
+      <c r="AB72" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="10">
         <v>6</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G73" s="11" t="s">
+      <c r="G73" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H73" s="21" t="s">
+      <c r="H73" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="I73" s="11"/>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="O73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
-      <c r="R73"/>
-      <c r="S73"/>
-      <c r="T73"/>
-      <c r="U73"/>
-      <c r="V73"/>
-      <c r="W73"/>
-      <c r="X73"/>
-      <c r="Y73"/>
-    </row>
-    <row r="74" spans="5:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="11">
+      <c r="I73" s="10"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="27"/>
+      <c r="R73" s="27"/>
+      <c r="S73" s="27"/>
+      <c r="T73" s="27"/>
+      <c r="U73" s="27"/>
+      <c r="V73" s="27"/>
+      <c r="W73" s="27"/>
+      <c r="X73" s="27"/>
+      <c r="Y73" s="27"/>
+      <c r="Z73" s="26"/>
+      <c r="AA73" s="26"/>
+      <c r="AB73" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="10">
         <v>6</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G74" s="11" t="s">
+      <c r="G74" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H74" s="21" t="s">
+      <c r="H74" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="I74" s="11"/>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
-      <c r="T74"/>
-      <c r="U74"/>
-      <c r="V74"/>
-      <c r="W74"/>
-      <c r="X74"/>
-      <c r="Y74"/>
-    </row>
-    <row r="75" spans="5:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="11">
+      <c r="I74" s="10"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="27"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="26"/>
+      <c r="AA74" s="26"/>
+      <c r="AB74" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="10">
         <v>6</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G75" s="11" t="s">
+      <c r="G75" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="21" t="s">
+      <c r="H75" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="I75" s="11"/>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="O75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
-      <c r="R75"/>
-      <c r="S75"/>
-      <c r="T75"/>
-      <c r="U75"/>
-      <c r="V75"/>
-      <c r="W75"/>
-      <c r="X75"/>
-      <c r="Y75"/>
-    </row>
-    <row r="76" spans="5:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="11">
+      <c r="I75" s="10"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="27"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="27"/>
+      <c r="T75" s="27"/>
+      <c r="U75" s="27"/>
+      <c r="V75" s="27"/>
+      <c r="W75" s="27"/>
+      <c r="X75" s="27"/>
+      <c r="Y75" s="27"/>
+      <c r="Z75" s="26"/>
+      <c r="AA75" s="26"/>
+      <c r="AB75" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="10">
         <v>6</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="F76" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G76" s="11" t="s">
+      <c r="G76" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H76" s="21" t="s">
+      <c r="H76" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="I76" s="11"/>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
-      <c r="T76"/>
-      <c r="U76"/>
-      <c r="V76"/>
-      <c r="W76"/>
-      <c r="X76"/>
-      <c r="Y76"/>
-    </row>
-    <row r="77" spans="5:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="11">
+      <c r="I76" s="10"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="27"/>
+      <c r="T76" s="27"/>
+      <c r="U76" s="27"/>
+      <c r="V76" s="27"/>
+      <c r="W76" s="27"/>
+      <c r="X76" s="27"/>
+      <c r="Y76" s="27"/>
+      <c r="Z76" s="26"/>
+      <c r="AA76" s="26"/>
+      <c r="AB76" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="10">
         <v>6</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="G77" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="21" t="s">
+      <c r="H77" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I77" s="11"/>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
-      <c r="R77"/>
-      <c r="S77"/>
-      <c r="T77"/>
-      <c r="U77"/>
-      <c r="V77"/>
-      <c r="W77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
-    </row>
-    <row r="78" spans="5:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="11">
+      <c r="I77" s="10"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="27"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="27"/>
+      <c r="T77" s="27"/>
+      <c r="U77" s="27"/>
+      <c r="V77" s="27"/>
+      <c r="W77" s="27"/>
+      <c r="X77" s="27"/>
+      <c r="Y77" s="27"/>
+      <c r="Z77" s="26"/>
+      <c r="AA77" s="26"/>
+      <c r="AB77" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="10">
         <v>6</v>
       </c>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G78" s="11" t="s">
+      <c r="G78" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H78" s="21" t="s">
+      <c r="H78" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I78" s="11"/>
-      <c r="M78"/>
-      <c r="N78"/>
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78"/>
-      <c r="T78"/>
-      <c r="U78"/>
-      <c r="V78"/>
-      <c r="W78"/>
-      <c r="X78"/>
-      <c r="Y78"/>
-    </row>
-    <row r="79" spans="5:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="11">
+      <c r="I78" s="10"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="27"/>
+      <c r="S78" s="27"/>
+      <c r="T78" s="27"/>
+      <c r="U78" s="27"/>
+      <c r="V78" s="27"/>
+      <c r="W78" s="27"/>
+      <c r="X78" s="27"/>
+      <c r="Y78" s="27"/>
+      <c r="Z78" s="26"/>
+      <c r="AA78" s="26"/>
+      <c r="AB78" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="10">
         <v>6</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G79" s="11" t="s">
+      <c r="G79" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H79" s="21" t="s">
+      <c r="H79" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="I79" s="11"/>
-      <c r="M79"/>
-      <c r="N79"/>
-      <c r="O79"/>
-      <c r="P79"/>
-      <c r="Q79"/>
-      <c r="R79"/>
-      <c r="S79"/>
-      <c r="T79"/>
-      <c r="U79"/>
-      <c r="V79"/>
-      <c r="W79"/>
-      <c r="X79"/>
-      <c r="Y79"/>
-    </row>
-    <row r="80" spans="5:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="11">
+      <c r="I79" s="10"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="27"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="27"/>
+      <c r="Q79" s="27"/>
+      <c r="R79" s="27"/>
+      <c r="S79" s="27"/>
+      <c r="T79" s="27"/>
+      <c r="U79" s="27"/>
+      <c r="V79" s="27"/>
+      <c r="W79" s="27"/>
+      <c r="X79" s="27"/>
+      <c r="Y79" s="27"/>
+      <c r="Z79" s="26"/>
+      <c r="AA79" s="26"/>
+      <c r="AB79" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="10">
         <v>6</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="F80" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G80" s="11" t="s">
+      <c r="G80" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H80" s="21" t="s">
+      <c r="H80" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I80" s="11"/>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
-      <c r="T80"/>
-      <c r="U80"/>
-      <c r="V80"/>
-      <c r="W80"/>
-      <c r="X80"/>
-      <c r="Y80"/>
-    </row>
-    <row r="81" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="11">
+      <c r="I80" s="10"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="27"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="27"/>
+      <c r="V80" s="27"/>
+      <c r="W80" s="27"/>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
+      <c r="Z80" s="26"/>
+      <c r="AA80" s="26"/>
+      <c r="AB80" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="10">
         <v>6</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G81" s="11" t="s">
+      <c r="G81" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H81" s="21" t="s">
+      <c r="H81" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="I81" s="11"/>
-      <c r="M81"/>
-      <c r="N81"/>
-      <c r="O81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
-      <c r="R81"/>
-      <c r="S81"/>
-      <c r="T81"/>
-      <c r="U81"/>
-      <c r="V81"/>
-      <c r="W81"/>
-      <c r="X81"/>
-      <c r="Y81"/>
-    </row>
-    <row r="82" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="11">
+      <c r="I81" s="10"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="27"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
+      <c r="S81" s="27"/>
+      <c r="T81" s="27"/>
+      <c r="U81" s="27"/>
+      <c r="V81" s="27"/>
+      <c r="W81" s="27"/>
+      <c r="X81" s="27"/>
+      <c r="Y81" s="27"/>
+      <c r="Z81" s="26"/>
+      <c r="AA81" s="26"/>
+      <c r="AB81" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="10">
         <v>6</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G82" s="11" t="s">
+      <c r="G82" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H82" s="21" t="s">
+      <c r="H82" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I82" s="11"/>
-      <c r="M82"/>
-      <c r="N82"/>
-      <c r="O82"/>
-      <c r="P82"/>
-      <c r="Q82"/>
-      <c r="R82"/>
-      <c r="S82"/>
-      <c r="T82"/>
-      <c r="U82"/>
-      <c r="V82"/>
-      <c r="W82"/>
-      <c r="X82"/>
-      <c r="Y82"/>
-    </row>
-    <row r="83" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="11">
+      <c r="I82" s="10"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
+      <c r="T82" s="27"/>
+      <c r="U82" s="27"/>
+      <c r="V82" s="27"/>
+      <c r="W82" s="27"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+      <c r="Z82" s="26"/>
+      <c r="AA82" s="26"/>
+      <c r="AB82" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="10">
         <v>6</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F83" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G83" s="11" t="s">
+      <c r="G83" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H83" s="21" t="s">
+      <c r="H83" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I83" s="11"/>
-      <c r="K83"/>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
-      <c r="O83"/>
-      <c r="P83"/>
-      <c r="Q83"/>
-      <c r="R83"/>
-      <c r="S83"/>
-      <c r="T83"/>
-      <c r="U83"/>
-      <c r="V83"/>
-      <c r="W83"/>
-      <c r="X83"/>
-      <c r="Y83"/>
-      <c r="Z83"/>
-      <c r="AA83"/>
-    </row>
-    <row r="84" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="4"/>
-      <c r="K84"/>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-      <c r="T84"/>
-      <c r="U84"/>
-      <c r="V84"/>
-      <c r="W84"/>
-      <c r="X84"/>
-      <c r="Y84"/>
-      <c r="Z84"/>
-      <c r="AA84"/>
-    </row>
-    <row r="85" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="12">
+      <c r="I83" s="10"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="27"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="29"/>
+      <c r="U84" s="29"/>
+      <c r="V84" s="29"/>
+      <c r="W84" s="29"/>
+      <c r="X84" s="29"/>
+      <c r="Y84" s="29"/>
+      <c r="Z84" s="29"/>
+      <c r="AA84" s="29"/>
+      <c r="AB84" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="11">
         <v>7</v>
       </c>
-      <c r="F85" s="12" t="s">
+      <c r="F85" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G85" s="12" t="s">
+      <c r="G85" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H85" s="22" t="s">
+      <c r="H85" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="I85" s="12"/>
-      <c r="K85"/>
-      <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-      <c r="T85"/>
-      <c r="U85"/>
-      <c r="V85"/>
-      <c r="W85"/>
-      <c r="X85"/>
-      <c r="Y85"/>
-      <c r="Z85"/>
-      <c r="AA85"/>
-    </row>
-    <row r="86" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="12">
+      <c r="I85" s="11"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="27"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="26"/>
+      <c r="P85" s="26"/>
+      <c r="Q85" s="26"/>
+      <c r="R85" s="26"/>
+      <c r="S85" s="26"/>
+      <c r="T85" s="27"/>
+      <c r="U85" s="27"/>
+      <c r="V85" s="27"/>
+      <c r="W85" s="27"/>
+      <c r="X85" s="27"/>
+      <c r="Y85" s="27"/>
+      <c r="Z85" s="27"/>
+      <c r="AA85" s="27"/>
+      <c r="AB85" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="11">
         <v>7</v>
       </c>
-      <c r="F86" s="12" t="s">
+      <c r="F86" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G86" s="12" t="s">
+      <c r="G86" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H86" s="22" t="s">
+      <c r="H86" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I86" s="12"/>
-      <c r="K86"/>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="T86"/>
-      <c r="U86"/>
-      <c r="V86"/>
-      <c r="W86"/>
-      <c r="X86"/>
-      <c r="Y86"/>
-      <c r="Z86"/>
-      <c r="AA86"/>
-    </row>
-    <row r="87" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E87" s="12">
+      <c r="I86" s="11"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="26"/>
+      <c r="P86" s="26"/>
+      <c r="Q86" s="26"/>
+      <c r="R86" s="26"/>
+      <c r="S86" s="26"/>
+      <c r="T86" s="27"/>
+      <c r="U86" s="27"/>
+      <c r="V86" s="27"/>
+      <c r="W86" s="27"/>
+      <c r="X86" s="27"/>
+      <c r="Y86" s="27"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="27"/>
+      <c r="AB86" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E87" s="11">
         <v>7</v>
       </c>
-      <c r="F87" s="12" t="s">
+      <c r="F87" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G87" s="12" t="s">
+      <c r="G87" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H87" s="22" t="s">
+      <c r="H87" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I87" s="12"/>
-      <c r="K87"/>
-      <c r="L87"/>
-      <c r="M87"/>
-      <c r="N87"/>
-      <c r="T87"/>
-      <c r="U87"/>
-      <c r="V87"/>
-      <c r="W87"/>
-      <c r="X87"/>
-      <c r="Y87"/>
-      <c r="Z87"/>
-      <c r="AA87"/>
-    </row>
-    <row r="88" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E88" s="12">
+      <c r="I87" s="11"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="27"/>
+      <c r="O87" s="26"/>
+      <c r="P87" s="26"/>
+      <c r="Q87" s="26"/>
+      <c r="R87" s="26"/>
+      <c r="S87" s="26"/>
+      <c r="T87" s="27"/>
+      <c r="U87" s="27"/>
+      <c r="V87" s="27"/>
+      <c r="W87" s="27"/>
+      <c r="X87" s="27"/>
+      <c r="Y87" s="27"/>
+      <c r="Z87" s="27"/>
+      <c r="AA87" s="27"/>
+      <c r="AB87" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="11">
         <v>7</v>
       </c>
-      <c r="F88" s="12" t="s">
+      <c r="F88" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G88" s="12" t="s">
+      <c r="G88" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H88" s="22" t="s">
+      <c r="H88" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="I88" s="12"/>
-      <c r="K88"/>
-      <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="T88"/>
-      <c r="U88"/>
-      <c r="V88"/>
-      <c r="W88"/>
-      <c r="X88"/>
-      <c r="Y88"/>
-      <c r="Z88"/>
-      <c r="AA88"/>
-    </row>
-    <row r="89" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E89" s="12">
+      <c r="I88" s="11"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="27"/>
+      <c r="O88" s="26"/>
+      <c r="P88" s="26"/>
+      <c r="Q88" s="26"/>
+      <c r="R88" s="26"/>
+      <c r="S88" s="26"/>
+      <c r="T88" s="27"/>
+      <c r="U88" s="27"/>
+      <c r="V88" s="27"/>
+      <c r="W88" s="27"/>
+      <c r="X88" s="27"/>
+      <c r="Y88" s="27"/>
+      <c r="Z88" s="27"/>
+      <c r="AA88" s="27"/>
+      <c r="AB88" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E89" s="11">
         <v>7</v>
       </c>
-      <c r="F89" s="12" t="s">
+      <c r="F89" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G89" s="12" t="s">
+      <c r="G89" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H89" s="22" t="s">
+      <c r="H89" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I89" s="12"/>
-      <c r="K89"/>
-      <c r="L89"/>
-      <c r="M89"/>
-      <c r="N89"/>
-      <c r="T89"/>
-      <c r="U89"/>
-      <c r="V89"/>
-      <c r="W89"/>
-      <c r="X89"/>
-      <c r="Y89"/>
-      <c r="Z89"/>
-      <c r="AA89"/>
-    </row>
-    <row r="90" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E90" s="12">
+      <c r="I89" s="11"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="27"/>
+      <c r="O89" s="26"/>
+      <c r="P89" s="26"/>
+      <c r="Q89" s="26"/>
+      <c r="R89" s="26"/>
+      <c r="S89" s="26"/>
+      <c r="T89" s="27"/>
+      <c r="U89" s="27"/>
+      <c r="V89" s="27"/>
+      <c r="W89" s="27"/>
+      <c r="X89" s="27"/>
+      <c r="Y89" s="27"/>
+      <c r="Z89" s="27"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E90" s="11">
         <v>7</v>
       </c>
-      <c r="F90" s="12" t="s">
+      <c r="F90" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G90" s="12" t="s">
+      <c r="G90" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H90" s="22" t="s">
+      <c r="H90" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I90" s="12"/>
-      <c r="K90"/>
-      <c r="L90"/>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="T90"/>
-      <c r="U90"/>
-      <c r="V90"/>
-      <c r="W90"/>
-      <c r="X90"/>
-      <c r="Y90"/>
-      <c r="Z90"/>
-      <c r="AA90"/>
-    </row>
-    <row r="91" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E91" s="12">
+      <c r="I90" s="11"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="27"/>
+      <c r="O90" s="26"/>
+      <c r="P90" s="26"/>
+      <c r="Q90" s="26"/>
+      <c r="R90" s="26"/>
+      <c r="S90" s="26"/>
+      <c r="T90" s="27"/>
+      <c r="U90" s="27"/>
+      <c r="V90" s="27"/>
+      <c r="W90" s="27"/>
+      <c r="X90" s="27"/>
+      <c r="Y90" s="27"/>
+      <c r="Z90" s="27"/>
+      <c r="AA90" s="27"/>
+      <c r="AB90" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="11">
         <v>7</v>
       </c>
-      <c r="F91" s="12" t="s">
+      <c r="F91" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G91" s="12" t="s">
+      <c r="G91" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H91" s="22" t="s">
+      <c r="H91" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I91" s="12"/>
-      <c r="K91"/>
-      <c r="L91"/>
-      <c r="M91"/>
-      <c r="N91"/>
-      <c r="T91"/>
-      <c r="U91"/>
-      <c r="V91"/>
-      <c r="W91"/>
-      <c r="X91"/>
-      <c r="Y91"/>
-      <c r="Z91"/>
-      <c r="AA91"/>
-    </row>
-    <row r="92" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E92" s="12">
+      <c r="I91" s="11"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="27"/>
+      <c r="O91" s="26"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="26"/>
+      <c r="R91" s="26"/>
+      <c r="S91" s="26"/>
+      <c r="T91" s="27"/>
+      <c r="U91" s="27"/>
+      <c r="V91" s="27"/>
+      <c r="W91" s="27"/>
+      <c r="X91" s="27"/>
+      <c r="Y91" s="27"/>
+      <c r="Z91" s="27"/>
+      <c r="AA91" s="27"/>
+      <c r="AB91" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E92" s="11">
         <v>7</v>
       </c>
-      <c r="F92" s="12" t="s">
+      <c r="F92" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G92" s="12" t="s">
+      <c r="G92" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H92" s="22" t="s">
+      <c r="H92" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="I92" s="12"/>
-      <c r="K92"/>
-      <c r="L92"/>
-      <c r="M92"/>
-      <c r="N92"/>
-      <c r="T92"/>
-      <c r="U92"/>
-      <c r="V92"/>
-      <c r="W92"/>
-      <c r="X92"/>
-      <c r="Y92"/>
-      <c r="Z92"/>
-      <c r="AA92"/>
-    </row>
-    <row r="93" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E93" s="12">
+      <c r="I92" s="11"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="27"/>
+      <c r="N92" s="27"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26"/>
+      <c r="S92" s="26"/>
+      <c r="T92" s="27"/>
+      <c r="U92" s="27"/>
+      <c r="V92" s="27"/>
+      <c r="W92" s="27"/>
+      <c r="X92" s="27"/>
+      <c r="Y92" s="27"/>
+      <c r="Z92" s="27"/>
+      <c r="AA92" s="27"/>
+      <c r="AB92" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E93" s="11">
         <v>7</v>
       </c>
-      <c r="F93" s="12" t="s">
+      <c r="F93" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G93" s="12" t="s">
+      <c r="G93" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H93" s="22" t="s">
+      <c r="H93" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I93" s="12"/>
-      <c r="K93"/>
-      <c r="L93"/>
-      <c r="M93" s="27"/>
-      <c r="N93"/>
-      <c r="T93"/>
-      <c r="U93"/>
-      <c r="V93"/>
-      <c r="W93"/>
-      <c r="X93"/>
-      <c r="Y93"/>
-      <c r="Z93"/>
-      <c r="AA93"/>
-    </row>
-    <row r="94" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E94" s="12">
+      <c r="I93" s="11"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="27"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="26"/>
+      <c r="S93" s="26"/>
+      <c r="T93" s="27"/>
+      <c r="U93" s="27"/>
+      <c r="V93" s="27"/>
+      <c r="W93" s="27"/>
+      <c r="X93" s="27"/>
+      <c r="Y93" s="27"/>
+      <c r="Z93" s="27"/>
+      <c r="AA93" s="27"/>
+      <c r="AB93" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E94" s="11">
         <v>7</v>
       </c>
-      <c r="F94" s="12" t="s">
+      <c r="F94" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G94" s="12" t="s">
+      <c r="G94" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H94" s="22" t="s">
+      <c r="H94" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="I94" s="12"/>
-      <c r="K94"/>
-      <c r="L94"/>
-      <c r="M94"/>
-      <c r="N94"/>
-      <c r="T94"/>
-      <c r="U94"/>
-      <c r="V94"/>
-      <c r="W94"/>
-      <c r="X94"/>
-      <c r="Y94"/>
-      <c r="Z94"/>
-      <c r="AA94"/>
-    </row>
-    <row r="95" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E95" s="12">
+      <c r="I94" s="11"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="27"/>
+      <c r="M94" s="27"/>
+      <c r="N94" s="27"/>
+      <c r="O94" s="26"/>
+      <c r="P94" s="26"/>
+      <c r="Q94" s="26"/>
+      <c r="R94" s="26"/>
+      <c r="S94" s="26"/>
+      <c r="T94" s="27"/>
+      <c r="U94" s="27"/>
+      <c r="V94" s="27"/>
+      <c r="W94" s="27"/>
+      <c r="X94" s="27"/>
+      <c r="Y94" s="27"/>
+      <c r="Z94" s="27"/>
+      <c r="AA94" s="27"/>
+      <c r="AB94" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E95" s="11">
         <v>7</v>
       </c>
-      <c r="F95" s="12" t="s">
+      <c r="F95" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G95" s="12" t="s">
+      <c r="G95" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H95" s="22" t="s">
+      <c r="H95" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="I95" s="12"/>
-      <c r="K95"/>
-      <c r="L95"/>
-      <c r="M95"/>
-      <c r="N95"/>
-      <c r="T95"/>
-      <c r="U95"/>
-      <c r="V95"/>
-      <c r="W95"/>
-      <c r="X95"/>
-      <c r="Y95"/>
-      <c r="Z95"/>
-      <c r="AA95"/>
-    </row>
-    <row r="96" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E96" s="12">
+      <c r="I95" s="11"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="27"/>
+      <c r="L95" s="27"/>
+      <c r="M95" s="27"/>
+      <c r="N95" s="27"/>
+      <c r="O95" s="26"/>
+      <c r="P95" s="26"/>
+      <c r="Q95" s="26"/>
+      <c r="R95" s="26"/>
+      <c r="S95" s="26"/>
+      <c r="T95" s="27"/>
+      <c r="U95" s="27"/>
+      <c r="V95" s="27"/>
+      <c r="W95" s="27"/>
+      <c r="X95" s="27"/>
+      <c r="Y95" s="27"/>
+      <c r="Z95" s="27"/>
+      <c r="AA95" s="27"/>
+      <c r="AB95" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E96" s="11">
         <v>7</v>
       </c>
-      <c r="F96" s="12" t="s">
+      <c r="F96" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G96" s="12" t="s">
+      <c r="G96" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H96" s="22" t="s">
+      <c r="H96" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="I96" s="12"/>
-      <c r="K96"/>
-      <c r="L96"/>
-      <c r="M96"/>
-      <c r="N96"/>
-      <c r="T96"/>
-      <c r="U96"/>
-      <c r="V96"/>
-      <c r="W96"/>
-      <c r="X96"/>
-      <c r="Y96"/>
-      <c r="Z96"/>
-      <c r="AA96"/>
-    </row>
-    <row r="97" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E97" s="12">
+      <c r="I96" s="11"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="27"/>
+      <c r="L96" s="27"/>
+      <c r="M96" s="27"/>
+      <c r="N96" s="27"/>
+      <c r="O96" s="26"/>
+      <c r="P96" s="26"/>
+      <c r="Q96" s="26"/>
+      <c r="R96" s="26"/>
+      <c r="S96" s="26"/>
+      <c r="T96" s="27"/>
+      <c r="U96" s="27"/>
+      <c r="V96" s="27"/>
+      <c r="W96" s="27"/>
+      <c r="X96" s="27"/>
+      <c r="Y96" s="27"/>
+      <c r="Z96" s="27"/>
+      <c r="AA96" s="27"/>
+      <c r="AB96" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E97" s="11">
         <v>7</v>
       </c>
-      <c r="F97" s="12" t="s">
+      <c r="F97" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G97" s="12" t="s">
+      <c r="G97" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H97" s="22" t="s">
+      <c r="H97" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I97" s="12"/>
-      <c r="K97"/>
-      <c r="L97"/>
-      <c r="M97"/>
-      <c r="N97"/>
-      <c r="T97"/>
-      <c r="U97"/>
-      <c r="V97"/>
-      <c r="W97"/>
-      <c r="X97"/>
-      <c r="Y97"/>
-      <c r="Z97"/>
-      <c r="AA97"/>
-    </row>
-    <row r="98" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="K98"/>
-      <c r="L98"/>
-      <c r="M98"/>
-      <c r="N98"/>
-      <c r="T98"/>
-      <c r="U98"/>
-      <c r="V98"/>
-      <c r="W98"/>
-      <c r="X98"/>
-      <c r="Y98"/>
-      <c r="Z98"/>
-      <c r="AA98"/>
-    </row>
-    <row r="99" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E99" s="13">
+      <c r="I97" s="11"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="27"/>
+      <c r="L97" s="27"/>
+      <c r="M97" s="27"/>
+      <c r="N97" s="27"/>
+      <c r="O97" s="26"/>
+      <c r="P97" s="26"/>
+      <c r="Q97" s="26"/>
+      <c r="R97" s="26"/>
+      <c r="S97" s="26"/>
+      <c r="T97" s="27"/>
+      <c r="U97" s="27"/>
+      <c r="V97" s="27"/>
+      <c r="W97" s="27"/>
+      <c r="X97" s="27"/>
+      <c r="Y97" s="27"/>
+      <c r="Z97" s="27"/>
+      <c r="AA97" s="27"/>
+      <c r="AB97" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="29"/>
+      <c r="U98" s="29"/>
+      <c r="V98" s="29"/>
+      <c r="W98" s="29"/>
+      <c r="X98" s="29"/>
+      <c r="Y98" s="29"/>
+      <c r="Z98" s="29"/>
+      <c r="AA98" s="29"/>
+      <c r="AB98" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E99" s="12">
         <v>8</v>
       </c>
-      <c r="F99" s="13" t="s">
+      <c r="F99" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G99" s="13" t="s">
+      <c r="G99" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H99" s="23" t="s">
+      <c r="H99" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I99" s="13"/>
-      <c r="K99"/>
-      <c r="L99"/>
-      <c r="M99"/>
-      <c r="N99"/>
-      <c r="O99"/>
-      <c r="P99"/>
-      <c r="T99"/>
-      <c r="U99"/>
-      <c r="V99"/>
-      <c r="W99"/>
-      <c r="X99"/>
-      <c r="Y99"/>
-      <c r="Z99"/>
-      <c r="AA99"/>
-    </row>
-    <row r="100" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E100" s="13">
+      <c r="I99" s="12"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="27"/>
+      <c r="L99" s="27"/>
+      <c r="M99" s="27"/>
+      <c r="N99" s="27"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="27"/>
+      <c r="Q99" s="26"/>
+      <c r="R99" s="26"/>
+      <c r="S99" s="26"/>
+      <c r="T99" s="27"/>
+      <c r="U99" s="27"/>
+      <c r="V99" s="27"/>
+      <c r="W99" s="27"/>
+      <c r="X99" s="27"/>
+      <c r="Y99" s="27"/>
+      <c r="Z99" s="27"/>
+      <c r="AA99" s="27"/>
+      <c r="AB99" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E100" s="12">
         <v>8</v>
       </c>
-      <c r="F100" s="13" t="s">
+      <c r="F100" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G100" s="13" t="s">
+      <c r="G100" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H100" s="23" t="s">
+      <c r="H100" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="I100" s="13"/>
-      <c r="K100"/>
-      <c r="L100"/>
-      <c r="M100"/>
-      <c r="N100"/>
-      <c r="O100"/>
-      <c r="P100"/>
-    </row>
-    <row r="101" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E101" s="13">
+      <c r="I100" s="12"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="27"/>
+      <c r="N100" s="27"/>
+      <c r="O100" s="27"/>
+      <c r="P100" s="27"/>
+      <c r="Q100" s="26"/>
+      <c r="R100" s="26"/>
+      <c r="S100" s="26"/>
+      <c r="T100" s="26"/>
+      <c r="U100" s="26"/>
+      <c r="V100" s="26"/>
+      <c r="W100" s="26"/>
+      <c r="X100" s="26"/>
+      <c r="Y100" s="26"/>
+      <c r="Z100" s="26"/>
+      <c r="AA100" s="26"/>
+      <c r="AB100" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E101" s="12">
         <v>8</v>
       </c>
-      <c r="F101" s="13" t="s">
+      <c r="F101" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G101" s="13" t="s">
+      <c r="G101" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H101" s="23" t="s">
+      <c r="H101" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="I101" s="13"/>
-      <c r="K101"/>
-      <c r="L101"/>
-      <c r="M101"/>
-      <c r="N101"/>
-      <c r="O101"/>
-      <c r="P101"/>
-    </row>
-    <row r="102" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E102" s="13">
+      <c r="I101" s="12"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="27"/>
+      <c r="M101" s="27"/>
+      <c r="N101" s="27"/>
+      <c r="O101" s="27"/>
+      <c r="P101" s="27"/>
+      <c r="Q101" s="26"/>
+      <c r="R101" s="26"/>
+      <c r="S101" s="26"/>
+      <c r="T101" s="26"/>
+      <c r="U101" s="26"/>
+      <c r="V101" s="26"/>
+      <c r="W101" s="26"/>
+      <c r="X101" s="26"/>
+      <c r="Y101" s="26"/>
+      <c r="Z101" s="26"/>
+      <c r="AA101" s="26"/>
+      <c r="AB101" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E102" s="12">
         <v>8</v>
       </c>
-      <c r="F102" s="13" t="s">
+      <c r="F102" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G102" s="13" t="s">
+      <c r="G102" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H102" s="23" t="s">
+      <c r="H102" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="I102" s="13"/>
-      <c r="K102"/>
-      <c r="L102"/>
-      <c r="M102"/>
-      <c r="N102"/>
-      <c r="O102"/>
-      <c r="P102"/>
-    </row>
-    <row r="103" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="13">
+      <c r="I102" s="12"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="27"/>
+      <c r="N102" s="27"/>
+      <c r="O102" s="27"/>
+      <c r="P102" s="27"/>
+      <c r="Q102" s="26"/>
+      <c r="R102" s="26"/>
+      <c r="S102" s="26"/>
+      <c r="T102" s="26"/>
+      <c r="U102" s="26"/>
+      <c r="V102" s="26"/>
+      <c r="W102" s="26"/>
+      <c r="X102" s="26"/>
+      <c r="Y102" s="26"/>
+      <c r="Z102" s="26"/>
+      <c r="AA102" s="26"/>
+      <c r="AB102" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E103" s="12">
         <v>8</v>
       </c>
-      <c r="F103" s="13" t="s">
+      <c r="F103" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G103" s="13" t="s">
+      <c r="G103" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H103" s="23" t="s">
+      <c r="H103" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="I103" s="13"/>
-      <c r="K103"/>
-      <c r="L103"/>
-      <c r="M103"/>
-      <c r="N103"/>
-      <c r="O103"/>
-      <c r="P103"/>
-    </row>
-    <row r="104" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E104" s="13">
+      <c r="I103" s="12"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="27"/>
+      <c r="L103" s="27"/>
+      <c r="M103" s="27"/>
+      <c r="N103" s="27"/>
+      <c r="O103" s="27"/>
+      <c r="P103" s="27"/>
+      <c r="Q103" s="26"/>
+      <c r="R103" s="26"/>
+      <c r="S103" s="26"/>
+      <c r="T103" s="26"/>
+      <c r="U103" s="26"/>
+      <c r="V103" s="26"/>
+      <c r="W103" s="26"/>
+      <c r="X103" s="26"/>
+      <c r="Y103" s="26"/>
+      <c r="Z103" s="26"/>
+      <c r="AA103" s="26"/>
+      <c r="AB103" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E104" s="12">
         <v>8</v>
       </c>
-      <c r="F104" s="13" t="s">
+      <c r="F104" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G104" s="13" t="s">
+      <c r="G104" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H104" s="23" t="s">
+      <c r="H104" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="I104" s="13"/>
-      <c r="K104"/>
-      <c r="L104"/>
-      <c r="M104"/>
-      <c r="N104"/>
-      <c r="O104"/>
-      <c r="P104"/>
-    </row>
-    <row r="105" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E105" s="13">
+      <c r="I104" s="12"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="27"/>
+      <c r="L104" s="27"/>
+      <c r="M104" s="27"/>
+      <c r="N104" s="27"/>
+      <c r="O104" s="27"/>
+      <c r="P104" s="27"/>
+      <c r="Q104" s="26"/>
+      <c r="R104" s="26"/>
+      <c r="S104" s="26"/>
+      <c r="T104" s="26"/>
+      <c r="U104" s="26"/>
+      <c r="V104" s="26"/>
+      <c r="W104" s="26"/>
+      <c r="X104" s="26"/>
+      <c r="Y104" s="26"/>
+      <c r="Z104" s="26"/>
+      <c r="AA104" s="26"/>
+      <c r="AB104" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E105" s="12">
         <v>8</v>
       </c>
-      <c r="F105" s="13" t="s">
+      <c r="F105" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G105" s="13" t="s">
+      <c r="G105" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H105" s="23" t="s">
+      <c r="H105" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="I105" s="13"/>
-      <c r="K105"/>
-      <c r="L105"/>
-      <c r="M105"/>
-      <c r="N105"/>
-      <c r="O105"/>
-      <c r="P105"/>
-    </row>
-    <row r="106" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E106" s="13">
+      <c r="I105" s="12"/>
+      <c r="J105" s="26"/>
+      <c r="K105" s="27"/>
+      <c r="L105" s="27"/>
+      <c r="M105" s="27"/>
+      <c r="N105" s="27"/>
+      <c r="O105" s="27"/>
+      <c r="P105" s="27"/>
+      <c r="Q105" s="26"/>
+      <c r="R105" s="26"/>
+      <c r="S105" s="26"/>
+      <c r="T105" s="26"/>
+      <c r="U105" s="26"/>
+      <c r="V105" s="26"/>
+      <c r="W105" s="26"/>
+      <c r="X105" s="26"/>
+      <c r="Y105" s="26"/>
+      <c r="Z105" s="26"/>
+      <c r="AA105" s="26"/>
+      <c r="AB105" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E106" s="12">
         <v>8</v>
       </c>
-      <c r="F106" s="13" t="s">
+      <c r="F106" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G106" s="13" t="s">
+      <c r="G106" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H106" s="23" t="s">
+      <c r="H106" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="I106" s="13"/>
-      <c r="K106"/>
-      <c r="L106"/>
-      <c r="M106"/>
-      <c r="N106"/>
-      <c r="O106"/>
-      <c r="P106"/>
-    </row>
-    <row r="107" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E107" s="13">
+      <c r="I106" s="12"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="27"/>
+      <c r="N106" s="27"/>
+      <c r="O106" s="27"/>
+      <c r="P106" s="27"/>
+      <c r="Q106" s="26"/>
+      <c r="R106" s="26"/>
+      <c r="S106" s="26"/>
+      <c r="T106" s="26"/>
+      <c r="U106" s="26"/>
+      <c r="V106" s="26"/>
+      <c r="W106" s="26"/>
+      <c r="X106" s="26"/>
+      <c r="Y106" s="26"/>
+      <c r="Z106" s="26"/>
+      <c r="AA106" s="26"/>
+      <c r="AB106" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E107" s="12">
         <v>8</v>
       </c>
-      <c r="F107" s="13" t="s">
+      <c r="F107" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G107" s="13" t="s">
+      <c r="G107" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H107" s="23" t="s">
+      <c r="H107" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="I107" s="13"/>
-      <c r="K107"/>
-      <c r="L107"/>
-      <c r="M107"/>
-      <c r="N107"/>
-      <c r="O107"/>
-      <c r="P107"/>
-    </row>
-    <row r="108" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E108" s="13">
+      <c r="I107" s="12"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="27"/>
+      <c r="M107" s="27"/>
+      <c r="N107" s="27"/>
+      <c r="O107" s="27"/>
+      <c r="P107" s="27"/>
+      <c r="Q107" s="26"/>
+      <c r="R107" s="26"/>
+      <c r="S107" s="26"/>
+      <c r="T107" s="26"/>
+      <c r="U107" s="26"/>
+      <c r="V107" s="26"/>
+      <c r="W107" s="26"/>
+      <c r="X107" s="26"/>
+      <c r="Y107" s="26"/>
+      <c r="Z107" s="26"/>
+      <c r="AA107" s="26"/>
+      <c r="AB107" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E108" s="12">
         <v>8</v>
       </c>
-      <c r="F108" s="13" t="s">
+      <c r="F108" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G108" s="13" t="s">
+      <c r="G108" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H108" s="23" t="s">
+      <c r="H108" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="I108" s="13"/>
-      <c r="K108"/>
-      <c r="L108"/>
-      <c r="M108"/>
-      <c r="N108"/>
-      <c r="O108"/>
-      <c r="P108"/>
-      <c r="Q108"/>
-      <c r="R108"/>
-      <c r="S108"/>
-      <c r="T108"/>
-      <c r="U108"/>
-      <c r="V108"/>
-      <c r="W108"/>
-    </row>
-    <row r="109" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E109" s="13">
+      <c r="I108" s="12"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="27"/>
+      <c r="M108" s="27"/>
+      <c r="N108" s="27"/>
+      <c r="O108" s="27"/>
+      <c r="P108" s="27"/>
+      <c r="Q108" s="27"/>
+      <c r="R108" s="27"/>
+      <c r="S108" s="27"/>
+      <c r="T108" s="27"/>
+      <c r="U108" s="27"/>
+      <c r="V108" s="27"/>
+      <c r="W108" s="27"/>
+      <c r="X108" s="26"/>
+      <c r="Y108" s="26"/>
+      <c r="Z108" s="26"/>
+      <c r="AA108" s="26"/>
+      <c r="AB108" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E109" s="12">
         <v>8</v>
       </c>
-      <c r="F109" s="13" t="s">
+      <c r="F109" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G109" s="13" t="s">
+      <c r="G109" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H109" s="23" t="s">
+      <c r="H109" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="I109" s="13"/>
-      <c r="K109"/>
-      <c r="L109"/>
-      <c r="M109"/>
-      <c r="N109"/>
-      <c r="O109"/>
-      <c r="P109"/>
-      <c r="Q109"/>
-      <c r="R109"/>
-      <c r="S109"/>
-      <c r="T109"/>
-      <c r="U109"/>
-      <c r="V109"/>
-      <c r="W109"/>
-    </row>
-    <row r="110" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E110" s="13">
+      <c r="I109" s="12"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="27"/>
+      <c r="L109" s="27"/>
+      <c r="M109" s="27"/>
+      <c r="N109" s="27"/>
+      <c r="O109" s="27"/>
+      <c r="P109" s="27"/>
+      <c r="Q109" s="27"/>
+      <c r="R109" s="27"/>
+      <c r="S109" s="27"/>
+      <c r="T109" s="27"/>
+      <c r="U109" s="27"/>
+      <c r="V109" s="27"/>
+      <c r="W109" s="27"/>
+      <c r="X109" s="26"/>
+      <c r="Y109" s="26"/>
+      <c r="Z109" s="26"/>
+      <c r="AA109" s="26"/>
+      <c r="AB109" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E110" s="12">
         <v>8</v>
       </c>
-      <c r="F110" s="13" t="s">
+      <c r="F110" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G110" s="13" t="s">
+      <c r="G110" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H110" s="23" t="s">
+      <c r="H110" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="I110" s="13"/>
-      <c r="K110"/>
-      <c r="L110"/>
-      <c r="M110"/>
-      <c r="N110"/>
-      <c r="O110"/>
-      <c r="P110"/>
-      <c r="Q110"/>
-      <c r="R110"/>
-      <c r="S110"/>
-      <c r="T110"/>
-      <c r="U110"/>
-      <c r="V110"/>
-      <c r="W110"/>
-    </row>
-    <row r="111" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="4"/>
-      <c r="K111"/>
-      <c r="L111"/>
-      <c r="M111"/>
-      <c r="N111"/>
-      <c r="O111"/>
-      <c r="P111"/>
-      <c r="Q111"/>
-      <c r="R111"/>
-      <c r="S111"/>
-      <c r="T111"/>
-      <c r="U111"/>
-      <c r="V111"/>
-      <c r="W111"/>
-    </row>
-    <row r="112" spans="5:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E112" s="14">
+      <c r="I110" s="12"/>
+      <c r="J110" s="26"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="27"/>
+      <c r="M110" s="27"/>
+      <c r="N110" s="27"/>
+      <c r="O110" s="27"/>
+      <c r="P110" s="27"/>
+      <c r="Q110" s="27"/>
+      <c r="R110" s="27"/>
+      <c r="S110" s="27"/>
+      <c r="T110" s="27"/>
+      <c r="U110" s="27"/>
+      <c r="V110" s="27"/>
+      <c r="W110" s="27"/>
+      <c r="X110" s="26"/>
+      <c r="Y110" s="26"/>
+      <c r="Z110" s="26"/>
+      <c r="AA110" s="26"/>
+      <c r="AB110" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="29"/>
+      <c r="N111" s="29"/>
+      <c r="O111" s="29"/>
+      <c r="P111" s="29"/>
+      <c r="Q111" s="29"/>
+      <c r="R111" s="29"/>
+      <c r="S111" s="29"/>
+      <c r="T111" s="29"/>
+      <c r="U111" s="29"/>
+      <c r="V111" s="29"/>
+      <c r="W111" s="29"/>
+      <c r="X111" s="3"/>
+      <c r="Y111" s="3"/>
+      <c r="Z111" s="3"/>
+      <c r="AA111" s="3"/>
+      <c r="AB111" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E112" s="13">
         <v>9</v>
       </c>
-      <c r="F112" s="14" t="s">
+      <c r="F112" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G112" s="14" t="s">
+      <c r="G112" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H112" s="24" t="s">
+      <c r="H112" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I112" s="14"/>
-      <c r="K112"/>
-      <c r="L112"/>
-      <c r="M112"/>
-      <c r="N112"/>
-      <c r="O112"/>
-      <c r="P112"/>
-      <c r="Q112"/>
-      <c r="R112"/>
-      <c r="S112"/>
-      <c r="T112"/>
-      <c r="U112"/>
-      <c r="V112"/>
-      <c r="W112"/>
-    </row>
-    <row r="113" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E113" s="14">
+      <c r="I112" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J112" s="26">
+        <v>-2</v>
+      </c>
+      <c r="K112" s="27"/>
+      <c r="L112" s="27"/>
+      <c r="M112" s="27"/>
+      <c r="N112" s="27"/>
+      <c r="O112" s="27"/>
+      <c r="P112" s="27"/>
+      <c r="Q112" s="27"/>
+      <c r="R112" s="27"/>
+      <c r="S112" s="27"/>
+      <c r="T112" s="27"/>
+      <c r="U112" s="27"/>
+      <c r="V112" s="27"/>
+      <c r="W112" s="27"/>
+      <c r="X112" s="26"/>
+      <c r="Y112" s="26"/>
+      <c r="Z112" s="26"/>
+      <c r="AA112" s="26"/>
+      <c r="AB112" s="26">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="113" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E113" s="13">
         <v>9</v>
       </c>
-      <c r="F113" s="14" t="s">
+      <c r="F113" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G113" s="14" t="s">
+      <c r="G113" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H113" s="24" t="s">
+      <c r="H113" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I113" s="14"/>
-      <c r="K113"/>
-      <c r="L113"/>
-      <c r="M113"/>
-      <c r="N113"/>
-      <c r="O113"/>
-      <c r="P113"/>
-      <c r="Q113"/>
-      <c r="R113"/>
-      <c r="S113"/>
-      <c r="T113"/>
-      <c r="U113"/>
-      <c r="V113"/>
-      <c r="W113"/>
-    </row>
-    <row r="114" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E114" s="14">
+      <c r="I113" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J113" s="26">
+        <v>14</v>
+      </c>
+      <c r="K113" s="27"/>
+      <c r="L113" s="27"/>
+      <c r="M113" s="27"/>
+      <c r="N113" s="27"/>
+      <c r="O113" s="27"/>
+      <c r="P113" s="27"/>
+      <c r="Q113" s="27"/>
+      <c r="R113" s="27"/>
+      <c r="S113" s="27"/>
+      <c r="T113" s="27"/>
+      <c r="U113" s="27"/>
+      <c r="V113" s="27"/>
+      <c r="W113" s="27"/>
+      <c r="X113" s="26"/>
+      <c r="Y113" s="26"/>
+      <c r="Z113" s="26"/>
+      <c r="AA113" s="26"/>
+      <c r="AB113" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E114" s="13">
         <v>9</v>
       </c>
-      <c r="F114" s="14" t="s">
+      <c r="F114" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G114" s="14" t="s">
+      <c r="G114" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H114" s="24" t="s">
+      <c r="H114" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="I114" s="14"/>
-      <c r="K114"/>
-      <c r="L114"/>
-      <c r="M114"/>
-      <c r="N114"/>
-      <c r="O114"/>
-      <c r="P114"/>
-      <c r="Q114"/>
-      <c r="R114"/>
-      <c r="S114"/>
-      <c r="T114"/>
-      <c r="U114"/>
-      <c r="V114"/>
-      <c r="W114"/>
-    </row>
-    <row r="115" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E115" s="14">
+      <c r="I114" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J114" s="26">
+        <v>11</v>
+      </c>
+      <c r="K114" s="27"/>
+      <c r="L114" s="27"/>
+      <c r="M114" s="27"/>
+      <c r="N114" s="27"/>
+      <c r="O114" s="27"/>
+      <c r="P114" s="27"/>
+      <c r="Q114" s="27"/>
+      <c r="R114" s="27"/>
+      <c r="S114" s="27"/>
+      <c r="T114" s="27"/>
+      <c r="U114" s="27"/>
+      <c r="V114" s="27"/>
+      <c r="W114" s="27"/>
+      <c r="X114" s="26"/>
+      <c r="Y114" s="26"/>
+      <c r="Z114" s="26"/>
+      <c r="AA114" s="26"/>
+      <c r="AB114" s="26">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E115" s="13">
         <v>9</v>
       </c>
-      <c r="F115" s="14" t="s">
+      <c r="F115" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G115" s="14" t="s">
+      <c r="G115" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H115" s="24" t="s">
+      <c r="H115" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="I115" s="14"/>
-      <c r="K115"/>
-      <c r="L115"/>
-      <c r="M115"/>
-      <c r="N115"/>
-      <c r="O115"/>
-      <c r="P115"/>
-      <c r="Q115"/>
-      <c r="R115"/>
-      <c r="S115"/>
-      <c r="T115"/>
-      <c r="U115"/>
-      <c r="V115"/>
-      <c r="W115"/>
-    </row>
-    <row r="116" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E116" s="14">
+      <c r="I115" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J115" s="26">
+        <v>6</v>
+      </c>
+      <c r="K115" s="27"/>
+      <c r="L115" s="27"/>
+      <c r="M115" s="27"/>
+      <c r="N115" s="27"/>
+      <c r="O115" s="27"/>
+      <c r="P115" s="27"/>
+      <c r="Q115" s="27"/>
+      <c r="R115" s="27"/>
+      <c r="S115" s="27"/>
+      <c r="T115" s="27"/>
+      <c r="U115" s="27"/>
+      <c r="V115" s="27"/>
+      <c r="W115" s="27"/>
+      <c r="X115" s="26"/>
+      <c r="Y115" s="26"/>
+      <c r="Z115" s="26"/>
+      <c r="AA115" s="26"/>
+      <c r="AB115" s="26">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E116" s="13">
         <v>9</v>
       </c>
-      <c r="F116" s="14" t="s">
+      <c r="F116" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G116" s="14" t="s">
+      <c r="G116" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H116" s="24" t="s">
+      <c r="H116" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="I116" s="14"/>
-      <c r="K116"/>
-      <c r="L116"/>
-      <c r="M116"/>
-      <c r="N116"/>
-      <c r="O116"/>
-      <c r="P116"/>
-      <c r="Q116"/>
-      <c r="R116"/>
-      <c r="S116"/>
-      <c r="T116"/>
-      <c r="U116"/>
-      <c r="V116"/>
-      <c r="W116"/>
-    </row>
-    <row r="117" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E117" s="14">
+      <c r="I116" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J116" s="26">
+        <v>13</v>
+      </c>
+      <c r="K116" s="27"/>
+      <c r="L116" s="27"/>
+      <c r="M116" s="27"/>
+      <c r="N116" s="27"/>
+      <c r="O116" s="27"/>
+      <c r="P116" s="27"/>
+      <c r="Q116" s="27"/>
+      <c r="R116" s="27"/>
+      <c r="S116" s="27"/>
+      <c r="T116" s="27"/>
+      <c r="U116" s="27"/>
+      <c r="V116" s="27"/>
+      <c r="W116" s="27"/>
+      <c r="X116" s="26"/>
+      <c r="Y116" s="26"/>
+      <c r="Z116" s="26"/>
+      <c r="AA116" s="26"/>
+      <c r="AB116" s="26">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E117" s="13">
         <v>9</v>
       </c>
-      <c r="F117" s="14" t="s">
+      <c r="F117" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G117" s="14" t="s">
+      <c r="G117" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H117" s="24" t="s">
+      <c r="H117" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="I117" s="14"/>
-      <c r="K117"/>
-      <c r="L117"/>
-      <c r="M117"/>
-      <c r="N117"/>
-      <c r="O117"/>
-      <c r="P117"/>
-      <c r="Q117"/>
-      <c r="R117"/>
-      <c r="S117"/>
-      <c r="T117"/>
-      <c r="U117"/>
-      <c r="V117"/>
-      <c r="W117"/>
-    </row>
-    <row r="118" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E118" s="14">
+      <c r="I117" s="13"/>
+      <c r="J117" s="26"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="27"/>
+      <c r="M117" s="27"/>
+      <c r="N117" s="27"/>
+      <c r="O117" s="27"/>
+      <c r="P117" s="27"/>
+      <c r="Q117" s="27"/>
+      <c r="R117" s="27"/>
+      <c r="S117" s="27"/>
+      <c r="T117" s="27"/>
+      <c r="U117" s="27"/>
+      <c r="V117" s="27"/>
+      <c r="W117" s="27"/>
+      <c r="X117" s="26"/>
+      <c r="Y117" s="26"/>
+      <c r="Z117" s="26"/>
+      <c r="AA117" s="26"/>
+      <c r="AB117" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E118" s="13">
         <v>9</v>
       </c>
-      <c r="F118" s="14" t="s">
+      <c r="F118" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G118" s="14" t="s">
+      <c r="G118" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H118" s="24" t="s">
+      <c r="H118" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="I118" s="14"/>
-      <c r="K118"/>
-      <c r="L118"/>
-      <c r="M118"/>
-      <c r="N118"/>
-      <c r="O118"/>
-      <c r="P118"/>
-      <c r="Q118"/>
-      <c r="R118"/>
-      <c r="S118"/>
-      <c r="T118"/>
-      <c r="U118"/>
-      <c r="V118"/>
-      <c r="W118"/>
-    </row>
-    <row r="119" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E119" s="14">
+      <c r="I118" s="13"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="27"/>
+      <c r="M118" s="27"/>
+      <c r="N118" s="27"/>
+      <c r="O118" s="27"/>
+      <c r="P118" s="27"/>
+      <c r="Q118" s="27"/>
+      <c r="R118" s="27"/>
+      <c r="S118" s="27"/>
+      <c r="T118" s="27"/>
+      <c r="U118" s="27"/>
+      <c r="V118" s="27"/>
+      <c r="W118" s="27"/>
+      <c r="X118" s="26"/>
+      <c r="Y118" s="26"/>
+      <c r="Z118" s="26"/>
+      <c r="AA118" s="26"/>
+      <c r="AB118" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E119" s="13">
         <v>9</v>
       </c>
-      <c r="F119" s="14" t="s">
+      <c r="F119" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G119" s="14" t="s">
+      <c r="G119" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H119" s="24" t="s">
+      <c r="H119" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="I119" s="14"/>
-      <c r="K119"/>
-      <c r="L119"/>
-      <c r="M119"/>
-      <c r="N119"/>
-      <c r="O119"/>
-      <c r="P119"/>
-      <c r="Q119"/>
-      <c r="R119"/>
-      <c r="S119"/>
-      <c r="T119"/>
-      <c r="U119"/>
-      <c r="V119"/>
-      <c r="W119"/>
-    </row>
-    <row r="120" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E120" s="14">
+      <c r="I119" s="13"/>
+      <c r="J119" s="26"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="27"/>
+      <c r="N119" s="27"/>
+      <c r="O119" s="27"/>
+      <c r="P119" s="27"/>
+      <c r="Q119" s="27"/>
+      <c r="R119" s="27"/>
+      <c r="S119" s="27"/>
+      <c r="T119" s="27"/>
+      <c r="U119" s="27"/>
+      <c r="V119" s="27"/>
+      <c r="W119" s="27"/>
+      <c r="X119" s="26"/>
+      <c r="Y119" s="26"/>
+      <c r="Z119" s="26"/>
+      <c r="AA119" s="26"/>
+      <c r="AB119" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E120" s="13">
         <v>9</v>
       </c>
-      <c r="F120" s="14" t="s">
+      <c r="F120" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G120" s="14" t="s">
+      <c r="G120" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H120" s="24" t="s">
+      <c r="H120" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="I120" s="14"/>
-      <c r="K120"/>
-      <c r="L120"/>
-      <c r="M120"/>
-      <c r="N120"/>
-      <c r="O120"/>
-      <c r="P120"/>
-      <c r="Q120"/>
-      <c r="R120"/>
-      <c r="S120"/>
-      <c r="T120"/>
-      <c r="U120"/>
-      <c r="V120"/>
-      <c r="W120"/>
-    </row>
-    <row r="121" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E121" s="14">
+      <c r="I120" s="13"/>
+      <c r="J120" s="26"/>
+      <c r="K120" s="27"/>
+      <c r="L120" s="27"/>
+      <c r="M120" s="27"/>
+      <c r="N120" s="27"/>
+      <c r="O120" s="27"/>
+      <c r="P120" s="27"/>
+      <c r="Q120" s="27"/>
+      <c r="R120" s="27"/>
+      <c r="S120" s="27"/>
+      <c r="T120" s="27"/>
+      <c r="U120" s="27"/>
+      <c r="V120" s="27"/>
+      <c r="W120" s="27"/>
+      <c r="X120" s="26"/>
+      <c r="Y120" s="26"/>
+      <c r="Z120" s="26"/>
+      <c r="AA120" s="26"/>
+      <c r="AB120" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E121" s="13">
         <v>9</v>
       </c>
-      <c r="F121" s="14" t="s">
+      <c r="F121" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G121" s="14" t="s">
+      <c r="G121" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H121" s="24" t="s">
+      <c r="H121" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="I121" s="14"/>
-      <c r="K121"/>
-      <c r="L121"/>
-      <c r="M121"/>
-      <c r="N121"/>
-      <c r="O121"/>
-      <c r="P121"/>
-      <c r="Q121"/>
-      <c r="R121"/>
-      <c r="S121"/>
-      <c r="T121"/>
-      <c r="U121"/>
-      <c r="V121"/>
-      <c r="W121"/>
-    </row>
-    <row r="122" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E122" s="14">
+      <c r="I121" s="13"/>
+      <c r="J121" s="26"/>
+      <c r="K121" s="27"/>
+      <c r="L121" s="27"/>
+      <c r="M121" s="27"/>
+      <c r="N121" s="27"/>
+      <c r="O121" s="27"/>
+      <c r="P121" s="27"/>
+      <c r="Q121" s="27"/>
+      <c r="R121" s="27"/>
+      <c r="S121" s="27"/>
+      <c r="T121" s="27"/>
+      <c r="U121" s="27"/>
+      <c r="V121" s="27"/>
+      <c r="W121" s="27"/>
+      <c r="X121" s="26"/>
+      <c r="Y121" s="26"/>
+      <c r="Z121" s="26"/>
+      <c r="AA121" s="26"/>
+      <c r="AB121" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E122" s="13">
         <v>9</v>
       </c>
-      <c r="F122" s="14" t="s">
+      <c r="F122" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G122" s="14" t="s">
+      <c r="G122" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H122" s="24" t="s">
+      <c r="H122" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="I122" s="14"/>
-      <c r="K122"/>
-      <c r="L122"/>
-      <c r="M122"/>
-      <c r="N122"/>
-      <c r="O122"/>
-      <c r="P122"/>
-      <c r="Q122"/>
-      <c r="R122"/>
-      <c r="S122"/>
-      <c r="T122"/>
-      <c r="U122"/>
-      <c r="V122"/>
-      <c r="W122"/>
-    </row>
-    <row r="123" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="14">
+      <c r="I122" s="13"/>
+      <c r="J122" s="26"/>
+      <c r="K122" s="27"/>
+      <c r="L122" s="27"/>
+      <c r="M122" s="27"/>
+      <c r="N122" s="27"/>
+      <c r="O122" s="27"/>
+      <c r="P122" s="27"/>
+      <c r="Q122" s="27"/>
+      <c r="R122" s="27"/>
+      <c r="S122" s="27"/>
+      <c r="T122" s="27"/>
+      <c r="U122" s="27"/>
+      <c r="V122" s="27"/>
+      <c r="W122" s="27"/>
+      <c r="X122" s="26"/>
+      <c r="Y122" s="26"/>
+      <c r="Z122" s="26"/>
+      <c r="AA122" s="26"/>
+      <c r="AB122" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E123" s="13">
         <v>9</v>
       </c>
-      <c r="F123" s="14" t="s">
+      <c r="F123" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G123" s="14" t="s">
+      <c r="G123" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H123" s="24" t="s">
+      <c r="H123" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="I123" s="14"/>
-      <c r="K123"/>
-      <c r="L123"/>
-      <c r="M123"/>
-      <c r="N123"/>
-      <c r="O123"/>
-      <c r="P123"/>
-      <c r="Q123"/>
-      <c r="R123"/>
-      <c r="S123"/>
-      <c r="T123"/>
-      <c r="U123"/>
-      <c r="V123"/>
-      <c r="W123"/>
-      <c r="X123"/>
-    </row>
-    <row r="124" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="4"/>
-      <c r="K124"/>
-      <c r="L124"/>
-      <c r="M124"/>
-      <c r="N124"/>
-      <c r="O124"/>
-      <c r="P124"/>
-      <c r="Q124"/>
-      <c r="R124"/>
-      <c r="S124"/>
-      <c r="T124"/>
-      <c r="U124"/>
-      <c r="V124"/>
-      <c r="W124"/>
-      <c r="X124"/>
-    </row>
-    <row r="125" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E125" s="15">
+      <c r="I123" s="13"/>
+      <c r="J123" s="26"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="27"/>
+      <c r="M123" s="27"/>
+      <c r="N123" s="27"/>
+      <c r="O123" s="27"/>
+      <c r="P123" s="27"/>
+      <c r="Q123" s="27"/>
+      <c r="R123" s="27"/>
+      <c r="S123" s="27"/>
+      <c r="T123" s="27"/>
+      <c r="U123" s="27"/>
+      <c r="V123" s="27"/>
+      <c r="W123" s="27"/>
+      <c r="X123" s="27"/>
+      <c r="Y123" s="26"/>
+      <c r="Z123" s="26"/>
+      <c r="AA123" s="26"/>
+      <c r="AB123" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="29"/>
+      <c r="L124" s="29"/>
+      <c r="M124" s="29"/>
+      <c r="N124" s="29"/>
+      <c r="O124" s="29"/>
+      <c r="P124" s="29"/>
+      <c r="Q124" s="29"/>
+      <c r="R124" s="29"/>
+      <c r="S124" s="29"/>
+      <c r="T124" s="29"/>
+      <c r="U124" s="29"/>
+      <c r="V124" s="29"/>
+      <c r="W124" s="29"/>
+      <c r="X124" s="29"/>
+      <c r="Y124" s="3"/>
+      <c r="Z124" s="3"/>
+      <c r="AA124" s="3"/>
+      <c r="AB124" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E125" s="14">
         <v>10</v>
       </c>
-      <c r="F125" s="15" t="s">
+      <c r="F125" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G125" s="15" t="s">
+      <c r="G125" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H125" s="25" t="s">
+      <c r="H125" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="I125" s="15"/>
-      <c r="K125"/>
-      <c r="L125"/>
-      <c r="M125"/>
-      <c r="N125"/>
-      <c r="O125"/>
-      <c r="P125"/>
-      <c r="Q125"/>
-      <c r="R125"/>
-      <c r="S125"/>
-      <c r="T125"/>
-      <c r="U125"/>
-      <c r="V125"/>
-      <c r="W125"/>
-      <c r="X125"/>
-    </row>
-    <row r="126" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E126" s="15">
+      <c r="I125" s="14"/>
+      <c r="J125" s="26"/>
+      <c r="K125" s="27"/>
+      <c r="L125" s="27"/>
+      <c r="M125" s="27"/>
+      <c r="N125" s="27"/>
+      <c r="O125" s="27"/>
+      <c r="P125" s="27"/>
+      <c r="Q125" s="27"/>
+      <c r="R125" s="27"/>
+      <c r="S125" s="27"/>
+      <c r="T125" s="27"/>
+      <c r="U125" s="27"/>
+      <c r="V125" s="27"/>
+      <c r="W125" s="27"/>
+      <c r="X125" s="27"/>
+      <c r="Y125" s="26"/>
+      <c r="Z125" s="26"/>
+      <c r="AA125" s="26"/>
+      <c r="AB125" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E126" s="14">
         <v>10</v>
       </c>
-      <c r="F126" s="15" t="s">
+      <c r="F126" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G126" s="15" t="s">
+      <c r="G126" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H126" s="25" t="s">
+      <c r="H126" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="I126" s="15"/>
-      <c r="K126"/>
-      <c r="L126"/>
-      <c r="M126"/>
-      <c r="N126"/>
-      <c r="O126"/>
-      <c r="P126"/>
-      <c r="Q126"/>
-      <c r="R126"/>
-      <c r="S126"/>
-      <c r="T126"/>
-      <c r="U126"/>
-      <c r="V126"/>
-      <c r="W126"/>
-      <c r="X126"/>
-    </row>
-    <row r="127" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E127" s="15">
+      <c r="I126" s="14"/>
+      <c r="J126" s="26"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="27"/>
+      <c r="M126" s="27"/>
+      <c r="N126" s="27"/>
+      <c r="O126" s="27"/>
+      <c r="P126" s="27"/>
+      <c r="Q126" s="27"/>
+      <c r="R126" s="27"/>
+      <c r="S126" s="27"/>
+      <c r="T126" s="27"/>
+      <c r="U126" s="27"/>
+      <c r="V126" s="27"/>
+      <c r="W126" s="27"/>
+      <c r="X126" s="27"/>
+      <c r="Y126" s="26"/>
+      <c r="Z126" s="26"/>
+      <c r="AA126" s="26"/>
+      <c r="AB126" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E127" s="14">
         <v>10</v>
       </c>
-      <c r="F127" s="15" t="s">
+      <c r="F127" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G127" s="15" t="s">
+      <c r="G127" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H127" s="25" t="s">
+      <c r="H127" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="I127" s="15"/>
-      <c r="K127"/>
-      <c r="L127"/>
-      <c r="M127"/>
-      <c r="N127"/>
-      <c r="O127"/>
-      <c r="P127"/>
-      <c r="Q127"/>
-      <c r="R127"/>
-      <c r="S127"/>
-      <c r="T127"/>
-      <c r="U127"/>
-      <c r="V127"/>
-      <c r="W127"/>
-      <c r="X127"/>
-    </row>
-    <row r="128" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E128" s="15">
+      <c r="I127" s="14"/>
+      <c r="J127" s="26"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="27"/>
+      <c r="M127" s="27"/>
+      <c r="N127" s="27"/>
+      <c r="O127" s="27"/>
+      <c r="P127" s="27"/>
+      <c r="Q127" s="27"/>
+      <c r="R127" s="27"/>
+      <c r="S127" s="27"/>
+      <c r="T127" s="27"/>
+      <c r="U127" s="27"/>
+      <c r="V127" s="27"/>
+      <c r="W127" s="27"/>
+      <c r="X127" s="27"/>
+      <c r="Y127" s="26"/>
+      <c r="Z127" s="26"/>
+      <c r="AA127" s="26"/>
+      <c r="AB127" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E128" s="14">
         <v>10</v>
       </c>
-      <c r="F128" s="15" t="s">
+      <c r="F128" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G128" s="15" t="s">
+      <c r="G128" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H128" s="25" t="s">
+      <c r="H128" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="I128" s="15"/>
-      <c r="K128"/>
-      <c r="L128"/>
-      <c r="M128"/>
-      <c r="N128"/>
-      <c r="O128"/>
-      <c r="P128"/>
-      <c r="Q128"/>
-      <c r="R128"/>
-      <c r="S128"/>
-      <c r="T128"/>
-      <c r="U128"/>
-      <c r="V128"/>
-      <c r="W128"/>
-      <c r="X128"/>
-    </row>
-    <row r="129" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E129" s="15">
+      <c r="I128" s="14"/>
+      <c r="J128" s="26"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="27"/>
+      <c r="M128" s="27"/>
+      <c r="N128" s="27"/>
+      <c r="O128" s="27"/>
+      <c r="P128" s="27"/>
+      <c r="Q128" s="27"/>
+      <c r="R128" s="27"/>
+      <c r="S128" s="27"/>
+      <c r="T128" s="27"/>
+      <c r="U128" s="27"/>
+      <c r="V128" s="27"/>
+      <c r="W128" s="27"/>
+      <c r="X128" s="27"/>
+      <c r="Y128" s="26"/>
+      <c r="Z128" s="26"/>
+      <c r="AA128" s="26"/>
+      <c r="AB128" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E129" s="14">
         <v>10</v>
       </c>
-      <c r="F129" s="15" t="s">
+      <c r="F129" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G129" s="15" t="s">
+      <c r="G129" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H129" s="25" t="s">
+      <c r="H129" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="I129" s="15"/>
-      <c r="K129"/>
-      <c r="L129"/>
-      <c r="M129"/>
-      <c r="N129"/>
-      <c r="O129"/>
-      <c r="P129"/>
-      <c r="Q129"/>
-      <c r="R129"/>
-      <c r="S129"/>
-      <c r="T129"/>
-      <c r="U129"/>
-      <c r="V129"/>
-      <c r="W129"/>
-      <c r="X129"/>
-    </row>
-    <row r="130" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E130" s="15">
+      <c r="I129" s="14"/>
+      <c r="J129" s="26"/>
+      <c r="K129" s="27"/>
+      <c r="L129" s="27"/>
+      <c r="M129" s="27"/>
+      <c r="N129" s="27"/>
+      <c r="O129" s="27"/>
+      <c r="P129" s="27"/>
+      <c r="Q129" s="27"/>
+      <c r="R129" s="27"/>
+      <c r="S129" s="27"/>
+      <c r="T129" s="27"/>
+      <c r="U129" s="27"/>
+      <c r="V129" s="27"/>
+      <c r="W129" s="27"/>
+      <c r="X129" s="27"/>
+      <c r="Y129" s="26"/>
+      <c r="Z129" s="26"/>
+      <c r="AA129" s="26"/>
+      <c r="AB129" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E130" s="14">
         <v>10</v>
       </c>
-      <c r="F130" s="15" t="s">
+      <c r="F130" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G130" s="15" t="s">
+      <c r="G130" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H130" s="25" t="s">
+      <c r="H130" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="I130" s="15"/>
-      <c r="K130"/>
-      <c r="L130"/>
-      <c r="M130"/>
-      <c r="N130"/>
-      <c r="O130"/>
-      <c r="P130"/>
-      <c r="Q130"/>
-      <c r="R130"/>
-      <c r="S130"/>
-      <c r="T130"/>
-      <c r="U130"/>
-      <c r="V130"/>
-      <c r="W130"/>
-      <c r="X130"/>
-    </row>
-    <row r="131" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E131" s="15">
+      <c r="I130" s="14"/>
+      <c r="J130" s="26"/>
+      <c r="K130" s="27"/>
+      <c r="L130" s="27"/>
+      <c r="M130" s="27"/>
+      <c r="N130" s="27"/>
+      <c r="O130" s="27"/>
+      <c r="P130" s="27"/>
+      <c r="Q130" s="27"/>
+      <c r="R130" s="27"/>
+      <c r="S130" s="27"/>
+      <c r="T130" s="27"/>
+      <c r="U130" s="27"/>
+      <c r="V130" s="27"/>
+      <c r="W130" s="27"/>
+      <c r="X130" s="27"/>
+      <c r="Y130" s="26"/>
+      <c r="Z130" s="26"/>
+      <c r="AA130" s="26"/>
+      <c r="AB130" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E131" s="14">
         <v>10</v>
       </c>
-      <c r="F131" s="15" t="s">
+      <c r="F131" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G131" s="15" t="s">
+      <c r="G131" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H131" s="25" t="s">
+      <c r="H131" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="I131" s="15"/>
-      <c r="K131"/>
-      <c r="L131"/>
-      <c r="M131"/>
-      <c r="N131"/>
-      <c r="O131"/>
-      <c r="P131"/>
-      <c r="Q131"/>
-      <c r="R131"/>
-      <c r="S131"/>
-      <c r="T131"/>
-      <c r="U131"/>
-      <c r="V131"/>
-      <c r="W131"/>
-      <c r="X131"/>
-    </row>
-    <row r="132" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E132" s="15">
+      <c r="I131" s="14"/>
+      <c r="J131" s="26"/>
+      <c r="K131" s="27"/>
+      <c r="L131" s="27"/>
+      <c r="M131" s="27"/>
+      <c r="N131" s="27"/>
+      <c r="O131" s="27"/>
+      <c r="P131" s="27"/>
+      <c r="Q131" s="27"/>
+      <c r="R131" s="27"/>
+      <c r="S131" s="27"/>
+      <c r="T131" s="27"/>
+      <c r="U131" s="27"/>
+      <c r="V131" s="27"/>
+      <c r="W131" s="27"/>
+      <c r="X131" s="27"/>
+      <c r="Y131" s="26"/>
+      <c r="Z131" s="26"/>
+      <c r="AA131" s="26"/>
+      <c r="AB131" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E132" s="14">
         <v>10</v>
       </c>
-      <c r="F132" s="15" t="s">
+      <c r="F132" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G132" s="15" t="s">
+      <c r="G132" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H132" s="25" t="s">
+      <c r="H132" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="I132" s="15"/>
-      <c r="K132"/>
-      <c r="L132"/>
-      <c r="M132"/>
-      <c r="N132"/>
-      <c r="O132"/>
-      <c r="P132"/>
-      <c r="Q132"/>
-      <c r="R132"/>
-      <c r="S132"/>
-      <c r="T132"/>
-      <c r="U132"/>
-      <c r="V132"/>
-      <c r="W132"/>
-      <c r="X132"/>
-    </row>
-    <row r="133" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E133" s="15">
+      <c r="I132" s="14"/>
+      <c r="J132" s="26"/>
+      <c r="K132" s="27"/>
+      <c r="L132" s="27"/>
+      <c r="M132" s="27"/>
+      <c r="N132" s="27"/>
+      <c r="O132" s="27"/>
+      <c r="P132" s="27"/>
+      <c r="Q132" s="27"/>
+      <c r="R132" s="27"/>
+      <c r="S132" s="27"/>
+      <c r="T132" s="27"/>
+      <c r="U132" s="27"/>
+      <c r="V132" s="27"/>
+      <c r="W132" s="27"/>
+      <c r="X132" s="27"/>
+      <c r="Y132" s="26"/>
+      <c r="Z132" s="26"/>
+      <c r="AA132" s="26"/>
+      <c r="AB132" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E133" s="14">
         <v>10</v>
       </c>
-      <c r="F133" s="15" t="s">
+      <c r="F133" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G133" s="15" t="s">
+      <c r="G133" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="25" t="s">
+      <c r="H133" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="I133" s="15"/>
-      <c r="K133"/>
-      <c r="L133"/>
-      <c r="M133"/>
-      <c r="N133"/>
-      <c r="O133"/>
-      <c r="P133"/>
-      <c r="Q133"/>
-      <c r="R133"/>
-      <c r="S133"/>
-      <c r="T133"/>
-      <c r="U133"/>
-      <c r="V133"/>
-      <c r="W133"/>
-      <c r="X133"/>
-    </row>
-    <row r="134" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E134" s="15">
+      <c r="I133" s="14"/>
+      <c r="J133" s="26"/>
+      <c r="K133" s="27"/>
+      <c r="L133" s="27"/>
+      <c r="M133" s="27"/>
+      <c r="N133" s="27"/>
+      <c r="O133" s="27"/>
+      <c r="P133" s="27"/>
+      <c r="Q133" s="27"/>
+      <c r="R133" s="27"/>
+      <c r="S133" s="27"/>
+      <c r="T133" s="27"/>
+      <c r="U133" s="27"/>
+      <c r="V133" s="27"/>
+      <c r="W133" s="27"/>
+      <c r="X133" s="27"/>
+      <c r="Y133" s="26"/>
+      <c r="Z133" s="26"/>
+      <c r="AA133" s="26"/>
+      <c r="AB133" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E134" s="14">
         <v>10</v>
       </c>
-      <c r="F134" s="15" t="s">
+      <c r="F134" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G134" s="15" t="s">
+      <c r="G134" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H134" s="25" t="s">
+      <c r="H134" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="I134" s="15"/>
-      <c r="K134"/>
-      <c r="L134"/>
-      <c r="M134"/>
-      <c r="N134"/>
-      <c r="O134"/>
-      <c r="P134"/>
-      <c r="Q134"/>
-      <c r="R134"/>
-      <c r="S134"/>
-      <c r="T134"/>
-      <c r="U134"/>
-      <c r="V134"/>
-      <c r="W134"/>
-      <c r="X134"/>
-    </row>
-    <row r="135" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E135" s="15">
+      <c r="I134" s="14"/>
+      <c r="J134" s="26"/>
+      <c r="K134" s="27"/>
+      <c r="L134" s="27"/>
+      <c r="M134" s="27"/>
+      <c r="N134" s="27"/>
+      <c r="O134" s="27"/>
+      <c r="P134" s="27"/>
+      <c r="Q134" s="27"/>
+      <c r="R134" s="27"/>
+      <c r="S134" s="27"/>
+      <c r="T134" s="27"/>
+      <c r="U134" s="27"/>
+      <c r="V134" s="27"/>
+      <c r="W134" s="27"/>
+      <c r="X134" s="27"/>
+      <c r="Y134" s="26"/>
+      <c r="Z134" s="26"/>
+      <c r="AA134" s="26"/>
+      <c r="AB134" s="26">
+        <f t="shared" ref="AB134:AB139" si="2">SUM(J134:AA134)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E135" s="14">
         <v>10</v>
       </c>
-      <c r="F135" s="15" t="s">
+      <c r="F135" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G135" s="15" t="s">
+      <c r="G135" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H135" s="25" t="s">
+      <c r="H135" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="I135" s="15"/>
-      <c r="K135"/>
-      <c r="L135"/>
-      <c r="M135"/>
-      <c r="N135"/>
-      <c r="O135"/>
-      <c r="P135"/>
-      <c r="Q135"/>
-      <c r="R135"/>
-      <c r="S135"/>
-      <c r="T135"/>
-      <c r="U135"/>
-      <c r="V135"/>
-      <c r="W135"/>
-      <c r="X135"/>
-    </row>
-    <row r="136" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E136" s="15">
+      <c r="I135" s="14"/>
+      <c r="J135" s="26"/>
+      <c r="K135" s="27"/>
+      <c r="L135" s="27"/>
+      <c r="M135" s="27"/>
+      <c r="N135" s="27"/>
+      <c r="O135" s="27"/>
+      <c r="P135" s="27"/>
+      <c r="Q135" s="27"/>
+      <c r="R135" s="27"/>
+      <c r="S135" s="27"/>
+      <c r="T135" s="27"/>
+      <c r="U135" s="27"/>
+      <c r="V135" s="27"/>
+      <c r="W135" s="27"/>
+      <c r="X135" s="27"/>
+      <c r="Y135" s="26"/>
+      <c r="Z135" s="26"/>
+      <c r="AA135" s="26"/>
+      <c r="AB135" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E136" s="14">
         <v>10</v>
       </c>
-      <c r="F136" s="15" t="s">
+      <c r="F136" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G136" s="15" t="s">
+      <c r="G136" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H136" s="25" t="s">
+      <c r="H136" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="I136" s="15"/>
-      <c r="K136"/>
-      <c r="L136"/>
-      <c r="M136"/>
-      <c r="N136"/>
-      <c r="O136"/>
-      <c r="P136"/>
-      <c r="Q136"/>
-      <c r="R136"/>
-      <c r="S136"/>
-      <c r="T136"/>
-      <c r="U136"/>
-      <c r="V136"/>
-      <c r="W136"/>
-      <c r="X136"/>
-    </row>
-    <row r="137" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E137" s="15">
+      <c r="I136" s="14"/>
+      <c r="J136" s="26"/>
+      <c r="K136" s="27"/>
+      <c r="L136" s="27"/>
+      <c r="M136" s="27"/>
+      <c r="N136" s="27"/>
+      <c r="O136" s="27"/>
+      <c r="P136" s="27"/>
+      <c r="Q136" s="27"/>
+      <c r="R136" s="27"/>
+      <c r="S136" s="27"/>
+      <c r="T136" s="27"/>
+      <c r="U136" s="27"/>
+      <c r="V136" s="27"/>
+      <c r="W136" s="27"/>
+      <c r="X136" s="27"/>
+      <c r="Y136" s="26"/>
+      <c r="Z136" s="26"/>
+      <c r="AA136" s="26"/>
+      <c r="AB136" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E137" s="14">
         <v>10</v>
       </c>
-      <c r="F137" s="15" t="s">
+      <c r="F137" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G137" s="15" t="s">
+      <c r="G137" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H137" s="25" t="s">
+      <c r="H137" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="I137" s="15"/>
-      <c r="K137"/>
-      <c r="L137"/>
-      <c r="M137"/>
-      <c r="N137"/>
-      <c r="O137"/>
-      <c r="P137"/>
-      <c r="Q137"/>
-      <c r="R137"/>
-      <c r="S137"/>
-      <c r="T137"/>
-      <c r="U137"/>
-      <c r="V137"/>
-      <c r="W137"/>
-      <c r="X137"/>
-    </row>
-    <row r="138" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E138" s="15">
+      <c r="I137" s="14"/>
+      <c r="J137" s="26"/>
+      <c r="K137" s="27"/>
+      <c r="L137" s="27"/>
+      <c r="M137" s="27"/>
+      <c r="N137" s="27"/>
+      <c r="O137" s="27"/>
+      <c r="P137" s="27"/>
+      <c r="Q137" s="27"/>
+      <c r="R137" s="27"/>
+      <c r="S137" s="27"/>
+      <c r="T137" s="27"/>
+      <c r="U137" s="27"/>
+      <c r="V137" s="27"/>
+      <c r="W137" s="27"/>
+      <c r="X137" s="27"/>
+      <c r="Y137" s="26"/>
+      <c r="Z137" s="26"/>
+      <c r="AA137" s="26"/>
+      <c r="AB137" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E138" s="14">
         <v>10</v>
       </c>
-      <c r="F138" s="15" t="s">
+      <c r="F138" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G138" s="15" t="s">
+      <c r="G138" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H138" s="25" t="s">
+      <c r="H138" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="I138" s="15"/>
-      <c r="K138"/>
-      <c r="L138"/>
-      <c r="M138"/>
-      <c r="N138"/>
-      <c r="O138"/>
-      <c r="P138"/>
-      <c r="Q138"/>
-      <c r="R138"/>
-      <c r="S138"/>
-      <c r="T138"/>
-      <c r="U138"/>
-      <c r="V138"/>
-      <c r="W138"/>
-      <c r="X138"/>
-    </row>
-    <row r="139" spans="5:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="18"/>
-      <c r="I139" s="4"/>
-      <c r="K139"/>
-      <c r="L139"/>
-      <c r="M139"/>
-      <c r="N139"/>
-      <c r="O139"/>
-      <c r="P139"/>
-      <c r="Q139"/>
-      <c r="R139"/>
-      <c r="S139"/>
-      <c r="T139"/>
-      <c r="U139"/>
-      <c r="V139"/>
-      <c r="W139"/>
-      <c r="X139"/>
-    </row>
-    <row r="140" spans="5:24" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I138" s="14"/>
+      <c r="J138" s="26"/>
+      <c r="K138" s="27"/>
+      <c r="L138" s="27"/>
+      <c r="M138" s="27"/>
+      <c r="N138" s="27"/>
+      <c r="O138" s="27"/>
+      <c r="P138" s="27"/>
+      <c r="Q138" s="27"/>
+      <c r="R138" s="27"/>
+      <c r="S138" s="27"/>
+      <c r="T138" s="27"/>
+      <c r="U138" s="27"/>
+      <c r="V138" s="27"/>
+      <c r="W138" s="27"/>
+      <c r="X138" s="27"/>
+      <c r="Y138" s="26"/>
+      <c r="Z138" s="26"/>
+      <c r="AA138" s="26"/>
+      <c r="AB138" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="17"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="29"/>
+      <c r="L139" s="29"/>
+      <c r="M139" s="29"/>
+      <c r="N139" s="29"/>
+      <c r="O139" s="29"/>
+      <c r="P139" s="29"/>
+      <c r="Q139" s="29"/>
+      <c r="R139" s="29"/>
+      <c r="S139" s="29"/>
+      <c r="T139" s="29"/>
+      <c r="U139" s="29"/>
+      <c r="V139" s="29"/>
+      <c r="W139" s="29"/>
+      <c r="X139" s="29"/>
+      <c r="Y139" s="3"/>
+      <c r="Z139" s="3"/>
+      <c r="AA139" s="3"/>
+      <c r="AB139" s="3"/>
+    </row>
+    <row r="140" spans="5:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E140"/>
       <c r="F140"/>
       <c r="G140"/>
@@ -4514,7 +6127,7 @@
       <c r="W140"/>
       <c r="X140"/>
     </row>
-    <row r="141" spans="5:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E141"/>
       <c r="F141"/>
       <c r="G141"/>
@@ -4535,7 +6148,7 @@
       <c r="W141"/>
       <c r="X141"/>
     </row>
-    <row r="142" spans="5:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E142"/>
       <c r="F142"/>
       <c r="G142"/>
@@ -4550,7 +6163,7 @@
       <c r="W142"/>
       <c r="X142"/>
     </row>
-    <row r="143" spans="5:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E143"/>
       <c r="F143"/>
       <c r="G143"/>
@@ -4565,7 +6178,7 @@
       <c r="W143"/>
       <c r="X143"/>
     </row>
-    <row r="144" spans="5:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E144"/>
       <c r="F144"/>
       <c r="G144"/>

--- a/LEC.xlsx
+++ b/LEC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\FantasyOfLegends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB74673A-0E72-4B4B-9D25-06A607865406}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5138CA3-46EF-4A2E-A505-A0A36B24A53F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21600" yWindow="2115" windowWidth="14040" windowHeight="11385" xr2:uid="{40065828-DACB-4FAF-8B4F-65B8FCADECA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40065828-DACB-4FAF-8B4F-65B8FCADECA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="149">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -1054,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6F4F5-5FE8-493F-8E1B-F71CC0CB1EFB}">
-  <dimension ref="E3:AB705"/>
+  <dimension ref="E3:AC705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC36" sqref="AC36"/>
+    <sheetView tabSelected="1" topLeftCell="H100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S109" sqref="S109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1161,8 +1161,12 @@
       <c r="H5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="16"/>
+      <c r="I5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="16">
+        <v>15</v>
+      </c>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
@@ -1182,7 +1186,7 @@
       <c r="AA5" s="16"/>
       <c r="AB5" s="16">
         <f>SUM(J5:AA5)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1198,8 +1202,12 @@
       <c r="H6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="16"/>
+      <c r="I6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="16">
+        <v>20</v>
+      </c>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
@@ -1219,7 +1227,7 @@
       <c r="AA6" s="16"/>
       <c r="AB6" s="16">
         <f t="shared" ref="AB6:AB69" si="0">SUM(J6:AA6)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1235,8 +1243,12 @@
       <c r="H7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="16"/>
+      <c r="I7" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="16">
+        <v>16</v>
+      </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
@@ -1256,7 +1268,7 @@
       <c r="AA7" s="16"/>
       <c r="AB7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1272,8 +1284,12 @@
       <c r="H8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="16"/>
+      <c r="I8" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="16">
+        <v>29</v>
+      </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
@@ -1293,7 +1309,7 @@
       <c r="AA8" s="16"/>
       <c r="AB8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1309,8 +1325,12 @@
       <c r="H9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="16"/>
+      <c r="I9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="16">
+        <v>27</v>
+      </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
@@ -1330,7 +1350,7 @@
       <c r="AA9" s="16"/>
       <c r="AB9" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1347,7 +1367,9 @@
         <v>10</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="16"/>
+      <c r="J10" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
@@ -1384,7 +1406,9 @@
         <v>11</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="16"/>
+      <c r="J11" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
@@ -1421,7 +1445,9 @@
         <v>12</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="16"/>
+      <c r="J12" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -1458,7 +1484,9 @@
         <v>13</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="16"/>
+      <c r="J13" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -1495,7 +1523,9 @@
         <v>14</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="16"/>
+      <c r="J14" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -1532,7 +1562,9 @@
         <v>15</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="16"/>
+      <c r="J15" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -1568,8 +1600,12 @@
       <c r="H16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="16"/>
+      <c r="I16" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="16">
+        <v>20</v>
+      </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -1589,7 +1625,7 @@
       <c r="AA16" s="16"/>
       <c r="AB16" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1634,8 +1670,12 @@
       <c r="H18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="16"/>
+      <c r="I18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="16">
+        <v>-3</v>
+      </c>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -1655,7 +1695,7 @@
       <c r="AA18" s="16"/>
       <c r="AB18" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="19" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1671,8 +1711,12 @@
       <c r="H19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="16"/>
+      <c r="I19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="16">
+        <v>1</v>
+      </c>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -1692,7 +1736,7 @@
       <c r="AA19" s="16"/>
       <c r="AB19" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1708,8 +1752,12 @@
       <c r="H20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="16"/>
+      <c r="I20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="16">
+        <v>1</v>
+      </c>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
@@ -1729,7 +1777,7 @@
       <c r="AA20" s="16"/>
       <c r="AB20" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1745,8 +1793,12 @@
       <c r="H21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="16"/>
+      <c r="I21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="16">
+        <v>7</v>
+      </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
@@ -1766,7 +1818,7 @@
       <c r="AA21" s="16"/>
       <c r="AB21" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1782,8 +1834,12 @@
       <c r="H22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="16"/>
+      <c r="I22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
@@ -1820,7 +1876,9 @@
         <v>29</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="16"/>
+      <c r="J23" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
@@ -1857,7 +1915,9 @@
         <v>30</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="16"/>
+      <c r="J24" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
@@ -1894,7 +1954,9 @@
         <v>31</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="16"/>
+      <c r="J25" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
@@ -1931,7 +1993,9 @@
         <v>32</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="16"/>
+      <c r="J26" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
@@ -1968,7 +2032,9 @@
         <v>33</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="16"/>
+      <c r="J27" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
@@ -2005,7 +2071,9 @@
         <v>34</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="16"/>
+      <c r="J28" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
@@ -2041,8 +2109,12 @@
       <c r="H29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="16"/>
+      <c r="I29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" s="16">
+        <v>11</v>
+      </c>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
@@ -2062,7 +2134,7 @@
       <c r="AA29" s="16"/>
       <c r="AB29" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2180,7 +2252,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="8">
         <v>3</v>
       </c>
@@ -2223,7 +2295,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E34" s="8">
         <v>3</v>
       </c>
@@ -2266,7 +2338,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="8">
         <v>3</v>
       </c>
@@ -2309,7 +2381,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E36" s="8">
         <v>3</v>
       </c>
@@ -2349,8 +2421,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC36" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E37" s="8">
         <v>3</v>
       </c>
@@ -2391,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E38" s="8">
         <v>3</v>
       </c>
@@ -2432,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E39" s="8">
         <v>3</v>
       </c>
@@ -2473,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E40" s="8">
         <v>3</v>
       </c>
@@ -2514,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E41" s="8">
         <v>3</v>
       </c>
@@ -2555,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E42" s="8">
         <v>3</v>
       </c>
@@ -2596,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E43" s="8">
         <v>3</v>
       </c>
@@ -2639,7 +2714,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2668,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E45" s="9">
         <v>4</v>
       </c>
@@ -2682,7 +2757,9 @@
         <v>51</v>
       </c>
       <c r="I45" s="9"/>
-      <c r="J45" s="16"/>
+      <c r="J45" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
@@ -2705,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E46" s="9">
         <v>4</v>
       </c>
@@ -2718,8 +2795,12 @@
       <c r="H46" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="16"/>
+      <c r="I46" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J46" s="16">
+        <v>5</v>
+      </c>
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
@@ -2739,10 +2820,10 @@
       <c r="AA46" s="16"/>
       <c r="AB46" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="9">
         <v>4</v>
       </c>
@@ -2755,8 +2836,12 @@
       <c r="H47" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="16"/>
+      <c r="I47" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J47" s="16">
+        <v>1</v>
+      </c>
       <c r="K47" s="16"/>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
@@ -2776,10 +2861,10 @@
       <c r="AA47" s="16"/>
       <c r="AB47" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="9">
         <v>4</v>
       </c>
@@ -2793,7 +2878,9 @@
         <v>54</v>
       </c>
       <c r="I48" s="9"/>
-      <c r="J48" s="16"/>
+      <c r="J48" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K48" s="16"/>
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
@@ -2829,8 +2916,12 @@
       <c r="H49" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I49" s="9"/>
-      <c r="J49" s="16"/>
+      <c r="I49" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J49" s="16">
+        <v>7</v>
+      </c>
       <c r="K49" s="16"/>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
@@ -2850,7 +2941,7 @@
       <c r="AA49" s="16"/>
       <c r="AB49" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2866,8 +2957,12 @@
       <c r="H50" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I50" s="9"/>
-      <c r="J50" s="16"/>
+      <c r="I50" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J50" s="16">
+        <v>5</v>
+      </c>
       <c r="K50" s="16"/>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
@@ -2887,7 +2982,7 @@
       <c r="AA50" s="16"/>
       <c r="AB50" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2903,8 +2998,12 @@
       <c r="H51" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I51" s="9"/>
-      <c r="J51" s="16"/>
+      <c r="I51" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J51" s="16">
+        <v>7</v>
+      </c>
       <c r="K51" s="16"/>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
@@ -2924,7 +3023,7 @@
       <c r="AA51" s="16"/>
       <c r="AB51" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2941,7 +3040,9 @@
         <v>58</v>
       </c>
       <c r="I52" s="9"/>
-      <c r="J52" s="16"/>
+      <c r="J52" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K52" s="16"/>
       <c r="L52" s="16"/>
       <c r="M52" s="16"/>
@@ -2978,7 +3079,9 @@
         <v>59</v>
       </c>
       <c r="I53" s="9"/>
-      <c r="J53" s="16"/>
+      <c r="J53" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K53" s="16"/>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
@@ -3015,7 +3118,9 @@
         <v>60</v>
       </c>
       <c r="I54" s="9"/>
-      <c r="J54" s="16"/>
+      <c r="J54" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K54" s="16"/>
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
@@ -3052,7 +3157,9 @@
         <v>61</v>
       </c>
       <c r="I55" s="9"/>
-      <c r="J55" s="16"/>
+      <c r="J55" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K55" s="16"/>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
@@ -3089,7 +3196,9 @@
         <v>62</v>
       </c>
       <c r="I56" s="9"/>
-      <c r="J56" s="16"/>
+      <c r="J56" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K56" s="16"/>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
@@ -3125,8 +3234,12 @@
       <c r="H57" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I57" s="9"/>
-      <c r="J57" s="16"/>
+      <c r="I57" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J57" s="16">
+        <v>10</v>
+      </c>
       <c r="K57" s="16"/>
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
@@ -3146,7 +3259,7 @@
       <c r="AA57" s="16"/>
       <c r="AB57" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3191,8 +3304,12 @@
       <c r="H59" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="16"/>
+      <c r="I59" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J59" s="16">
+        <v>21</v>
+      </c>
       <c r="K59" s="16"/>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
@@ -3212,7 +3329,7 @@
       <c r="AA59" s="16"/>
       <c r="AB59" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3228,8 +3345,12 @@
       <c r="H60" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I60" s="7"/>
-      <c r="J60" s="16"/>
+      <c r="I60" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J60" s="16">
+        <v>15</v>
+      </c>
       <c r="K60" s="16"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
@@ -3249,7 +3370,7 @@
       <c r="AA60" s="16"/>
       <c r="AB60" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3265,8 +3386,12 @@
       <c r="H61" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="16"/>
+      <c r="I61" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J61" s="16">
+        <v>14</v>
+      </c>
       <c r="K61" s="16"/>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
@@ -3286,7 +3411,7 @@
       <c r="AA61" s="16"/>
       <c r="AB61" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3302,8 +3427,12 @@
       <c r="H62" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I62" s="7"/>
-      <c r="J62" s="16"/>
+      <c r="I62" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J62" s="16">
+        <v>25</v>
+      </c>
       <c r="K62" s="16"/>
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
@@ -3323,7 +3452,7 @@
       <c r="AA62" s="16"/>
       <c r="AB62" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3339,8 +3468,12 @@
       <c r="H63" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I63" s="7"/>
-      <c r="J63" s="16"/>
+      <c r="I63" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J63" s="16">
+        <v>20</v>
+      </c>
       <c r="K63" s="16"/>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
@@ -3360,7 +3493,7 @@
       <c r="AA63" s="16"/>
       <c r="AB63" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3377,7 +3510,9 @@
         <v>70</v>
       </c>
       <c r="I64" s="7"/>
-      <c r="J64" s="16"/>
+      <c r="J64" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K64" s="16"/>
       <c r="L64" s="16"/>
       <c r="M64" s="16"/>
@@ -3414,7 +3549,9 @@
         <v>71</v>
       </c>
       <c r="I65" s="7"/>
-      <c r="J65" s="16"/>
+      <c r="J65" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K65" s="16"/>
       <c r="L65" s="16"/>
       <c r="M65" s="16"/>
@@ -3451,7 +3588,9 @@
         <v>72</v>
       </c>
       <c r="I66" s="7"/>
-      <c r="J66" s="16"/>
+      <c r="J66" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K66" s="16"/>
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
@@ -3488,7 +3627,9 @@
         <v>73</v>
       </c>
       <c r="I67" s="7"/>
-      <c r="J67" s="16"/>
+      <c r="J67" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K67" s="16"/>
       <c r="L67" s="16"/>
       <c r="M67" s="16"/>
@@ -3525,7 +3666,9 @@
         <v>74</v>
       </c>
       <c r="I68" s="7"/>
-      <c r="J68" s="16"/>
+      <c r="J68" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K68" s="16"/>
       <c r="L68" s="16"/>
       <c r="M68" s="16"/>
@@ -3562,7 +3705,9 @@
         <v>75</v>
       </c>
       <c r="I69" s="7"/>
-      <c r="J69" s="16"/>
+      <c r="J69" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K69" s="16"/>
       <c r="L69" s="16"/>
       <c r="M69" s="16"/>
@@ -3598,8 +3743,12 @@
       <c r="H70" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I70" s="7"/>
-      <c r="J70" s="16"/>
+      <c r="I70" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J70" s="16">
+        <v>33</v>
+      </c>
       <c r="K70" s="16"/>
       <c r="L70" s="16"/>
       <c r="M70" s="16"/>
@@ -3619,7 +3768,7 @@
       <c r="AA70" s="16"/>
       <c r="AB70" s="16">
         <f t="shared" ref="AB70:AB133" si="1">SUM(J70:AA70)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3664,8 +3813,12 @@
       <c r="H72" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="I72" s="10"/>
-      <c r="J72" s="16"/>
+      <c r="I72" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J72" s="16">
+        <v>11</v>
+      </c>
       <c r="K72" s="16"/>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
@@ -3685,7 +3838,7 @@
       <c r="AA72" s="16"/>
       <c r="AB72" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3701,8 +3854,12 @@
       <c r="H73" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="I73" s="10"/>
-      <c r="J73" s="16"/>
+      <c r="I73" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J73" s="16">
+        <v>14</v>
+      </c>
       <c r="K73" s="16"/>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
@@ -3722,7 +3879,7 @@
       <c r="AA73" s="16"/>
       <c r="AB73" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3738,8 +3895,12 @@
       <c r="H74" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="I74" s="10"/>
-      <c r="J74" s="16"/>
+      <c r="I74" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J74" s="16">
+        <v>20</v>
+      </c>
       <c r="K74" s="16"/>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
@@ -3759,7 +3920,7 @@
       <c r="AA74" s="16"/>
       <c r="AB74" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3775,8 +3936,12 @@
       <c r="H75" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I75" s="10"/>
-      <c r="J75" s="16"/>
+      <c r="I75" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J75" s="16">
+        <v>16</v>
+      </c>
       <c r="K75" s="16"/>
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
@@ -3796,7 +3961,7 @@
       <c r="AA75" s="16"/>
       <c r="AB75" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3812,8 +3977,12 @@
       <c r="H76" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="I76" s="10"/>
-      <c r="J76" s="16"/>
+      <c r="I76" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J76" s="16">
+        <v>11</v>
+      </c>
       <c r="K76" s="16"/>
       <c r="L76" s="16"/>
       <c r="M76" s="16"/>
@@ -3833,7 +4002,7 @@
       <c r="AA76" s="16"/>
       <c r="AB76" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3850,7 +4019,9 @@
         <v>83</v>
       </c>
       <c r="I77" s="10"/>
-      <c r="J77" s="16"/>
+      <c r="J77" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
@@ -3887,7 +4058,9 @@
         <v>84</v>
       </c>
       <c r="I78" s="10"/>
-      <c r="J78" s="16"/>
+      <c r="J78" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K78" s="16"/>
       <c r="L78" s="16"/>
       <c r="M78" s="16"/>
@@ -3924,7 +4097,9 @@
         <v>85</v>
       </c>
       <c r="I79" s="10"/>
-      <c r="J79" s="16"/>
+      <c r="J79" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K79" s="16"/>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
@@ -3961,7 +4136,9 @@
         <v>86</v>
       </c>
       <c r="I80" s="10"/>
-      <c r="J80" s="16"/>
+      <c r="J80" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
       <c r="M80" s="16"/>
@@ -3998,7 +4175,9 @@
         <v>87</v>
       </c>
       <c r="I81" s="10"/>
-      <c r="J81" s="16"/>
+      <c r="J81" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K81" s="16"/>
       <c r="L81" s="16"/>
       <c r="M81" s="16"/>
@@ -4035,7 +4214,9 @@
         <v>88</v>
       </c>
       <c r="I82" s="10"/>
-      <c r="J82" s="16"/>
+      <c r="J82" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K82" s="16"/>
       <c r="L82" s="16"/>
       <c r="M82" s="16"/>
@@ -4071,8 +4252,12 @@
       <c r="H83" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="I83" s="10"/>
-      <c r="J83" s="16"/>
+      <c r="I83" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J83" s="16">
+        <v>33</v>
+      </c>
       <c r="K83" s="16"/>
       <c r="L83" s="16"/>
       <c r="M83" s="16"/>
@@ -4092,7 +4277,7 @@
       <c r="AA83" s="16"/>
       <c r="AB83" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4137,8 +4322,12 @@
       <c r="H85" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="I85" s="11"/>
-      <c r="J85" s="16"/>
+      <c r="I85" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J85" s="16">
+        <v>14</v>
+      </c>
       <c r="K85" s="16"/>
       <c r="L85" s="16"/>
       <c r="M85" s="16"/>
@@ -4158,7 +4347,7 @@
       <c r="AA85" s="16"/>
       <c r="AB85" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4174,8 +4363,12 @@
       <c r="H86" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I86" s="11"/>
-      <c r="J86" s="16"/>
+      <c r="I86" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J86" s="16">
+        <v>12</v>
+      </c>
       <c r="K86" s="16"/>
       <c r="L86" s="16"/>
       <c r="M86" s="16"/>
@@ -4195,7 +4388,7 @@
       <c r="AA86" s="16"/>
       <c r="AB86" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4211,8 +4404,12 @@
       <c r="H87" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="I87" s="11"/>
-      <c r="J87" s="16"/>
+      <c r="I87" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J87" s="16">
+        <v>19</v>
+      </c>
       <c r="K87" s="16"/>
       <c r="L87" s="16"/>
       <c r="M87" s="16"/>
@@ -4232,7 +4429,7 @@
       <c r="AA87" s="16"/>
       <c r="AB87" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4248,8 +4445,12 @@
       <c r="H88" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="I88" s="11"/>
-      <c r="J88" s="16"/>
+      <c r="I88" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J88" s="16">
+        <v>18</v>
+      </c>
       <c r="K88" s="16"/>
       <c r="L88" s="16"/>
       <c r="M88" s="16"/>
@@ -4269,7 +4470,7 @@
       <c r="AA88" s="16"/>
       <c r="AB88" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4285,8 +4486,12 @@
       <c r="H89" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="I89" s="11"/>
-      <c r="J89" s="16"/>
+      <c r="I89" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J89" s="16">
+        <v>18</v>
+      </c>
       <c r="K89" s="16"/>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
@@ -4306,7 +4511,7 @@
       <c r="AA89" s="16"/>
       <c r="AB89" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4323,7 +4528,9 @@
         <v>96</v>
       </c>
       <c r="I90" s="11"/>
-      <c r="J90" s="16"/>
+      <c r="J90" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
       <c r="M90" s="16"/>
@@ -4360,7 +4567,9 @@
         <v>97</v>
       </c>
       <c r="I91" s="11"/>
-      <c r="J91" s="16"/>
+      <c r="J91" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
       <c r="M91" s="16"/>
@@ -4397,7 +4606,9 @@
         <v>98</v>
       </c>
       <c r="I92" s="11"/>
-      <c r="J92" s="16"/>
+      <c r="J92" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K92" s="16"/>
       <c r="L92" s="16"/>
       <c r="M92" s="16"/>
@@ -4434,7 +4645,9 @@
         <v>99</v>
       </c>
       <c r="I93" s="11"/>
-      <c r="J93" s="16"/>
+      <c r="J93" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K93" s="16"/>
       <c r="L93" s="16"/>
       <c r="M93" s="27"/>
@@ -4471,7 +4684,9 @@
         <v>100</v>
       </c>
       <c r="I94" s="11"/>
-      <c r="J94" s="16"/>
+      <c r="J94" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K94" s="16"/>
       <c r="L94" s="16"/>
       <c r="M94" s="16"/>
@@ -4508,7 +4723,9 @@
         <v>101</v>
       </c>
       <c r="I95" s="11"/>
-      <c r="J95" s="16"/>
+      <c r="J95" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K95" s="16"/>
       <c r="L95" s="16"/>
       <c r="M95" s="16"/>
@@ -4545,7 +4762,9 @@
         <v>102</v>
       </c>
       <c r="I96" s="11"/>
-      <c r="J96" s="16"/>
+      <c r="J96" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="K96" s="16"/>
       <c r="L96" s="16"/>
       <c r="M96" s="16"/>
@@ -4581,8 +4800,12 @@
       <c r="H97" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="I97" s="11"/>
-      <c r="J97" s="16"/>
+      <c r="I97" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J97" s="16">
+        <v>17</v>
+      </c>
       <c r="K97" s="16"/>
       <c r="L97" s="16"/>
       <c r="M97" s="16"/>
@@ -4602,7 +4825,7 @@
       <c r="AA97" s="16"/>
       <c r="AB97" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4650,7 +4873,9 @@
       <c r="I99" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J99" s="16"/>
+      <c r="J99" s="16">
+        <v>8</v>
+      </c>
       <c r="K99" s="16">
         <v>2</v>
       </c>
@@ -4672,7 +4897,7 @@
       <c r="AA99" s="16"/>
       <c r="AB99" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4691,7 +4916,9 @@
       <c r="I100" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J100" s="16"/>
+      <c r="J100" s="16">
+        <v>6</v>
+      </c>
       <c r="K100" s="16">
         <v>2</v>
       </c>
@@ -4713,7 +4940,7 @@
       <c r="AA100" s="16"/>
       <c r="AB100" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4732,7 +4959,9 @@
       <c r="I101" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J101" s="16"/>
+      <c r="J101" s="16">
+        <v>7</v>
+      </c>
       <c r="K101" s="16">
         <v>-2</v>
       </c>
@@ -4754,7 +4983,7 @@
       <c r="AA101" s="16"/>
       <c r="AB101" s="16">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4773,7 +5002,9 @@
       <c r="I102" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J102" s="16"/>
+      <c r="J102" s="16">
+        <v>17</v>
+      </c>
       <c r="K102" s="16">
         <v>13</v>
       </c>
@@ -4795,7 +5026,7 @@
       <c r="AA102" s="16"/>
       <c r="AB102" s="16">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4814,7 +5045,9 @@
       <c r="I103" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J103" s="16"/>
+      <c r="J103" s="16">
+        <v>12</v>
+      </c>
       <c r="K103" s="16">
         <v>-1</v>
       </c>
@@ -4836,7 +5069,7 @@
       <c r="AA103" s="16"/>
       <c r="AB103" s="16">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4853,8 +5086,12 @@
         <v>110</v>
       </c>
       <c r="I104" s="12"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="16"/>
+      <c r="J104" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K104" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L104" s="16"/>
       <c r="M104" s="16"/>
       <c r="N104" s="16"/>
@@ -4890,8 +5127,12 @@
         <v>111</v>
       </c>
       <c r="I105" s="12"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="16"/>
+      <c r="J105" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K105" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L105" s="16"/>
       <c r="M105" s="16"/>
       <c r="N105" s="16"/>
@@ -4927,8 +5168,12 @@
         <v>112</v>
       </c>
       <c r="I106" s="12"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="16"/>
+      <c r="J106" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K106" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L106" s="16"/>
       <c r="M106" s="16"/>
       <c r="N106" s="16"/>
@@ -4964,8 +5209,12 @@
         <v>113</v>
       </c>
       <c r="I107" s="12"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="16"/>
+      <c r="J107" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K107" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L107" s="16"/>
       <c r="M107" s="16"/>
       <c r="N107" s="16"/>
@@ -5001,8 +5250,12 @@
         <v>114</v>
       </c>
       <c r="I108" s="12"/>
-      <c r="J108" s="16"/>
-      <c r="K108" s="16"/>
+      <c r="J108" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K108" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L108" s="16"/>
       <c r="M108" s="16"/>
       <c r="N108" s="16"/>
@@ -5038,8 +5291,12 @@
         <v>115</v>
       </c>
       <c r="I109" s="12"/>
-      <c r="J109" s="16"/>
-      <c r="K109" s="16"/>
+      <c r="J109" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K109" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L109" s="16"/>
       <c r="M109" s="16"/>
       <c r="N109" s="16"/>
@@ -5077,7 +5334,9 @@
       <c r="I110" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J110" s="16"/>
+      <c r="J110" s="16">
+        <v>33</v>
+      </c>
       <c r="K110" s="16">
         <v>7</v>
       </c>
@@ -5099,7 +5358,7 @@
       <c r="AA110" s="16"/>
       <c r="AB110" s="16">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5150,7 +5409,9 @@
       <c r="J112" s="16">
         <v>-2</v>
       </c>
-      <c r="K112" s="16"/>
+      <c r="K112" s="16">
+        <v>12</v>
+      </c>
       <c r="L112" s="16"/>
       <c r="M112" s="16"/>
       <c r="N112" s="16"/>
@@ -5169,7 +5430,7 @@
       <c r="AA112" s="16"/>
       <c r="AB112" s="16">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5191,7 +5452,9 @@
       <c r="J113" s="16">
         <v>14</v>
       </c>
-      <c r="K113" s="16"/>
+      <c r="K113" s="16">
+        <v>13</v>
+      </c>
       <c r="L113" s="16"/>
       <c r="M113" s="16"/>
       <c r="N113" s="16"/>
@@ -5210,7 +5473,7 @@
       <c r="AA113" s="16"/>
       <c r="AB113" s="16">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5232,7 +5495,9 @@
       <c r="J114" s="16">
         <v>11</v>
       </c>
-      <c r="K114" s="16"/>
+      <c r="K114" s="16">
+        <v>19</v>
+      </c>
       <c r="L114" s="16"/>
       <c r="M114" s="16"/>
       <c r="N114" s="16"/>
@@ -5251,7 +5516,7 @@
       <c r="AA114" s="16"/>
       <c r="AB114" s="16">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5273,7 +5538,9 @@
       <c r="J115" s="16">
         <v>6</v>
       </c>
-      <c r="K115" s="16"/>
+      <c r="K115" s="16">
+        <v>9</v>
+      </c>
       <c r="L115" s="16"/>
       <c r="M115" s="16"/>
       <c r="N115" s="16"/>
@@ -5292,7 +5559,7 @@
       <c r="AA115" s="16"/>
       <c r="AB115" s="16">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5314,7 +5581,9 @@
       <c r="J116" s="16">
         <v>13</v>
       </c>
-      <c r="K116" s="16"/>
+      <c r="K116" s="16">
+        <v>18</v>
+      </c>
       <c r="L116" s="16"/>
       <c r="M116" s="16"/>
       <c r="N116" s="16"/>
@@ -5333,7 +5602,7 @@
       <c r="AA116" s="16"/>
       <c r="AB116" s="16">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5353,7 +5622,9 @@
       <c r="J117" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="K117" s="16"/>
+      <c r="K117" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L117" s="16"/>
       <c r="M117" s="16"/>
       <c r="N117" s="16"/>
@@ -5392,7 +5663,9 @@
       <c r="J118" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="K118" s="16"/>
+      <c r="K118" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L118" s="16"/>
       <c r="M118" s="16"/>
       <c r="N118" s="16"/>
@@ -5431,7 +5704,9 @@
       <c r="J119" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="K119" s="16"/>
+      <c r="K119" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L119" s="16"/>
       <c r="M119" s="16"/>
       <c r="N119" s="16"/>
@@ -5470,7 +5745,9 @@
       <c r="J120" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="K120" s="16"/>
+      <c r="K120" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L120" s="16"/>
       <c r="M120" s="16"/>
       <c r="N120" s="16"/>
@@ -5509,7 +5786,9 @@
       <c r="J121" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="K121" s="16"/>
+      <c r="K121" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L121" s="16"/>
       <c r="M121" s="16"/>
       <c r="N121" s="16"/>
@@ -5545,11 +5824,12 @@
         <v>128</v>
       </c>
       <c r="I122" s="13"/>
-      <c r="J122" s="16">
-        <f>-K3124</f>
-        <v>0</v>
-      </c>
-      <c r="K122" s="16"/>
+      <c r="J122" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K122" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L122" s="16"/>
       <c r="M122" s="16"/>
       <c r="N122" s="16"/>
@@ -5590,7 +5870,9 @@
       <c r="J123" s="16">
         <v>9</v>
       </c>
-      <c r="K123" s="16"/>
+      <c r="K123" s="16">
+        <v>35</v>
+      </c>
       <c r="L123" s="16"/>
       <c r="M123" s="16"/>
       <c r="N123" s="16"/>
@@ -5609,7 +5891,7 @@
       <c r="AA123" s="16"/>
       <c r="AB123" s="16">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5654,9 +5936,15 @@
       <c r="H125" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="I125" s="14"/>
-      <c r="J125" s="16"/>
-      <c r="K125" s="16"/>
+      <c r="I125" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J125" s="16">
+        <v>6</v>
+      </c>
+      <c r="K125" s="16">
+        <v>3</v>
+      </c>
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
       <c r="N125" s="16"/>
@@ -5675,7 +5963,7 @@
       <c r="AA125" s="16"/>
       <c r="AB125" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5692,8 +5980,12 @@
         <v>132</v>
       </c>
       <c r="I126" s="14"/>
-      <c r="J126" s="16"/>
-      <c r="K126" s="16"/>
+      <c r="J126" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K126" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L126" s="16"/>
       <c r="M126" s="16"/>
       <c r="N126" s="16"/>
@@ -5728,9 +6020,15 @@
       <c r="H127" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="I127" s="14"/>
-      <c r="J127" s="16"/>
-      <c r="K127" s="16"/>
+      <c r="I127" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J127" s="16">
+        <v>9</v>
+      </c>
+      <c r="K127" s="16">
+        <v>14</v>
+      </c>
       <c r="L127" s="16"/>
       <c r="M127" s="16"/>
       <c r="N127" s="16"/>
@@ -5749,7 +6047,7 @@
       <c r="AA127" s="16"/>
       <c r="AB127" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5766,8 +6064,12 @@
         <v>134</v>
       </c>
       <c r="I128" s="14"/>
-      <c r="J128" s="16"/>
-      <c r="K128" s="16"/>
+      <c r="J128" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K128" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L128" s="16"/>
       <c r="M128" s="16"/>
       <c r="N128" s="16"/>
@@ -5802,9 +6104,15 @@
       <c r="H129" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="I129" s="14"/>
-      <c r="J129" s="16"/>
-      <c r="K129" s="16"/>
+      <c r="I129" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J129" s="16">
+        <v>17</v>
+      </c>
+      <c r="K129" s="16">
+        <v>9</v>
+      </c>
       <c r="L129" s="16"/>
       <c r="M129" s="16"/>
       <c r="N129" s="16"/>
@@ -5823,7 +6131,7 @@
       <c r="AA129" s="16"/>
       <c r="AB129" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5839,9 +6147,15 @@
       <c r="H130" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="I130" s="14"/>
-      <c r="J130" s="16"/>
-      <c r="K130" s="16"/>
+      <c r="I130" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J130" s="16">
+        <v>4</v>
+      </c>
+      <c r="K130" s="16">
+        <v>3</v>
+      </c>
       <c r="L130" s="16"/>
       <c r="M130" s="16"/>
       <c r="N130" s="16"/>
@@ -5860,7 +6174,7 @@
       <c r="AA130" s="16"/>
       <c r="AB130" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5877,8 +6191,12 @@
         <v>137</v>
       </c>
       <c r="I131" s="14"/>
-      <c r="J131" s="16"/>
-      <c r="K131" s="16"/>
+      <c r="J131" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K131" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L131" s="16"/>
       <c r="M131" s="16"/>
       <c r="N131" s="16"/>
@@ -5914,8 +6232,12 @@
         <v>138</v>
       </c>
       <c r="I132" s="14"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="16"/>
+      <c r="J132" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K132" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L132" s="16"/>
       <c r="M132" s="16"/>
       <c r="N132" s="16"/>
@@ -5950,9 +6272,15 @@
       <c r="H133" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="I133" s="14"/>
-      <c r="J133" s="16"/>
-      <c r="K133" s="16"/>
+      <c r="I133" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J133" s="16">
+        <v>13</v>
+      </c>
+      <c r="K133" s="16">
+        <v>10</v>
+      </c>
       <c r="L133" s="16"/>
       <c r="M133" s="16"/>
       <c r="N133" s="16"/>
@@ -5971,7 +6299,7 @@
       <c r="AA133" s="16"/>
       <c r="AB133" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5988,8 +6316,12 @@
         <v>140</v>
       </c>
       <c r="I134" s="14"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="16"/>
+      <c r="J134" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K134" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L134" s="16"/>
       <c r="M134" s="16"/>
       <c r="N134" s="16"/>
@@ -6025,8 +6357,12 @@
         <v>141</v>
       </c>
       <c r="I135" s="14"/>
-      <c r="J135" s="16"/>
-      <c r="K135" s="16"/>
+      <c r="J135" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K135" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L135" s="16"/>
       <c r="M135" s="16"/>
       <c r="N135" s="16"/>
@@ -6062,8 +6398,12 @@
         <v>142</v>
       </c>
       <c r="I136" s="14"/>
-      <c r="J136" s="16"/>
-      <c r="K136" s="16"/>
+      <c r="J136" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K136" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L136" s="16"/>
       <c r="M136" s="16"/>
       <c r="N136" s="16"/>
@@ -6099,8 +6439,12 @@
         <v>143</v>
       </c>
       <c r="I137" s="14"/>
-      <c r="J137" s="16"/>
-      <c r="K137" s="16"/>
+      <c r="J137" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K137" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="L137" s="16"/>
       <c r="M137" s="16"/>
       <c r="N137" s="16"/>
@@ -6135,9 +6479,15 @@
       <c r="H138" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="I138" s="14"/>
-      <c r="J138" s="16"/>
-      <c r="K138" s="16"/>
+      <c r="I138" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J138" s="16">
+        <v>20</v>
+      </c>
+      <c r="K138" s="16">
+        <v>12</v>
+      </c>
       <c r="L138" s="16"/>
       <c r="M138" s="16"/>
       <c r="N138" s="16"/>
@@ -6156,7 +6506,7 @@
       <c r="AA138" s="16"/>
       <c r="AB138" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/LEC.xlsx
+++ b/LEC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\FantasyOfLegends\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Documents\Fantasy-of-Legend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5138CA3-46EF-4A2E-A505-A0A36B24A53F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F53B39-87B1-4B1B-8063-6C2793C3B2AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40065828-DACB-4FAF-8B4F-65B8FCADECA5}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" xr2:uid="{40065828-DACB-4FAF-8B4F-65B8FCADECA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -576,49 +576,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFB17ED8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
+        <fgColor rgb="FFFF4F4F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2FA6FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8585"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FA71"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,38 +674,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -713,26 +686,53 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -743,6 +743,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FA71"/>
+      <color rgb="FFFF8585"/>
+      <color rgb="FFFF4747"/>
+      <color rgb="FF2FA6FF"/>
+      <color rgb="FFFFFF53"/>
+      <color rgb="FFFF4F4F"/>
+      <color rgb="FFB17ED8"/>
       <color rgb="FF00CC00"/>
     </mruColors>
   </colors>
@@ -1056,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6F4F5-5FE8-493F-8E1B-F71CC0CB1EFB}">
   <dimension ref="E3:AC705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S109" sqref="S109"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1075,76 +1082,76 @@
   <sheetData>
     <row r="3" spans="5:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="5:28" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="8">
         <v>2</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="8">
         <v>3</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="8">
         <v>4</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="8">
         <v>5</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="8">
         <v>6</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="8">
         <v>7</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="8">
         <v>8</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="8">
         <v>9</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="8">
         <v>10</v>
       </c>
-      <c r="T4" s="15">
+      <c r="T4" s="8">
         <v>11</v>
       </c>
-      <c r="U4" s="15">
+      <c r="U4" s="8">
         <v>12</v>
       </c>
-      <c r="V4" s="15">
+      <c r="V4" s="8">
         <v>13</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W4" s="8">
         <v>14</v>
       </c>
-      <c r="X4" s="15">
+      <c r="X4" s="8">
         <v>15</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="Y4" s="8">
         <v>16</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="Z4" s="8">
         <v>17</v>
       </c>
-      <c r="AA4" s="15">
+      <c r="AA4" s="8">
         <v>18</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AB4" s="8" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1164,27 +1171,27 @@
       <c r="I5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="9">
         <v>15</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16">
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9">
         <f>SUM(J5:AA5)</f>
         <v>15</v>
       </c>
@@ -1205,27 +1212,27 @@
       <c r="I6" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="9">
         <v>20</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9">
         <f t="shared" ref="AB6:AB69" si="0">SUM(J6:AA6)</f>
         <v>20</v>
       </c>
@@ -1246,27 +1253,27 @@
       <c r="I7" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="9">
         <v>16</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1287,27 +1294,27 @@
       <c r="I8" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="9">
         <v>29</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -1328,27 +1335,27 @@
       <c r="I9" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="9">
         <v>27</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -1367,27 +1374,27 @@
         <v>10</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16">
+      <c r="J10" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1406,27 +1413,27 @@
         <v>11</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16">
+      <c r="J11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1445,27 +1452,27 @@
         <v>12</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16">
+      <c r="J12" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1484,27 +1491,27 @@
         <v>13</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16">
+      <c r="J13" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1523,27 +1530,27 @@
         <v>14</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16">
+      <c r="J14" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1562,27 +1569,27 @@
         <v>15</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16">
+      <c r="J15" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1603,27 +1610,27 @@
       <c r="I16" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="9">
         <v>20</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16">
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1673,27 +1680,27 @@
       <c r="I18" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="9">
         <v>-3</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16">
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
@@ -1714,27 +1721,27 @@
       <c r="I19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="9">
         <v>1</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1755,27 +1762,27 @@
       <c r="I20" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="9">
         <v>1</v>
       </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16">
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1796,27 +1803,27 @@
       <c r="I21" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="9">
         <v>7</v>
       </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16">
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1837,27 +1844,27 @@
       <c r="I22" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J22" s="16">
-        <v>0</v>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1876,27 +1883,27 @@
         <v>29</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16">
+      <c r="J23" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1915,27 +1922,27 @@
         <v>30</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16">
+      <c r="J24" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1954,27 +1961,27 @@
         <v>31</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16">
+      <c r="J25" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1993,27 +2000,27 @@
         <v>32</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16">
+      <c r="J26" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2032,27 +2039,27 @@
         <v>33</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16">
+      <c r="J27" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2071,27 +2078,27 @@
         <v>34</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16">
+      <c r="J28" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2112,27 +2119,27 @@
       <c r="I29" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="9">
         <v>11</v>
       </c>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16">
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -2167,257 +2174,257 @@
       </c>
     </row>
     <row r="31" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="8">
+      <c r="E31" s="22">
         <v>3</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="9">
         <v>17</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="9">
         <v>24</v>
       </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16">
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="8">
+      <c r="E32" s="22">
         <v>3</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="9">
         <v>13</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="9">
         <v>23</v>
       </c>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16">
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="8">
+      <c r="E33" s="22">
         <v>3</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="9">
         <v>39</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="9">
         <v>29</v>
       </c>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16">
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
     </row>
     <row r="34" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="8">
+      <c r="E34" s="22">
         <v>3</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="9">
         <v>19</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="9">
         <v>25</v>
       </c>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16">
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="35" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="8">
+      <c r="E35" s="22">
         <v>3</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="9">
         <v>22</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="9">
         <v>35</v>
       </c>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16">
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="8">
+      <c r="E36" s="22">
         <v>3</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="H36" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16">
+      <c r="I36" s="22"/>
+      <c r="J36" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2426,290 +2433,290 @@
       </c>
     </row>
     <row r="37" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="8">
+      <c r="E37" s="22">
         <v>3</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="17" t="s">
+      <c r="H37" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16">
+      <c r="I37" s="22"/>
+      <c r="J37" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="8">
+      <c r="E38" s="22">
         <v>3</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="17" t="s">
+      <c r="H38" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16">
+      <c r="I38" s="22"/>
+      <c r="J38" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="8">
+      <c r="E39" s="22">
         <v>3</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="17" t="s">
+      <c r="H39" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I39" s="8"/>
-      <c r="J39" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K39" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="16"/>
-      <c r="AB39" s="16">
+      <c r="I39" s="22"/>
+      <c r="J39" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="8">
+      <c r="E40" s="22">
         <v>3</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="17" t="s">
+      <c r="H40" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="16">
+      <c r="I40" s="22"/>
+      <c r="J40" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="8">
+      <c r="E41" s="22">
         <v>3</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16"/>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="16">
+      <c r="I41" s="22"/>
+      <c r="J41" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="8">
+      <c r="E42" s="22">
         <v>3</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="17" t="s">
+      <c r="H42" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K42" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="16">
+      <c r="I42" s="22"/>
+      <c r="J42" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="8">
+      <c r="E43" s="22">
         <v>3</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="17" t="s">
+      <c r="H43" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J43" s="9">
         <v>34</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="9">
         <v>33</v>
       </c>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="16"/>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="16">
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
@@ -2744,520 +2751,520 @@
       </c>
     </row>
     <row r="45" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="9">
+      <c r="E45" s="20">
         <v>4</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="18" t="s">
+      <c r="H45" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I45" s="9"/>
-      <c r="J45" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="16"/>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="16">
+      <c r="I45" s="20"/>
+      <c r="J45" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="9">
+      <c r="E46" s="20">
         <v>4</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="H46" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="I46" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J46" s="9">
         <v>5</v>
       </c>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="16"/>
-      <c r="AA46" s="16"/>
-      <c r="AB46" s="16">
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="9">
+      <c r="E47" s="20">
         <v>4</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="18" t="s">
+      <c r="H47" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="I47" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J47" s="9">
         <v>1</v>
       </c>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="16"/>
-      <c r="Y47" s="16"/>
-      <c r="Z47" s="16"/>
-      <c r="AA47" s="16"/>
-      <c r="AB47" s="16">
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="9">
+      <c r="E48" s="20">
         <v>4</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H48" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I48" s="9"/>
-      <c r="J48" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="16"/>
-      <c r="Y48" s="16"/>
-      <c r="Z48" s="16"/>
-      <c r="AA48" s="16"/>
-      <c r="AB48" s="16">
+      <c r="I48" s="20"/>
+      <c r="J48" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="9">
+      <c r="E49" s="20">
         <v>4</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="H49" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I49" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="J49" s="16">
+      <c r="J49" s="9">
         <v>7</v>
       </c>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="16"/>
-      <c r="Y49" s="16"/>
-      <c r="Z49" s="16"/>
-      <c r="AA49" s="16"/>
-      <c r="AB49" s="16">
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="9">
+      <c r="E50" s="20">
         <v>4</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="18" t="s">
+      <c r="H50" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="I50" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J50" s="9">
         <v>5</v>
       </c>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="16"/>
-      <c r="Y50" s="16"/>
-      <c r="Z50" s="16"/>
-      <c r="AA50" s="16"/>
-      <c r="AB50" s="16">
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="9">
+      <c r="E51" s="20">
         <v>4</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="H51" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="I51" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J51" s="9">
         <v>7</v>
       </c>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="16"/>
-      <c r="X51" s="16"/>
-      <c r="Y51" s="16"/>
-      <c r="Z51" s="16"/>
-      <c r="AA51" s="16"/>
-      <c r="AB51" s="16">
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="9">
+      <c r="E52" s="20">
         <v>4</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="I52" s="9"/>
-      <c r="J52" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="16"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="16"/>
-      <c r="AB52" s="16">
+      <c r="I52" s="20"/>
+      <c r="J52" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="9">
+      <c r="E53" s="20">
         <v>4</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H53" s="18" t="s">
+      <c r="H53" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I53" s="9"/>
-      <c r="J53" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="16"/>
-      <c r="Y53" s="16"/>
-      <c r="Z53" s="16"/>
-      <c r="AA53" s="16"/>
-      <c r="AB53" s="16">
+      <c r="I53" s="20"/>
+      <c r="J53" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="9">
+      <c r="E54" s="20">
         <v>4</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="18" t="s">
+      <c r="H54" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I54" s="9"/>
-      <c r="J54" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="16"/>
-      <c r="Y54" s="16"/>
-      <c r="Z54" s="16"/>
-      <c r="AA54" s="16"/>
-      <c r="AB54" s="16">
+      <c r="I54" s="20"/>
+      <c r="J54" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="9">
+      <c r="E55" s="20">
         <v>4</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H55" s="18" t="s">
+      <c r="H55" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I55" s="9"/>
-      <c r="J55" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="16"/>
-      <c r="W55" s="16"/>
-      <c r="X55" s="16"/>
-      <c r="Y55" s="16"/>
-      <c r="Z55" s="16"/>
-      <c r="AA55" s="16"/>
-      <c r="AB55" s="16">
+      <c r="I55" s="20"/>
+      <c r="J55" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="9">
+      <c r="E56" s="20">
         <v>4</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H56" s="18" t="s">
+      <c r="H56" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I56" s="9"/>
-      <c r="J56" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="16"/>
-      <c r="Y56" s="16"/>
-      <c r="Z56" s="16"/>
-      <c r="AA56" s="16"/>
-      <c r="AB56" s="16">
+      <c r="I56" s="20"/>
+      <c r="J56" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E57" s="9">
+      <c r="E57" s="20">
         <v>4</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H57" s="18" t="s">
+      <c r="H57" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="I57" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="9">
         <v>10</v>
       </c>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
-      <c r="T57" s="16"/>
-      <c r="U57" s="16"/>
-      <c r="V57" s="16"/>
-      <c r="W57" s="16"/>
-      <c r="X57" s="16"/>
-      <c r="Y57" s="16"/>
-      <c r="Z57" s="16"/>
-      <c r="AA57" s="16"/>
-      <c r="AB57" s="16">
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -3266,7 +3273,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="19"/>
+      <c r="H58" s="10"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -3292,481 +3299,481 @@
       </c>
     </row>
     <row r="59" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="7">
+      <c r="E59" s="17">
         <v>5</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="20" t="s">
+      <c r="H59" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I59" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J59" s="9">
         <v>21</v>
       </c>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
-      <c r="T59" s="16"/>
-      <c r="U59" s="16"/>
-      <c r="V59" s="16"/>
-      <c r="W59" s="16"/>
-      <c r="X59" s="16"/>
-      <c r="Y59" s="16"/>
-      <c r="Z59" s="16"/>
-      <c r="AA59" s="16"/>
-      <c r="AB59" s="16">
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="60" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="7">
+      <c r="E60" s="17">
         <v>5</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H60" s="20" t="s">
+      <c r="H60" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="I60" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J60" s="9">
         <v>15</v>
       </c>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16"/>
-      <c r="V60" s="16"/>
-      <c r="W60" s="16"/>
-      <c r="X60" s="16"/>
-      <c r="Y60" s="16"/>
-      <c r="Z60" s="16"/>
-      <c r="AA60" s="16"/>
-      <c r="AB60" s="16">
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="61" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="7">
+      <c r="E61" s="17">
         <v>5</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H61" s="20" t="s">
+      <c r="H61" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="I61" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J61" s="9">
         <v>14</v>
       </c>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16"/>
-      <c r="V61" s="16"/>
-      <c r="W61" s="16"/>
-      <c r="X61" s="16"/>
-      <c r="Y61" s="16"/>
-      <c r="Z61" s="16"/>
-      <c r="AA61" s="16"/>
-      <c r="AB61" s="16">
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="7">
+      <c r="E62" s="17">
         <v>5</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H62" s="20" t="s">
+      <c r="H62" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I62" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="J62" s="16">
+      <c r="J62" s="9">
         <v>25</v>
       </c>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-      <c r="T62" s="16"/>
-      <c r="U62" s="16"/>
-      <c r="V62" s="16"/>
-      <c r="W62" s="16"/>
-      <c r="X62" s="16"/>
-      <c r="Y62" s="16"/>
-      <c r="Z62" s="16"/>
-      <c r="AA62" s="16"/>
-      <c r="AB62" s="16">
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="63" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="7">
+      <c r="E63" s="17">
         <v>5</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H63" s="20" t="s">
+      <c r="H63" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I63" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J63" s="9">
         <v>20</v>
       </c>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="16"/>
-      <c r="V63" s="16"/>
-      <c r="W63" s="16"/>
-      <c r="X63" s="16"/>
-      <c r="Y63" s="16"/>
-      <c r="Z63" s="16"/>
-      <c r="AA63" s="16"/>
-      <c r="AB63" s="16">
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
+      <c r="AB63" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="64" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="7">
+      <c r="E64" s="17">
         <v>5</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="20" t="s">
+      <c r="H64" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I64" s="7"/>
-      <c r="J64" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
-      <c r="U64" s="16"/>
-      <c r="V64" s="16"/>
-      <c r="W64" s="16"/>
-      <c r="X64" s="16"/>
-      <c r="Y64" s="16"/>
-      <c r="Z64" s="16"/>
-      <c r="AA64" s="16"/>
-      <c r="AB64" s="16">
+      <c r="I64" s="17"/>
+      <c r="J64" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
+      <c r="AB64" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="7">
+      <c r="E65" s="17">
         <v>5</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="20" t="s">
+      <c r="H65" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-      <c r="U65" s="16"/>
-      <c r="V65" s="16"/>
-      <c r="W65" s="16"/>
-      <c r="X65" s="16"/>
-      <c r="Y65" s="16"/>
-      <c r="Z65" s="16"/>
-      <c r="AA65" s="16"/>
-      <c r="AB65" s="16">
+      <c r="I65" s="17"/>
+      <c r="J65" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
+      <c r="AB65" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="7">
+      <c r="E66" s="17">
         <v>5</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H66" s="20" t="s">
+      <c r="H66" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-      <c r="U66" s="16"/>
-      <c r="V66" s="16"/>
-      <c r="W66" s="16"/>
-      <c r="X66" s="16"/>
-      <c r="Y66" s="16"/>
-      <c r="Z66" s="16"/>
-      <c r="AA66" s="16"/>
-      <c r="AB66" s="16">
+      <c r="I66" s="17"/>
+      <c r="J66" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="9"/>
+      <c r="AB66" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="7">
+      <c r="E67" s="17">
         <v>5</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G67" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H67" s="20" t="s">
+      <c r="H67" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="16"/>
-      <c r="U67" s="16"/>
-      <c r="V67" s="16"/>
-      <c r="W67" s="16"/>
-      <c r="X67" s="16"/>
-      <c r="Y67" s="16"/>
-      <c r="Z67" s="16"/>
-      <c r="AA67" s="16"/>
-      <c r="AB67" s="16">
+      <c r="I67" s="17"/>
+      <c r="J67" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
+      <c r="AA67" s="9"/>
+      <c r="AB67" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="7">
+      <c r="E68" s="17">
         <v>5</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G68" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H68" s="21" t="s">
+      <c r="H68" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I68" s="7"/>
-      <c r="J68" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="16"/>
-      <c r="X68" s="16"/>
-      <c r="Y68" s="16"/>
-      <c r="Z68" s="16"/>
-      <c r="AA68" s="16"/>
-      <c r="AB68" s="16">
+      <c r="I68" s="17"/>
+      <c r="J68" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="7">
+      <c r="E69" s="17">
         <v>5</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G69" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="21" t="s">
+      <c r="H69" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I69" s="7"/>
-      <c r="J69" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="16"/>
-      <c r="X69" s="16"/>
-      <c r="Y69" s="16"/>
-      <c r="Z69" s="16"/>
-      <c r="AA69" s="16"/>
-      <c r="AB69" s="16">
+      <c r="I69" s="17"/>
+      <c r="J69" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
+      <c r="AB69" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="7">
+      <c r="E70" s="17">
         <v>5</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H70" s="20" t="s">
+      <c r="H70" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I70" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="J70" s="16">
+      <c r="J70" s="9">
         <v>33</v>
       </c>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="16"/>
-      <c r="W70" s="16"/>
-      <c r="X70" s="16"/>
-      <c r="Y70" s="16"/>
-      <c r="Z70" s="16"/>
-      <c r="AA70" s="16"/>
-      <c r="AB70" s="16">
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
+      <c r="AB70" s="9">
         <f t="shared" ref="AB70:AB133" si="1">SUM(J70:AA70)</f>
         <v>33</v>
       </c>
@@ -3775,7 +3782,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="19"/>
+      <c r="H71" s="10"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -3801,481 +3808,481 @@
       </c>
     </row>
     <row r="72" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="10">
+      <c r="E72" s="15">
         <v>6</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H72" s="22" t="s">
+      <c r="H72" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I72" s="10" t="s">
+      <c r="I72" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="J72" s="16">
+      <c r="J72" s="9">
         <v>11</v>
       </c>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="16"/>
-      <c r="X72" s="16"/>
-      <c r="Y72" s="16"/>
-      <c r="Z72" s="16"/>
-      <c r="AA72" s="16"/>
-      <c r="AB72" s="16">
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
+      <c r="AA72" s="9"/>
+      <c r="AB72" s="9">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
     <row r="73" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="10">
+      <c r="E73" s="15">
         <v>6</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F73" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G73" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H73" s="22" t="s">
+      <c r="H73" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="I73" s="10" t="s">
+      <c r="I73" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="J73" s="16">
+      <c r="J73" s="9">
         <v>14</v>
       </c>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16"/>
-      <c r="U73" s="16"/>
-      <c r="V73" s="16"/>
-      <c r="W73" s="16"/>
-      <c r="X73" s="16"/>
-      <c r="Y73" s="16"/>
-      <c r="Z73" s="16"/>
-      <c r="AA73" s="16"/>
-      <c r="AB73" s="16">
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
+      <c r="AA73" s="9"/>
+      <c r="AB73" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="74" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="10">
+      <c r="E74" s="15">
         <v>6</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G74" s="10" t="s">
+      <c r="G74" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H74" s="22" t="s">
+      <c r="H74" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I74" s="10" t="s">
+      <c r="I74" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="J74" s="16">
+      <c r="J74" s="9">
         <v>20</v>
       </c>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="16"/>
-      <c r="V74" s="16"/>
-      <c r="W74" s="16"/>
-      <c r="X74" s="16"/>
-      <c r="Y74" s="16"/>
-      <c r="Z74" s="16"/>
-      <c r="AA74" s="16"/>
-      <c r="AB74" s="16">
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
+      <c r="AA74" s="9"/>
+      <c r="AB74" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="75" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="10">
+      <c r="E75" s="15">
         <v>6</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G75" s="10" t="s">
+      <c r="G75" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="22" t="s">
+      <c r="H75" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I75" s="10" t="s">
+      <c r="I75" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="J75" s="16">
+      <c r="J75" s="9">
         <v>16</v>
       </c>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="16"/>
-      <c r="T75" s="16"/>
-      <c r="U75" s="16"/>
-      <c r="V75" s="16"/>
-      <c r="W75" s="16"/>
-      <c r="X75" s="16"/>
-      <c r="Y75" s="16"/>
-      <c r="Z75" s="16"/>
-      <c r="AA75" s="16"/>
-      <c r="AB75" s="16">
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="9"/>
+      <c r="AB75" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
     <row r="76" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="10">
+      <c r="E76" s="15">
         <v>6</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F76" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G76" s="10" t="s">
+      <c r="G76" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H76" s="22" t="s">
+      <c r="H76" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="I76" s="10" t="s">
+      <c r="I76" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="J76" s="16">
+      <c r="J76" s="9">
         <v>11</v>
       </c>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
-      <c r="S76" s="16"/>
-      <c r="T76" s="16"/>
-      <c r="U76" s="16"/>
-      <c r="V76" s="16"/>
-      <c r="W76" s="16"/>
-      <c r="X76" s="16"/>
-      <c r="Y76" s="16"/>
-      <c r="Z76" s="16"/>
-      <c r="AA76" s="16"/>
-      <c r="AB76" s="16">
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
+      <c r="AB76" s="9">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
     <row r="77" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="10">
+      <c r="E77" s="15">
         <v>6</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G77" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="22" t="s">
+      <c r="H77" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="I77" s="10"/>
-      <c r="J77" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="16"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="16"/>
-      <c r="U77" s="16"/>
-      <c r="V77" s="16"/>
-      <c r="W77" s="16"/>
-      <c r="X77" s="16"/>
-      <c r="Y77" s="16"/>
-      <c r="Z77" s="16"/>
-      <c r="AA77" s="16"/>
-      <c r="AB77" s="16">
+      <c r="I77" s="15"/>
+      <c r="J77" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+      <c r="AB77" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="10">
+      <c r="E78" s="15">
         <v>6</v>
       </c>
-      <c r="F78" s="10" t="s">
+      <c r="F78" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="G78" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H78" s="22" t="s">
+      <c r="H78" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="I78" s="10"/>
-      <c r="J78" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
-      <c r="T78" s="16"/>
-      <c r="U78" s="16"/>
-      <c r="V78" s="16"/>
-      <c r="W78" s="16"/>
-      <c r="X78" s="16"/>
-      <c r="Y78" s="16"/>
-      <c r="Z78" s="16"/>
-      <c r="AA78" s="16"/>
-      <c r="AB78" s="16">
+      <c r="I78" s="15"/>
+      <c r="J78" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="9"/>
+      <c r="AA78" s="9"/>
+      <c r="AB78" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="10">
+      <c r="E79" s="15">
         <v>6</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F79" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H79" s="22" t="s">
+      <c r="H79" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="I79" s="10"/>
-      <c r="J79" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="16"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="16"/>
-      <c r="U79" s="16"/>
-      <c r="V79" s="16"/>
-      <c r="W79" s="16"/>
-      <c r="X79" s="16"/>
-      <c r="Y79" s="16"/>
-      <c r="Z79" s="16"/>
-      <c r="AA79" s="16"/>
-      <c r="AB79" s="16">
+      <c r="I79" s="15"/>
+      <c r="J79" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="9"/>
+      <c r="AA79" s="9"/>
+      <c r="AB79" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="10">
+      <c r="E80" s="15">
         <v>6</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="F80" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G80" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H80" s="22" t="s">
+      <c r="H80" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="I80" s="10"/>
-      <c r="J80" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="16"/>
-      <c r="S80" s="16"/>
-      <c r="T80" s="16"/>
-      <c r="U80" s="16"/>
-      <c r="V80" s="16"/>
-      <c r="W80" s="16"/>
-      <c r="X80" s="16"/>
-      <c r="Y80" s="16"/>
-      <c r="Z80" s="16"/>
-      <c r="AA80" s="16"/>
-      <c r="AB80" s="16">
+      <c r="I80" s="15"/>
+      <c r="J80" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+      <c r="Y80" s="9"/>
+      <c r="Z80" s="9"/>
+      <c r="AA80" s="9"/>
+      <c r="AB80" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="10">
+      <c r="E81" s="15">
         <v>6</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G81" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H81" s="22" t="s">
+      <c r="H81" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="I81" s="10"/>
-      <c r="J81" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="16"/>
-      <c r="T81" s="16"/>
-      <c r="U81" s="16"/>
-      <c r="V81" s="16"/>
-      <c r="W81" s="16"/>
-      <c r="X81" s="16"/>
-      <c r="Y81" s="16"/>
-      <c r="Z81" s="16"/>
-      <c r="AA81" s="16"/>
-      <c r="AB81" s="16">
+      <c r="I81" s="15"/>
+      <c r="J81" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
+      <c r="AA81" s="9"/>
+      <c r="AB81" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="10">
+      <c r="E82" s="15">
         <v>6</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="F82" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H82" s="22" t="s">
+      <c r="H82" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="I82" s="10"/>
-      <c r="J82" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="16"/>
-      <c r="S82" s="16"/>
-      <c r="T82" s="16"/>
-      <c r="U82" s="16"/>
-      <c r="V82" s="16"/>
-      <c r="W82" s="16"/>
-      <c r="X82" s="16"/>
-      <c r="Y82" s="16"/>
-      <c r="Z82" s="16"/>
-      <c r="AA82" s="16"/>
-      <c r="AB82" s="16">
+      <c r="I82" s="15"/>
+      <c r="J82" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="9"/>
+      <c r="X82" s="9"/>
+      <c r="Y82" s="9"/>
+      <c r="Z82" s="9"/>
+      <c r="AA82" s="9"/>
+      <c r="AB82" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="10">
+      <c r="E83" s="15">
         <v>6</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H83" s="22" t="s">
+      <c r="H83" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="I83" s="10" t="s">
+      <c r="I83" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="J83" s="16">
+      <c r="J83" s="9">
         <v>33</v>
       </c>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16"/>
-      <c r="S83" s="16"/>
-      <c r="T83" s="16"/>
-      <c r="U83" s="16"/>
-      <c r="V83" s="16"/>
-      <c r="W83" s="16"/>
-      <c r="X83" s="16"/>
-      <c r="Y83" s="16"/>
-      <c r="Z83" s="16"/>
-      <c r="AA83" s="16"/>
-      <c r="AB83" s="16">
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="9"/>
+      <c r="X83" s="9"/>
+      <c r="Y83" s="9"/>
+      <c r="Z83" s="9"/>
+      <c r="AA83" s="9"/>
+      <c r="AB83" s="9">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
@@ -4284,7 +4291,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="19"/>
+      <c r="H84" s="10"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -4310,520 +4317,520 @@
       </c>
     </row>
     <row r="85" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="11">
+      <c r="E85" s="7">
         <v>7</v>
       </c>
-      <c r="F85" s="11" t="s">
+      <c r="F85" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G85" s="11" t="s">
+      <c r="G85" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H85" s="23" t="s">
+      <c r="H85" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I85" s="11" t="s">
+      <c r="I85" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J85" s="16">
+      <c r="J85" s="9">
         <v>14</v>
       </c>
-      <c r="K85" s="16"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="16"/>
-      <c r="N85" s="16"/>
-      <c r="O85" s="16"/>
-      <c r="P85" s="16"/>
-      <c r="Q85" s="16"/>
-      <c r="R85" s="16"/>
-      <c r="S85" s="16"/>
-      <c r="T85" s="16"/>
-      <c r="U85" s="16"/>
-      <c r="V85" s="16"/>
-      <c r="W85" s="16"/>
-      <c r="X85" s="16"/>
-      <c r="Y85" s="16"/>
-      <c r="Z85" s="16"/>
-      <c r="AA85" s="16"/>
-      <c r="AB85" s="16">
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
+      <c r="W85" s="9"/>
+      <c r="X85" s="9"/>
+      <c r="Y85" s="9"/>
+      <c r="Z85" s="9"/>
+      <c r="AA85" s="9"/>
+      <c r="AB85" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="86" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="11">
+      <c r="E86" s="7">
         <v>7</v>
       </c>
-      <c r="F86" s="11" t="s">
+      <c r="F86" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G86" s="11" t="s">
+      <c r="G86" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H86" s="23" t="s">
+      <c r="H86" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I86" s="11" t="s">
+      <c r="I86" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J86" s="16">
+      <c r="J86" s="9">
         <v>12</v>
       </c>
-      <c r="K86" s="16"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="16"/>
-      <c r="S86" s="16"/>
-      <c r="T86" s="16"/>
-      <c r="U86" s="16"/>
-      <c r="V86" s="16"/>
-      <c r="W86" s="16"/>
-      <c r="X86" s="16"/>
-      <c r="Y86" s="16"/>
-      <c r="Z86" s="16"/>
-      <c r="AA86" s="16"/>
-      <c r="AB86" s="16">
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="9"/>
+      <c r="X86" s="9"/>
+      <c r="Y86" s="9"/>
+      <c r="Z86" s="9"/>
+      <c r="AA86" s="9"/>
+      <c r="AB86" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="87" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E87" s="11">
+      <c r="E87" s="7">
         <v>7</v>
       </c>
-      <c r="F87" s="11" t="s">
+      <c r="F87" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G87" s="11" t="s">
+      <c r="G87" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H87" s="23" t="s">
+      <c r="H87" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="I87" s="11" t="s">
+      <c r="I87" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J87" s="16">
+      <c r="J87" s="9">
         <v>19</v>
       </c>
-      <c r="K87" s="16"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="16"/>
-      <c r="N87" s="16"/>
-      <c r="O87" s="16"/>
-      <c r="P87" s="16"/>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="16"/>
-      <c r="S87" s="16"/>
-      <c r="T87" s="16"/>
-      <c r="U87" s="16"/>
-      <c r="V87" s="16"/>
-      <c r="W87" s="16"/>
-      <c r="X87" s="16"/>
-      <c r="Y87" s="16"/>
-      <c r="Z87" s="16"/>
-      <c r="AA87" s="16"/>
-      <c r="AB87" s="16">
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9"/>
+      <c r="W87" s="9"/>
+      <c r="X87" s="9"/>
+      <c r="Y87" s="9"/>
+      <c r="Z87" s="9"/>
+      <c r="AA87" s="9"/>
+      <c r="AB87" s="9">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
     <row r="88" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E88" s="11">
+      <c r="E88" s="7">
         <v>7</v>
       </c>
-      <c r="F88" s="11" t="s">
+      <c r="F88" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G88" s="11" t="s">
+      <c r="G88" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H88" s="23" t="s">
+      <c r="H88" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I88" s="11" t="s">
+      <c r="I88" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J88" s="16">
+      <c r="J88" s="9">
         <v>18</v>
       </c>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="16"/>
-      <c r="S88" s="16"/>
-      <c r="T88" s="16"/>
-      <c r="U88" s="16"/>
-      <c r="V88" s="16"/>
-      <c r="W88" s="16"/>
-      <c r="X88" s="16"/>
-      <c r="Y88" s="16"/>
-      <c r="Z88" s="16"/>
-      <c r="AA88" s="16"/>
-      <c r="AB88" s="16">
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="9"/>
+      <c r="V88" s="9"/>
+      <c r="W88" s="9"/>
+      <c r="X88" s="9"/>
+      <c r="Y88" s="9"/>
+      <c r="Z88" s="9"/>
+      <c r="AA88" s="9"/>
+      <c r="AB88" s="9">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
     <row r="89" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E89" s="11">
+      <c r="E89" s="7">
         <v>7</v>
       </c>
-      <c r="F89" s="11" t="s">
+      <c r="F89" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G89" s="11" t="s">
+      <c r="G89" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H89" s="23" t="s">
+      <c r="H89" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I89" s="11" t="s">
+      <c r="I89" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J89" s="16">
+      <c r="J89" s="9">
         <v>18</v>
       </c>
-      <c r="K89" s="16"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
-      <c r="Q89" s="16"/>
-      <c r="R89" s="16"/>
-      <c r="S89" s="16"/>
-      <c r="T89" s="16"/>
-      <c r="U89" s="16"/>
-      <c r="V89" s="16"/>
-      <c r="W89" s="16"/>
-      <c r="X89" s="16"/>
-      <c r="Y89" s="16"/>
-      <c r="Z89" s="16"/>
-      <c r="AA89" s="16"/>
-      <c r="AB89" s="16">
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="9"/>
+      <c r="V89" s="9"/>
+      <c r="W89" s="9"/>
+      <c r="X89" s="9"/>
+      <c r="Y89" s="9"/>
+      <c r="Z89" s="9"/>
+      <c r="AA89" s="9"/>
+      <c r="AB89" s="9">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
     <row r="90" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E90" s="11">
+      <c r="E90" s="7">
         <v>7</v>
       </c>
-      <c r="F90" s="11" t="s">
+      <c r="F90" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G90" s="11" t="s">
+      <c r="G90" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H90" s="23" t="s">
+      <c r="H90" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I90" s="11"/>
-      <c r="J90" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K90" s="16"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="16"/>
-      <c r="N90" s="16"/>
-      <c r="O90" s="16"/>
-      <c r="P90" s="16"/>
-      <c r="Q90" s="16"/>
-      <c r="R90" s="16"/>
-      <c r="S90" s="16"/>
-      <c r="T90" s="16"/>
-      <c r="U90" s="16"/>
-      <c r="V90" s="16"/>
-      <c r="W90" s="16"/>
-      <c r="X90" s="16"/>
-      <c r="Y90" s="16"/>
-      <c r="Z90" s="16"/>
-      <c r="AA90" s="16"/>
-      <c r="AB90" s="16">
+      <c r="I90" s="7"/>
+      <c r="J90" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
+      <c r="V90" s="9"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="9"/>
+      <c r="Y90" s="9"/>
+      <c r="Z90" s="9"/>
+      <c r="AA90" s="9"/>
+      <c r="AB90" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E91" s="11">
+      <c r="E91" s="7">
         <v>7</v>
       </c>
-      <c r="F91" s="11" t="s">
+      <c r="F91" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G91" s="11" t="s">
+      <c r="G91" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H91" s="23" t="s">
+      <c r="H91" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="I91" s="11"/>
-      <c r="J91" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K91" s="16"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="16"/>
-      <c r="N91" s="16"/>
-      <c r="O91" s="16"/>
-      <c r="P91" s="16"/>
-      <c r="Q91" s="16"/>
-      <c r="R91" s="16"/>
-      <c r="S91" s="16"/>
-      <c r="T91" s="16"/>
-      <c r="U91" s="16"/>
-      <c r="V91" s="16"/>
-      <c r="W91" s="16"/>
-      <c r="X91" s="16"/>
-      <c r="Y91" s="16"/>
-      <c r="Z91" s="16"/>
-      <c r="AA91" s="16"/>
-      <c r="AB91" s="16">
+      <c r="I91" s="7"/>
+      <c r="J91" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
+      <c r="Y91" s="9"/>
+      <c r="Z91" s="9"/>
+      <c r="AA91" s="9"/>
+      <c r="AB91" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E92" s="11">
+      <c r="E92" s="7">
         <v>7</v>
       </c>
-      <c r="F92" s="11" t="s">
+      <c r="F92" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G92" s="11" t="s">
+      <c r="G92" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H92" s="23" t="s">
+      <c r="H92" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="I92" s="11"/>
-      <c r="J92" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K92" s="16"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="16"/>
-      <c r="N92" s="16"/>
-      <c r="O92" s="16"/>
-      <c r="P92" s="16"/>
-      <c r="Q92" s="16"/>
-      <c r="R92" s="16"/>
-      <c r="S92" s="16"/>
-      <c r="T92" s="16"/>
-      <c r="U92" s="16"/>
-      <c r="V92" s="16"/>
-      <c r="W92" s="16"/>
-      <c r="X92" s="16"/>
-      <c r="Y92" s="16"/>
-      <c r="Z92" s="16"/>
-      <c r="AA92" s="16"/>
-      <c r="AB92" s="16">
+      <c r="I92" s="7"/>
+      <c r="J92" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="U92" s="9"/>
+      <c r="V92" s="9"/>
+      <c r="W92" s="9"/>
+      <c r="X92" s="9"/>
+      <c r="Y92" s="9"/>
+      <c r="Z92" s="9"/>
+      <c r="AA92" s="9"/>
+      <c r="AB92" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E93" s="11">
+      <c r="E93" s="7">
         <v>7</v>
       </c>
-      <c r="F93" s="11" t="s">
+      <c r="F93" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G93" s="11" t="s">
+      <c r="G93" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H93" s="23" t="s">
+      <c r="H93" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I93" s="11"/>
-      <c r="J93" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K93" s="16"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="16"/>
-      <c r="O93" s="16"/>
-      <c r="P93" s="16"/>
-      <c r="Q93" s="16"/>
-      <c r="R93" s="16"/>
-      <c r="S93" s="16"/>
-      <c r="T93" s="16"/>
-      <c r="U93" s="16"/>
-      <c r="V93" s="16"/>
-      <c r="W93" s="16"/>
-      <c r="X93" s="16"/>
-      <c r="Y93" s="16"/>
-      <c r="Z93" s="16"/>
-      <c r="AA93" s="16"/>
-      <c r="AB93" s="16">
+      <c r="I93" s="7"/>
+      <c r="J93" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="9"/>
+      <c r="U93" s="9"/>
+      <c r="V93" s="9"/>
+      <c r="W93" s="9"/>
+      <c r="X93" s="9"/>
+      <c r="Y93" s="9"/>
+      <c r="Z93" s="9"/>
+      <c r="AA93" s="9"/>
+      <c r="AB93" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E94" s="11">
+      <c r="E94" s="7">
         <v>7</v>
       </c>
-      <c r="F94" s="11" t="s">
+      <c r="F94" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G94" s="11" t="s">
+      <c r="G94" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H94" s="23" t="s">
+      <c r="H94" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="I94" s="11"/>
-      <c r="J94" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="16"/>
-      <c r="N94" s="16"/>
-      <c r="O94" s="16"/>
-      <c r="P94" s="16"/>
-      <c r="Q94" s="16"/>
-      <c r="R94" s="16"/>
-      <c r="S94" s="16"/>
-      <c r="T94" s="16"/>
-      <c r="U94" s="16"/>
-      <c r="V94" s="16"/>
-      <c r="W94" s="16"/>
-      <c r="X94" s="16"/>
-      <c r="Y94" s="16"/>
-      <c r="Z94" s="16"/>
-      <c r="AA94" s="16"/>
-      <c r="AB94" s="16">
+      <c r="I94" s="7"/>
+      <c r="J94" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+      <c r="U94" s="9"/>
+      <c r="V94" s="9"/>
+      <c r="W94" s="9"/>
+      <c r="X94" s="9"/>
+      <c r="Y94" s="9"/>
+      <c r="Z94" s="9"/>
+      <c r="AA94" s="9"/>
+      <c r="AB94" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E95" s="11">
+      <c r="E95" s="7">
         <v>7</v>
       </c>
-      <c r="F95" s="11" t="s">
+      <c r="F95" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G95" s="11" t="s">
+      <c r="G95" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H95" s="23" t="s">
+      <c r="H95" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I95" s="11"/>
-      <c r="J95" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K95" s="16"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="16"/>
-      <c r="N95" s="16"/>
-      <c r="O95" s="16"/>
-      <c r="P95" s="16"/>
-      <c r="Q95" s="16"/>
-      <c r="R95" s="16"/>
-      <c r="S95" s="16"/>
-      <c r="T95" s="16"/>
-      <c r="U95" s="16"/>
-      <c r="V95" s="16"/>
-      <c r="W95" s="16"/>
-      <c r="X95" s="16"/>
-      <c r="Y95" s="16"/>
-      <c r="Z95" s="16"/>
-      <c r="AA95" s="16"/>
-      <c r="AB95" s="16">
+      <c r="I95" s="7"/>
+      <c r="J95" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+      <c r="U95" s="9"/>
+      <c r="V95" s="9"/>
+      <c r="W95" s="9"/>
+      <c r="X95" s="9"/>
+      <c r="Y95" s="9"/>
+      <c r="Z95" s="9"/>
+      <c r="AA95" s="9"/>
+      <c r="AB95" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E96" s="11">
+      <c r="E96" s="7">
         <v>7</v>
       </c>
-      <c r="F96" s="11" t="s">
+      <c r="F96" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G96" s="11" t="s">
+      <c r="G96" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H96" s="23" t="s">
+      <c r="H96" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="I96" s="11"/>
-      <c r="J96" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K96" s="16"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="16"/>
-      <c r="N96" s="16"/>
-      <c r="O96" s="16"/>
-      <c r="P96" s="16"/>
-      <c r="Q96" s="16"/>
-      <c r="R96" s="16"/>
-      <c r="S96" s="16"/>
-      <c r="T96" s="16"/>
-      <c r="U96" s="16"/>
-      <c r="V96" s="16"/>
-      <c r="W96" s="16"/>
-      <c r="X96" s="16"/>
-      <c r="Y96" s="16"/>
-      <c r="Z96" s="16"/>
-      <c r="AA96" s="16"/>
-      <c r="AB96" s="16">
+      <c r="I96" s="7"/>
+      <c r="J96" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+      <c r="U96" s="9"/>
+      <c r="V96" s="9"/>
+      <c r="W96" s="9"/>
+      <c r="X96" s="9"/>
+      <c r="Y96" s="9"/>
+      <c r="Z96" s="9"/>
+      <c r="AA96" s="9"/>
+      <c r="AB96" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E97" s="11">
+      <c r="E97" s="7">
         <v>7</v>
       </c>
-      <c r="F97" s="11" t="s">
+      <c r="F97" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G97" s="11" t="s">
+      <c r="G97" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H97" s="23" t="s">
+      <c r="H97" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I97" s="11" t="s">
+      <c r="I97" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J97" s="16">
+      <c r="J97" s="9">
         <v>17</v>
       </c>
-      <c r="K97" s="16"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="16"/>
-      <c r="N97" s="16"/>
-      <c r="O97" s="16"/>
-      <c r="P97" s="16"/>
-      <c r="Q97" s="16"/>
-      <c r="R97" s="16"/>
-      <c r="S97" s="16"/>
-      <c r="T97" s="16"/>
-      <c r="U97" s="16"/>
-      <c r="V97" s="16"/>
-      <c r="W97" s="16"/>
-      <c r="X97" s="16"/>
-      <c r="Y97" s="16"/>
-      <c r="Z97" s="16"/>
-      <c r="AA97" s="16"/>
-      <c r="AB97" s="16">
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
+      <c r="U97" s="9"/>
+      <c r="V97" s="9"/>
+      <c r="W97" s="9"/>
+      <c r="X97" s="9"/>
+      <c r="Y97" s="9"/>
+      <c r="Z97" s="9"/>
+      <c r="AA97" s="9"/>
+      <c r="AB97" s="9">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -4858,505 +4865,505 @@
       </c>
     </row>
     <row r="99" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E99" s="12">
+      <c r="E99" s="24">
         <v>8</v>
       </c>
-      <c r="F99" s="12" t="s">
+      <c r="F99" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G99" s="12" t="s">
+      <c r="G99" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H99" s="24" t="s">
+      <c r="H99" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="I99" s="12" t="s">
+      <c r="I99" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="J99" s="16">
+      <c r="J99" s="9">
         <v>8</v>
       </c>
-      <c r="K99" s="16">
+      <c r="K99" s="9">
         <v>2</v>
       </c>
-      <c r="L99" s="16"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16"/>
-      <c r="O99" s="16"/>
-      <c r="P99" s="16"/>
-      <c r="Q99" s="16"/>
-      <c r="R99" s="16"/>
-      <c r="S99" s="16"/>
-      <c r="T99" s="16"/>
-      <c r="U99" s="16"/>
-      <c r="V99" s="16"/>
-      <c r="W99" s="16"/>
-      <c r="X99" s="16"/>
-      <c r="Y99" s="16"/>
-      <c r="Z99" s="16"/>
-      <c r="AA99" s="16"/>
-      <c r="AB99" s="16">
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
+      <c r="W99" s="9"/>
+      <c r="X99" s="9"/>
+      <c r="Y99" s="9"/>
+      <c r="Z99" s="9"/>
+      <c r="AA99" s="9"/>
+      <c r="AB99" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="100" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E100" s="12">
+      <c r="E100" s="24">
         <v>8</v>
       </c>
-      <c r="F100" s="12" t="s">
+      <c r="F100" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G100" s="12" t="s">
+      <c r="G100" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H100" s="24" t="s">
+      <c r="H100" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="I100" s="12" t="s">
+      <c r="I100" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="J100" s="16">
+      <c r="J100" s="9">
         <v>6</v>
       </c>
-      <c r="K100" s="16">
+      <c r="K100" s="9">
         <v>2</v>
       </c>
-      <c r="L100" s="16"/>
-      <c r="M100" s="16"/>
-      <c r="N100" s="16"/>
-      <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
-      <c r="Q100" s="16"/>
-      <c r="R100" s="16"/>
-      <c r="S100" s="16"/>
-      <c r="T100" s="16"/>
-      <c r="U100" s="16"/>
-      <c r="V100" s="16"/>
-      <c r="W100" s="16"/>
-      <c r="X100" s="16"/>
-      <c r="Y100" s="16"/>
-      <c r="Z100" s="16"/>
-      <c r="AA100" s="16"/>
-      <c r="AB100" s="16">
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+      <c r="V100" s="9"/>
+      <c r="W100" s="9"/>
+      <c r="X100" s="9"/>
+      <c r="Y100" s="9"/>
+      <c r="Z100" s="9"/>
+      <c r="AA100" s="9"/>
+      <c r="AB100" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="101" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E101" s="12">
+      <c r="E101" s="24">
         <v>8</v>
       </c>
-      <c r="F101" s="12" t="s">
+      <c r="F101" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G101" s="12" t="s">
+      <c r="G101" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H101" s="24" t="s">
+      <c r="H101" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="I101" s="12" t="s">
+      <c r="I101" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="J101" s="16">
+      <c r="J101" s="9">
         <v>7</v>
       </c>
-      <c r="K101" s="16">
+      <c r="K101" s="9">
         <v>-2</v>
       </c>
-      <c r="L101" s="16"/>
-      <c r="M101" s="16"/>
-      <c r="N101" s="16"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
-      <c r="R101" s="16"/>
-      <c r="S101" s="16"/>
-      <c r="T101" s="16"/>
-      <c r="U101" s="16"/>
-      <c r="V101" s="16"/>
-      <c r="W101" s="16"/>
-      <c r="X101" s="16"/>
-      <c r="Y101" s="16"/>
-      <c r="Z101" s="16"/>
-      <c r="AA101" s="16"/>
-      <c r="AB101" s="16">
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="9"/>
+      <c r="W101" s="9"/>
+      <c r="X101" s="9"/>
+      <c r="Y101" s="9"/>
+      <c r="Z101" s="9"/>
+      <c r="AA101" s="9"/>
+      <c r="AB101" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="102" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E102" s="12">
+      <c r="E102" s="24">
         <v>8</v>
       </c>
-      <c r="F102" s="12" t="s">
+      <c r="F102" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G102" s="12" t="s">
+      <c r="G102" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H102" s="24" t="s">
+      <c r="H102" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="I102" s="12" t="s">
+      <c r="I102" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="J102" s="16">
+      <c r="J102" s="9">
         <v>17</v>
       </c>
-      <c r="K102" s="16">
+      <c r="K102" s="9">
         <v>13</v>
       </c>
-      <c r="L102" s="16"/>
-      <c r="M102" s="16"/>
-      <c r="N102" s="16"/>
-      <c r="O102" s="16"/>
-      <c r="P102" s="16"/>
-      <c r="Q102" s="16"/>
-      <c r="R102" s="16"/>
-      <c r="S102" s="16"/>
-      <c r="T102" s="16"/>
-      <c r="U102" s="16"/>
-      <c r="V102" s="16"/>
-      <c r="W102" s="16"/>
-      <c r="X102" s="16"/>
-      <c r="Y102" s="16"/>
-      <c r="Z102" s="16"/>
-      <c r="AA102" s="16"/>
-      <c r="AB102" s="16">
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+      <c r="U102" s="9"/>
+      <c r="V102" s="9"/>
+      <c r="W102" s="9"/>
+      <c r="X102" s="9"/>
+      <c r="Y102" s="9"/>
+      <c r="Z102" s="9"/>
+      <c r="AA102" s="9"/>
+      <c r="AB102" s="9">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="103" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="12">
+      <c r="E103" s="24">
         <v>8</v>
       </c>
-      <c r="F103" s="12" t="s">
+      <c r="F103" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G103" s="12" t="s">
+      <c r="G103" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H103" s="24" t="s">
+      <c r="H103" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="I103" s="12" t="s">
+      <c r="I103" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="J103" s="16">
+      <c r="J103" s="9">
         <v>12</v>
       </c>
-      <c r="K103" s="16">
+      <c r="K103" s="9">
         <v>-1</v>
       </c>
-      <c r="L103" s="16"/>
-      <c r="M103" s="16"/>
-      <c r="N103" s="16"/>
-      <c r="O103" s="16"/>
-      <c r="P103" s="16"/>
-      <c r="Q103" s="16"/>
-      <c r="R103" s="16"/>
-      <c r="S103" s="16"/>
-      <c r="T103" s="16"/>
-      <c r="U103" s="16"/>
-      <c r="V103" s="16"/>
-      <c r="W103" s="16"/>
-      <c r="X103" s="16"/>
-      <c r="Y103" s="16"/>
-      <c r="Z103" s="16"/>
-      <c r="AA103" s="16"/>
-      <c r="AB103" s="16">
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+      <c r="V103" s="9"/>
+      <c r="W103" s="9"/>
+      <c r="X103" s="9"/>
+      <c r="Y103" s="9"/>
+      <c r="Z103" s="9"/>
+      <c r="AA103" s="9"/>
+      <c r="AB103" s="9">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
     <row r="104" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E104" s="12">
+      <c r="E104" s="24">
         <v>8</v>
       </c>
-      <c r="F104" s="12" t="s">
+      <c r="F104" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G104" s="12" t="s">
+      <c r="G104" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H104" s="24" t="s">
+      <c r="H104" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="I104" s="12"/>
-      <c r="J104" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K104" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L104" s="16"/>
-      <c r="M104" s="16"/>
-      <c r="N104" s="16"/>
-      <c r="O104" s="16"/>
-      <c r="P104" s="16"/>
-      <c r="Q104" s="16"/>
-      <c r="R104" s="16"/>
-      <c r="S104" s="16"/>
-      <c r="T104" s="16"/>
-      <c r="U104" s="16"/>
-      <c r="V104" s="16"/>
-      <c r="W104" s="16"/>
-      <c r="X104" s="16"/>
-      <c r="Y104" s="16"/>
-      <c r="Z104" s="16"/>
-      <c r="AA104" s="16"/>
-      <c r="AB104" s="16">
+      <c r="I104" s="24"/>
+      <c r="J104" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="9"/>
+      <c r="V104" s="9"/>
+      <c r="W104" s="9"/>
+      <c r="X104" s="9"/>
+      <c r="Y104" s="9"/>
+      <c r="Z104" s="9"/>
+      <c r="AA104" s="9"/>
+      <c r="AB104" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E105" s="12">
+      <c r="E105" s="24">
         <v>8</v>
       </c>
-      <c r="F105" s="12" t="s">
+      <c r="F105" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G105" s="12" t="s">
+      <c r="G105" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H105" s="24" t="s">
+      <c r="H105" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="I105" s="12"/>
-      <c r="J105" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K105" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L105" s="16"/>
-      <c r="M105" s="16"/>
-      <c r="N105" s="16"/>
-      <c r="O105" s="16"/>
-      <c r="P105" s="16"/>
-      <c r="Q105" s="16"/>
-      <c r="R105" s="16"/>
-      <c r="S105" s="16"/>
-      <c r="T105" s="16"/>
-      <c r="U105" s="16"/>
-      <c r="V105" s="16"/>
-      <c r="W105" s="16"/>
-      <c r="X105" s="16"/>
-      <c r="Y105" s="16"/>
-      <c r="Z105" s="16"/>
-      <c r="AA105" s="16"/>
-      <c r="AB105" s="16">
+      <c r="I105" s="24"/>
+      <c r="J105" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
+      <c r="W105" s="9"/>
+      <c r="X105" s="9"/>
+      <c r="Y105" s="9"/>
+      <c r="Z105" s="9"/>
+      <c r="AA105" s="9"/>
+      <c r="AB105" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E106" s="12">
+      <c r="E106" s="24">
         <v>8</v>
       </c>
-      <c r="F106" s="12" t="s">
+      <c r="F106" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G106" s="12" t="s">
+      <c r="G106" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H106" s="24" t="s">
+      <c r="H106" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="I106" s="12"/>
-      <c r="J106" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K106" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L106" s="16"/>
-      <c r="M106" s="16"/>
-      <c r="N106" s="16"/>
-      <c r="O106" s="16"/>
-      <c r="P106" s="16"/>
-      <c r="Q106" s="16"/>
-      <c r="R106" s="16"/>
-      <c r="S106" s="16"/>
-      <c r="T106" s="16"/>
-      <c r="U106" s="16"/>
-      <c r="V106" s="16"/>
-      <c r="W106" s="16"/>
-      <c r="X106" s="16"/>
-      <c r="Y106" s="16"/>
-      <c r="Z106" s="16"/>
-      <c r="AA106" s="16"/>
-      <c r="AB106" s="16">
+      <c r="I106" s="24"/>
+      <c r="J106" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K106" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
+      <c r="V106" s="9"/>
+      <c r="W106" s="9"/>
+      <c r="X106" s="9"/>
+      <c r="Y106" s="9"/>
+      <c r="Z106" s="9"/>
+      <c r="AA106" s="9"/>
+      <c r="AB106" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E107" s="12">
+      <c r="E107" s="24">
         <v>8</v>
       </c>
-      <c r="F107" s="12" t="s">
+      <c r="F107" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G107" s="12" t="s">
+      <c r="G107" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H107" s="24" t="s">
+      <c r="H107" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="I107" s="12"/>
-      <c r="J107" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K107" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L107" s="16"/>
-      <c r="M107" s="16"/>
-      <c r="N107" s="16"/>
-      <c r="O107" s="16"/>
-      <c r="P107" s="16"/>
-      <c r="Q107" s="16"/>
-      <c r="R107" s="16"/>
-      <c r="S107" s="16"/>
-      <c r="T107" s="16"/>
-      <c r="U107" s="16"/>
-      <c r="V107" s="16"/>
-      <c r="W107" s="16"/>
-      <c r="X107" s="16"/>
-      <c r="Y107" s="16"/>
-      <c r="Z107" s="16"/>
-      <c r="AA107" s="16"/>
-      <c r="AB107" s="16">
+      <c r="I107" s="24"/>
+      <c r="J107" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K107" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
+      <c r="U107" s="9"/>
+      <c r="V107" s="9"/>
+      <c r="W107" s="9"/>
+      <c r="X107" s="9"/>
+      <c r="Y107" s="9"/>
+      <c r="Z107" s="9"/>
+      <c r="AA107" s="9"/>
+      <c r="AB107" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E108" s="12">
+      <c r="E108" s="24">
         <v>8</v>
       </c>
-      <c r="F108" s="12" t="s">
+      <c r="F108" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G108" s="12" t="s">
+      <c r="G108" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H108" s="24" t="s">
+      <c r="H108" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I108" s="12"/>
-      <c r="J108" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K108" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L108" s="16"/>
-      <c r="M108" s="16"/>
-      <c r="N108" s="16"/>
-      <c r="O108" s="16"/>
-      <c r="P108" s="16"/>
-      <c r="Q108" s="16"/>
-      <c r="R108" s="16"/>
-      <c r="S108" s="16"/>
-      <c r="T108" s="16"/>
-      <c r="U108" s="16"/>
-      <c r="V108" s="16"/>
-      <c r="W108" s="16"/>
-      <c r="X108" s="16"/>
-      <c r="Y108" s="16"/>
-      <c r="Z108" s="16"/>
-      <c r="AA108" s="16"/>
-      <c r="AB108" s="16">
+      <c r="I108" s="24"/>
+      <c r="J108" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K108" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="9"/>
+      <c r="U108" s="9"/>
+      <c r="V108" s="9"/>
+      <c r="W108" s="9"/>
+      <c r="X108" s="9"/>
+      <c r="Y108" s="9"/>
+      <c r="Z108" s="9"/>
+      <c r="AA108" s="9"/>
+      <c r="AB108" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E109" s="12">
+      <c r="E109" s="24">
         <v>8</v>
       </c>
-      <c r="F109" s="12" t="s">
+      <c r="F109" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G109" s="12" t="s">
+      <c r="G109" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H109" s="24" t="s">
+      <c r="H109" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I109" s="12"/>
-      <c r="J109" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K109" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L109" s="16"/>
-      <c r="M109" s="16"/>
-      <c r="N109" s="16"/>
-      <c r="O109" s="16"/>
-      <c r="P109" s="16"/>
-      <c r="Q109" s="16"/>
-      <c r="R109" s="16"/>
-      <c r="S109" s="16"/>
-      <c r="T109" s="16"/>
-      <c r="U109" s="16"/>
-      <c r="V109" s="16"/>
-      <c r="W109" s="16"/>
-      <c r="X109" s="16"/>
-      <c r="Y109" s="16"/>
-      <c r="Z109" s="16"/>
-      <c r="AA109" s="16"/>
-      <c r="AB109" s="16">
+      <c r="I109" s="24"/>
+      <c r="J109" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="9"/>
+      <c r="U109" s="9"/>
+      <c r="V109" s="9"/>
+      <c r="W109" s="9"/>
+      <c r="X109" s="9"/>
+      <c r="Y109" s="9"/>
+      <c r="Z109" s="9"/>
+      <c r="AA109" s="9"/>
+      <c r="AB109" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E110" s="12">
+      <c r="E110" s="24">
         <v>8</v>
       </c>
-      <c r="F110" s="12" t="s">
+      <c r="F110" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G110" s="12" t="s">
+      <c r="G110" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H110" s="24" t="s">
+      <c r="H110" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="I110" s="12" t="s">
+      <c r="I110" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="J110" s="16">
+      <c r="J110" s="9">
         <v>33</v>
       </c>
-      <c r="K110" s="16">
+      <c r="K110" s="9">
         <v>7</v>
       </c>
-      <c r="L110" s="16"/>
-      <c r="M110" s="16"/>
-      <c r="N110" s="16"/>
-      <c r="O110" s="16"/>
-      <c r="P110" s="16"/>
-      <c r="Q110" s="16"/>
-      <c r="R110" s="16"/>
-      <c r="S110" s="16"/>
-      <c r="T110" s="16"/>
-      <c r="U110" s="16"/>
-      <c r="V110" s="16"/>
-      <c r="W110" s="16"/>
-      <c r="X110" s="16"/>
-      <c r="Y110" s="16"/>
-      <c r="Z110" s="16"/>
-      <c r="AA110" s="16"/>
-      <c r="AB110" s="16">
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="9"/>
+      <c r="U110" s="9"/>
+      <c r="V110" s="9"/>
+      <c r="W110" s="9"/>
+      <c r="X110" s="9"/>
+      <c r="Y110" s="9"/>
+      <c r="Z110" s="9"/>
+      <c r="AA110" s="9"/>
+      <c r="AB110" s="9">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -5365,7 +5372,7 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
-      <c r="H111" s="19"/>
+      <c r="H111" s="10"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
@@ -5391,505 +5398,505 @@
       </c>
     </row>
     <row r="112" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E112" s="13">
+      <c r="E112" s="26">
         <v>9</v>
       </c>
-      <c r="F112" s="13" t="s">
+      <c r="F112" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G112" s="13" t="s">
+      <c r="G112" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H112" s="25" t="s">
+      <c r="H112" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="I112" s="13" t="s">
+      <c r="I112" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="J112" s="16">
+      <c r="J112" s="9">
         <v>-2</v>
       </c>
-      <c r="K112" s="16">
+      <c r="K112" s="9">
         <v>12</v>
       </c>
-      <c r="L112" s="16"/>
-      <c r="M112" s="16"/>
-      <c r="N112" s="16"/>
-      <c r="O112" s="16"/>
-      <c r="P112" s="16"/>
-      <c r="Q112" s="16"/>
-      <c r="R112" s="16"/>
-      <c r="S112" s="16"/>
-      <c r="T112" s="16"/>
-      <c r="U112" s="16"/>
-      <c r="V112" s="16"/>
-      <c r="W112" s="16"/>
-      <c r="X112" s="16"/>
-      <c r="Y112" s="16"/>
-      <c r="Z112" s="16"/>
-      <c r="AA112" s="16"/>
-      <c r="AB112" s="16">
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="9"/>
+      <c r="R112" s="9"/>
+      <c r="S112" s="9"/>
+      <c r="T112" s="9"/>
+      <c r="U112" s="9"/>
+      <c r="V112" s="9"/>
+      <c r="W112" s="9"/>
+      <c r="X112" s="9"/>
+      <c r="Y112" s="9"/>
+      <c r="Z112" s="9"/>
+      <c r="AA112" s="9"/>
+      <c r="AB112" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="113" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E113" s="13">
+      <c r="E113" s="26">
         <v>9</v>
       </c>
-      <c r="F113" s="13" t="s">
+      <c r="F113" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G113" s="13" t="s">
+      <c r="G113" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H113" s="25" t="s">
+      <c r="H113" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="I113" s="13" t="s">
+      <c r="I113" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="J113" s="16">
+      <c r="J113" s="9">
         <v>14</v>
       </c>
-      <c r="K113" s="16">
+      <c r="K113" s="9">
         <v>13</v>
       </c>
-      <c r="L113" s="16"/>
-      <c r="M113" s="16"/>
-      <c r="N113" s="16"/>
-      <c r="O113" s="16"/>
-      <c r="P113" s="16"/>
-      <c r="Q113" s="16"/>
-      <c r="R113" s="16"/>
-      <c r="S113" s="16"/>
-      <c r="T113" s="16"/>
-      <c r="U113" s="16"/>
-      <c r="V113" s="16"/>
-      <c r="W113" s="16"/>
-      <c r="X113" s="16"/>
-      <c r="Y113" s="16"/>
-      <c r="Z113" s="16"/>
-      <c r="AA113" s="16"/>
-      <c r="AB113" s="16">
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="9"/>
+      <c r="S113" s="9"/>
+      <c r="T113" s="9"/>
+      <c r="U113" s="9"/>
+      <c r="V113" s="9"/>
+      <c r="W113" s="9"/>
+      <c r="X113" s="9"/>
+      <c r="Y113" s="9"/>
+      <c r="Z113" s="9"/>
+      <c r="AA113" s="9"/>
+      <c r="AB113" s="9">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
     <row r="114" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E114" s="13">
+      <c r="E114" s="26">
         <v>9</v>
       </c>
-      <c r="F114" s="13" t="s">
+      <c r="F114" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G114" s="13" t="s">
+      <c r="G114" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H114" s="25" t="s">
+      <c r="H114" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="I114" s="13" t="s">
+      <c r="I114" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="J114" s="16">
+      <c r="J114" s="9">
         <v>11</v>
       </c>
-      <c r="K114" s="16">
+      <c r="K114" s="9">
         <v>19</v>
       </c>
-      <c r="L114" s="16"/>
-      <c r="M114" s="16"/>
-      <c r="N114" s="16"/>
-      <c r="O114" s="16"/>
-      <c r="P114" s="16"/>
-      <c r="Q114" s="16"/>
-      <c r="R114" s="16"/>
-      <c r="S114" s="16"/>
-      <c r="T114" s="16"/>
-      <c r="U114" s="16"/>
-      <c r="V114" s="16"/>
-      <c r="W114" s="16"/>
-      <c r="X114" s="16"/>
-      <c r="Y114" s="16"/>
-      <c r="Z114" s="16"/>
-      <c r="AA114" s="16"/>
-      <c r="AB114" s="16">
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="9"/>
+      <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
+      <c r="U114" s="9"/>
+      <c r="V114" s="9"/>
+      <c r="W114" s="9"/>
+      <c r="X114" s="9"/>
+      <c r="Y114" s="9"/>
+      <c r="Z114" s="9"/>
+      <c r="AA114" s="9"/>
+      <c r="AB114" s="9">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="115" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E115" s="13">
+      <c r="E115" s="26">
         <v>9</v>
       </c>
-      <c r="F115" s="13" t="s">
+      <c r="F115" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G115" s="13" t="s">
+      <c r="G115" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H115" s="25" t="s">
+      <c r="H115" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="I115" s="13" t="s">
+      <c r="I115" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="J115" s="16">
+      <c r="J115" s="9">
         <v>6</v>
       </c>
-      <c r="K115" s="16">
+      <c r="K115" s="9">
         <v>9</v>
       </c>
-      <c r="L115" s="16"/>
-      <c r="M115" s="16"/>
-      <c r="N115" s="16"/>
-      <c r="O115" s="16"/>
-      <c r="P115" s="16"/>
-      <c r="Q115" s="16"/>
-      <c r="R115" s="16"/>
-      <c r="S115" s="16"/>
-      <c r="T115" s="16"/>
-      <c r="U115" s="16"/>
-      <c r="V115" s="16"/>
-      <c r="W115" s="16"/>
-      <c r="X115" s="16"/>
-      <c r="Y115" s="16"/>
-      <c r="Z115" s="16"/>
-      <c r="AA115" s="16"/>
-      <c r="AB115" s="16">
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
+      <c r="S115" s="9"/>
+      <c r="T115" s="9"/>
+      <c r="U115" s="9"/>
+      <c r="V115" s="9"/>
+      <c r="W115" s="9"/>
+      <c r="X115" s="9"/>
+      <c r="Y115" s="9"/>
+      <c r="Z115" s="9"/>
+      <c r="AA115" s="9"/>
+      <c r="AB115" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
     <row r="116" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E116" s="13">
+      <c r="E116" s="26">
         <v>9</v>
       </c>
-      <c r="F116" s="13" t="s">
+      <c r="F116" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G116" s="13" t="s">
+      <c r="G116" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H116" s="25" t="s">
+      <c r="H116" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="I116" s="13" t="s">
+      <c r="I116" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="J116" s="16">
+      <c r="J116" s="9">
         <v>13</v>
       </c>
-      <c r="K116" s="16">
+      <c r="K116" s="9">
         <v>18</v>
       </c>
-      <c r="L116" s="16"/>
-      <c r="M116" s="16"/>
-      <c r="N116" s="16"/>
-      <c r="O116" s="16"/>
-      <c r="P116" s="16"/>
-      <c r="Q116" s="16"/>
-      <c r="R116" s="16"/>
-      <c r="S116" s="16"/>
-      <c r="T116" s="16"/>
-      <c r="U116" s="16"/>
-      <c r="V116" s="16"/>
-      <c r="W116" s="16"/>
-      <c r="X116" s="16"/>
-      <c r="Y116" s="16"/>
-      <c r="Z116" s="16"/>
-      <c r="AA116" s="16"/>
-      <c r="AB116" s="16">
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="9"/>
+      <c r="T116" s="9"/>
+      <c r="U116" s="9"/>
+      <c r="V116" s="9"/>
+      <c r="W116" s="9"/>
+      <c r="X116" s="9"/>
+      <c r="Y116" s="9"/>
+      <c r="Z116" s="9"/>
+      <c r="AA116" s="9"/>
+      <c r="AB116" s="9">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
     <row r="117" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E117" s="13">
+      <c r="E117" s="26">
         <v>9</v>
       </c>
-      <c r="F117" s="13" t="s">
+      <c r="F117" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G117" s="13" t="s">
+      <c r="G117" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H117" s="25" t="s">
+      <c r="H117" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="I117" s="13"/>
-      <c r="J117" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K117" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L117" s="16"/>
-      <c r="M117" s="16"/>
-      <c r="N117" s="16"/>
-      <c r="O117" s="16"/>
-      <c r="P117" s="16"/>
-      <c r="Q117" s="16"/>
-      <c r="R117" s="16"/>
-      <c r="S117" s="16"/>
-      <c r="T117" s="16"/>
-      <c r="U117" s="16"/>
-      <c r="V117" s="16"/>
-      <c r="W117" s="16"/>
-      <c r="X117" s="16"/>
-      <c r="Y117" s="16"/>
-      <c r="Z117" s="16"/>
-      <c r="AA117" s="16"/>
-      <c r="AB117" s="16">
+      <c r="I117" s="26"/>
+      <c r="J117" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K117" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
+      <c r="U117" s="9"/>
+      <c r="V117" s="9"/>
+      <c r="W117" s="9"/>
+      <c r="X117" s="9"/>
+      <c r="Y117" s="9"/>
+      <c r="Z117" s="9"/>
+      <c r="AA117" s="9"/>
+      <c r="AB117" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E118" s="13">
+      <c r="E118" s="26">
         <v>9</v>
       </c>
-      <c r="F118" s="13" t="s">
+      <c r="F118" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G118" s="13" t="s">
+      <c r="G118" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H118" s="25" t="s">
+      <c r="H118" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I118" s="13"/>
-      <c r="J118" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K118" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L118" s="16"/>
-      <c r="M118" s="16"/>
-      <c r="N118" s="16"/>
-      <c r="O118" s="16"/>
-      <c r="P118" s="16"/>
-      <c r="Q118" s="16"/>
-      <c r="R118" s="16"/>
-      <c r="S118" s="16"/>
-      <c r="T118" s="16"/>
-      <c r="U118" s="16"/>
-      <c r="V118" s="16"/>
-      <c r="W118" s="16"/>
-      <c r="X118" s="16"/>
-      <c r="Y118" s="16"/>
-      <c r="Z118" s="16"/>
-      <c r="AA118" s="16"/>
-      <c r="AB118" s="16">
+      <c r="I118" s="26"/>
+      <c r="J118" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K118" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="9"/>
+      <c r="S118" s="9"/>
+      <c r="T118" s="9"/>
+      <c r="U118" s="9"/>
+      <c r="V118" s="9"/>
+      <c r="W118" s="9"/>
+      <c r="X118" s="9"/>
+      <c r="Y118" s="9"/>
+      <c r="Z118" s="9"/>
+      <c r="AA118" s="9"/>
+      <c r="AB118" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E119" s="13">
+      <c r="E119" s="26">
         <v>9</v>
       </c>
-      <c r="F119" s="13" t="s">
+      <c r="F119" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G119" s="13" t="s">
+      <c r="G119" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H119" s="25" t="s">
+      <c r="H119" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="I119" s="13"/>
-      <c r="J119" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K119" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L119" s="16"/>
-      <c r="M119" s="16"/>
-      <c r="N119" s="16"/>
-      <c r="O119" s="16"/>
-      <c r="P119" s="16"/>
-      <c r="Q119" s="16"/>
-      <c r="R119" s="16"/>
-      <c r="S119" s="16"/>
-      <c r="T119" s="16"/>
-      <c r="U119" s="16"/>
-      <c r="V119" s="16"/>
-      <c r="W119" s="16"/>
-      <c r="X119" s="16"/>
-      <c r="Y119" s="16"/>
-      <c r="Z119" s="16"/>
-      <c r="AA119" s="16"/>
-      <c r="AB119" s="16">
+      <c r="I119" s="26"/>
+      <c r="J119" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+      <c r="R119" s="9"/>
+      <c r="S119" s="9"/>
+      <c r="T119" s="9"/>
+      <c r="U119" s="9"/>
+      <c r="V119" s="9"/>
+      <c r="W119" s="9"/>
+      <c r="X119" s="9"/>
+      <c r="Y119" s="9"/>
+      <c r="Z119" s="9"/>
+      <c r="AA119" s="9"/>
+      <c r="AB119" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E120" s="13">
+      <c r="E120" s="26">
         <v>9</v>
       </c>
-      <c r="F120" s="13" t="s">
+      <c r="F120" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G120" s="13" t="s">
+      <c r="G120" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H120" s="25" t="s">
+      <c r="H120" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="I120" s="13"/>
-      <c r="J120" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K120" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L120" s="16"/>
-      <c r="M120" s="16"/>
-      <c r="N120" s="16"/>
-      <c r="O120" s="16"/>
-      <c r="P120" s="16"/>
-      <c r="Q120" s="16"/>
-      <c r="R120" s="16"/>
-      <c r="S120" s="16"/>
-      <c r="T120" s="16"/>
-      <c r="U120" s="16"/>
-      <c r="V120" s="16"/>
-      <c r="W120" s="16"/>
-      <c r="X120" s="16"/>
-      <c r="Y120" s="16"/>
-      <c r="Z120" s="16"/>
-      <c r="AA120" s="16"/>
-      <c r="AB120" s="16">
+      <c r="I120" s="26"/>
+      <c r="J120" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+      <c r="U120" s="9"/>
+      <c r="V120" s="9"/>
+      <c r="W120" s="9"/>
+      <c r="X120" s="9"/>
+      <c r="Y120" s="9"/>
+      <c r="Z120" s="9"/>
+      <c r="AA120" s="9"/>
+      <c r="AB120" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E121" s="13">
+      <c r="E121" s="26">
         <v>9</v>
       </c>
-      <c r="F121" s="13" t="s">
+      <c r="F121" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G121" s="13" t="s">
+      <c r="G121" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H121" s="25" t="s">
+      <c r="H121" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="I121" s="13"/>
-      <c r="J121" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K121" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L121" s="16"/>
-      <c r="M121" s="16"/>
-      <c r="N121" s="16"/>
-      <c r="O121" s="16"/>
-      <c r="P121" s="16"/>
-      <c r="Q121" s="16"/>
-      <c r="R121" s="16"/>
-      <c r="S121" s="16"/>
-      <c r="T121" s="16"/>
-      <c r="U121" s="16"/>
-      <c r="V121" s="16"/>
-      <c r="W121" s="16"/>
-      <c r="X121" s="16"/>
-      <c r="Y121" s="16"/>
-      <c r="Z121" s="16"/>
-      <c r="AA121" s="16"/>
-      <c r="AB121" s="16">
+      <c r="I121" s="26"/>
+      <c r="J121" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="9"/>
+      <c r="R121" s="9"/>
+      <c r="S121" s="9"/>
+      <c r="T121" s="9"/>
+      <c r="U121" s="9"/>
+      <c r="V121" s="9"/>
+      <c r="W121" s="9"/>
+      <c r="X121" s="9"/>
+      <c r="Y121" s="9"/>
+      <c r="Z121" s="9"/>
+      <c r="AA121" s="9"/>
+      <c r="AB121" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E122" s="13">
+      <c r="E122" s="26">
         <v>9</v>
       </c>
-      <c r="F122" s="13" t="s">
+      <c r="F122" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G122" s="13" t="s">
+      <c r="G122" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H122" s="25" t="s">
+      <c r="H122" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="I122" s="13"/>
-      <c r="J122" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K122" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L122" s="16"/>
-      <c r="M122" s="16"/>
-      <c r="N122" s="16"/>
-      <c r="O122" s="16"/>
-      <c r="P122" s="16"/>
-      <c r="Q122" s="16"/>
-      <c r="R122" s="16"/>
-      <c r="S122" s="16"/>
-      <c r="T122" s="16"/>
-      <c r="U122" s="16"/>
-      <c r="V122" s="16"/>
-      <c r="W122" s="16"/>
-      <c r="X122" s="16"/>
-      <c r="Y122" s="16"/>
-      <c r="Z122" s="16"/>
-      <c r="AA122" s="16"/>
-      <c r="AB122" s="16">
+      <c r="I122" s="26"/>
+      <c r="J122" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9"/>
+      <c r="R122" s="9"/>
+      <c r="S122" s="9"/>
+      <c r="T122" s="9"/>
+      <c r="U122" s="9"/>
+      <c r="V122" s="9"/>
+      <c r="W122" s="9"/>
+      <c r="X122" s="9"/>
+      <c r="Y122" s="9"/>
+      <c r="Z122" s="9"/>
+      <c r="AA122" s="9"/>
+      <c r="AB122" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="13">
+      <c r="E123" s="26">
         <v>9</v>
       </c>
-      <c r="F123" s="13" t="s">
+      <c r="F123" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G123" s="13" t="s">
+      <c r="G123" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H123" s="25" t="s">
+      <c r="H123" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="I123" s="13" t="s">
+      <c r="I123" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="J123" s="16">
+      <c r="J123" s="9">
         <v>9</v>
       </c>
-      <c r="K123" s="16">
+      <c r="K123" s="9">
         <v>35</v>
       </c>
-      <c r="L123" s="16"/>
-      <c r="M123" s="16"/>
-      <c r="N123" s="16"/>
-      <c r="O123" s="16"/>
-      <c r="P123" s="16"/>
-      <c r="Q123" s="16"/>
-      <c r="R123" s="16"/>
-      <c r="S123" s="16"/>
-      <c r="T123" s="16"/>
-      <c r="U123" s="16"/>
-      <c r="V123" s="16"/>
-      <c r="W123" s="16"/>
-      <c r="X123" s="16"/>
-      <c r="Y123" s="16"/>
-      <c r="Z123" s="16"/>
-      <c r="AA123" s="16"/>
-      <c r="AB123" s="16">
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="9"/>
+      <c r="Q123" s="9"/>
+      <c r="R123" s="9"/>
+      <c r="S123" s="9"/>
+      <c r="T123" s="9"/>
+      <c r="U123" s="9"/>
+      <c r="V123" s="9"/>
+      <c r="W123" s="9"/>
+      <c r="X123" s="9"/>
+      <c r="Y123" s="9"/>
+      <c r="Z123" s="9"/>
+      <c r="AA123" s="9"/>
+      <c r="AB123" s="9">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -5898,7 +5905,7 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
-      <c r="H124" s="19"/>
+      <c r="H124" s="10"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -5924,587 +5931,587 @@
       </c>
     </row>
     <row r="125" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E125" s="14">
+      <c r="E125" s="13">
         <v>10</v>
       </c>
-      <c r="F125" s="14" t="s">
+      <c r="F125" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G125" s="14" t="s">
+      <c r="G125" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H125" s="26" t="s">
+      <c r="H125" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I125" s="14" t="s">
+      <c r="I125" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J125" s="16">
+      <c r="J125" s="9">
         <v>6</v>
       </c>
-      <c r="K125" s="16">
+      <c r="K125" s="9">
         <v>3</v>
       </c>
-      <c r="L125" s="16"/>
-      <c r="M125" s="16"/>
-      <c r="N125" s="16"/>
-      <c r="O125" s="16"/>
-      <c r="P125" s="16"/>
-      <c r="Q125" s="16"/>
-      <c r="R125" s="16"/>
-      <c r="S125" s="16"/>
-      <c r="T125" s="16"/>
-      <c r="U125" s="16"/>
-      <c r="V125" s="16"/>
-      <c r="W125" s="16"/>
-      <c r="X125" s="16"/>
-      <c r="Y125" s="16"/>
-      <c r="Z125" s="16"/>
-      <c r="AA125" s="16"/>
-      <c r="AB125" s="16">
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
+      <c r="R125" s="9"/>
+      <c r="S125" s="9"/>
+      <c r="T125" s="9"/>
+      <c r="U125" s="9"/>
+      <c r="V125" s="9"/>
+      <c r="W125" s="9"/>
+      <c r="X125" s="9"/>
+      <c r="Y125" s="9"/>
+      <c r="Z125" s="9"/>
+      <c r="AA125" s="9"/>
+      <c r="AB125" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="126" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E126" s="14">
+      <c r="E126" s="13">
         <v>10</v>
       </c>
-      <c r="F126" s="14" t="s">
+      <c r="F126" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G126" s="14" t="s">
+      <c r="G126" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H126" s="26" t="s">
+      <c r="H126" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="I126" s="14"/>
-      <c r="J126" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K126" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L126" s="16"/>
-      <c r="M126" s="16"/>
-      <c r="N126" s="16"/>
-      <c r="O126" s="16"/>
-      <c r="P126" s="16"/>
-      <c r="Q126" s="16"/>
-      <c r="R126" s="16"/>
-      <c r="S126" s="16"/>
-      <c r="T126" s="16"/>
-      <c r="U126" s="16"/>
-      <c r="V126" s="16"/>
-      <c r="W126" s="16"/>
-      <c r="X126" s="16"/>
-      <c r="Y126" s="16"/>
-      <c r="Z126" s="16"/>
-      <c r="AA126" s="16"/>
-      <c r="AB126" s="16">
+      <c r="I126" s="13"/>
+      <c r="J126" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K126" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="9"/>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="9"/>
+      <c r="R126" s="9"/>
+      <c r="S126" s="9"/>
+      <c r="T126" s="9"/>
+      <c r="U126" s="9"/>
+      <c r="V126" s="9"/>
+      <c r="W126" s="9"/>
+      <c r="X126" s="9"/>
+      <c r="Y126" s="9"/>
+      <c r="Z126" s="9"/>
+      <c r="AA126" s="9"/>
+      <c r="AB126" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E127" s="14">
+      <c r="E127" s="13">
         <v>10</v>
       </c>
-      <c r="F127" s="14" t="s">
+      <c r="F127" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G127" s="14" t="s">
+      <c r="G127" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H127" s="26" t="s">
+      <c r="H127" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I127" s="14" t="s">
+      <c r="I127" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J127" s="16">
+      <c r="J127" s="9">
         <v>9</v>
       </c>
-      <c r="K127" s="16">
+      <c r="K127" s="9">
         <v>14</v>
       </c>
-      <c r="L127" s="16"/>
-      <c r="M127" s="16"/>
-      <c r="N127" s="16"/>
-      <c r="O127" s="16"/>
-      <c r="P127" s="16"/>
-      <c r="Q127" s="16"/>
-      <c r="R127" s="16"/>
-      <c r="S127" s="16"/>
-      <c r="T127" s="16"/>
-      <c r="U127" s="16"/>
-      <c r="V127" s="16"/>
-      <c r="W127" s="16"/>
-      <c r="X127" s="16"/>
-      <c r="Y127" s="16"/>
-      <c r="Z127" s="16"/>
-      <c r="AA127" s="16"/>
-      <c r="AB127" s="16">
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="9"/>
+      <c r="Q127" s="9"/>
+      <c r="R127" s="9"/>
+      <c r="S127" s="9"/>
+      <c r="T127" s="9"/>
+      <c r="U127" s="9"/>
+      <c r="V127" s="9"/>
+      <c r="W127" s="9"/>
+      <c r="X127" s="9"/>
+      <c r="Y127" s="9"/>
+      <c r="Z127" s="9"/>
+      <c r="AA127" s="9"/>
+      <c r="AB127" s="9">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
     <row r="128" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E128" s="14">
+      <c r="E128" s="13">
         <v>10</v>
       </c>
-      <c r="F128" s="14" t="s">
+      <c r="F128" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G128" s="14" t="s">
+      <c r="G128" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H128" s="26" t="s">
+      <c r="H128" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I128" s="14"/>
-      <c r="J128" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K128" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L128" s="16"/>
-      <c r="M128" s="16"/>
-      <c r="N128" s="16"/>
-      <c r="O128" s="16"/>
-      <c r="P128" s="16"/>
-      <c r="Q128" s="16"/>
-      <c r="R128" s="16"/>
-      <c r="S128" s="16"/>
-      <c r="T128" s="16"/>
-      <c r="U128" s="16"/>
-      <c r="V128" s="16"/>
-      <c r="W128" s="16"/>
-      <c r="X128" s="16"/>
-      <c r="Y128" s="16"/>
-      <c r="Z128" s="16"/>
-      <c r="AA128" s="16"/>
-      <c r="AB128" s="16">
+      <c r="I128" s="13"/>
+      <c r="J128" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K128" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="9"/>
+      <c r="Q128" s="9"/>
+      <c r="R128" s="9"/>
+      <c r="S128" s="9"/>
+      <c r="T128" s="9"/>
+      <c r="U128" s="9"/>
+      <c r="V128" s="9"/>
+      <c r="W128" s="9"/>
+      <c r="X128" s="9"/>
+      <c r="Y128" s="9"/>
+      <c r="Z128" s="9"/>
+      <c r="AA128" s="9"/>
+      <c r="AB128" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E129" s="14">
+      <c r="E129" s="13">
         <v>10</v>
       </c>
-      <c r="F129" s="14" t="s">
+      <c r="F129" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G129" s="14" t="s">
+      <c r="G129" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H129" s="26" t="s">
+      <c r="H129" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="I129" s="14" t="s">
+      <c r="I129" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J129" s="16">
+      <c r="J129" s="9">
         <v>17</v>
       </c>
-      <c r="K129" s="16">
+      <c r="K129" s="9">
         <v>9</v>
       </c>
-      <c r="L129" s="16"/>
-      <c r="M129" s="16"/>
-      <c r="N129" s="16"/>
-      <c r="O129" s="16"/>
-      <c r="P129" s="16"/>
-      <c r="Q129" s="16"/>
-      <c r="R129" s="16"/>
-      <c r="S129" s="16"/>
-      <c r="T129" s="16"/>
-      <c r="U129" s="16"/>
-      <c r="V129" s="16"/>
-      <c r="W129" s="16"/>
-      <c r="X129" s="16"/>
-      <c r="Y129" s="16"/>
-      <c r="Z129" s="16"/>
-      <c r="AA129" s="16"/>
-      <c r="AB129" s="16">
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="9"/>
+      <c r="Q129" s="9"/>
+      <c r="R129" s="9"/>
+      <c r="S129" s="9"/>
+      <c r="T129" s="9"/>
+      <c r="U129" s="9"/>
+      <c r="V129" s="9"/>
+      <c r="W129" s="9"/>
+      <c r="X129" s="9"/>
+      <c r="Y129" s="9"/>
+      <c r="Z129" s="9"/>
+      <c r="AA129" s="9"/>
+      <c r="AB129" s="9">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
     <row r="130" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E130" s="14">
+      <c r="E130" s="13">
         <v>10</v>
       </c>
-      <c r="F130" s="14" t="s">
+      <c r="F130" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G130" s="14" t="s">
+      <c r="G130" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H130" s="26" t="s">
+      <c r="H130" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I130" s="14" t="s">
+      <c r="I130" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J130" s="16">
+      <c r="J130" s="9">
         <v>4</v>
       </c>
-      <c r="K130" s="16">
+      <c r="K130" s="9">
         <v>3</v>
       </c>
-      <c r="L130" s="16"/>
-      <c r="M130" s="16"/>
-      <c r="N130" s="16"/>
-      <c r="O130" s="16"/>
-      <c r="P130" s="16"/>
-      <c r="Q130" s="16"/>
-      <c r="R130" s="16"/>
-      <c r="S130" s="16"/>
-      <c r="T130" s="16"/>
-      <c r="U130" s="16"/>
-      <c r="V130" s="16"/>
-      <c r="W130" s="16"/>
-      <c r="X130" s="16"/>
-      <c r="Y130" s="16"/>
-      <c r="Z130" s="16"/>
-      <c r="AA130" s="16"/>
-      <c r="AB130" s="16">
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9"/>
+      <c r="O130" s="9"/>
+      <c r="P130" s="9"/>
+      <c r="Q130" s="9"/>
+      <c r="R130" s="9"/>
+      <c r="S130" s="9"/>
+      <c r="T130" s="9"/>
+      <c r="U130" s="9"/>
+      <c r="V130" s="9"/>
+      <c r="W130" s="9"/>
+      <c r="X130" s="9"/>
+      <c r="Y130" s="9"/>
+      <c r="Z130" s="9"/>
+      <c r="AA130" s="9"/>
+      <c r="AB130" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="131" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E131" s="14">
+      <c r="E131" s="13">
         <v>10</v>
       </c>
-      <c r="F131" s="14" t="s">
+      <c r="F131" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G131" s="14" t="s">
+      <c r="G131" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H131" s="26" t="s">
+      <c r="H131" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="I131" s="14"/>
-      <c r="J131" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K131" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L131" s="16"/>
-      <c r="M131" s="16"/>
-      <c r="N131" s="16"/>
-      <c r="O131" s="16"/>
-      <c r="P131" s="16"/>
-      <c r="Q131" s="16"/>
-      <c r="R131" s="16"/>
-      <c r="S131" s="16"/>
-      <c r="T131" s="16"/>
-      <c r="U131" s="16"/>
-      <c r="V131" s="16"/>
-      <c r="W131" s="16"/>
-      <c r="X131" s="16"/>
-      <c r="Y131" s="16"/>
-      <c r="Z131" s="16"/>
-      <c r="AA131" s="16"/>
-      <c r="AB131" s="16">
+      <c r="I131" s="13"/>
+      <c r="J131" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K131" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="9"/>
+      <c r="Q131" s="9"/>
+      <c r="R131" s="9"/>
+      <c r="S131" s="9"/>
+      <c r="T131" s="9"/>
+      <c r="U131" s="9"/>
+      <c r="V131" s="9"/>
+      <c r="W131" s="9"/>
+      <c r="X131" s="9"/>
+      <c r="Y131" s="9"/>
+      <c r="Z131" s="9"/>
+      <c r="AA131" s="9"/>
+      <c r="AB131" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E132" s="14">
+      <c r="E132" s="13">
         <v>10</v>
       </c>
-      <c r="F132" s="14" t="s">
+      <c r="F132" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G132" s="14" t="s">
+      <c r="G132" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H132" s="26" t="s">
+      <c r="H132" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="I132" s="14"/>
-      <c r="J132" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K132" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L132" s="16"/>
-      <c r="M132" s="16"/>
-      <c r="N132" s="16"/>
-      <c r="O132" s="16"/>
-      <c r="P132" s="16"/>
-      <c r="Q132" s="16"/>
-      <c r="R132" s="16"/>
-      <c r="S132" s="16"/>
-      <c r="T132" s="16"/>
-      <c r="U132" s="16"/>
-      <c r="V132" s="16"/>
-      <c r="W132" s="16"/>
-      <c r="X132" s="16"/>
-      <c r="Y132" s="16"/>
-      <c r="Z132" s="16"/>
-      <c r="AA132" s="16"/>
-      <c r="AB132" s="16">
+      <c r="I132" s="13"/>
+      <c r="J132" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K132" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="9"/>
+      <c r="T132" s="9"/>
+      <c r="U132" s="9"/>
+      <c r="V132" s="9"/>
+      <c r="W132" s="9"/>
+      <c r="X132" s="9"/>
+      <c r="Y132" s="9"/>
+      <c r="Z132" s="9"/>
+      <c r="AA132" s="9"/>
+      <c r="AB132" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E133" s="14">
+      <c r="E133" s="13">
         <v>10</v>
       </c>
-      <c r="F133" s="14" t="s">
+      <c r="F133" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G133" s="14" t="s">
+      <c r="G133" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="26" t="s">
+      <c r="H133" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="I133" s="14" t="s">
+      <c r="I133" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J133" s="16">
+      <c r="J133" s="9">
         <v>13</v>
       </c>
-      <c r="K133" s="16">
+      <c r="K133" s="9">
         <v>10</v>
       </c>
-      <c r="L133" s="16"/>
-      <c r="M133" s="16"/>
-      <c r="N133" s="16"/>
-      <c r="O133" s="16"/>
-      <c r="P133" s="16"/>
-      <c r="Q133" s="16"/>
-      <c r="R133" s="16"/>
-      <c r="S133" s="16"/>
-      <c r="T133" s="16"/>
-      <c r="U133" s="16"/>
-      <c r="V133" s="16"/>
-      <c r="W133" s="16"/>
-      <c r="X133" s="16"/>
-      <c r="Y133" s="16"/>
-      <c r="Z133" s="16"/>
-      <c r="AA133" s="16"/>
-      <c r="AB133" s="16">
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="9"/>
+      <c r="Q133" s="9"/>
+      <c r="R133" s="9"/>
+      <c r="S133" s="9"/>
+      <c r="T133" s="9"/>
+      <c r="U133" s="9"/>
+      <c r="V133" s="9"/>
+      <c r="W133" s="9"/>
+      <c r="X133" s="9"/>
+      <c r="Y133" s="9"/>
+      <c r="Z133" s="9"/>
+      <c r="AA133" s="9"/>
+      <c r="AB133" s="9">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
     <row r="134" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E134" s="14">
+      <c r="E134" s="13">
         <v>10</v>
       </c>
-      <c r="F134" s="14" t="s">
+      <c r="F134" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G134" s="14" t="s">
+      <c r="G134" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H134" s="26" t="s">
+      <c r="H134" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="I134" s="14"/>
-      <c r="J134" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K134" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L134" s="16"/>
-      <c r="M134" s="16"/>
-      <c r="N134" s="16"/>
-      <c r="O134" s="16"/>
-      <c r="P134" s="16"/>
-      <c r="Q134" s="16"/>
-      <c r="R134" s="16"/>
-      <c r="S134" s="16"/>
-      <c r="T134" s="16"/>
-      <c r="U134" s="16"/>
-      <c r="V134" s="16"/>
-      <c r="W134" s="16"/>
-      <c r="X134" s="16"/>
-      <c r="Y134" s="16"/>
-      <c r="Z134" s="16"/>
-      <c r="AA134" s="16"/>
-      <c r="AB134" s="16">
+      <c r="I134" s="13"/>
+      <c r="J134" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K134" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="9"/>
+      <c r="O134" s="9"/>
+      <c r="P134" s="9"/>
+      <c r="Q134" s="9"/>
+      <c r="R134" s="9"/>
+      <c r="S134" s="9"/>
+      <c r="T134" s="9"/>
+      <c r="U134" s="9"/>
+      <c r="V134" s="9"/>
+      <c r="W134" s="9"/>
+      <c r="X134" s="9"/>
+      <c r="Y134" s="9"/>
+      <c r="Z134" s="9"/>
+      <c r="AA134" s="9"/>
+      <c r="AB134" s="9">
         <f t="shared" ref="AB134:AB138" si="2">SUM(J134:AA134)</f>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E135" s="14">
+      <c r="E135" s="13">
         <v>10</v>
       </c>
-      <c r="F135" s="14" t="s">
+      <c r="F135" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G135" s="14" t="s">
+      <c r="G135" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H135" s="26" t="s">
+      <c r="H135" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="I135" s="14"/>
-      <c r="J135" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K135" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L135" s="16"/>
-      <c r="M135" s="16"/>
-      <c r="N135" s="16"/>
-      <c r="O135" s="16"/>
-      <c r="P135" s="16"/>
-      <c r="Q135" s="16"/>
-      <c r="R135" s="16"/>
-      <c r="S135" s="16"/>
-      <c r="T135" s="16"/>
-      <c r="U135" s="16"/>
-      <c r="V135" s="16"/>
-      <c r="W135" s="16"/>
-      <c r="X135" s="16"/>
-      <c r="Y135" s="16"/>
-      <c r="Z135" s="16"/>
-      <c r="AA135" s="16"/>
-      <c r="AB135" s="16">
+      <c r="I135" s="13"/>
+      <c r="J135" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K135" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="9"/>
+      <c r="O135" s="9"/>
+      <c r="P135" s="9"/>
+      <c r="Q135" s="9"/>
+      <c r="R135" s="9"/>
+      <c r="S135" s="9"/>
+      <c r="T135" s="9"/>
+      <c r="U135" s="9"/>
+      <c r="V135" s="9"/>
+      <c r="W135" s="9"/>
+      <c r="X135" s="9"/>
+      <c r="Y135" s="9"/>
+      <c r="Z135" s="9"/>
+      <c r="AA135" s="9"/>
+      <c r="AB135" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E136" s="14">
+      <c r="E136" s="13">
         <v>10</v>
       </c>
-      <c r="F136" s="14" t="s">
+      <c r="F136" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G136" s="14" t="s">
+      <c r="G136" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H136" s="26" t="s">
+      <c r="H136" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="I136" s="14"/>
-      <c r="J136" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K136" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L136" s="16"/>
-      <c r="M136" s="16"/>
-      <c r="N136" s="16"/>
-      <c r="O136" s="16"/>
-      <c r="P136" s="16"/>
-      <c r="Q136" s="16"/>
-      <c r="R136" s="16"/>
-      <c r="S136" s="16"/>
-      <c r="T136" s="16"/>
-      <c r="U136" s="16"/>
-      <c r="V136" s="16"/>
-      <c r="W136" s="16"/>
-      <c r="X136" s="16"/>
-      <c r="Y136" s="16"/>
-      <c r="Z136" s="16"/>
-      <c r="AA136" s="16"/>
-      <c r="AB136" s="16">
+      <c r="I136" s="13"/>
+      <c r="J136" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K136" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="9"/>
+      <c r="O136" s="9"/>
+      <c r="P136" s="9"/>
+      <c r="Q136" s="9"/>
+      <c r="R136" s="9"/>
+      <c r="S136" s="9"/>
+      <c r="T136" s="9"/>
+      <c r="U136" s="9"/>
+      <c r="V136" s="9"/>
+      <c r="W136" s="9"/>
+      <c r="X136" s="9"/>
+      <c r="Y136" s="9"/>
+      <c r="Z136" s="9"/>
+      <c r="AA136" s="9"/>
+      <c r="AB136" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E137" s="14">
+      <c r="E137" s="13">
         <v>10</v>
       </c>
-      <c r="F137" s="14" t="s">
+      <c r="F137" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G137" s="14" t="s">
+      <c r="G137" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H137" s="26" t="s">
+      <c r="H137" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="I137" s="14"/>
-      <c r="J137" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K137" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L137" s="16"/>
-      <c r="M137" s="16"/>
-      <c r="N137" s="16"/>
-      <c r="O137" s="16"/>
-      <c r="P137" s="16"/>
-      <c r="Q137" s="16"/>
-      <c r="R137" s="16"/>
-      <c r="S137" s="16"/>
-      <c r="T137" s="16"/>
-      <c r="U137" s="16"/>
-      <c r="V137" s="16"/>
-      <c r="W137" s="16"/>
-      <c r="X137" s="16"/>
-      <c r="Y137" s="16"/>
-      <c r="Z137" s="16"/>
-      <c r="AA137" s="16"/>
-      <c r="AB137" s="16">
+      <c r="I137" s="13"/>
+      <c r="J137" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K137" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="9"/>
+      <c r="O137" s="9"/>
+      <c r="P137" s="9"/>
+      <c r="Q137" s="9"/>
+      <c r="R137" s="9"/>
+      <c r="S137" s="9"/>
+      <c r="T137" s="9"/>
+      <c r="U137" s="9"/>
+      <c r="V137" s="9"/>
+      <c r="W137" s="9"/>
+      <c r="X137" s="9"/>
+      <c r="Y137" s="9"/>
+      <c r="Z137" s="9"/>
+      <c r="AA137" s="9"/>
+      <c r="AB137" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E138" s="14">
+      <c r="E138" s="13">
         <v>10</v>
       </c>
-      <c r="F138" s="14" t="s">
+      <c r="F138" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G138" s="14" t="s">
+      <c r="G138" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H138" s="26" t="s">
+      <c r="H138" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I138" s="14" t="s">
+      <c r="I138" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J138" s="16">
+      <c r="J138" s="9">
         <v>20</v>
       </c>
-      <c r="K138" s="16">
+      <c r="K138" s="9">
         <v>12</v>
       </c>
-      <c r="L138" s="16"/>
-      <c r="M138" s="16"/>
-      <c r="N138" s="16"/>
-      <c r="O138" s="16"/>
-      <c r="P138" s="16"/>
-      <c r="Q138" s="16"/>
-      <c r="R138" s="16"/>
-      <c r="S138" s="16"/>
-      <c r="T138" s="16"/>
-      <c r="U138" s="16"/>
-      <c r="V138" s="16"/>
-      <c r="W138" s="16"/>
-      <c r="X138" s="16"/>
-      <c r="Y138" s="16"/>
-      <c r="Z138" s="16"/>
-      <c r="AA138" s="16"/>
-      <c r="AB138" s="16">
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="9"/>
+      <c r="O138" s="9"/>
+      <c r="P138" s="9"/>
+      <c r="Q138" s="9"/>
+      <c r="R138" s="9"/>
+      <c r="S138" s="9"/>
+      <c r="T138" s="9"/>
+      <c r="U138" s="9"/>
+      <c r="V138" s="9"/>
+      <c r="W138" s="9"/>
+      <c r="X138" s="9"/>
+      <c r="Y138" s="9"/>
+      <c r="Z138" s="9"/>
+      <c r="AA138" s="9"/>
+      <c r="AB138" s="9">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
@@ -6513,7 +6520,7 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
-      <c r="H139" s="19"/>
+      <c r="H139" s="10"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>

--- a/LEC.xlsx
+++ b/LEC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Documents\Fantasy-of-Legend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\FantasyOfLegends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F53B39-87B1-4B1B-8063-6C2793C3B2AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BD7E58-E6A1-490D-8EFD-08BFD98CDE26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" xr2:uid="{40065828-DACB-4FAF-8B4F-65B8FCADECA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40065828-DACB-4FAF-8B4F-65B8FCADECA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="149">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6F4F5-5FE8-493F-8E1B-F71CC0CB1EFB}">
   <dimension ref="E3:AC705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1174,9 @@
       <c r="J5" s="9">
         <v>15</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="9">
+        <v>7</v>
+      </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -1193,7 +1195,7 @@
       <c r="AA5" s="9"/>
       <c r="AB5" s="9">
         <f>SUM(J5:AA5)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1215,7 +1217,9 @@
       <c r="J6" s="9">
         <v>20</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="9">
+        <v>9</v>
+      </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -1234,7 +1238,7 @@
       <c r="AA6" s="9"/>
       <c r="AB6" s="9">
         <f t="shared" ref="AB6:AB69" si="0">SUM(J6:AA6)</f>
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1256,7 +1260,9 @@
       <c r="J7" s="9">
         <v>16</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="9">
+        <v>11</v>
+      </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -1275,7 +1281,7 @@
       <c r="AA7" s="9"/>
       <c r="AB7" s="9">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1297,7 +1303,9 @@
       <c r="J8" s="9">
         <v>29</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="9">
+        <v>13</v>
+      </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -1316,7 +1324,7 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="9">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1338,7 +1346,9 @@
       <c r="J9" s="9">
         <v>27</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="9">
+        <v>11</v>
+      </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1357,7 +1367,7 @@
       <c r="AA9" s="9"/>
       <c r="AB9" s="9">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1377,7 +1387,9 @@
       <c r="J10" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -1416,7 +1428,9 @@
       <c r="J11" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -1455,7 +1469,9 @@
       <c r="J12" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -1494,7 +1510,9 @@
       <c r="J13" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -1533,7 +1551,9 @@
       <c r="J14" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -1572,7 +1592,9 @@
       <c r="J15" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -1613,7 +1635,9 @@
       <c r="J16" s="9">
         <v>20</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="9">
+        <v>13</v>
+      </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -1632,7 +1656,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1683,7 +1707,9 @@
       <c r="J18" s="9">
         <v>-3</v>
       </c>
-      <c r="K18" s="9"/>
+      <c r="K18" s="9">
+        <v>14</v>
+      </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -1702,7 +1728,7 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1724,7 +1750,9 @@
       <c r="J19" s="9">
         <v>1</v>
       </c>
-      <c r="K19" s="9"/>
+      <c r="K19" s="9">
+        <v>6</v>
+      </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -1743,7 +1771,7 @@
       <c r="AA19" s="9"/>
       <c r="AB19" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1765,7 +1793,9 @@
       <c r="J20" s="9">
         <v>1</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="9">
+        <v>10</v>
+      </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -1784,7 +1814,7 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1806,7 +1836,9 @@
       <c r="J21" s="9">
         <v>7</v>
       </c>
-      <c r="K21" s="9"/>
+      <c r="K21" s="9">
+        <v>29</v>
+      </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -1825,7 +1857,7 @@
       <c r="AA21" s="9"/>
       <c r="AB21" s="9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1847,7 +1879,9 @@
       <c r="J22" s="9">
         <v>0</v>
       </c>
-      <c r="K22" s="9"/>
+      <c r="K22" s="9">
+        <v>19</v>
+      </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -1866,7 +1900,7 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1886,7 +1920,9 @@
       <c r="J23" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K23" s="9"/>
+      <c r="K23" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -1925,7 +1961,9 @@
       <c r="J24" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K24" s="9"/>
+      <c r="K24" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -1964,7 +2002,9 @@
       <c r="J25" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K25" s="9"/>
+      <c r="K25" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -2003,7 +2043,9 @@
       <c r="J26" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K26" s="9"/>
+      <c r="K26" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -2042,7 +2084,9 @@
       <c r="J27" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K27" s="9"/>
+      <c r="K27" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -2081,7 +2125,9 @@
       <c r="J28" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K28" s="9"/>
+      <c r="K28" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -2122,7 +2168,9 @@
       <c r="J29" s="9">
         <v>11</v>
       </c>
-      <c r="K29" s="9"/>
+      <c r="K29" s="9">
+        <v>25</v>
+      </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -2141,7 +2189,7 @@
       <c r="AA29" s="9"/>
       <c r="AB29" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2365,7 +2413,7 @@
         <v>22</v>
       </c>
       <c r="K35" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -2385,7 +2433,7 @@
       <c r="AA35" s="9"/>
       <c r="AB35" s="9">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2767,7 +2815,9 @@
       <c r="J45" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K45" s="9"/>
+      <c r="K45" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -2808,7 +2858,9 @@
       <c r="J46" s="9">
         <v>5</v>
       </c>
-      <c r="K46" s="9"/>
+      <c r="K46" s="9">
+        <v>6</v>
+      </c>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -2827,7 +2879,7 @@
       <c r="AA46" s="9"/>
       <c r="AB46" s="9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2849,7 +2901,9 @@
       <c r="J47" s="9">
         <v>1</v>
       </c>
-      <c r="K47" s="9"/>
+      <c r="K47" s="9">
+        <v>7</v>
+      </c>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -2868,7 +2922,7 @@
       <c r="AA47" s="9"/>
       <c r="AB47" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2888,7 +2942,9 @@
       <c r="J48" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K48" s="9"/>
+      <c r="K48" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -2929,7 +2985,9 @@
       <c r="J49" s="9">
         <v>7</v>
       </c>
-      <c r="K49" s="9"/>
+      <c r="K49" s="9">
+        <v>2</v>
+      </c>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -2948,7 +3006,7 @@
       <c r="AA49" s="9"/>
       <c r="AB49" s="9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2970,7 +3028,9 @@
       <c r="J50" s="9">
         <v>5</v>
       </c>
-      <c r="K50" s="9"/>
+      <c r="K50" s="9">
+        <v>0</v>
+      </c>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -3011,7 +3071,9 @@
       <c r="J51" s="9">
         <v>7</v>
       </c>
-      <c r="K51" s="9"/>
+      <c r="K51" s="9">
+        <v>-6</v>
+      </c>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -3030,7 +3092,7 @@
       <c r="AA51" s="9"/>
       <c r="AB51" s="9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3050,7 +3112,9 @@
       <c r="J52" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K52" s="9"/>
+      <c r="K52" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -3089,7 +3153,9 @@
       <c r="J53" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K53" s="9"/>
+      <c r="K53" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -3128,7 +3194,9 @@
       <c r="J54" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K54" s="9"/>
+      <c r="K54" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
@@ -3167,7 +3235,9 @@
       <c r="J55" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K55" s="9"/>
+      <c r="K55" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
@@ -3206,7 +3276,9 @@
       <c r="J56" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K56" s="9"/>
+      <c r="K56" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
@@ -3247,7 +3319,9 @@
       <c r="J57" s="9">
         <v>10</v>
       </c>
-      <c r="K57" s="9"/>
+      <c r="K57" s="9">
+        <v>1</v>
+      </c>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
@@ -3266,7 +3340,7 @@
       <c r="AA57" s="9"/>
       <c r="AB57" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3317,7 +3391,9 @@
       <c r="J59" s="9">
         <v>21</v>
       </c>
-      <c r="K59" s="9"/>
+      <c r="K59" s="9">
+        <v>9</v>
+      </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
@@ -3336,7 +3412,7 @@
       <c r="AA59" s="9"/>
       <c r="AB59" s="9">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3358,7 +3434,9 @@
       <c r="J60" s="9">
         <v>15</v>
       </c>
-      <c r="K60" s="9"/>
+      <c r="K60" s="9">
+        <v>12</v>
+      </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
@@ -3377,7 +3455,7 @@
       <c r="AA60" s="9"/>
       <c r="AB60" s="9">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3399,7 +3477,9 @@
       <c r="J61" s="9">
         <v>14</v>
       </c>
-      <c r="K61" s="9"/>
+      <c r="K61" s="9">
+        <v>23</v>
+      </c>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
@@ -3418,7 +3498,7 @@
       <c r="AA61" s="9"/>
       <c r="AB61" s="9">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3440,7 +3520,9 @@
       <c r="J62" s="9">
         <v>25</v>
       </c>
-      <c r="K62" s="9"/>
+      <c r="K62" s="9">
+        <v>26</v>
+      </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
@@ -3459,7 +3541,7 @@
       <c r="AA62" s="9"/>
       <c r="AB62" s="9">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3481,7 +3563,9 @@
       <c r="J63" s="9">
         <v>20</v>
       </c>
-      <c r="K63" s="9"/>
+      <c r="K63" s="9">
+        <v>11</v>
+      </c>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
@@ -3500,7 +3584,7 @@
       <c r="AA63" s="9"/>
       <c r="AB63" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3520,7 +3604,9 @@
       <c r="J64" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K64" s="9"/>
+      <c r="K64" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
@@ -3559,7 +3645,9 @@
       <c r="J65" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K65" s="9"/>
+      <c r="K65" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
@@ -3598,7 +3686,9 @@
       <c r="J66" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K66" s="9"/>
+      <c r="K66" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
@@ -3637,7 +3727,9 @@
       <c r="J67" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K67" s="9"/>
+      <c r="K67" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -3676,7 +3768,9 @@
       <c r="J68" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K68" s="9"/>
+      <c r="K68" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
@@ -3715,7 +3809,9 @@
       <c r="J69" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K69" s="9"/>
+      <c r="K69" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
@@ -3756,7 +3852,9 @@
       <c r="J70" s="9">
         <v>33</v>
       </c>
-      <c r="K70" s="9"/>
+      <c r="K70" s="9">
+        <v>23</v>
+      </c>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
@@ -3775,7 +3873,7 @@
       <c r="AA70" s="9"/>
       <c r="AB70" s="9">
         <f t="shared" ref="AB70:AB133" si="1">SUM(J70:AA70)</f>
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3826,7 +3924,9 @@
       <c r="J72" s="9">
         <v>11</v>
       </c>
-      <c r="K72" s="9"/>
+      <c r="K72" s="9">
+        <v>13</v>
+      </c>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
@@ -3845,7 +3945,7 @@
       <c r="AA72" s="9"/>
       <c r="AB72" s="9">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3867,7 +3967,9 @@
       <c r="J73" s="9">
         <v>14</v>
       </c>
-      <c r="K73" s="9"/>
+      <c r="K73" s="9">
+        <v>16</v>
+      </c>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
@@ -3886,7 +3988,7 @@
       <c r="AA73" s="9"/>
       <c r="AB73" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3908,7 +4010,9 @@
       <c r="J74" s="9">
         <v>20</v>
       </c>
-      <c r="K74" s="9"/>
+      <c r="K74" s="9">
+        <v>20</v>
+      </c>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
@@ -3927,7 +4031,7 @@
       <c r="AA74" s="9"/>
       <c r="AB74" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3949,7 +4053,9 @@
       <c r="J75" s="9">
         <v>16</v>
       </c>
-      <c r="K75" s="9"/>
+      <c r="K75" s="9">
+        <v>26</v>
+      </c>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
@@ -3968,7 +4074,7 @@
       <c r="AA75" s="9"/>
       <c r="AB75" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3990,7 +4096,9 @@
       <c r="J76" s="9">
         <v>11</v>
       </c>
-      <c r="K76" s="9"/>
+      <c r="K76" s="9">
+        <v>17</v>
+      </c>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
@@ -4009,7 +4117,7 @@
       <c r="AA76" s="9"/>
       <c r="AB76" s="9">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4029,7 +4137,9 @@
       <c r="J77" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K77" s="9"/>
+      <c r="K77" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
@@ -4068,7 +4178,9 @@
       <c r="J78" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K78" s="9"/>
+      <c r="K78" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
@@ -4107,7 +4219,9 @@
       <c r="J79" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K79" s="9"/>
+      <c r="K79" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
@@ -4146,7 +4260,9 @@
       <c r="J80" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K80" s="9"/>
+      <c r="K80" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
@@ -4185,7 +4301,9 @@
       <c r="J81" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K81" s="9"/>
+      <c r="K81" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
@@ -4224,7 +4342,9 @@
       <c r="J82" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K82" s="9"/>
+      <c r="K82" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
@@ -4265,7 +4385,9 @@
       <c r="J83" s="9">
         <v>33</v>
       </c>
-      <c r="K83" s="9"/>
+      <c r="K83" s="9">
+        <v>28</v>
+      </c>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
@@ -4284,7 +4406,7 @@
       <c r="AA83" s="9"/>
       <c r="AB83" s="9">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4335,7 +4457,9 @@
       <c r="J85" s="9">
         <v>14</v>
       </c>
-      <c r="K85" s="9"/>
+      <c r="K85" s="9">
+        <v>2</v>
+      </c>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
@@ -4354,7 +4478,7 @@
       <c r="AA85" s="9"/>
       <c r="AB85" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4376,7 +4500,9 @@
       <c r="J86" s="9">
         <v>12</v>
       </c>
-      <c r="K86" s="9"/>
+      <c r="K86" s="9">
+        <v>5</v>
+      </c>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
@@ -4395,7 +4521,7 @@
       <c r="AA86" s="9"/>
       <c r="AB86" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4417,7 +4543,9 @@
       <c r="J87" s="9">
         <v>19</v>
       </c>
-      <c r="K87" s="9"/>
+      <c r="K87" s="9">
+        <v>-1</v>
+      </c>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
@@ -4436,7 +4564,7 @@
       <c r="AA87" s="9"/>
       <c r="AB87" s="9">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4458,7 +4586,9 @@
       <c r="J88" s="9">
         <v>18</v>
       </c>
-      <c r="K88" s="9"/>
+      <c r="K88" s="9">
+        <v>7</v>
+      </c>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
@@ -4477,7 +4607,7 @@
       <c r="AA88" s="9"/>
       <c r="AB88" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4499,7 +4629,9 @@
       <c r="J89" s="9">
         <v>18</v>
       </c>
-      <c r="K89" s="9"/>
+      <c r="K89" s="9">
+        <v>4</v>
+      </c>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -4518,7 +4650,7 @@
       <c r="AA89" s="9"/>
       <c r="AB89" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4538,7 +4670,9 @@
       <c r="J90" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K90" s="9"/>
+      <c r="K90" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
@@ -4577,7 +4711,9 @@
       <c r="J91" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K91" s="9"/>
+      <c r="K91" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
@@ -4616,7 +4752,9 @@
       <c r="J92" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K92" s="9"/>
+      <c r="K92" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
@@ -4655,7 +4793,9 @@
       <c r="J93" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K93" s="9"/>
+      <c r="K93" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L93" s="9"/>
       <c r="M93" s="12"/>
       <c r="N93" s="9"/>
@@ -4694,7 +4834,9 @@
       <c r="J94" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K94" s="9"/>
+      <c r="K94" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
@@ -4733,7 +4875,9 @@
       <c r="J95" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K95" s="9"/>
+      <c r="K95" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
@@ -4772,7 +4916,9 @@
       <c r="J96" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K96" s="9"/>
+      <c r="K96" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
@@ -4813,7 +4959,9 @@
       <c r="J97" s="9">
         <v>17</v>
       </c>
-      <c r="K97" s="9"/>
+      <c r="K97" s="9">
+        <v>6</v>
+      </c>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
@@ -4832,7 +4980,7 @@
       <c r="AA97" s="9"/>
       <c r="AB97" s="9">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/LEC.xlsx
+++ b/LEC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\FantasyOfLegends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BD7E58-E6A1-490D-8EFD-08BFD98CDE26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618FC2F5-90A9-4D09-A0A1-328C47B0EBA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40065828-DACB-4FAF-8B4F-65B8FCADECA5}"/>
   </bookViews>
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6F4F5-5FE8-493F-8E1B-F71CC0CB1EFB}">
   <dimension ref="E3:AC705"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M118" sqref="M118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5737,7 +5737,7 @@
         <v>13</v>
       </c>
       <c r="K116" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L116" s="9"/>
       <c r="M116" s="9"/>
@@ -5757,7 +5757,7 @@
       <c r="AA116" s="9"/>
       <c r="AB116" s="9">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6641,7 +6641,7 @@
         <v>20</v>
       </c>
       <c r="K138" s="9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L138" s="9"/>
       <c r="M138" s="9"/>
@@ -6661,7 +6661,7 @@
       <c r="AA138" s="9"/>
       <c r="AB138" s="9">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/LEC.xlsx
+++ b/LEC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\FantasyOfLegends\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FantasyOfLegend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618FC2F5-90A9-4D09-A0A1-328C47B0EBA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1A6824-7173-4156-9B67-278D0B7D30D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40065828-DACB-4FAF-8B4F-65B8FCADECA5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="149">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6F4F5-5FE8-493F-8E1B-F71CC0CB1EFB}">
   <dimension ref="E3:AC705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M118" sqref="M118"/>
+    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1179,9 @@
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="N5" s="9">
+        <v>13</v>
+      </c>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
@@ -1195,7 +1197,7 @@
       <c r="AA5" s="9"/>
       <c r="AB5" s="9">
         <f>SUM(J5:AA5)</f>
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1222,7 +1224,9 @@
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="N6" s="9">
+        <v>10</v>
+      </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
@@ -1238,7 +1242,7 @@
       <c r="AA6" s="9"/>
       <c r="AB6" s="9">
         <f t="shared" ref="AB6:AB69" si="0">SUM(J6:AA6)</f>
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1265,7 +1269,9 @@
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="N7" s="9">
+        <v>13</v>
+      </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
@@ -1281,7 +1287,7 @@
       <c r="AA7" s="9"/>
       <c r="AB7" s="9">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1308,7 +1314,9 @@
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="N8" s="9">
+        <v>9</v>
+      </c>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -1324,7 +1332,7 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="9">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1351,7 +1359,9 @@
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="N9" s="9">
+        <v>11</v>
+      </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -1367,7 +1377,7 @@
       <c r="AA9" s="9"/>
       <c r="AB9" s="9">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1392,7 +1402,9 @@
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="N10" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -1433,7 +1445,9 @@
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="N11" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -1474,7 +1488,9 @@
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="N12" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -1515,7 +1531,9 @@
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="N13" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
@@ -1556,7 +1574,9 @@
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="N14" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
@@ -1597,7 +1617,9 @@
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="N15" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
@@ -1640,7 +1662,9 @@
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="N16" s="9">
+        <v>11</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -1656,7 +1680,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1712,7 +1736,9 @@
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="N18" s="9">
+        <v>13</v>
+      </c>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -1728,7 +1754,7 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1755,7 +1781,9 @@
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="N19" s="9">
+        <v>4</v>
+      </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -1771,7 +1799,7 @@
       <c r="AA19" s="9"/>
       <c r="AB19" s="9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1798,7 +1826,9 @@
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="N20" s="9">
+        <v>8</v>
+      </c>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
@@ -1814,7 +1844,7 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1841,7 +1871,9 @@
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+      <c r="N21" s="9">
+        <v>15</v>
+      </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -1857,7 +1889,7 @@
       <c r="AA21" s="9"/>
       <c r="AB21" s="9">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1884,7 +1916,9 @@
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="N22" s="9">
+        <v>11</v>
+      </c>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
@@ -1900,7 +1934,7 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1925,7 +1959,9 @@
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="N23" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
@@ -1966,7 +2002,9 @@
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
+      <c r="N24" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
@@ -2007,7 +2045,9 @@
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="N25" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -2048,7 +2088,9 @@
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
+      <c r="N26" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
@@ -2089,7 +2131,9 @@
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
+      <c r="N27" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
@@ -2130,7 +2174,9 @@
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
+      <c r="N28" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
@@ -2173,7 +2219,9 @@
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
+      <c r="N29" s="9">
+        <v>23</v>
+      </c>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
@@ -2189,7 +2237,7 @@
       <c r="AA29" s="9"/>
       <c r="AB29" s="9">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2245,7 +2293,9 @@
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
+      <c r="N31" s="9">
+        <v>17</v>
+      </c>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
@@ -2261,7 +2311,7 @@
       <c r="AA31" s="9"/>
       <c r="AB31" s="9">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2288,7 +2338,9 @@
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
+      <c r="N32" s="9">
+        <v>25</v>
+      </c>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
@@ -2304,7 +2356,7 @@
       <c r="AA32" s="9"/>
       <c r="AB32" s="9">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2331,7 +2383,9 @@
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
+      <c r="N33" s="9">
+        <v>23</v>
+      </c>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
@@ -2347,7 +2401,7 @@
       <c r="AA33" s="9"/>
       <c r="AB33" s="9">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2374,7 +2428,9 @@
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+      <c r="N34" s="9">
+        <v>25</v>
+      </c>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
@@ -2390,7 +2446,7 @@
       <c r="AA34" s="9"/>
       <c r="AB34" s="9">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2417,7 +2473,9 @@
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
+      <c r="N35" s="9">
+        <v>18</v>
+      </c>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
@@ -2433,7 +2491,7 @@
       <c r="AA35" s="9"/>
       <c r="AB35" s="9">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2458,7 +2516,9 @@
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
+      <c r="N36" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
@@ -2502,7 +2562,9 @@
       </c>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
+      <c r="N37" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
@@ -2543,7 +2605,9 @@
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
+      <c r="N38" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
@@ -2584,7 +2648,9 @@
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
+      <c r="N39" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
@@ -2625,7 +2691,9 @@
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
+      <c r="N40" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
@@ -2666,7 +2734,9 @@
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
+      <c r="N41" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
@@ -2707,7 +2777,9 @@
       </c>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
+      <c r="N42" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
@@ -2750,7 +2822,9 @@
       </c>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
+      <c r="N43" s="9">
+        <v>32</v>
+      </c>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
@@ -2766,7 +2840,7 @@
       <c r="AA43" s="9"/>
       <c r="AB43" s="9">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2820,7 +2894,9 @@
       </c>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
+      <c r="N45" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
@@ -2863,7 +2939,9 @@
       </c>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
+      <c r="N46" s="9">
+        <v>22</v>
+      </c>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
@@ -2879,7 +2957,7 @@
       <c r="AA46" s="9"/>
       <c r="AB46" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2906,7 +2984,9 @@
       </c>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
+      <c r="N47" s="9">
+        <v>23</v>
+      </c>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
@@ -2922,7 +3002,7 @@
       <c r="AA47" s="9"/>
       <c r="AB47" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2947,7 +3027,9 @@
       </c>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
+      <c r="N48" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
@@ -2990,7 +3072,9 @@
       </c>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
+      <c r="N49" s="9">
+        <v>22</v>
+      </c>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
@@ -3006,7 +3090,7 @@
       <c r="AA49" s="9"/>
       <c r="AB49" s="9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3033,7 +3117,9 @@
       </c>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
+      <c r="N50" s="9">
+        <v>28</v>
+      </c>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
@@ -3049,7 +3135,7 @@
       <c r="AA50" s="9"/>
       <c r="AB50" s="9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3076,7 +3162,9 @@
       </c>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
+      <c r="N51" s="9">
+        <v>21</v>
+      </c>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
@@ -3092,7 +3180,7 @@
       <c r="AA51" s="9"/>
       <c r="AB51" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3117,7 +3205,9 @@
       </c>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
+      <c r="N52" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
@@ -3158,7 +3248,9 @@
       </c>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
+      <c r="N53" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
@@ -3199,7 +3291,9 @@
       </c>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
+      <c r="N54" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
@@ -3240,7 +3334,9 @@
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
+      <c r="N55" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
@@ -3281,7 +3377,9 @@
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
+      <c r="N56" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
@@ -3324,7 +3422,9 @@
       </c>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
+      <c r="N57" s="9">
+        <v>38</v>
+      </c>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
@@ -3340,7 +3440,7 @@
       <c r="AA57" s="9"/>
       <c r="AB57" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3396,7 +3496,9 @@
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
+      <c r="N59" s="9">
+        <v>19</v>
+      </c>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
@@ -3412,7 +3514,7 @@
       <c r="AA59" s="9"/>
       <c r="AB59" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3439,7 +3541,9 @@
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
+      <c r="N60" s="9">
+        <v>16</v>
+      </c>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
@@ -3455,7 +3559,7 @@
       <c r="AA60" s="9"/>
       <c r="AB60" s="9">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3482,7 +3586,9 @@
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
+      <c r="N61" s="9">
+        <v>12</v>
+      </c>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
@@ -3498,7 +3604,7 @@
       <c r="AA61" s="9"/>
       <c r="AB61" s="9">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3525,7 +3631,9 @@
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
+      <c r="N62" s="9">
+        <v>28</v>
+      </c>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
@@ -3541,7 +3649,7 @@
       <c r="AA62" s="9"/>
       <c r="AB62" s="9">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3568,7 +3676,9 @@
       </c>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
+      <c r="N63" s="9">
+        <v>13</v>
+      </c>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
@@ -3584,7 +3694,7 @@
       <c r="AA63" s="9"/>
       <c r="AB63" s="9">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3609,7 +3719,9 @@
       </c>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
+      <c r="N64" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
       <c r="Q64" s="9"/>
@@ -3650,7 +3762,9 @@
       </c>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
+      <c r="N65" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
       <c r="Q65" s="9"/>
@@ -3691,7 +3805,9 @@
       </c>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
+      <c r="N66" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
@@ -3732,7 +3848,9 @@
       </c>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
+      <c r="N67" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
       <c r="Q67" s="9"/>
@@ -3773,7 +3891,9 @@
       </c>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
+      <c r="N68" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
       <c r="Q68" s="9"/>
@@ -3814,7 +3934,9 @@
       </c>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
+      <c r="N69" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
       <c r="Q69" s="9"/>
@@ -3857,7 +3979,9 @@
       </c>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
+      <c r="N70" s="9">
+        <v>25</v>
+      </c>
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
       <c r="Q70" s="9"/>
@@ -3873,7 +3997,7 @@
       <c r="AA70" s="9"/>
       <c r="AB70" s="9">
         <f t="shared" ref="AB70:AB133" si="1">SUM(J70:AA70)</f>
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3929,7 +4053,9 @@
       </c>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
+      <c r="N72" s="9">
+        <v>13</v>
+      </c>
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
@@ -3945,7 +4071,7 @@
       <c r="AA72" s="9"/>
       <c r="AB72" s="9">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3972,7 +4098,9 @@
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
+      <c r="N73" s="9">
+        <v>13</v>
+      </c>
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
       <c r="Q73" s="9"/>
@@ -3988,7 +4116,7 @@
       <c r="AA73" s="9"/>
       <c r="AB73" s="9">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4015,7 +4143,9 @@
       </c>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
+      <c r="N74" s="9">
+        <v>16</v>
+      </c>
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
       <c r="Q74" s="9"/>
@@ -4031,7 +4161,7 @@
       <c r="AA74" s="9"/>
       <c r="AB74" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4058,7 +4188,9 @@
       </c>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
+      <c r="N75" s="9">
+        <v>9</v>
+      </c>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
@@ -4074,7 +4206,7 @@
       <c r="AA75" s="9"/>
       <c r="AB75" s="9">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4101,7 +4233,9 @@
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
+      <c r="N76" s="9">
+        <v>1</v>
+      </c>
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
       <c r="Q76" s="9"/>
@@ -4117,7 +4251,7 @@
       <c r="AA76" s="9"/>
       <c r="AB76" s="9">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4142,7 +4276,9 @@
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
+      <c r="N77" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
@@ -4183,7 +4319,9 @@
       </c>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
+      <c r="N78" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
       <c r="Q78" s="9"/>
@@ -4224,7 +4362,9 @@
       </c>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
+      <c r="N79" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
@@ -4265,7 +4405,9 @@
       </c>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
+      <c r="N80" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
@@ -4306,7 +4448,9 @@
       </c>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
+      <c r="N81" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
       <c r="Q81" s="9"/>
@@ -4347,7 +4491,9 @@
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
+      <c r="N82" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
       <c r="Q82" s="9"/>
@@ -4390,7 +4536,9 @@
       </c>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
+      <c r="N83" s="9">
+        <v>15</v>
+      </c>
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
       <c r="Q83" s="9"/>
@@ -4406,7 +4554,7 @@
       <c r="AA83" s="9"/>
       <c r="AB83" s="9">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4462,7 +4610,9 @@
       </c>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
+      <c r="N85" s="9">
+        <v>13</v>
+      </c>
       <c r="O85" s="9"/>
       <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
@@ -4478,7 +4628,7 @@
       <c r="AA85" s="9"/>
       <c r="AB85" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4505,7 +4655,9 @@
       </c>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
+      <c r="N86" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O86" s="9"/>
       <c r="P86" s="9"/>
       <c r="Q86" s="9"/>
@@ -4548,7 +4700,9 @@
       </c>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
+      <c r="N87" s="9">
+        <v>-2</v>
+      </c>
       <c r="O87" s="9"/>
       <c r="P87" s="9"/>
       <c r="Q87" s="9"/>
@@ -4564,7 +4718,7 @@
       <c r="AA87" s="9"/>
       <c r="AB87" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4591,7 +4745,9 @@
       </c>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
+      <c r="N88" s="9">
+        <v>2</v>
+      </c>
       <c r="O88" s="9"/>
       <c r="P88" s="9"/>
       <c r="Q88" s="9"/>
@@ -4607,7 +4763,7 @@
       <c r="AA88" s="9"/>
       <c r="AB88" s="9">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4634,7 +4790,9 @@
       </c>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
+      <c r="N89" s="9">
+        <v>-6</v>
+      </c>
       <c r="O89" s="9"/>
       <c r="P89" s="9"/>
       <c r="Q89" s="9"/>
@@ -4650,7 +4808,7 @@
       <c r="AA89" s="9"/>
       <c r="AB89" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4675,7 +4833,9 @@
       </c>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
+      <c r="N90" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O90" s="9"/>
       <c r="P90" s="9"/>
       <c r="Q90" s="9"/>
@@ -4716,7 +4876,9 @@
       </c>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
+      <c r="N91" s="9">
+        <v>-1</v>
+      </c>
       <c r="O91" s="9"/>
       <c r="P91" s="9"/>
       <c r="Q91" s="9"/>
@@ -4732,7 +4894,7 @@
       <c r="AA91" s="9"/>
       <c r="AB91" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4757,7 +4919,9 @@
       </c>
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
+      <c r="N92" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O92" s="9"/>
       <c r="P92" s="9"/>
       <c r="Q92" s="9"/>
@@ -4798,7 +4962,9 @@
       </c>
       <c r="L93" s="9"/>
       <c r="M93" s="12"/>
-      <c r="N93" s="9"/>
+      <c r="N93" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O93" s="9"/>
       <c r="P93" s="9"/>
       <c r="Q93" s="9"/>
@@ -4839,7 +5005,9 @@
       </c>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
+      <c r="N94" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O94" s="9"/>
       <c r="P94" s="9"/>
       <c r="Q94" s="9"/>
@@ -4880,7 +5048,9 @@
       </c>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
+      <c r="N95" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O95" s="9"/>
       <c r="P95" s="9"/>
       <c r="Q95" s="9"/>
@@ -4921,7 +5091,9 @@
       </c>
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
-      <c r="N96" s="9"/>
+      <c r="N96" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O96" s="9"/>
       <c r="P96" s="9"/>
       <c r="Q96" s="9"/>
@@ -4964,7 +5136,9 @@
       </c>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
-      <c r="N97" s="9"/>
+      <c r="N97" s="9">
+        <v>3</v>
+      </c>
       <c r="O97" s="9"/>
       <c r="P97" s="9"/>
       <c r="Q97" s="9"/>
@@ -4980,7 +5154,7 @@
       <c r="AA97" s="9"/>
       <c r="AB97" s="9">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5036,7 +5210,9 @@
       </c>
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
-      <c r="N99" s="9"/>
+      <c r="N99" s="9">
+        <v>0</v>
+      </c>
       <c r="O99" s="9"/>
       <c r="P99" s="9"/>
       <c r="Q99" s="9"/>
@@ -5079,7 +5255,9 @@
       </c>
       <c r="L100" s="9"/>
       <c r="M100" s="9"/>
-      <c r="N100" s="9"/>
+      <c r="N100" s="9">
+        <v>-1</v>
+      </c>
       <c r="O100" s="9"/>
       <c r="P100" s="9"/>
       <c r="Q100" s="9"/>
@@ -5095,7 +5273,7 @@
       <c r="AA100" s="9"/>
       <c r="AB100" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5122,7 +5300,9 @@
       </c>
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
-      <c r="N101" s="9"/>
+      <c r="N101" s="9">
+        <v>-5</v>
+      </c>
       <c r="O101" s="9"/>
       <c r="P101" s="9"/>
       <c r="Q101" s="9"/>
@@ -5138,7 +5318,7 @@
       <c r="AA101" s="9"/>
       <c r="AB101" s="9">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5165,7 +5345,9 @@
       </c>
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
-      <c r="N102" s="9"/>
+      <c r="N102" s="9">
+        <v>2</v>
+      </c>
       <c r="O102" s="9"/>
       <c r="P102" s="9"/>
       <c r="Q102" s="9"/>
@@ -5181,7 +5363,7 @@
       <c r="AA102" s="9"/>
       <c r="AB102" s="9">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5208,7 +5390,9 @@
       </c>
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
-      <c r="N103" s="9"/>
+      <c r="N103" s="9">
+        <v>1</v>
+      </c>
       <c r="O103" s="9"/>
       <c r="P103" s="9"/>
       <c r="Q103" s="9"/>
@@ -5224,7 +5408,7 @@
       <c r="AA103" s="9"/>
       <c r="AB103" s="9">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5249,7 +5433,9 @@
       </c>
       <c r="L104" s="9"/>
       <c r="M104" s="9"/>
-      <c r="N104" s="9"/>
+      <c r="N104" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O104" s="9"/>
       <c r="P104" s="9"/>
       <c r="Q104" s="9"/>
@@ -5290,7 +5476,9 @@
       </c>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
-      <c r="N105" s="9"/>
+      <c r="N105" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O105" s="9"/>
       <c r="P105" s="9"/>
       <c r="Q105" s="9"/>
@@ -5331,7 +5519,9 @@
       </c>
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
-      <c r="N106" s="9"/>
+      <c r="N106" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O106" s="9"/>
       <c r="P106" s="9"/>
       <c r="Q106" s="9"/>
@@ -5372,7 +5562,9 @@
       </c>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
-      <c r="N107" s="9"/>
+      <c r="N107" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O107" s="9"/>
       <c r="P107" s="9"/>
       <c r="Q107" s="9"/>
@@ -5413,7 +5605,9 @@
       </c>
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
-      <c r="N108" s="9"/>
+      <c r="N108" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O108" s="9"/>
       <c r="P108" s="9"/>
       <c r="Q108" s="9"/>
@@ -5454,7 +5648,9 @@
       </c>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
-      <c r="N109" s="9"/>
+      <c r="N109" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O109" s="9"/>
       <c r="P109" s="9"/>
       <c r="Q109" s="9"/>
@@ -5497,7 +5693,9 @@
       </c>
       <c r="L110" s="9"/>
       <c r="M110" s="9"/>
-      <c r="N110" s="9"/>
+      <c r="N110" s="9">
+        <v>0</v>
+      </c>
       <c r="O110" s="9"/>
       <c r="P110" s="9"/>
       <c r="Q110" s="9"/>
@@ -5569,7 +5767,9 @@
       </c>
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
-      <c r="N112" s="9"/>
+      <c r="N112" s="9">
+        <v>10</v>
+      </c>
       <c r="O112" s="9"/>
       <c r="P112" s="9"/>
       <c r="Q112" s="9"/>
@@ -5585,7 +5785,7 @@
       <c r="AA112" s="9"/>
       <c r="AB112" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5612,7 +5812,9 @@
       </c>
       <c r="L113" s="9"/>
       <c r="M113" s="9"/>
-      <c r="N113" s="9"/>
+      <c r="N113" s="9">
+        <v>14</v>
+      </c>
       <c r="O113" s="9"/>
       <c r="P113" s="9"/>
       <c r="Q113" s="9"/>
@@ -5628,7 +5830,7 @@
       <c r="AA113" s="9"/>
       <c r="AB113" s="9">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5655,7 +5857,9 @@
       </c>
       <c r="L114" s="9"/>
       <c r="M114" s="9"/>
-      <c r="N114" s="9"/>
+      <c r="N114" s="9">
+        <v>15</v>
+      </c>
       <c r="O114" s="9"/>
       <c r="P114" s="9"/>
       <c r="Q114" s="9"/>
@@ -5671,7 +5875,7 @@
       <c r="AA114" s="9"/>
       <c r="AB114" s="9">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5698,7 +5902,9 @@
       </c>
       <c r="L115" s="9"/>
       <c r="M115" s="9"/>
-      <c r="N115" s="9"/>
+      <c r="N115" s="9">
+        <v>19</v>
+      </c>
       <c r="O115" s="9"/>
       <c r="P115" s="9"/>
       <c r="Q115" s="9"/>
@@ -5714,7 +5920,7 @@
       <c r="AA115" s="9"/>
       <c r="AB115" s="9">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5741,7 +5947,9 @@
       </c>
       <c r="L116" s="9"/>
       <c r="M116" s="9"/>
-      <c r="N116" s="9"/>
+      <c r="N116" s="9">
+        <v>11</v>
+      </c>
       <c r="O116" s="9"/>
       <c r="P116" s="9"/>
       <c r="Q116" s="9"/>
@@ -5757,7 +5965,7 @@
       <c r="AA116" s="9"/>
       <c r="AB116" s="9">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5782,7 +5990,9 @@
       </c>
       <c r="L117" s="9"/>
       <c r="M117" s="9"/>
-      <c r="N117" s="9"/>
+      <c r="N117" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O117" s="9"/>
       <c r="P117" s="9"/>
       <c r="Q117" s="9"/>
@@ -5823,7 +6033,9 @@
       </c>
       <c r="L118" s="9"/>
       <c r="M118" s="9"/>
-      <c r="N118" s="9"/>
+      <c r="N118" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O118" s="9"/>
       <c r="P118" s="9"/>
       <c r="Q118" s="9"/>
@@ -5864,7 +6076,9 @@
       </c>
       <c r="L119" s="9"/>
       <c r="M119" s="9"/>
-      <c r="N119" s="9"/>
+      <c r="N119" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O119" s="9"/>
       <c r="P119" s="9"/>
       <c r="Q119" s="9"/>
@@ -5905,7 +6119,9 @@
       </c>
       <c r="L120" s="9"/>
       <c r="M120" s="9"/>
-      <c r="N120" s="9"/>
+      <c r="N120" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O120" s="9"/>
       <c r="P120" s="9"/>
       <c r="Q120" s="9"/>
@@ -5946,7 +6162,9 @@
       </c>
       <c r="L121" s="9"/>
       <c r="M121" s="9"/>
-      <c r="N121" s="9"/>
+      <c r="N121" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O121" s="9"/>
       <c r="P121" s="9"/>
       <c r="Q121" s="9"/>
@@ -5987,7 +6205,9 @@
       </c>
       <c r="L122" s="9"/>
       <c r="M122" s="9"/>
-      <c r="N122" s="9"/>
+      <c r="N122" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O122" s="9"/>
       <c r="P122" s="9"/>
       <c r="Q122" s="9"/>
@@ -6030,7 +6250,9 @@
       </c>
       <c r="L123" s="9"/>
       <c r="M123" s="9"/>
-      <c r="N123" s="9"/>
+      <c r="N123" s="9">
+        <v>35</v>
+      </c>
       <c r="O123" s="9"/>
       <c r="P123" s="9"/>
       <c r="Q123" s="9"/>
@@ -6046,7 +6268,7 @@
       <c r="AA123" s="9"/>
       <c r="AB123" s="9">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6102,7 +6324,9 @@
       </c>
       <c r="L125" s="9"/>
       <c r="M125" s="9"/>
-      <c r="N125" s="9"/>
+      <c r="N125" s="9">
+        <v>1</v>
+      </c>
       <c r="O125" s="9"/>
       <c r="P125" s="9"/>
       <c r="Q125" s="9"/>
@@ -6118,7 +6342,7 @@
       <c r="AA125" s="9"/>
       <c r="AB125" s="9">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6143,7 +6367,9 @@
       </c>
       <c r="L126" s="9"/>
       <c r="M126" s="9"/>
-      <c r="N126" s="9"/>
+      <c r="N126" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O126" s="9"/>
       <c r="P126" s="9"/>
       <c r="Q126" s="9"/>
@@ -6186,7 +6412,9 @@
       </c>
       <c r="L127" s="9"/>
       <c r="M127" s="9"/>
-      <c r="N127" s="9"/>
+      <c r="N127" s="9">
+        <v>4</v>
+      </c>
       <c r="O127" s="9"/>
       <c r="P127" s="9"/>
       <c r="Q127" s="9"/>
@@ -6202,7 +6430,7 @@
       <c r="AA127" s="9"/>
       <c r="AB127" s="9">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6227,7 +6455,9 @@
       </c>
       <c r="L128" s="9"/>
       <c r="M128" s="9"/>
-      <c r="N128" s="9"/>
+      <c r="N128" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O128" s="9"/>
       <c r="P128" s="9"/>
       <c r="Q128" s="9"/>
@@ -6270,7 +6500,9 @@
       </c>
       <c r="L129" s="9"/>
       <c r="M129" s="9"/>
-      <c r="N129" s="9"/>
+      <c r="N129" s="9">
+        <v>4</v>
+      </c>
       <c r="O129" s="9"/>
       <c r="P129" s="9"/>
       <c r="Q129" s="9"/>
@@ -6286,7 +6518,7 @@
       <c r="AA129" s="9"/>
       <c r="AB129" s="9">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6313,7 +6545,9 @@
       </c>
       <c r="L130" s="9"/>
       <c r="M130" s="9"/>
-      <c r="N130" s="9"/>
+      <c r="N130" s="9">
+        <v>0</v>
+      </c>
       <c r="O130" s="9"/>
       <c r="P130" s="9"/>
       <c r="Q130" s="9"/>
@@ -6354,7 +6588,9 @@
       </c>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
-      <c r="N131" s="9"/>
+      <c r="N131" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O131" s="9"/>
       <c r="P131" s="9"/>
       <c r="Q131" s="9"/>
@@ -6395,7 +6631,9 @@
       </c>
       <c r="L132" s="9"/>
       <c r="M132" s="9"/>
-      <c r="N132" s="9"/>
+      <c r="N132" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O132" s="9"/>
       <c r="P132" s="9"/>
       <c r="Q132" s="9"/>
@@ -6438,7 +6676,9 @@
       </c>
       <c r="L133" s="9"/>
       <c r="M133" s="9"/>
-      <c r="N133" s="9"/>
+      <c r="N133" s="9">
+        <v>4</v>
+      </c>
       <c r="O133" s="9"/>
       <c r="P133" s="9"/>
       <c r="Q133" s="9"/>
@@ -6454,7 +6694,7 @@
       <c r="AA133" s="9"/>
       <c r="AB133" s="9">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6479,7 +6719,9 @@
       </c>
       <c r="L134" s="9"/>
       <c r="M134" s="9"/>
-      <c r="N134" s="9"/>
+      <c r="N134" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O134" s="9"/>
       <c r="P134" s="9"/>
       <c r="Q134" s="9"/>
@@ -6520,7 +6762,9 @@
       </c>
       <c r="L135" s="9"/>
       <c r="M135" s="9"/>
-      <c r="N135" s="9"/>
+      <c r="N135" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O135" s="9"/>
       <c r="P135" s="9"/>
       <c r="Q135" s="9"/>
@@ -6561,7 +6805,9 @@
       </c>
       <c r="L136" s="9"/>
       <c r="M136" s="9"/>
-      <c r="N136" s="9"/>
+      <c r="N136" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O136" s="9"/>
       <c r="P136" s="9"/>
       <c r="Q136" s="9"/>
@@ -6602,7 +6848,9 @@
       </c>
       <c r="L137" s="9"/>
       <c r="M137" s="9"/>
-      <c r="N137" s="9"/>
+      <c r="N137" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="O137" s="9"/>
       <c r="P137" s="9"/>
       <c r="Q137" s="9"/>
@@ -6645,7 +6893,9 @@
       </c>
       <c r="L138" s="9"/>
       <c r="M138" s="9"/>
-      <c r="N138" s="9"/>
+      <c r="N138" s="9">
+        <v>3</v>
+      </c>
       <c r="O138" s="9"/>
       <c r="P138" s="9"/>
       <c r="Q138" s="9"/>
@@ -6661,7 +6911,7 @@
       <c r="AA138" s="9"/>
       <c r="AB138" s="9">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/LEC.xlsx
+++ b/LEC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FantasyOfLegend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1A6824-7173-4156-9B67-278D0B7D30D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FFF0F6-E043-4F46-B977-156E8B0128DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40065828-DACB-4FAF-8B4F-65B8FCADECA5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="149">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6F4F5-5FE8-493F-8E1B-F71CC0CB1EFB}">
   <dimension ref="E3:AC705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1182,9 @@
       <c r="N5" s="9">
         <v>13</v>
       </c>
-      <c r="O5" s="9"/>
+      <c r="O5" s="9">
+        <v>14</v>
+      </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -1197,7 +1199,7 @@
       <c r="AA5" s="9"/>
       <c r="AB5" s="9">
         <f>SUM(J5:AA5)</f>
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1227,7 +1229,9 @@
       <c r="N6" s="9">
         <v>10</v>
       </c>
-      <c r="O6" s="9"/>
+      <c r="O6" s="9">
+        <v>7</v>
+      </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
@@ -1242,7 +1246,7 @@
       <c r="AA6" s="9"/>
       <c r="AB6" s="9">
         <f t="shared" ref="AB6:AB69" si="0">SUM(J6:AA6)</f>
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1272,7 +1276,9 @@
       <c r="N7" s="9">
         <v>13</v>
       </c>
-      <c r="O7" s="9"/>
+      <c r="O7" s="9">
+        <v>21</v>
+      </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
@@ -1287,7 +1293,7 @@
       <c r="AA7" s="9"/>
       <c r="AB7" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1317,7 +1323,9 @@
       <c r="N8" s="9">
         <v>9</v>
       </c>
-      <c r="O8" s="9"/>
+      <c r="O8" s="9">
+        <v>15</v>
+      </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -1332,7 +1340,7 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="9">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1362,7 +1370,9 @@
       <c r="N9" s="9">
         <v>11</v>
       </c>
-      <c r="O9" s="9"/>
+      <c r="O9" s="9">
+        <v>18</v>
+      </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -1377,7 +1387,7 @@
       <c r="AA9" s="9"/>
       <c r="AB9" s="9">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1405,7 +1415,9 @@
       <c r="N10" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O10" s="9"/>
+      <c r="O10" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
@@ -1448,7 +1460,9 @@
       <c r="N11" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O11" s="9"/>
+      <c r="O11" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
@@ -1491,7 +1505,9 @@
       <c r="N12" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O12" s="9"/>
+      <c r="O12" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
@@ -1534,7 +1550,9 @@
       <c r="N13" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O13" s="9"/>
+      <c r="O13" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -1577,7 +1595,9 @@
       <c r="N14" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O14" s="9"/>
+      <c r="O14" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
@@ -1620,7 +1640,9 @@
       <c r="N15" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O15" s="9"/>
+      <c r="O15" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
@@ -1665,7 +1687,9 @@
       <c r="N16" s="9">
         <v>11</v>
       </c>
-      <c r="O16" s="9"/>
+      <c r="O16" s="9">
+        <v>33</v>
+      </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
@@ -1680,7 +1704,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1739,7 +1763,9 @@
       <c r="N18" s="9">
         <v>13</v>
       </c>
-      <c r="O18" s="9"/>
+      <c r="O18" s="9">
+        <v>6</v>
+      </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
@@ -1754,7 +1780,7 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1784,7 +1810,9 @@
       <c r="N19" s="9">
         <v>4</v>
       </c>
-      <c r="O19" s="9"/>
+      <c r="O19" s="9">
+        <v>9</v>
+      </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
@@ -1799,7 +1827,7 @@
       <c r="AA19" s="9"/>
       <c r="AB19" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1829,7 +1857,9 @@
       <c r="N20" s="9">
         <v>8</v>
       </c>
-      <c r="O20" s="9"/>
+      <c r="O20" s="9">
+        <v>3</v>
+      </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -1844,7 +1874,7 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="9">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1874,7 +1904,9 @@
       <c r="N21" s="9">
         <v>15</v>
       </c>
-      <c r="O21" s="9"/>
+      <c r="O21" s="9">
+        <v>3</v>
+      </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
@@ -1889,7 +1921,7 @@
       <c r="AA21" s="9"/>
       <c r="AB21" s="9">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1919,7 +1951,9 @@
       <c r="N22" s="9">
         <v>11</v>
       </c>
-      <c r="O22" s="9"/>
+      <c r="O22" s="9">
+        <v>-3</v>
+      </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
@@ -1934,7 +1968,7 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1962,7 +1996,9 @@
       <c r="N23" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O23" s="9"/>
+      <c r="O23" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
@@ -2005,7 +2041,9 @@
       <c r="N24" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O24" s="9"/>
+      <c r="O24" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
@@ -2048,7 +2086,9 @@
       <c r="N25" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O25" s="9"/>
+      <c r="O25" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
@@ -2091,7 +2131,9 @@
       <c r="N26" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O26" s="9"/>
+      <c r="O26" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
@@ -2134,7 +2176,9 @@
       <c r="N27" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O27" s="9"/>
+      <c r="O27" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
@@ -2177,7 +2221,9 @@
       <c r="N28" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O28" s="9"/>
+      <c r="O28" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
@@ -2222,7 +2268,9 @@
       <c r="N29" s="9">
         <v>23</v>
       </c>
-      <c r="O29" s="9"/>
+      <c r="O29" s="9">
+        <v>5</v>
+      </c>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
@@ -2237,7 +2285,7 @@
       <c r="AA29" s="9"/>
       <c r="AB29" s="9">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2296,7 +2344,9 @@
       <c r="N31" s="9">
         <v>17</v>
       </c>
-      <c r="O31" s="9"/>
+      <c r="O31" s="9">
+        <v>20</v>
+      </c>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
@@ -2311,7 +2361,7 @@
       <c r="AA31" s="9"/>
       <c r="AB31" s="9">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2341,7 +2391,9 @@
       <c r="N32" s="9">
         <v>25</v>
       </c>
-      <c r="O32" s="9"/>
+      <c r="O32" s="9">
+        <v>21</v>
+      </c>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
@@ -2356,7 +2408,7 @@
       <c r="AA32" s="9"/>
       <c r="AB32" s="9">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2386,7 +2438,9 @@
       <c r="N33" s="9">
         <v>23</v>
       </c>
-      <c r="O33" s="9"/>
+      <c r="O33" s="9">
+        <v>31</v>
+      </c>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
@@ -2401,7 +2455,7 @@
       <c r="AA33" s="9"/>
       <c r="AB33" s="9">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2431,7 +2485,9 @@
       <c r="N34" s="9">
         <v>25</v>
       </c>
-      <c r="O34" s="9"/>
+      <c r="O34" s="9">
+        <v>18</v>
+      </c>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
@@ -2446,7 +2502,7 @@
       <c r="AA34" s="9"/>
       <c r="AB34" s="9">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2476,7 +2532,9 @@
       <c r="N35" s="9">
         <v>18</v>
       </c>
-      <c r="O35" s="9"/>
+      <c r="O35" s="9">
+        <v>33</v>
+      </c>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
@@ -2491,7 +2549,7 @@
       <c r="AA35" s="9"/>
       <c r="AB35" s="9">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2519,7 +2577,9 @@
       <c r="N36" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O36" s="9"/>
+      <c r="O36" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
@@ -2565,7 +2625,9 @@
       <c r="N37" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O37" s="9"/>
+      <c r="O37" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
@@ -2608,7 +2670,9 @@
       <c r="N38" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O38" s="9"/>
+      <c r="O38" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
@@ -2651,7 +2715,9 @@
       <c r="N39" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O39" s="9"/>
+      <c r="O39" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
@@ -2694,7 +2760,9 @@
       <c r="N40" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O40" s="9"/>
+      <c r="O40" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
@@ -2737,7 +2805,9 @@
       <c r="N41" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O41" s="9"/>
+      <c r="O41" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
@@ -2780,7 +2850,9 @@
       <c r="N42" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O42" s="9"/>
+      <c r="O42" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
@@ -2825,7 +2897,9 @@
       <c r="N43" s="9">
         <v>32</v>
       </c>
-      <c r="O43" s="9"/>
+      <c r="O43" s="9">
+        <v>27</v>
+      </c>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
@@ -2840,7 +2914,7 @@
       <c r="AA43" s="9"/>
       <c r="AB43" s="9">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2897,7 +2971,9 @@
       <c r="N45" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O45" s="9"/>
+      <c r="O45" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
@@ -2942,7 +3018,9 @@
       <c r="N46" s="9">
         <v>22</v>
       </c>
-      <c r="O46" s="9"/>
+      <c r="O46" s="9">
+        <v>11</v>
+      </c>
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
@@ -2957,7 +3035,7 @@
       <c r="AA46" s="9"/>
       <c r="AB46" s="9">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2987,7 +3065,9 @@
       <c r="N47" s="9">
         <v>23</v>
       </c>
-      <c r="O47" s="9"/>
+      <c r="O47" s="9">
+        <v>16</v>
+      </c>
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
       <c r="R47" s="9"/>
@@ -3002,7 +3082,7 @@
       <c r="AA47" s="9"/>
       <c r="AB47" s="9">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3030,7 +3110,9 @@
       <c r="N48" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O48" s="9"/>
+      <c r="O48" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
@@ -3075,7 +3157,9 @@
       <c r="N49" s="9">
         <v>22</v>
       </c>
-      <c r="O49" s="9"/>
+      <c r="O49" s="9">
+        <v>14</v>
+      </c>
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
@@ -3090,7 +3174,7 @@
       <c r="AA49" s="9"/>
       <c r="AB49" s="9">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3120,7 +3204,9 @@
       <c r="N50" s="9">
         <v>28</v>
       </c>
-      <c r="O50" s="9"/>
+      <c r="O50" s="9">
+        <v>22</v>
+      </c>
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
@@ -3135,7 +3221,7 @@
       <c r="AA50" s="9"/>
       <c r="AB50" s="9">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3165,7 +3251,9 @@
       <c r="N51" s="9">
         <v>21</v>
       </c>
-      <c r="O51" s="9"/>
+      <c r="O51" s="9">
+        <v>17</v>
+      </c>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
@@ -3180,7 +3268,7 @@
       <c r="AA51" s="9"/>
       <c r="AB51" s="9">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3208,7 +3296,9 @@
       <c r="N52" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O52" s="9"/>
+      <c r="O52" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
@@ -3251,7 +3341,9 @@
       <c r="N53" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O53" s="9"/>
+      <c r="O53" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
@@ -3294,7 +3386,9 @@
       <c r="N54" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O54" s="9"/>
+      <c r="O54" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
@@ -3337,7 +3431,9 @@
       <c r="N55" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O55" s="9"/>
+      <c r="O55" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
@@ -3380,7 +3476,9 @@
       <c r="N56" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O56" s="9"/>
+      <c r="O56" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
@@ -3499,7 +3597,9 @@
       <c r="N59" s="9">
         <v>19</v>
       </c>
-      <c r="O59" s="9"/>
+      <c r="O59" s="9">
+        <v>5</v>
+      </c>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
       <c r="R59" s="9"/>
@@ -3514,7 +3614,7 @@
       <c r="AA59" s="9"/>
       <c r="AB59" s="9">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3544,7 +3644,9 @@
       <c r="N60" s="9">
         <v>16</v>
       </c>
-      <c r="O60" s="9"/>
+      <c r="O60" s="9">
+        <v>8</v>
+      </c>
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
@@ -3559,7 +3661,7 @@
       <c r="AA60" s="9"/>
       <c r="AB60" s="9">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3589,7 +3691,9 @@
       <c r="N61" s="9">
         <v>12</v>
       </c>
-      <c r="O61" s="9"/>
+      <c r="O61" s="9">
+        <v>5</v>
+      </c>
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
@@ -3604,7 +3708,7 @@
       <c r="AA61" s="9"/>
       <c r="AB61" s="9">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3634,7 +3738,9 @@
       <c r="N62" s="9">
         <v>28</v>
       </c>
-      <c r="O62" s="9"/>
+      <c r="O62" s="9">
+        <v>7</v>
+      </c>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
@@ -3649,7 +3755,7 @@
       <c r="AA62" s="9"/>
       <c r="AB62" s="9">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3679,7 +3785,9 @@
       <c r="N63" s="9">
         <v>13</v>
       </c>
-      <c r="O63" s="9"/>
+      <c r="O63" s="9">
+        <v>6</v>
+      </c>
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
@@ -3694,7 +3802,7 @@
       <c r="AA63" s="9"/>
       <c r="AB63" s="9">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3722,7 +3830,9 @@
       <c r="N64" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O64" s="9"/>
+      <c r="O64" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P64" s="9"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
@@ -3765,7 +3875,9 @@
       <c r="N65" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O65" s="9"/>
+      <c r="O65" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P65" s="9"/>
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
@@ -3808,7 +3920,9 @@
       <c r="N66" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O66" s="9"/>
+      <c r="O66" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
@@ -3851,7 +3965,9 @@
       <c r="N67" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O67" s="9"/>
+      <c r="O67" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P67" s="9"/>
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
@@ -3894,7 +4010,9 @@
       <c r="N68" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O68" s="9"/>
+      <c r="O68" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P68" s="9"/>
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
@@ -3937,7 +4055,9 @@
       <c r="N69" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O69" s="9"/>
+      <c r="O69" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P69" s="9"/>
       <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
@@ -3982,7 +4102,9 @@
       <c r="N70" s="9">
         <v>25</v>
       </c>
-      <c r="O70" s="9"/>
+      <c r="O70" s="9">
+        <v>14</v>
+      </c>
       <c r="P70" s="9"/>
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
@@ -3997,7 +4119,7 @@
       <c r="AA70" s="9"/>
       <c r="AB70" s="9">
         <f t="shared" ref="AB70:AB133" si="1">SUM(J70:AA70)</f>
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4056,7 +4178,9 @@
       <c r="N72" s="9">
         <v>13</v>
       </c>
-      <c r="O72" s="9"/>
+      <c r="O72" s="9">
+        <v>1</v>
+      </c>
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
@@ -4071,7 +4195,7 @@
       <c r="AA72" s="9"/>
       <c r="AB72" s="9">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4101,7 +4225,9 @@
       <c r="N73" s="9">
         <v>13</v>
       </c>
-      <c r="O73" s="9"/>
+      <c r="O73" s="9">
+        <v>3</v>
+      </c>
       <c r="P73" s="9"/>
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
@@ -4116,7 +4242,7 @@
       <c r="AA73" s="9"/>
       <c r="AB73" s="9">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4146,7 +4272,9 @@
       <c r="N74" s="9">
         <v>16</v>
       </c>
-      <c r="O74" s="9"/>
+      <c r="O74" s="9">
+        <v>1</v>
+      </c>
       <c r="P74" s="9"/>
       <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
@@ -4161,7 +4289,7 @@
       <c r="AA74" s="9"/>
       <c r="AB74" s="9">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4191,7 +4319,9 @@
       <c r="N75" s="9">
         <v>9</v>
       </c>
-      <c r="O75" s="9"/>
+      <c r="O75" s="9">
+        <v>12</v>
+      </c>
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
@@ -4206,7 +4336,7 @@
       <c r="AA75" s="9"/>
       <c r="AB75" s="9">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4236,7 +4366,9 @@
       <c r="N76" s="9">
         <v>1</v>
       </c>
-      <c r="O76" s="9"/>
+      <c r="O76" s="9">
+        <v>9</v>
+      </c>
       <c r="P76" s="9"/>
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
@@ -4251,7 +4383,7 @@
       <c r="AA76" s="9"/>
       <c r="AB76" s="9">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4279,7 +4411,9 @@
       <c r="N77" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O77" s="9"/>
+      <c r="O77" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
@@ -4322,7 +4456,9 @@
       <c r="N78" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O78" s="9"/>
+      <c r="O78" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P78" s="9"/>
       <c r="Q78" s="9"/>
       <c r="R78" s="9"/>
@@ -4365,7 +4501,9 @@
       <c r="N79" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O79" s="9"/>
+      <c r="O79" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
@@ -4408,7 +4546,9 @@
       <c r="N80" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O80" s="9"/>
+      <c r="O80" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
@@ -4451,7 +4591,9 @@
       <c r="N81" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O81" s="9"/>
+      <c r="O81" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P81" s="9"/>
       <c r="Q81" s="9"/>
       <c r="R81" s="9"/>
@@ -4494,7 +4636,9 @@
       <c r="N82" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O82" s="9"/>
+      <c r="O82" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P82" s="9"/>
       <c r="Q82" s="9"/>
       <c r="R82" s="9"/>
@@ -4539,7 +4683,9 @@
       <c r="N83" s="9">
         <v>15</v>
       </c>
-      <c r="O83" s="9"/>
+      <c r="O83" s="9">
+        <v>19</v>
+      </c>
       <c r="P83" s="9"/>
       <c r="Q83" s="9"/>
       <c r="R83" s="9"/>
@@ -4554,7 +4700,7 @@
       <c r="AA83" s="9"/>
       <c r="AB83" s="9">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4613,7 +4759,9 @@
       <c r="N85" s="9">
         <v>13</v>
       </c>
-      <c r="O85" s="9"/>
+      <c r="O85" s="9">
+        <v>1</v>
+      </c>
       <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
       <c r="R85" s="9"/>
@@ -4628,7 +4776,7 @@
       <c r="AA85" s="9"/>
       <c r="AB85" s="9">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4658,7 +4806,9 @@
       <c r="N86" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O86" s="9"/>
+      <c r="O86" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P86" s="9"/>
       <c r="Q86" s="9"/>
       <c r="R86" s="9"/>
@@ -4703,7 +4853,9 @@
       <c r="N87" s="9">
         <v>-2</v>
       </c>
-      <c r="O87" s="9"/>
+      <c r="O87" s="9">
+        <v>2</v>
+      </c>
       <c r="P87" s="9"/>
       <c r="Q87" s="9"/>
       <c r="R87" s="9"/>
@@ -4718,7 +4870,7 @@
       <c r="AA87" s="9"/>
       <c r="AB87" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4748,7 +4900,9 @@
       <c r="N88" s="9">
         <v>2</v>
       </c>
-      <c r="O88" s="9"/>
+      <c r="O88" s="9">
+        <v>5</v>
+      </c>
       <c r="P88" s="9"/>
       <c r="Q88" s="9"/>
       <c r="R88" s="9"/>
@@ -4763,7 +4917,7 @@
       <c r="AA88" s="9"/>
       <c r="AB88" s="9">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4793,7 +4947,9 @@
       <c r="N89" s="9">
         <v>-6</v>
       </c>
-      <c r="O89" s="9"/>
+      <c r="O89" s="9">
+        <v>5</v>
+      </c>
       <c r="P89" s="9"/>
       <c r="Q89" s="9"/>
       <c r="R89" s="9"/>
@@ -4808,7 +4964,7 @@
       <c r="AA89" s="9"/>
       <c r="AB89" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4836,7 +4992,9 @@
       <c r="N90" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O90" s="9"/>
+      <c r="O90" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P90" s="9"/>
       <c r="Q90" s="9"/>
       <c r="R90" s="9"/>
@@ -4879,7 +5037,9 @@
       <c r="N91" s="9">
         <v>-1</v>
       </c>
-      <c r="O91" s="9"/>
+      <c r="O91" s="9">
+        <v>6</v>
+      </c>
       <c r="P91" s="9"/>
       <c r="Q91" s="9"/>
       <c r="R91" s="9"/>
@@ -4894,7 +5054,7 @@
       <c r="AA91" s="9"/>
       <c r="AB91" s="9">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4922,7 +5082,9 @@
       <c r="N92" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O92" s="9"/>
+      <c r="O92" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P92" s="9"/>
       <c r="Q92" s="9"/>
       <c r="R92" s="9"/>
@@ -4965,7 +5127,9 @@
       <c r="N93" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O93" s="9"/>
+      <c r="O93" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P93" s="9"/>
       <c r="Q93" s="9"/>
       <c r="R93" s="9"/>
@@ -5008,7 +5172,9 @@
       <c r="N94" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O94" s="9"/>
+      <c r="O94" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P94" s="9"/>
       <c r="Q94" s="9"/>
       <c r="R94" s="9"/>
@@ -5051,7 +5217,9 @@
       <c r="N95" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O95" s="9"/>
+      <c r="O95" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P95" s="9"/>
       <c r="Q95" s="9"/>
       <c r="R95" s="9"/>
@@ -5094,7 +5262,9 @@
       <c r="N96" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O96" s="9"/>
+      <c r="O96" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P96" s="9"/>
       <c r="Q96" s="9"/>
       <c r="R96" s="9"/>
@@ -5213,7 +5383,9 @@
       <c r="N99" s="9">
         <v>0</v>
       </c>
-      <c r="O99" s="9"/>
+      <c r="O99" s="9">
+        <v>16</v>
+      </c>
       <c r="P99" s="9"/>
       <c r="Q99" s="9"/>
       <c r="R99" s="9"/>
@@ -5228,7 +5400,7 @@
       <c r="AA99" s="9"/>
       <c r="AB99" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5258,7 +5430,9 @@
       <c r="N100" s="9">
         <v>-1</v>
       </c>
-      <c r="O100" s="9"/>
+      <c r="O100" s="9">
+        <v>22</v>
+      </c>
       <c r="P100" s="9"/>
       <c r="Q100" s="9"/>
       <c r="R100" s="9"/>
@@ -5273,7 +5447,7 @@
       <c r="AA100" s="9"/>
       <c r="AB100" s="9">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5303,7 +5477,9 @@
       <c r="N101" s="9">
         <v>-5</v>
       </c>
-      <c r="O101" s="9"/>
+      <c r="O101" s="9">
+        <v>17</v>
+      </c>
       <c r="P101" s="9"/>
       <c r="Q101" s="9"/>
       <c r="R101" s="9"/>
@@ -5318,7 +5494,7 @@
       <c r="AA101" s="9"/>
       <c r="AB101" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5348,7 +5524,9 @@
       <c r="N102" s="9">
         <v>2</v>
       </c>
-      <c r="O102" s="9"/>
+      <c r="O102" s="9">
+        <v>23</v>
+      </c>
       <c r="P102" s="9"/>
       <c r="Q102" s="9"/>
       <c r="R102" s="9"/>
@@ -5363,7 +5541,7 @@
       <c r="AA102" s="9"/>
       <c r="AB102" s="9">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5393,7 +5571,9 @@
       <c r="N103" s="9">
         <v>1</v>
       </c>
-      <c r="O103" s="9"/>
+      <c r="O103" s="9">
+        <v>17</v>
+      </c>
       <c r="P103" s="9"/>
       <c r="Q103" s="9"/>
       <c r="R103" s="9"/>
@@ -5408,7 +5588,7 @@
       <c r="AA103" s="9"/>
       <c r="AB103" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5436,7 +5616,9 @@
       <c r="N104" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O104" s="9"/>
+      <c r="O104" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P104" s="9"/>
       <c r="Q104" s="9"/>
       <c r="R104" s="9"/>
@@ -5479,7 +5661,9 @@
       <c r="N105" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O105" s="9"/>
+      <c r="O105" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P105" s="9"/>
       <c r="Q105" s="9"/>
       <c r="R105" s="9"/>
@@ -5522,7 +5706,9 @@
       <c r="N106" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O106" s="9"/>
+      <c r="O106" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P106" s="9"/>
       <c r="Q106" s="9"/>
       <c r="R106" s="9"/>
@@ -5565,7 +5751,9 @@
       <c r="N107" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O107" s="9"/>
+      <c r="O107" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P107" s="9"/>
       <c r="Q107" s="9"/>
       <c r="R107" s="9"/>
@@ -5608,7 +5796,9 @@
       <c r="N108" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O108" s="9"/>
+      <c r="O108" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P108" s="9"/>
       <c r="Q108" s="9"/>
       <c r="R108" s="9"/>
@@ -5651,7 +5841,9 @@
       <c r="N109" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O109" s="9"/>
+      <c r="O109" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P109" s="9"/>
       <c r="Q109" s="9"/>
       <c r="R109" s="9"/>
@@ -5696,7 +5888,9 @@
       <c r="N110" s="9">
         <v>0</v>
       </c>
-      <c r="O110" s="9"/>
+      <c r="O110" s="9">
+        <v>39</v>
+      </c>
       <c r="P110" s="9"/>
       <c r="Q110" s="9"/>
       <c r="R110" s="9"/>
@@ -5711,7 +5905,7 @@
       <c r="AA110" s="9"/>
       <c r="AB110" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5770,7 +5964,9 @@
       <c r="N112" s="9">
         <v>10</v>
       </c>
-      <c r="O112" s="9"/>
+      <c r="O112" s="9">
+        <v>19</v>
+      </c>
       <c r="P112" s="9"/>
       <c r="Q112" s="9"/>
       <c r="R112" s="9"/>
@@ -5785,7 +5981,7 @@
       <c r="AA112" s="9"/>
       <c r="AB112" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5815,7 +6011,9 @@
       <c r="N113" s="9">
         <v>14</v>
       </c>
-      <c r="O113" s="9"/>
+      <c r="O113" s="9">
+        <v>23</v>
+      </c>
       <c r="P113" s="9"/>
       <c r="Q113" s="9"/>
       <c r="R113" s="9"/>
@@ -5830,7 +6028,7 @@
       <c r="AA113" s="9"/>
       <c r="AB113" s="9">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5860,7 +6058,9 @@
       <c r="N114" s="9">
         <v>15</v>
       </c>
-      <c r="O114" s="9"/>
+      <c r="O114" s="9">
+        <v>21</v>
+      </c>
       <c r="P114" s="9"/>
       <c r="Q114" s="9"/>
       <c r="R114" s="9"/>
@@ -5875,7 +6075,7 @@
       <c r="AA114" s="9"/>
       <c r="AB114" s="9">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5905,7 +6105,9 @@
       <c r="N115" s="9">
         <v>19</v>
       </c>
-      <c r="O115" s="9"/>
+      <c r="O115" s="9">
+        <v>19</v>
+      </c>
       <c r="P115" s="9"/>
       <c r="Q115" s="9"/>
       <c r="R115" s="9"/>
@@ -5920,7 +6122,7 @@
       <c r="AA115" s="9"/>
       <c r="AB115" s="9">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5950,7 +6152,9 @@
       <c r="N116" s="9">
         <v>11</v>
       </c>
-      <c r="O116" s="9"/>
+      <c r="O116" s="9">
+        <v>23</v>
+      </c>
       <c r="P116" s="9"/>
       <c r="Q116" s="9"/>
       <c r="R116" s="9"/>
@@ -5965,7 +6169,7 @@
       <c r="AA116" s="9"/>
       <c r="AB116" s="9">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5993,7 +6197,9 @@
       <c r="N117" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O117" s="9"/>
+      <c r="O117" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P117" s="9"/>
       <c r="Q117" s="9"/>
       <c r="R117" s="9"/>
@@ -6036,7 +6242,9 @@
       <c r="N118" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O118" s="9"/>
+      <c r="O118" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P118" s="9"/>
       <c r="Q118" s="9"/>
       <c r="R118" s="9"/>
@@ -6079,7 +6287,9 @@
       <c r="N119" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O119" s="9"/>
+      <c r="O119" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P119" s="9"/>
       <c r="Q119" s="9"/>
       <c r="R119" s="9"/>
@@ -6122,7 +6332,9 @@
       <c r="N120" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O120" s="9"/>
+      <c r="O120" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P120" s="9"/>
       <c r="Q120" s="9"/>
       <c r="R120" s="9"/>
@@ -6165,7 +6377,9 @@
       <c r="N121" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O121" s="9"/>
+      <c r="O121" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P121" s="9"/>
       <c r="Q121" s="9"/>
       <c r="R121" s="9"/>
@@ -6208,7 +6422,9 @@
       <c r="N122" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O122" s="9"/>
+      <c r="O122" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P122" s="9"/>
       <c r="Q122" s="9"/>
       <c r="R122" s="9"/>
@@ -6327,7 +6543,9 @@
       <c r="N125" s="9">
         <v>1</v>
       </c>
-      <c r="O125" s="9"/>
+      <c r="O125" s="9">
+        <v>11</v>
+      </c>
       <c r="P125" s="9"/>
       <c r="Q125" s="9"/>
       <c r="R125" s="9"/>
@@ -6342,7 +6560,7 @@
       <c r="AA125" s="9"/>
       <c r="AB125" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6370,7 +6588,9 @@
       <c r="N126" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O126" s="9"/>
+      <c r="O126" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P126" s="9"/>
       <c r="Q126" s="9"/>
       <c r="R126" s="9"/>
@@ -6415,7 +6635,9 @@
       <c r="N127" s="9">
         <v>4</v>
       </c>
-      <c r="O127" s="9"/>
+      <c r="O127" s="9">
+        <v>7</v>
+      </c>
       <c r="P127" s="9"/>
       <c r="Q127" s="9"/>
       <c r="R127" s="9"/>
@@ -6430,7 +6652,7 @@
       <c r="AA127" s="9"/>
       <c r="AB127" s="9">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6458,7 +6680,9 @@
       <c r="N128" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O128" s="9"/>
+      <c r="O128" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P128" s="9"/>
       <c r="Q128" s="9"/>
       <c r="R128" s="9"/>
@@ -6503,7 +6727,9 @@
       <c r="N129" s="9">
         <v>4</v>
       </c>
-      <c r="O129" s="9"/>
+      <c r="O129" s="9">
+        <v>9</v>
+      </c>
       <c r="P129" s="9"/>
       <c r="Q129" s="9"/>
       <c r="R129" s="9"/>
@@ -6518,7 +6744,7 @@
       <c r="AA129" s="9"/>
       <c r="AB129" s="9">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6548,7 +6774,9 @@
       <c r="N130" s="9">
         <v>0</v>
       </c>
-      <c r="O130" s="9"/>
+      <c r="O130" s="9">
+        <v>7</v>
+      </c>
       <c r="P130" s="9"/>
       <c r="Q130" s="9"/>
       <c r="R130" s="9"/>
@@ -6563,7 +6791,7 @@
       <c r="AA130" s="9"/>
       <c r="AB130" s="9">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6591,7 +6819,9 @@
       <c r="N131" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O131" s="9"/>
+      <c r="O131" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P131" s="9"/>
       <c r="Q131" s="9"/>
       <c r="R131" s="9"/>
@@ -6634,7 +6864,9 @@
       <c r="N132" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O132" s="9"/>
+      <c r="O132" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P132" s="9"/>
       <c r="Q132" s="9"/>
       <c r="R132" s="9"/>
@@ -6679,7 +6911,9 @@
       <c r="N133" s="9">
         <v>4</v>
       </c>
-      <c r="O133" s="9"/>
+      <c r="O133" s="9">
+        <v>3</v>
+      </c>
       <c r="P133" s="9"/>
       <c r="Q133" s="9"/>
       <c r="R133" s="9"/>
@@ -6694,7 +6928,7 @@
       <c r="AA133" s="9"/>
       <c r="AB133" s="9">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6722,7 +6956,9 @@
       <c r="N134" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O134" s="9"/>
+      <c r="O134" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P134" s="9"/>
       <c r="Q134" s="9"/>
       <c r="R134" s="9"/>
@@ -6765,7 +7001,9 @@
       <c r="N135" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O135" s="9"/>
+      <c r="O135" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P135" s="9"/>
       <c r="Q135" s="9"/>
       <c r="R135" s="9"/>
@@ -6808,7 +7046,9 @@
       <c r="N136" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O136" s="9"/>
+      <c r="O136" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P136" s="9"/>
       <c r="Q136" s="9"/>
       <c r="R136" s="9"/>
@@ -6851,7 +7091,9 @@
       <c r="N137" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="O137" s="9"/>
+      <c r="O137" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="P137" s="9"/>
       <c r="Q137" s="9"/>
       <c r="R137" s="9"/>
@@ -6896,7 +7138,9 @@
       <c r="N138" s="9">
         <v>3</v>
       </c>
-      <c r="O138" s="9"/>
+      <c r="O138" s="9">
+        <v>12</v>
+      </c>
       <c r="P138" s="9"/>
       <c r="Q138" s="9"/>
       <c r="R138" s="9"/>
@@ -6911,7 +7155,7 @@
       <c r="AA138" s="9"/>
       <c r="AB138" s="9">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/LEC.xlsx
+++ b/LEC.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FantasyOfLegend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FFF0F6-E043-4F46-B977-156E8B0128DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40065828-DACB-4FAF-8B4F-65B8FCADECA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="158">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -478,13 +477,40 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>WEEK 3</t>
+  </si>
+  <si>
+    <t>WEEK 2</t>
+  </si>
+  <si>
+    <t>WEEK 1</t>
+  </si>
+  <si>
+    <t>WEEK 4</t>
+  </si>
+  <si>
+    <t>WEEK 5</t>
+  </si>
+  <si>
+    <t>WEEK 6</t>
+  </si>
+  <si>
+    <t>WEEK 7</t>
+  </si>
+  <si>
+    <t>WEEK 8</t>
+  </si>
+  <si>
+    <t>WEEK 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,8 +569,14 @@
       <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,8 +654,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -646,12 +684,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,6 +872,39 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1060,11 +1232,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6F4F5-5FE8-493F-8E1B-F71CC0CB1EFB}">
-  <dimension ref="E3:AC705"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:AC705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1080,7 +1252,65 @@
     <col min="29" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="5:28" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="J2" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="30"/>
+      <c r="N2" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="O2" s="30"/>
+      <c r="P2" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="S2" s="30"/>
+      <c r="T2" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="U2" s="30"/>
+      <c r="V2" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="W2" s="30"/>
+      <c r="X2" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA2" s="31"/>
+    </row>
+    <row r="3" spans="5:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="34"/>
+    </row>
     <row r="4" spans="5:28" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="8" t="s">
         <v>4</v>
@@ -1097,58 +1327,58 @@
       <c r="I4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="28">
         <v>1</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="28">
         <v>2</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="28">
         <v>3</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="28">
         <v>4</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="28">
         <v>5</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="28">
         <v>6</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="28">
         <v>7</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="28">
         <v>8</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="28">
         <v>9</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="28">
         <v>10</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="28">
         <v>11</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="28">
         <v>12</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="28">
         <v>13</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="28">
         <v>14</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="28">
         <v>15</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="28">
         <v>16</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="28">
         <v>17</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA4" s="28">
         <v>18</v>
       </c>
       <c r="AB4" s="8" t="s">
@@ -3523,7 +3753,9 @@
       <c r="N57" s="9">
         <v>38</v>
       </c>
-      <c r="O57" s="9"/>
+      <c r="O57" s="9">
+        <v>26</v>
+      </c>
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
@@ -3538,7 +3770,7 @@
       <c r="AA57" s="9"/>
       <c r="AB57" s="9">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5309,7 +5541,9 @@
       <c r="N97" s="9">
         <v>3</v>
       </c>
-      <c r="O97" s="9"/>
+      <c r="O97" s="9">
+        <v>8</v>
+      </c>
       <c r="P97" s="9"/>
       <c r="Q97" s="9"/>
       <c r="R97" s="9"/>
@@ -5324,7 +5558,7 @@
       <c r="AA97" s="9"/>
       <c r="AB97" s="9">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5965,7 +6199,7 @@
         <v>10</v>
       </c>
       <c r="O112" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P112" s="9"/>
       <c r="Q112" s="9"/>
@@ -5981,7 +6215,7 @@
       <c r="AA112" s="9"/>
       <c r="AB112" s="9">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6012,7 +6246,7 @@
         <v>14</v>
       </c>
       <c r="O113" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P113" s="9"/>
       <c r="Q113" s="9"/>
@@ -6028,7 +6262,7 @@
       <c r="AA113" s="9"/>
       <c r="AB113" s="9">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6106,7 +6340,7 @@
         <v>19</v>
       </c>
       <c r="O115" s="9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P115" s="9"/>
       <c r="Q115" s="9"/>
@@ -6122,7 +6356,7 @@
       <c r="AA115" s="9"/>
       <c r="AB115" s="9">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6153,7 +6387,7 @@
         <v>11</v>
       </c>
       <c r="O116" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P116" s="9"/>
       <c r="Q116" s="9"/>
@@ -6169,7 +6403,7 @@
       <c r="AA116" s="9"/>
       <c r="AB116" s="9">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6469,7 +6703,9 @@
       <c r="N123" s="9">
         <v>35</v>
       </c>
-      <c r="O123" s="9"/>
+      <c r="O123" s="9">
+        <v>31</v>
+      </c>
       <c r="P123" s="9"/>
       <c r="Q123" s="9"/>
       <c r="R123" s="9"/>
@@ -6484,7 +6720,7 @@
       <c r="AA123" s="9"/>
       <c r="AB123" s="9">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7751,18 +7987,29 @@
     <row r="704" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="705" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="X2:Y3"/>
+    <mergeCell ref="Z2:AA3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="T2:U3"/>
+    <mergeCell ref="V2:W3"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576" xr:uid="{15F92851-84DF-4D00-A31D-988EF4516EB9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576">
       <formula1>"TITULAR,SUPLENTE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1048576" xr:uid="{5A8E9255-988B-4B27-9AD4-CF1EFC75BE1D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1048576">
       <formula1>"TOP,JUNGLE,MID,ADC,SUPPORT, HEAD COACH"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576" xr:uid="{6E888F95-CB7A-4ABB-8462-5D19D0377525}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576">
       <formula1>"EXCEL, FNATIC, G2 ESPORTS, MISFITS GAMINGS, ORIGEN,ROGUE,SCHALKE 04,SK GAMING,MAD LIONS, TEAM VITALITY"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576" xr:uid="{B8B7ABD9-7A37-4A84-9E7C-D205ED34A1D1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
   </dataValidations>

--- a/LEC.xlsx
+++ b/LEC.xlsx
@@ -882,13 +882,13 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:AC705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1289,26 +1289,26 @@
       <c r="Z2" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="AA2" s="31"/>
+      <c r="AA2" s="33"/>
     </row>
     <row r="3" spans="5:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J3" s="37"/>
       <c r="K3" s="38"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="32"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="31"/>
       <c r="AA3" s="34"/>
     </row>
     <row r="4" spans="5:28" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1407,8 +1407,12 @@
       <c r="K5" s="9">
         <v>7</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="L5" s="9">
+        <v>19</v>
+      </c>
+      <c r="M5" s="9">
+        <v>4</v>
+      </c>
       <c r="N5" s="9">
         <v>13</v>
       </c>
@@ -1429,7 +1433,7 @@
       <c r="AA5" s="9"/>
       <c r="AB5" s="9">
         <f>SUM(J5:AA5)</f>
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1454,8 +1458,12 @@
       <c r="K6" s="9">
         <v>9</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="L6" s="9">
+        <v>20</v>
+      </c>
+      <c r="M6" s="9">
+        <v>7</v>
+      </c>
       <c r="N6" s="9">
         <v>10</v>
       </c>
@@ -1476,7 +1484,7 @@
       <c r="AA6" s="9"/>
       <c r="AB6" s="9">
         <f t="shared" ref="AB6:AB69" si="0">SUM(J6:AA6)</f>
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1501,8 +1509,12 @@
       <c r="K7" s="9">
         <v>11</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="L7" s="9">
+        <v>23</v>
+      </c>
+      <c r="M7" s="9">
+        <v>10</v>
+      </c>
       <c r="N7" s="9">
         <v>13</v>
       </c>
@@ -1523,7 +1535,7 @@
       <c r="AA7" s="9"/>
       <c r="AB7" s="9">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1548,8 +1560,12 @@
       <c r="K8" s="9">
         <v>13</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="L8" s="9">
+        <v>27</v>
+      </c>
+      <c r="M8" s="9">
+        <v>10</v>
+      </c>
       <c r="N8" s="9">
         <v>9</v>
       </c>
@@ -1570,7 +1586,7 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="9">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1595,8 +1611,12 @@
       <c r="K9" s="9">
         <v>11</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="L9" s="9">
+        <v>26</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
       <c r="N9" s="9">
         <v>11</v>
       </c>
@@ -1617,7 +1637,7 @@
       <c r="AA9" s="9"/>
       <c r="AB9" s="9">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1912,8 +1932,12 @@
       <c r="K16" s="9">
         <v>13</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="L16" s="9">
+        <v>31</v>
+      </c>
+      <c r="M16" s="9">
+        <v>19</v>
+      </c>
       <c r="N16" s="9">
         <v>11</v>
       </c>
@@ -1934,7 +1958,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1988,8 +2012,12 @@
       <c r="K18" s="9">
         <v>14</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="L18" s="9">
+        <v>10</v>
+      </c>
+      <c r="M18" s="9">
+        <v>12</v>
+      </c>
       <c r="N18" s="9">
         <v>13</v>
       </c>
@@ -2010,7 +2038,7 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2035,8 +2063,12 @@
       <c r="K19" s="9">
         <v>6</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="L19" s="9">
+        <v>17</v>
+      </c>
+      <c r="M19" s="9">
+        <v>22</v>
+      </c>
       <c r="N19" s="9">
         <v>4</v>
       </c>
@@ -2057,7 +2089,7 @@
       <c r="AA19" s="9"/>
       <c r="AB19" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2082,8 +2114,12 @@
       <c r="K20" s="9">
         <v>10</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="L20" s="9">
+        <v>12</v>
+      </c>
+      <c r="M20" s="9">
+        <v>18</v>
+      </c>
       <c r="N20" s="9">
         <v>8</v>
       </c>
@@ -2104,7 +2140,7 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="9">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2129,8 +2165,12 @@
       <c r="K21" s="9">
         <v>29</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="L21" s="9">
+        <v>22</v>
+      </c>
+      <c r="M21" s="9">
+        <v>34</v>
+      </c>
       <c r="N21" s="9">
         <v>15</v>
       </c>
@@ -2151,7 +2191,7 @@
       <c r="AA21" s="9"/>
       <c r="AB21" s="9">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2176,8 +2216,12 @@
       <c r="K22" s="9">
         <v>19</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="L22" s="9">
+        <v>22</v>
+      </c>
+      <c r="M22" s="9">
+        <v>7</v>
+      </c>
       <c r="N22" s="9">
         <v>11</v>
       </c>
@@ -2198,7 +2242,7 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2493,8 +2537,12 @@
       <c r="K29" s="9">
         <v>25</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="L29" s="9">
+        <v>30</v>
+      </c>
+      <c r="M29" s="9">
+        <v>36</v>
+      </c>
       <c r="N29" s="9">
         <v>23</v>
       </c>
@@ -2515,7 +2563,7 @@
       <c r="AA29" s="9"/>
       <c r="AB29" s="9">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2569,8 +2617,12 @@
       <c r="K31" s="9">
         <v>24</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
+      <c r="L31" s="9">
+        <v>12</v>
+      </c>
+      <c r="M31" s="9">
+        <v>16</v>
+      </c>
       <c r="N31" s="9">
         <v>17</v>
       </c>
@@ -2591,7 +2643,7 @@
       <c r="AA31" s="9"/>
       <c r="AB31" s="9">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2616,8 +2668,12 @@
       <c r="K32" s="9">
         <v>23</v>
       </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="L32" s="9">
+        <v>10</v>
+      </c>
+      <c r="M32" s="9">
+        <v>24</v>
+      </c>
       <c r="N32" s="9">
         <v>25</v>
       </c>
@@ -2638,7 +2694,7 @@
       <c r="AA32" s="9"/>
       <c r="AB32" s="9">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2663,8 +2719,12 @@
       <c r="K33" s="9">
         <v>29</v>
       </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
+      <c r="L33" s="9">
+        <v>23</v>
+      </c>
+      <c r="M33" s="9">
+        <v>28</v>
+      </c>
       <c r="N33" s="9">
         <v>23</v>
       </c>
@@ -2685,7 +2745,7 @@
       <c r="AA33" s="9"/>
       <c r="AB33" s="9">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2710,8 +2770,12 @@
       <c r="K34" s="9">
         <v>25</v>
       </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
+      <c r="L34" s="9">
+        <v>17</v>
+      </c>
+      <c r="M34" s="9">
+        <v>13</v>
+      </c>
       <c r="N34" s="9">
         <v>25</v>
       </c>
@@ -2732,7 +2796,7 @@
       <c r="AA34" s="9"/>
       <c r="AB34" s="9">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2757,8 +2821,12 @@
       <c r="K35" s="9">
         <v>36</v>
       </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
+      <c r="L35" s="9">
+        <v>16</v>
+      </c>
+      <c r="M35" s="9">
+        <v>7</v>
+      </c>
       <c r="N35" s="9">
         <v>18</v>
       </c>
@@ -2779,7 +2847,7 @@
       <c r="AA35" s="9"/>
       <c r="AB35" s="9">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3122,8 +3190,12 @@
       <c r="K43" s="9">
         <v>33</v>
       </c>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
+      <c r="L43" s="9">
+        <v>26</v>
+      </c>
+      <c r="M43" s="9">
+        <v>27</v>
+      </c>
       <c r="N43" s="9">
         <v>32</v>
       </c>
@@ -3144,7 +3216,7 @@
       <c r="AA43" s="9"/>
       <c r="AB43" s="9">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3243,8 +3315,12 @@
       <c r="K46" s="9">
         <v>6</v>
       </c>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
+      <c r="L46" s="9">
+        <v>17</v>
+      </c>
+      <c r="M46" s="9">
+        <v>23</v>
+      </c>
       <c r="N46" s="9">
         <v>22</v>
       </c>
@@ -3265,7 +3341,7 @@
       <c r="AA46" s="9"/>
       <c r="AB46" s="9">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3290,8 +3366,12 @@
       <c r="K47" s="9">
         <v>7</v>
       </c>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
+      <c r="L47" s="9">
+        <v>10</v>
+      </c>
+      <c r="M47" s="9">
+        <v>16</v>
+      </c>
       <c r="N47" s="9">
         <v>23</v>
       </c>
@@ -3312,7 +3392,7 @@
       <c r="AA47" s="9"/>
       <c r="AB47" s="9">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3382,8 +3462,12 @@
       <c r="K49" s="9">
         <v>2</v>
       </c>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
+      <c r="L49" s="9">
+        <v>18</v>
+      </c>
+      <c r="M49" s="9">
+        <v>23</v>
+      </c>
       <c r="N49" s="9">
         <v>22</v>
       </c>
@@ -3404,7 +3488,7 @@
       <c r="AA49" s="9"/>
       <c r="AB49" s="9">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3429,8 +3513,12 @@
       <c r="K50" s="9">
         <v>0</v>
       </c>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
+      <c r="L50" s="9">
+        <v>16</v>
+      </c>
+      <c r="M50" s="9">
+        <v>20</v>
+      </c>
       <c r="N50" s="9">
         <v>28</v>
       </c>
@@ -3451,7 +3539,7 @@
       <c r="AA50" s="9"/>
       <c r="AB50" s="9">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3476,8 +3564,12 @@
       <c r="K51" s="9">
         <v>-6</v>
       </c>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
+      <c r="L51" s="9">
+        <v>12</v>
+      </c>
+      <c r="M51" s="9">
+        <v>22</v>
+      </c>
       <c r="N51" s="9">
         <v>21</v>
       </c>
@@ -3498,7 +3590,7 @@
       <c r="AA51" s="9"/>
       <c r="AB51" s="9">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3748,8 +3840,12 @@
       <c r="K57" s="9">
         <v>1</v>
       </c>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
+      <c r="L57" s="9">
+        <v>30</v>
+      </c>
+      <c r="M57" s="9">
+        <v>20</v>
+      </c>
       <c r="N57" s="9">
         <v>38</v>
       </c>
@@ -3770,7 +3866,7 @@
       <c r="AA57" s="9"/>
       <c r="AB57" s="9">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3824,8 +3920,12 @@
       <c r="K59" s="9">
         <v>9</v>
       </c>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
+      <c r="L59" s="9">
+        <v>9</v>
+      </c>
+      <c r="M59" s="9">
+        <v>10</v>
+      </c>
       <c r="N59" s="9">
         <v>19</v>
       </c>
@@ -3846,7 +3946,7 @@
       <c r="AA59" s="9"/>
       <c r="AB59" s="9">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3871,8 +3971,12 @@
       <c r="K60" s="9">
         <v>12</v>
       </c>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
+      <c r="L60" s="9">
+        <v>7</v>
+      </c>
+      <c r="M60" s="9">
+        <v>6</v>
+      </c>
       <c r="N60" s="9">
         <v>16</v>
       </c>
@@ -3893,7 +3997,7 @@
       <c r="AA60" s="9"/>
       <c r="AB60" s="9">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3918,8 +4022,12 @@
       <c r="K61" s="9">
         <v>23</v>
       </c>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
+      <c r="L61" s="9">
+        <v>20</v>
+      </c>
+      <c r="M61" s="9">
+        <v>0</v>
+      </c>
       <c r="N61" s="9">
         <v>12</v>
       </c>
@@ -3940,7 +4048,7 @@
       <c r="AA61" s="9"/>
       <c r="AB61" s="9">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3965,8 +4073,12 @@
       <c r="K62" s="9">
         <v>26</v>
       </c>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
+      <c r="L62" s="9">
+        <v>13</v>
+      </c>
+      <c r="M62" s="9">
+        <v>14</v>
+      </c>
       <c r="N62" s="9">
         <v>28</v>
       </c>
@@ -3987,7 +4099,7 @@
       <c r="AA62" s="9"/>
       <c r="AB62" s="9">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4012,8 +4124,12 @@
       <c r="K63" s="9">
         <v>11</v>
       </c>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
+      <c r="L63" s="9">
+        <v>10</v>
+      </c>
+      <c r="M63" s="9">
+        <v>2</v>
+      </c>
       <c r="N63" s="9">
         <v>13</v>
       </c>
@@ -4034,7 +4150,7 @@
       <c r="AA63" s="9"/>
       <c r="AB63" s="9">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4329,8 +4445,12 @@
       <c r="K70" s="9">
         <v>23</v>
       </c>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
+      <c r="L70" s="9">
+        <v>34</v>
+      </c>
+      <c r="M70" s="9">
+        <v>6</v>
+      </c>
       <c r="N70" s="9">
         <v>25</v>
       </c>
@@ -4351,7 +4471,7 @@
       <c r="AA70" s="9"/>
       <c r="AB70" s="9">
         <f t="shared" ref="AB70:AB133" si="1">SUM(J70:AA70)</f>
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4405,8 +4525,12 @@
       <c r="K72" s="9">
         <v>13</v>
       </c>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
+      <c r="L72" s="9">
+        <v>0</v>
+      </c>
+      <c r="M72" s="9">
+        <v>9</v>
+      </c>
       <c r="N72" s="9">
         <v>13</v>
       </c>
@@ -4427,7 +4551,7 @@
       <c r="AA72" s="9"/>
       <c r="AB72" s="9">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4452,8 +4576,12 @@
       <c r="K73" s="9">
         <v>16</v>
       </c>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
+      <c r="L73" s="9">
+        <v>3</v>
+      </c>
+      <c r="M73" s="9">
+        <v>11</v>
+      </c>
       <c r="N73" s="9">
         <v>13</v>
       </c>
@@ -4474,7 +4602,7 @@
       <c r="AA73" s="9"/>
       <c r="AB73" s="9">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4499,8 +4627,12 @@
       <c r="K74" s="9">
         <v>20</v>
       </c>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
+      <c r="L74" s="9">
+        <v>4</v>
+      </c>
+      <c r="M74" s="9">
+        <v>15</v>
+      </c>
       <c r="N74" s="9">
         <v>16</v>
       </c>
@@ -4521,7 +4653,7 @@
       <c r="AA74" s="9"/>
       <c r="AB74" s="9">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4546,8 +4678,12 @@
       <c r="K75" s="9">
         <v>26</v>
       </c>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
+      <c r="L75" s="9">
+        <v>7</v>
+      </c>
+      <c r="M75" s="9">
+        <v>18</v>
+      </c>
       <c r="N75" s="9">
         <v>9</v>
       </c>
@@ -4568,7 +4704,7 @@
       <c r="AA75" s="9"/>
       <c r="AB75" s="9">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4593,8 +4729,12 @@
       <c r="K76" s="9">
         <v>17</v>
       </c>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
+      <c r="L76" s="9">
+        <v>4</v>
+      </c>
+      <c r="M76" s="9">
+        <v>15</v>
+      </c>
       <c r="N76" s="9">
         <v>1</v>
       </c>
@@ -4615,7 +4755,7 @@
       <c r="AA76" s="9"/>
       <c r="AB76" s="9">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4910,8 +5050,12 @@
       <c r="K83" s="9">
         <v>28</v>
       </c>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
+      <c r="L83" s="9">
+        <v>6</v>
+      </c>
+      <c r="M83" s="9">
+        <v>35</v>
+      </c>
       <c r="N83" s="9">
         <v>15</v>
       </c>
@@ -4932,7 +5076,7 @@
       <c r="AA83" s="9"/>
       <c r="AB83" s="9">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4986,8 +5130,12 @@
       <c r="K85" s="9">
         <v>2</v>
       </c>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
+      <c r="L85" s="9">
+        <v>2</v>
+      </c>
+      <c r="M85" s="9">
+        <v>13</v>
+      </c>
       <c r="N85" s="9">
         <v>13</v>
       </c>
@@ -5008,7 +5156,7 @@
       <c r="AA85" s="9"/>
       <c r="AB85" s="9">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5033,8 +5181,12 @@
       <c r="K86" s="9">
         <v>5</v>
       </c>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
+      <c r="L86" s="9">
+        <v>0</v>
+      </c>
+      <c r="M86" s="9">
+        <v>16</v>
+      </c>
       <c r="N86" s="9" t="s">
         <v>148</v>
       </c>
@@ -5055,7 +5207,7 @@
       <c r="AA86" s="9"/>
       <c r="AB86" s="9">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5080,8 +5232,12 @@
       <c r="K87" s="9">
         <v>-1</v>
       </c>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
+      <c r="L87" s="9">
+        <v>1</v>
+      </c>
+      <c r="M87" s="9">
+        <v>21</v>
+      </c>
       <c r="N87" s="9">
         <v>-2</v>
       </c>
@@ -5102,7 +5258,7 @@
       <c r="AA87" s="9"/>
       <c r="AB87" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5127,8 +5283,12 @@
       <c r="K88" s="9">
         <v>7</v>
       </c>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
+      <c r="L88" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M88" s="9">
+        <v>12</v>
+      </c>
       <c r="N88" s="9">
         <v>2</v>
       </c>
@@ -5149,7 +5309,7 @@
       <c r="AA88" s="9"/>
       <c r="AB88" s="9">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5174,8 +5334,12 @@
       <c r="K89" s="9">
         <v>4</v>
       </c>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
+      <c r="L89" s="9">
+        <v>-2</v>
+      </c>
+      <c r="M89" s="9">
+        <v>11</v>
+      </c>
       <c r="N89" s="9">
         <v>-6</v>
       </c>
@@ -5196,7 +5360,7 @@
       <c r="AA89" s="9"/>
       <c r="AB89" s="9">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5536,8 +5700,12 @@
       <c r="K97" s="9">
         <v>6</v>
       </c>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
+      <c r="L97" s="9">
+        <v>1</v>
+      </c>
+      <c r="M97" s="9">
+        <v>5</v>
+      </c>
       <c r="N97" s="9">
         <v>3</v>
       </c>
@@ -5558,7 +5726,7 @@
       <c r="AA97" s="9"/>
       <c r="AB97" s="9">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5612,8 +5780,12 @@
       <c r="K99" s="9">
         <v>2</v>
       </c>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
+      <c r="L99" s="9">
+        <v>0</v>
+      </c>
+      <c r="M99" s="9">
+        <v>6</v>
+      </c>
       <c r="N99" s="9">
         <v>0</v>
       </c>
@@ -5634,7 +5806,7 @@
       <c r="AA99" s="9"/>
       <c r="AB99" s="9">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5659,8 +5831,12 @@
       <c r="K100" s="9">
         <v>2</v>
       </c>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
+      <c r="L100" s="9">
+        <v>3</v>
+      </c>
+      <c r="M100" s="9">
+        <v>8</v>
+      </c>
       <c r="N100" s="9">
         <v>-1</v>
       </c>
@@ -5681,7 +5857,7 @@
       <c r="AA100" s="9"/>
       <c r="AB100" s="9">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5706,8 +5882,12 @@
       <c r="K101" s="9">
         <v>-2</v>
       </c>
-      <c r="L101" s="9"/>
-      <c r="M101" s="9"/>
+      <c r="L101" s="9">
+        <v>3</v>
+      </c>
+      <c r="M101" s="9">
+        <v>5</v>
+      </c>
       <c r="N101" s="9">
         <v>-5</v>
       </c>
@@ -5728,7 +5908,7 @@
       <c r="AA101" s="9"/>
       <c r="AB101" s="9">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5753,8 +5933,12 @@
       <c r="K102" s="9">
         <v>13</v>
       </c>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
+      <c r="L102" s="9">
+        <v>2</v>
+      </c>
+      <c r="M102" s="9">
+        <v>11</v>
+      </c>
       <c r="N102" s="9">
         <v>2</v>
       </c>
@@ -5775,7 +5959,7 @@
       <c r="AA102" s="9"/>
       <c r="AB102" s="9">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5800,8 +5984,12 @@
       <c r="K103" s="9">
         <v>-1</v>
       </c>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
+      <c r="L103" s="9">
+        <v>2</v>
+      </c>
+      <c r="M103" s="9">
+        <v>8</v>
+      </c>
       <c r="N103" s="9">
         <v>1</v>
       </c>
@@ -5822,7 +6010,7 @@
       <c r="AA103" s="9"/>
       <c r="AB103" s="9">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6117,8 +6305,12 @@
       <c r="K110" s="9">
         <v>7</v>
       </c>
-      <c r="L110" s="9"/>
-      <c r="M110" s="9"/>
+      <c r="L110" s="9">
+        <v>7</v>
+      </c>
+      <c r="M110" s="9">
+        <v>5</v>
+      </c>
       <c r="N110" s="9">
         <v>0</v>
       </c>
@@ -6139,7 +6331,7 @@
       <c r="AA110" s="9"/>
       <c r="AB110" s="9">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="111" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6193,8 +6385,12 @@
       <c r="K112" s="9">
         <v>12</v>
       </c>
-      <c r="L112" s="9"/>
-      <c r="M112" s="9"/>
+      <c r="L112" s="9">
+        <v>5</v>
+      </c>
+      <c r="M112" s="9">
+        <v>18</v>
+      </c>
       <c r="N112" s="9">
         <v>10</v>
       </c>
@@ -6215,7 +6411,7 @@
       <c r="AA112" s="9"/>
       <c r="AB112" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6240,8 +6436,12 @@
       <c r="K113" s="9">
         <v>13</v>
       </c>
-      <c r="L113" s="9"/>
-      <c r="M113" s="9"/>
+      <c r="L113" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M113" s="9">
+        <v>10</v>
+      </c>
       <c r="N113" s="9">
         <v>14</v>
       </c>
@@ -6262,7 +6462,7 @@
       <c r="AA113" s="9"/>
       <c r="AB113" s="9">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6287,8 +6487,12 @@
       <c r="K114" s="9">
         <v>19</v>
       </c>
-      <c r="L114" s="9"/>
-      <c r="M114" s="9"/>
+      <c r="L114" s="9">
+        <v>9</v>
+      </c>
+      <c r="M114" s="9">
+        <v>14</v>
+      </c>
       <c r="N114" s="9">
         <v>15</v>
       </c>
@@ -6309,7 +6513,7 @@
       <c r="AA114" s="9"/>
       <c r="AB114" s="9">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6334,8 +6538,12 @@
       <c r="K115" s="9">
         <v>9</v>
       </c>
-      <c r="L115" s="9"/>
-      <c r="M115" s="9"/>
+      <c r="L115" s="9">
+        <v>5</v>
+      </c>
+      <c r="M115" s="9">
+        <v>8</v>
+      </c>
       <c r="N115" s="9">
         <v>19</v>
       </c>
@@ -6356,7 +6564,7 @@
       <c r="AA115" s="9"/>
       <c r="AB115" s="9">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="116" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6381,8 +6589,12 @@
       <c r="K116" s="9">
         <v>19</v>
       </c>
-      <c r="L116" s="9"/>
-      <c r="M116" s="9"/>
+      <c r="L116" s="9">
+        <v>4</v>
+      </c>
+      <c r="M116" s="9">
+        <v>21</v>
+      </c>
       <c r="N116" s="9">
         <v>11</v>
       </c>
@@ -6403,7 +6615,7 @@
       <c r="AA116" s="9"/>
       <c r="AB116" s="9">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6698,8 +6910,12 @@
       <c r="K123" s="9">
         <v>35</v>
       </c>
-      <c r="L123" s="9"/>
-      <c r="M123" s="9"/>
+      <c r="L123" s="9">
+        <v>6</v>
+      </c>
+      <c r="M123" s="9">
+        <v>39</v>
+      </c>
       <c r="N123" s="9">
         <v>35</v>
       </c>
@@ -6720,7 +6936,7 @@
       <c r="AA123" s="9"/>
       <c r="AB123" s="9">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6774,8 +6990,12 @@
       <c r="K125" s="9">
         <v>3</v>
       </c>
-      <c r="L125" s="9"/>
-      <c r="M125" s="9"/>
+      <c r="L125" s="9">
+        <v>2</v>
+      </c>
+      <c r="M125" s="9">
+        <v>3</v>
+      </c>
       <c r="N125" s="9">
         <v>1</v>
       </c>
@@ -6796,7 +7016,7 @@
       <c r="AA125" s="9"/>
       <c r="AB125" s="9">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6866,8 +7086,12 @@
       <c r="K127" s="9">
         <v>14</v>
       </c>
-      <c r="L127" s="9"/>
-      <c r="M127" s="9"/>
+      <c r="L127" s="9">
+        <v>2</v>
+      </c>
+      <c r="M127" s="9">
+        <v>1</v>
+      </c>
       <c r="N127" s="9">
         <v>4</v>
       </c>
@@ -6888,7 +7112,7 @@
       <c r="AA127" s="9"/>
       <c r="AB127" s="9">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6958,8 +7182,12 @@
       <c r="K129" s="9">
         <v>9</v>
       </c>
-      <c r="L129" s="9"/>
-      <c r="M129" s="9"/>
+      <c r="L129" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M129" s="9">
+        <v>2</v>
+      </c>
       <c r="N129" s="9">
         <v>4</v>
       </c>
@@ -6980,7 +7208,7 @@
       <c r="AA129" s="9"/>
       <c r="AB129" s="9">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7005,8 +7233,12 @@
       <c r="K130" s="9">
         <v>3</v>
       </c>
-      <c r="L130" s="9"/>
-      <c r="M130" s="9"/>
+      <c r="L130" s="9">
+        <v>-2</v>
+      </c>
+      <c r="M130" s="9">
+        <v>0</v>
+      </c>
       <c r="N130" s="9">
         <v>0</v>
       </c>
@@ -7027,7 +7259,7 @@
       <c r="AA130" s="9"/>
       <c r="AB130" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7142,8 +7374,12 @@
       <c r="K133" s="9">
         <v>10</v>
       </c>
-      <c r="L133" s="9"/>
-      <c r="M133" s="9"/>
+      <c r="L133" s="9">
+        <v>-6</v>
+      </c>
+      <c r="M133" s="9">
+        <v>-1</v>
+      </c>
       <c r="N133" s="9">
         <v>4</v>
       </c>
@@ -7164,7 +7400,7 @@
       <c r="AA133" s="9"/>
       <c r="AB133" s="9">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7369,8 +7605,12 @@
       <c r="K138" s="9">
         <v>8</v>
       </c>
-      <c r="L138" s="9"/>
-      <c r="M138" s="9"/>
+      <c r="L138" s="9">
+        <v>1</v>
+      </c>
+      <c r="M138" s="9">
+        <v>2</v>
+      </c>
       <c r="N138" s="9">
         <v>3</v>
       </c>
@@ -7391,7 +7631,7 @@
       <c r="AA138" s="9"/>
       <c r="AB138" s="9">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/LEC.xlsx
+++ b/LEC.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="158">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:AC705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+    <sheetView tabSelected="1" topLeftCell="F97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R122" sqref="R122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1419,8 +1419,12 @@
       <c r="O5" s="9">
         <v>14</v>
       </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
+      <c r="P5" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>9</v>
+      </c>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
@@ -1433,7 +1437,7 @@
       <c r="AA5" s="9"/>
       <c r="AB5" s="9">
         <f>SUM(J5:AA5)</f>
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1470,8 +1474,12 @@
       <c r="O6" s="9">
         <v>7</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+      <c r="P6" s="9">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>-2</v>
+      </c>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
@@ -1484,7 +1492,7 @@
       <c r="AA6" s="9"/>
       <c r="AB6" s="9">
         <f t="shared" ref="AB6:AB69" si="0">SUM(J6:AA6)</f>
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1521,8 +1529,12 @@
       <c r="O7" s="9">
         <v>21</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
+      <c r="P7" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>6</v>
+      </c>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -1535,7 +1547,7 @@
       <c r="AA7" s="9"/>
       <c r="AB7" s="9">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1572,8 +1584,12 @@
       <c r="O8" s="9">
         <v>15</v>
       </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
+      <c r="P8" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>6</v>
+      </c>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
@@ -1586,7 +1602,7 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="9">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1623,8 +1639,12 @@
       <c r="O9" s="9">
         <v>18</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
+      <c r="P9" s="9">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>3</v>
+      </c>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
@@ -1637,7 +1657,7 @@
       <c r="AA9" s="9"/>
       <c r="AB9" s="9">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1944,8 +1964,12 @@
       <c r="O16" s="9">
         <v>33</v>
       </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="P16" s="9">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>7</v>
+      </c>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
@@ -1958,7 +1982,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2024,8 +2048,12 @@
       <c r="O18" s="9">
         <v>6</v>
       </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
+      <c r="P18" s="9">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>6</v>
+      </c>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -2038,7 +2066,7 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2075,8 +2103,12 @@
       <c r="O19" s="9">
         <v>9</v>
       </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
+      <c r="P19" s="9">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>7</v>
+      </c>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -2089,7 +2121,7 @@
       <c r="AA19" s="9"/>
       <c r="AB19" s="9">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2126,8 +2158,12 @@
       <c r="O20" s="9">
         <v>3</v>
       </c>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
+      <c r="P20" s="9">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>4</v>
+      </c>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -2140,7 +2176,7 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="9">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2177,8 +2213,12 @@
       <c r="O21" s="9">
         <v>3</v>
       </c>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
+      <c r="P21" s="9">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>8</v>
+      </c>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
@@ -2191,7 +2231,7 @@
       <c r="AA21" s="9"/>
       <c r="AB21" s="9">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2228,8 +2268,12 @@
       <c r="O22" s="9">
         <v>-3</v>
       </c>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
+      <c r="P22" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>-4</v>
+      </c>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
@@ -2242,7 +2286,7 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2549,8 +2593,12 @@
       <c r="O29" s="9">
         <v>5</v>
       </c>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
+      <c r="P29" s="9">
+        <v>38</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>4</v>
+      </c>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -2563,7 +2611,7 @@
       <c r="AA29" s="9"/>
       <c r="AB29" s="9">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2629,8 +2677,12 @@
       <c r="O31" s="9">
         <v>20</v>
       </c>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
+      <c r="P31" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>5</v>
+      </c>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
@@ -2643,7 +2695,7 @@
       <c r="AA31" s="9"/>
       <c r="AB31" s="9">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2680,8 +2732,12 @@
       <c r="O32" s="9">
         <v>21</v>
       </c>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
+      <c r="P32" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>4</v>
+      </c>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
@@ -2694,7 +2750,7 @@
       <c r="AA32" s="9"/>
       <c r="AB32" s="9">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2731,8 +2787,12 @@
       <c r="O33" s="9">
         <v>31</v>
       </c>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
+      <c r="P33" s="9">
+        <v>-5</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>9</v>
+      </c>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
@@ -2745,7 +2805,7 @@
       <c r="AA33" s="9"/>
       <c r="AB33" s="9">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2782,8 +2842,12 @@
       <c r="O34" s="9">
         <v>18</v>
       </c>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
+      <c r="P34" s="9">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>4</v>
+      </c>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
@@ -2796,7 +2860,7 @@
       <c r="AA34" s="9"/>
       <c r="AB34" s="9">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2833,8 +2897,12 @@
       <c r="O35" s="9">
         <v>33</v>
       </c>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
+      <c r="P35" s="9">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>0</v>
+      </c>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
@@ -2847,7 +2915,7 @@
       <c r="AA35" s="9"/>
       <c r="AB35" s="9">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3202,8 +3270,12 @@
       <c r="O43" s="9">
         <v>27</v>
       </c>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
+      <c r="P43" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="9">
+        <v>19</v>
+      </c>
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
@@ -3216,7 +3288,7 @@
       <c r="AA43" s="9"/>
       <c r="AB43" s="9">
         <f t="shared" si="0"/>
-        <v>179</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3327,8 +3399,12 @@
       <c r="O46" s="9">
         <v>11</v>
       </c>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
+      <c r="P46" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q46" s="9">
+        <v>20</v>
+      </c>
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
@@ -3341,7 +3417,7 @@
       <c r="AA46" s="9"/>
       <c r="AB46" s="9">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3378,8 +3454,12 @@
       <c r="O47" s="9">
         <v>16</v>
       </c>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
+      <c r="P47" s="9">
+        <v>23</v>
+      </c>
+      <c r="Q47" s="9">
+        <v>8</v>
+      </c>
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
@@ -3392,7 +3472,7 @@
       <c r="AA47" s="9"/>
       <c r="AB47" s="9">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3474,8 +3554,12 @@
       <c r="O49" s="9">
         <v>14</v>
       </c>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
+      <c r="P49" s="9">
+        <v>23</v>
+      </c>
+      <c r="Q49" s="9">
+        <v>16</v>
+      </c>
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
@@ -3488,7 +3572,7 @@
       <c r="AA49" s="9"/>
       <c r="AB49" s="9">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3525,8 +3609,12 @@
       <c r="O50" s="9">
         <v>22</v>
       </c>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
+      <c r="P50" s="9">
+        <v>23</v>
+      </c>
+      <c r="Q50" s="9">
+        <v>11</v>
+      </c>
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
@@ -3539,7 +3627,7 @@
       <c r="AA50" s="9"/>
       <c r="AB50" s="9">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3576,8 +3664,12 @@
       <c r="O51" s="9">
         <v>17</v>
       </c>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
+      <c r="P51" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q51" s="9">
+        <v>15</v>
+      </c>
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
@@ -3590,7 +3682,7 @@
       <c r="AA51" s="9"/>
       <c r="AB51" s="9">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3852,8 +3944,12 @@
       <c r="O57" s="9">
         <v>26</v>
       </c>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
+      <c r="P57" s="9">
+        <v>35</v>
+      </c>
+      <c r="Q57" s="9">
+        <v>42</v>
+      </c>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
@@ -3866,7 +3962,7 @@
       <c r="AA57" s="9"/>
       <c r="AB57" s="9">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3932,8 +4028,12 @@
       <c r="O59" s="9">
         <v>5</v>
       </c>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
+      <c r="P59" s="9">
+        <v>14</v>
+      </c>
+      <c r="Q59" s="9">
+        <v>30</v>
+      </c>
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
@@ -3946,7 +4046,7 @@
       <c r="AA59" s="9"/>
       <c r="AB59" s="9">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3983,8 +4083,12 @@
       <c r="O60" s="9">
         <v>8</v>
       </c>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
+      <c r="P60" s="9">
+        <v>25</v>
+      </c>
+      <c r="Q60" s="9">
+        <v>14</v>
+      </c>
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
@@ -3997,7 +4101,7 @@
       <c r="AA60" s="9"/>
       <c r="AB60" s="9">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4034,8 +4138,12 @@
       <c r="O61" s="9">
         <v>5</v>
       </c>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
+      <c r="P61" s="9">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="9">
+        <v>22</v>
+      </c>
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
@@ -4048,7 +4156,7 @@
       <c r="AA61" s="9"/>
       <c r="AB61" s="9">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4085,8 +4193,12 @@
       <c r="O62" s="9">
         <v>7</v>
       </c>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
+      <c r="P62" s="9">
+        <v>21</v>
+      </c>
+      <c r="Q62" s="9">
+        <v>18</v>
+      </c>
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
@@ -4099,7 +4211,7 @@
       <c r="AA62" s="9"/>
       <c r="AB62" s="9">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4136,8 +4248,12 @@
       <c r="O63" s="9">
         <v>6</v>
       </c>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
+      <c r="P63" s="9">
+        <v>25</v>
+      </c>
+      <c r="Q63" s="9">
+        <v>10</v>
+      </c>
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
@@ -4150,7 +4266,7 @@
       <c r="AA63" s="9"/>
       <c r="AB63" s="9">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4457,8 +4573,12 @@
       <c r="O70" s="9">
         <v>14</v>
       </c>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
+      <c r="P70" s="9">
+        <v>31</v>
+      </c>
+      <c r="Q70" s="9">
+        <v>33</v>
+      </c>
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
@@ -4471,7 +4591,7 @@
       <c r="AA70" s="9"/>
       <c r="AB70" s="9">
         <f t="shared" ref="AB70:AB133" si="1">SUM(J70:AA70)</f>
-        <v>135</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4537,8 +4657,12 @@
       <c r="O72" s="9">
         <v>1</v>
       </c>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
+      <c r="P72" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q72" s="9">
+        <v>10</v>
+      </c>
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
@@ -4551,7 +4675,7 @@
       <c r="AA72" s="9"/>
       <c r="AB72" s="9">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4588,8 +4712,12 @@
       <c r="O73" s="9">
         <v>3</v>
       </c>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
+      <c r="P73" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q73" s="9">
+        <v>15</v>
+      </c>
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
@@ -4602,7 +4730,7 @@
       <c r="AA73" s="9"/>
       <c r="AB73" s="9">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4639,8 +4767,12 @@
       <c r="O74" s="9">
         <v>1</v>
       </c>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
+      <c r="P74" s="9">
+        <v>17</v>
+      </c>
+      <c r="Q74" s="9">
+        <v>9</v>
+      </c>
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
@@ -4653,7 +4785,7 @@
       <c r="AA74" s="9"/>
       <c r="AB74" s="9">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4690,8 +4822,12 @@
       <c r="O75" s="9">
         <v>12</v>
       </c>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
+      <c r="P75" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q75" s="9">
+        <v>12</v>
+      </c>
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
@@ -4704,7 +4840,7 @@
       <c r="AA75" s="9"/>
       <c r="AB75" s="9">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4741,8 +4877,12 @@
       <c r="O76" s="9">
         <v>9</v>
       </c>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
+      <c r="P76" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="9">
+        <v>16</v>
+      </c>
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
@@ -4755,7 +4895,7 @@
       <c r="AA76" s="9"/>
       <c r="AB76" s="9">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5062,8 +5202,12 @@
       <c r="O83" s="9">
         <v>19</v>
       </c>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="9"/>
+      <c r="P83" s="9">
+        <v>29</v>
+      </c>
+      <c r="Q83" s="9">
+        <v>34</v>
+      </c>
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
       <c r="T83" s="9"/>
@@ -5076,7 +5220,7 @@
       <c r="AA83" s="9"/>
       <c r="AB83" s="9">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5142,8 +5286,12 @@
       <c r="O85" s="9">
         <v>1</v>
       </c>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="9"/>
+      <c r="P85" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q85" s="9">
+        <v>28</v>
+      </c>
       <c r="R85" s="9"/>
       <c r="S85" s="9"/>
       <c r="T85" s="9"/>
@@ -5156,7 +5304,7 @@
       <c r="AA85" s="9"/>
       <c r="AB85" s="9">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5193,7 +5341,9 @@
       <c r="O86" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="P86" s="9"/>
+      <c r="P86" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="Q86" s="9"/>
       <c r="R86" s="9"/>
       <c r="S86" s="9"/>
@@ -5244,8 +5394,12 @@
       <c r="O87" s="9">
         <v>2</v>
       </c>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="9"/>
+      <c r="P87" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q87" s="9">
+        <v>21</v>
+      </c>
       <c r="R87" s="9"/>
       <c r="S87" s="9"/>
       <c r="T87" s="9"/>
@@ -5258,7 +5412,7 @@
       <c r="AA87" s="9"/>
       <c r="AB87" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5295,8 +5449,12 @@
       <c r="O88" s="9">
         <v>5</v>
       </c>
-      <c r="P88" s="9"/>
-      <c r="Q88" s="9"/>
+      <c r="P88" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q88" s="9">
+        <v>30</v>
+      </c>
       <c r="R88" s="9"/>
       <c r="S88" s="9"/>
       <c r="T88" s="9"/>
@@ -5309,7 +5467,7 @@
       <c r="AA88" s="9"/>
       <c r="AB88" s="9">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5346,8 +5504,12 @@
       <c r="O89" s="9">
         <v>5</v>
       </c>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="9"/>
+      <c r="P89" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="9">
+        <v>22</v>
+      </c>
       <c r="R89" s="9"/>
       <c r="S89" s="9"/>
       <c r="T89" s="9"/>
@@ -5360,7 +5522,7 @@
       <c r="AA89" s="9"/>
       <c r="AB89" s="9">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5436,8 +5598,12 @@
       <c r="O91" s="9">
         <v>6</v>
       </c>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="9"/>
+      <c r="P91" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="9">
+        <v>21</v>
+      </c>
       <c r="R91" s="9"/>
       <c r="S91" s="9"/>
       <c r="T91" s="9"/>
@@ -5450,7 +5616,7 @@
       <c r="AA91" s="9"/>
       <c r="AB91" s="9">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5712,7 +5878,9 @@
       <c r="O97" s="9">
         <v>8</v>
       </c>
-      <c r="P97" s="9"/>
+      <c r="P97" s="9">
+        <v>4</v>
+      </c>
       <c r="Q97" s="9"/>
       <c r="R97" s="9"/>
       <c r="S97" s="9"/>
@@ -5726,7 +5894,7 @@
       <c r="AA97" s="9"/>
       <c r="AB97" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5792,8 +5960,12 @@
       <c r="O99" s="9">
         <v>16</v>
       </c>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="9"/>
+      <c r="P99" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q99" s="9">
+        <v>-1</v>
+      </c>
       <c r="R99" s="9"/>
       <c r="S99" s="9"/>
       <c r="T99" s="9"/>
@@ -5806,7 +5978,7 @@
       <c r="AA99" s="9"/>
       <c r="AB99" s="9">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5843,8 +6015,12 @@
       <c r="O100" s="9">
         <v>22</v>
       </c>
-      <c r="P100" s="9"/>
-      <c r="Q100" s="9"/>
+      <c r="P100" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q100" s="9">
+        <v>0</v>
+      </c>
       <c r="R100" s="9"/>
       <c r="S100" s="9"/>
       <c r="T100" s="9"/>
@@ -5857,7 +6033,7 @@
       <c r="AA100" s="9"/>
       <c r="AB100" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5894,8 +6070,12 @@
       <c r="O101" s="9">
         <v>17</v>
       </c>
-      <c r="P101" s="9"/>
-      <c r="Q101" s="9"/>
+      <c r="P101" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="9">
+        <v>3</v>
+      </c>
       <c r="R101" s="9"/>
       <c r="S101" s="9"/>
       <c r="T101" s="9"/>
@@ -5908,7 +6088,7 @@
       <c r="AA101" s="9"/>
       <c r="AB101" s="9">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5945,8 +6125,12 @@
       <c r="O102" s="9">
         <v>23</v>
       </c>
-      <c r="P102" s="9"/>
-      <c r="Q102" s="9"/>
+      <c r="P102" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q102" s="9">
+        <v>8</v>
+      </c>
       <c r="R102" s="9"/>
       <c r="S102" s="9"/>
       <c r="T102" s="9"/>
@@ -5959,7 +6143,7 @@
       <c r="AA102" s="9"/>
       <c r="AB102" s="9">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5996,8 +6180,12 @@
       <c r="O103" s="9">
         <v>17</v>
       </c>
-      <c r="P103" s="9"/>
-      <c r="Q103" s="9"/>
+      <c r="P103" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="9">
+        <v>3</v>
+      </c>
       <c r="R103" s="9"/>
       <c r="S103" s="9"/>
       <c r="T103" s="9"/>
@@ -6010,7 +6198,7 @@
       <c r="AA103" s="9"/>
       <c r="AB103" s="9">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6317,8 +6505,12 @@
       <c r="O110" s="9">
         <v>39</v>
       </c>
-      <c r="P110" s="9"/>
-      <c r="Q110" s="9"/>
+      <c r="P110" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q110" s="9">
+        <v>1</v>
+      </c>
       <c r="R110" s="9"/>
       <c r="S110" s="9"/>
       <c r="T110" s="9"/>
@@ -6331,7 +6523,7 @@
       <c r="AA110" s="9"/>
       <c r="AB110" s="9">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6397,8 +6589,12 @@
       <c r="O112" s="9">
         <v>20</v>
       </c>
-      <c r="P112" s="9"/>
-      <c r="Q112" s="9"/>
+      <c r="P112" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q112" s="9">
+        <v>27</v>
+      </c>
       <c r="R112" s="9"/>
       <c r="S112" s="9"/>
       <c r="T112" s="9"/>
@@ -6411,7 +6607,7 @@
       <c r="AA112" s="9"/>
       <c r="AB112" s="9">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6448,8 +6644,12 @@
       <c r="O113" s="9">
         <v>22</v>
       </c>
-      <c r="P113" s="9"/>
-      <c r="Q113" s="9"/>
+      <c r="P113" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="9">
+        <v>26</v>
+      </c>
       <c r="R113" s="9"/>
       <c r="S113" s="9"/>
       <c r="T113" s="9"/>
@@ -6462,7 +6662,7 @@
       <c r="AA113" s="9"/>
       <c r="AB113" s="9">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6499,8 +6699,12 @@
       <c r="O114" s="9">
         <v>21</v>
       </c>
-      <c r="P114" s="9"/>
-      <c r="Q114" s="9"/>
+      <c r="P114" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="9">
+        <v>22</v>
+      </c>
       <c r="R114" s="9"/>
       <c r="S114" s="9"/>
       <c r="T114" s="9"/>
@@ -6513,7 +6717,7 @@
       <c r="AA114" s="9"/>
       <c r="AB114" s="9">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6550,8 +6754,12 @@
       <c r="O115" s="9">
         <v>17</v>
       </c>
-      <c r="P115" s="9"/>
-      <c r="Q115" s="9"/>
+      <c r="P115" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q115" s="9">
+        <v>17</v>
+      </c>
       <c r="R115" s="9"/>
       <c r="S115" s="9"/>
       <c r="T115" s="9"/>
@@ -6564,7 +6772,7 @@
       <c r="AA115" s="9"/>
       <c r="AB115" s="9">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6601,8 +6809,12 @@
       <c r="O116" s="9">
         <v>22</v>
       </c>
-      <c r="P116" s="9"/>
-      <c r="Q116" s="9"/>
+      <c r="P116" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="9">
+        <v>4</v>
+      </c>
       <c r="R116" s="9"/>
       <c r="S116" s="9"/>
       <c r="T116" s="9"/>
@@ -6615,7 +6827,7 @@
       <c r="AA116" s="9"/>
       <c r="AB116" s="9">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6922,8 +7134,12 @@
       <c r="O123" s="9">
         <v>31</v>
       </c>
-      <c r="P123" s="9"/>
-      <c r="Q123" s="9"/>
+      <c r="P123" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q123" s="9">
+        <v>46</v>
+      </c>
       <c r="R123" s="9"/>
       <c r="S123" s="9"/>
       <c r="T123" s="9"/>
@@ -6936,7 +7152,7 @@
       <c r="AA123" s="9"/>
       <c r="AB123" s="9">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>208</v>
       </c>
     </row>
     <row r="124" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7002,8 +7218,12 @@
       <c r="O125" s="9">
         <v>11</v>
       </c>
-      <c r="P125" s="9"/>
-      <c r="Q125" s="9"/>
+      <c r="P125" s="9">
+        <v>8</v>
+      </c>
+      <c r="Q125" s="9">
+        <v>4</v>
+      </c>
       <c r="R125" s="9"/>
       <c r="S125" s="9"/>
       <c r="T125" s="9"/>
@@ -7016,7 +7236,7 @@
       <c r="AA125" s="9"/>
       <c r="AB125" s="9">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7047,7 +7267,9 @@
       <c r="O126" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="P126" s="9"/>
+      <c r="P126" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="Q126" s="9"/>
       <c r="R126" s="9"/>
       <c r="S126" s="9"/>
@@ -7098,8 +7320,12 @@
       <c r="O127" s="9">
         <v>7</v>
       </c>
-      <c r="P127" s="9"/>
-      <c r="Q127" s="9"/>
+      <c r="P127" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q127" s="9">
+        <v>1</v>
+      </c>
       <c r="R127" s="9"/>
       <c r="S127" s="9"/>
       <c r="T127" s="9"/>
@@ -7112,7 +7338,7 @@
       <c r="AA127" s="9"/>
       <c r="AB127" s="9">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7194,8 +7420,12 @@
       <c r="O129" s="9">
         <v>9</v>
       </c>
-      <c r="P129" s="9"/>
-      <c r="Q129" s="9"/>
+      <c r="P129" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q129" s="9">
+        <v>3</v>
+      </c>
       <c r="R129" s="9"/>
       <c r="S129" s="9"/>
       <c r="T129" s="9"/>
@@ -7208,7 +7438,7 @@
       <c r="AA129" s="9"/>
       <c r="AB129" s="9">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7245,8 +7475,12 @@
       <c r="O130" s="9">
         <v>7</v>
       </c>
-      <c r="P130" s="9"/>
-      <c r="Q130" s="9"/>
+      <c r="P130" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="9">
+        <v>6</v>
+      </c>
       <c r="R130" s="9"/>
       <c r="S130" s="9"/>
       <c r="T130" s="9"/>
@@ -7259,7 +7493,7 @@
       <c r="AA130" s="9"/>
       <c r="AB130" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7386,8 +7620,12 @@
       <c r="O133" s="9">
         <v>3</v>
       </c>
-      <c r="P133" s="9"/>
-      <c r="Q133" s="9"/>
+      <c r="P133" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q133" s="9">
+        <v>6</v>
+      </c>
       <c r="R133" s="9"/>
       <c r="S133" s="9"/>
       <c r="T133" s="9"/>
@@ -7400,7 +7638,7 @@
       <c r="AA133" s="9"/>
       <c r="AB133" s="9">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7617,8 +7855,12 @@
       <c r="O138" s="9">
         <v>12</v>
       </c>
-      <c r="P138" s="9"/>
-      <c r="Q138" s="9"/>
+      <c r="P138" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q138" s="9">
+        <v>2</v>
+      </c>
       <c r="R138" s="9"/>
       <c r="S138" s="9"/>
       <c r="T138" s="9"/>
@@ -7631,7 +7873,7 @@
       <c r="AA138" s="9"/>
       <c r="AB138" s="9">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/LEC.xlsx
+++ b/LEC.xlsx
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:AC705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R122" sqref="R122"/>
+    <sheetView tabSelected="1" topLeftCell="F25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1427,8 +1427,12 @@
       </c>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
+      <c r="T5" s="9">
+        <v>-8</v>
+      </c>
+      <c r="U5" s="9">
+        <v>16</v>
+      </c>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
@@ -1437,7 +1441,7 @@
       <c r="AA5" s="9"/>
       <c r="AB5" s="9">
         <f>SUM(J5:AA5)</f>
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1482,8 +1486,12 @@
       </c>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
+      <c r="T6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="9">
+        <v>23</v>
+      </c>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
@@ -1492,7 +1500,7 @@
       <c r="AA6" s="9"/>
       <c r="AB6" s="9">
         <f t="shared" ref="AB6:AB69" si="0">SUM(J6:AA6)</f>
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1537,8 +1545,12 @@
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
+      <c r="T7" s="9">
+        <v>4</v>
+      </c>
+      <c r="U7" s="9">
+        <v>20</v>
+      </c>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
@@ -1547,7 +1559,7 @@
       <c r="AA7" s="9"/>
       <c r="AB7" s="9">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1592,8 +1604,12 @@
       </c>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
+      <c r="T8" s="9">
+        <v>3</v>
+      </c>
+      <c r="U8" s="9">
+        <v>18</v>
+      </c>
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
@@ -1602,7 +1618,7 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="9">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1647,8 +1663,12 @@
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
+      <c r="T9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="9">
+        <v>21</v>
+      </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
@@ -1657,7 +1677,7 @@
       <c r="AA9" s="9"/>
       <c r="AB9" s="9">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1972,8 +1992,12 @@
       </c>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
+      <c r="T16" s="9">
+        <v>2</v>
+      </c>
+      <c r="U16" s="9">
+        <v>31</v>
+      </c>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
@@ -1982,7 +2006,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2056,8 +2080,12 @@
       </c>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
+      <c r="T18" s="9">
+        <v>11</v>
+      </c>
+      <c r="U18" s="9">
+        <v>10</v>
+      </c>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -2066,7 +2094,7 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2111,8 +2139,12 @@
       </c>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
+      <c r="T19" s="9">
+        <v>13</v>
+      </c>
+      <c r="U19" s="9">
+        <v>8</v>
+      </c>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
@@ -2121,7 +2153,7 @@
       <c r="AA19" s="9"/>
       <c r="AB19" s="9">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2166,8 +2198,12 @@
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
+      <c r="T20" s="9">
+        <v>31</v>
+      </c>
+      <c r="U20" s="9">
+        <v>14</v>
+      </c>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
@@ -2176,7 +2212,7 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="9">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2221,8 +2257,12 @@
       </c>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
+      <c r="T21" s="9">
+        <v>18</v>
+      </c>
+      <c r="U21" s="9">
+        <v>27</v>
+      </c>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
@@ -2231,7 +2271,7 @@
       <c r="AA21" s="9"/>
       <c r="AB21" s="9">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2276,8 +2316,12 @@
       </c>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
+      <c r="T22" s="9">
+        <v>16</v>
+      </c>
+      <c r="U22" s="9">
+        <v>21</v>
+      </c>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
@@ -2286,7 +2330,7 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2601,8 +2645,12 @@
       </c>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
+      <c r="T29" s="9">
+        <v>33</v>
+      </c>
+      <c r="U29" s="9">
+        <v>34</v>
+      </c>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
@@ -2611,7 +2659,7 @@
       <c r="AA29" s="9"/>
       <c r="AB29" s="9">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2685,8 +2733,12 @@
       </c>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
+      <c r="T31" s="9">
+        <v>20</v>
+      </c>
+      <c r="U31" s="9">
+        <v>18</v>
+      </c>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
@@ -2695,7 +2747,7 @@
       <c r="AA31" s="9"/>
       <c r="AB31" s="9">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2740,8 +2792,12 @@
       </c>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
+      <c r="T32" s="9">
+        <v>14</v>
+      </c>
+      <c r="U32" s="9">
+        <v>16</v>
+      </c>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
@@ -2750,7 +2806,7 @@
       <c r="AA32" s="9"/>
       <c r="AB32" s="9">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2795,8 +2851,12 @@
       </c>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
+      <c r="T33" s="9">
+        <v>18</v>
+      </c>
+      <c r="U33" s="9">
+        <v>22</v>
+      </c>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
@@ -2805,7 +2865,7 @@
       <c r="AA33" s="9"/>
       <c r="AB33" s="9">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2850,8 +2910,12 @@
       </c>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
+      <c r="T34" s="9">
+        <v>29</v>
+      </c>
+      <c r="U34" s="9">
+        <v>19</v>
+      </c>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
@@ -2860,7 +2924,7 @@
       <c r="AA34" s="9"/>
       <c r="AB34" s="9">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2905,8 +2969,12 @@
       </c>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
+      <c r="T35" s="9">
+        <v>21</v>
+      </c>
+      <c r="U35" s="9">
+        <v>27</v>
+      </c>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
@@ -2915,7 +2983,7 @@
       <c r="AA35" s="9"/>
       <c r="AB35" s="9">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3278,8 +3346,12 @@
       </c>
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
+      <c r="T43" s="9">
+        <v>26</v>
+      </c>
+      <c r="U43" s="9">
+        <v>33</v>
+      </c>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
@@ -3288,7 +3360,7 @@
       <c r="AA43" s="9"/>
       <c r="AB43" s="9">
         <f t="shared" si="0"/>
-        <v>202</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3407,8 +3479,12 @@
       </c>
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
+      <c r="T46" s="9">
+        <v>3</v>
+      </c>
+      <c r="U46" s="9">
+        <v>15</v>
+      </c>
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
@@ -3417,7 +3493,7 @@
       <c r="AA46" s="9"/>
       <c r="AB46" s="9">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3462,8 +3538,12 @@
       </c>
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
+      <c r="T47" s="9">
+        <v>12</v>
+      </c>
+      <c r="U47" s="9">
+        <v>10</v>
+      </c>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
@@ -3472,7 +3552,7 @@
       <c r="AA47" s="9"/>
       <c r="AB47" s="9">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3562,8 +3642,12 @@
       </c>
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
+      <c r="T49" s="9">
+        <v>7</v>
+      </c>
+      <c r="U49" s="9">
+        <v>20</v>
+      </c>
       <c r="V49" s="9"/>
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
@@ -3572,7 +3656,7 @@
       <c r="AA49" s="9"/>
       <c r="AB49" s="9">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3617,8 +3701,12 @@
       </c>
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
+      <c r="T50" s="9">
+        <v>8</v>
+      </c>
+      <c r="U50" s="9">
+        <v>15</v>
+      </c>
       <c r="V50" s="9"/>
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
@@ -3627,7 +3715,7 @@
       <c r="AA50" s="9"/>
       <c r="AB50" s="9">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3672,8 +3760,12 @@
       </c>
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
+      <c r="T51" s="9">
+        <v>2</v>
+      </c>
+      <c r="U51" s="9">
+        <v>11</v>
+      </c>
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
@@ -3682,7 +3774,7 @@
       <c r="AA51" s="9"/>
       <c r="AB51" s="9">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3952,8 +4044,12 @@
       </c>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
+      <c r="T57" s="9">
+        <v>2</v>
+      </c>
+      <c r="U57" s="9">
+        <v>30</v>
+      </c>
       <c r="V57" s="9"/>
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
@@ -3962,7 +4058,7 @@
       <c r="AA57" s="9"/>
       <c r="AB57" s="9">
         <f t="shared" si="0"/>
-        <v>202</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4036,8 +4132,12 @@
       </c>
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
+      <c r="T59" s="9">
+        <v>16</v>
+      </c>
+      <c r="U59" s="9">
+        <v>8</v>
+      </c>
       <c r="V59" s="9"/>
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
@@ -4046,7 +4146,7 @@
       <c r="AA59" s="9"/>
       <c r="AB59" s="9">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4091,8 +4191,12 @@
       </c>
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
+      <c r="T60" s="9">
+        <v>10</v>
+      </c>
+      <c r="U60" s="9">
+        <v>12</v>
+      </c>
       <c r="V60" s="9"/>
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
@@ -4101,7 +4205,7 @@
       <c r="AA60" s="9"/>
       <c r="AB60" s="9">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4146,8 +4250,12 @@
       </c>
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
+      <c r="T61" s="9">
+        <v>7</v>
+      </c>
+      <c r="U61" s="9">
+        <v>13</v>
+      </c>
       <c r="V61" s="9"/>
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
@@ -4156,7 +4264,7 @@
       <c r="AA61" s="9"/>
       <c r="AB61" s="9">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4201,8 +4309,12 @@
       </c>
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
+      <c r="T62" s="9">
+        <v>18</v>
+      </c>
+      <c r="U62" s="9">
+        <v>16</v>
+      </c>
       <c r="V62" s="9"/>
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
@@ -4211,7 +4323,7 @@
       <c r="AA62" s="9"/>
       <c r="AB62" s="9">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4256,8 +4368,12 @@
       </c>
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
+      <c r="T63" s="9">
+        <v>16</v>
+      </c>
+      <c r="U63" s="9">
+        <v>14</v>
+      </c>
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
@@ -4266,7 +4382,7 @@
       <c r="AA63" s="9"/>
       <c r="AB63" s="9">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4581,8 +4697,12 @@
       </c>
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
+      <c r="T70" s="9">
+        <v>29</v>
+      </c>
+      <c r="U70" s="9">
+        <v>35</v>
+      </c>
       <c r="V70" s="9"/>
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
@@ -4591,7 +4711,7 @@
       <c r="AA70" s="9"/>
       <c r="AB70" s="9">
         <f t="shared" ref="AB70:AB133" si="1">SUM(J70:AA70)</f>
-        <v>199</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4665,8 +4785,12 @@
       </c>
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
+      <c r="T72" s="9">
+        <v>24</v>
+      </c>
+      <c r="U72" s="9">
+        <v>7</v>
+      </c>
       <c r="V72" s="9"/>
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
@@ -4675,7 +4799,7 @@
       <c r="AA72" s="9"/>
       <c r="AB72" s="9">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4720,8 +4844,12 @@
       </c>
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
+      <c r="T73" s="9">
+        <v>18</v>
+      </c>
+      <c r="U73" s="9">
+        <v>0</v>
+      </c>
       <c r="V73" s="9"/>
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
@@ -4730,7 +4858,7 @@
       <c r="AA73" s="9"/>
       <c r="AB73" s="9">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4775,8 +4903,12 @@
       </c>
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
+      <c r="T74" s="9">
+        <v>21</v>
+      </c>
+      <c r="U74" s="9">
+        <v>3</v>
+      </c>
       <c r="V74" s="9"/>
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
@@ -4785,7 +4917,7 @@
       <c r="AA74" s="9"/>
       <c r="AB74" s="9">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4830,8 +4962,12 @@
       </c>
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
-      <c r="U75" s="9"/>
+      <c r="T75" s="9">
+        <v>12</v>
+      </c>
+      <c r="U75" s="9">
+        <v>5</v>
+      </c>
       <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
@@ -4840,7 +4976,7 @@
       <c r="AA75" s="9"/>
       <c r="AB75" s="9">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4885,8 +5021,12 @@
       </c>
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
+      <c r="T76" s="9">
+        <v>20</v>
+      </c>
+      <c r="U76" s="9">
+        <v>5</v>
+      </c>
       <c r="V76" s="9"/>
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
@@ -4895,7 +5035,7 @@
       <c r="AA76" s="9"/>
       <c r="AB76" s="9">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5210,8 +5350,12 @@
       </c>
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
-      <c r="U83" s="9"/>
+      <c r="T83" s="9">
+        <v>31</v>
+      </c>
+      <c r="U83" s="9">
+        <v>1</v>
+      </c>
       <c r="V83" s="9"/>
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
@@ -5220,7 +5364,7 @@
       <c r="AA83" s="9"/>
       <c r="AB83" s="9">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5294,8 +5438,12 @@
       </c>
       <c r="R85" s="9"/>
       <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
-      <c r="U85" s="9"/>
+      <c r="T85" s="9">
+        <v>8</v>
+      </c>
+      <c r="U85" s="9">
+        <v>5</v>
+      </c>
       <c r="V85" s="9"/>
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
@@ -5304,7 +5452,7 @@
       <c r="AA85" s="9"/>
       <c r="AB85" s="9">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5402,8 +5550,12 @@
       </c>
       <c r="R87" s="9"/>
       <c r="S87" s="9"/>
-      <c r="T87" s="9"/>
-      <c r="U87" s="9"/>
+      <c r="T87" s="9">
+        <v>18</v>
+      </c>
+      <c r="U87" s="9">
+        <v>5</v>
+      </c>
       <c r="V87" s="9"/>
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
@@ -5412,7 +5564,7 @@
       <c r="AA87" s="9"/>
       <c r="AB87" s="9">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5512,8 +5664,12 @@
       </c>
       <c r="R89" s="9"/>
       <c r="S89" s="9"/>
-      <c r="T89" s="9"/>
-      <c r="U89" s="9"/>
+      <c r="T89" s="9">
+        <v>18</v>
+      </c>
+      <c r="U89" s="9">
+        <v>13</v>
+      </c>
       <c r="V89" s="9"/>
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
@@ -5522,7 +5678,7 @@
       <c r="AA89" s="9"/>
       <c r="AB89" s="9">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5606,8 +5762,12 @@
       </c>
       <c r="R91" s="9"/>
       <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
-      <c r="U91" s="9"/>
+      <c r="T91" s="9">
+        <v>7</v>
+      </c>
+      <c r="U91" s="9">
+        <v>13</v>
+      </c>
       <c r="V91" s="9"/>
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
@@ -5616,7 +5776,7 @@
       <c r="AA91" s="9"/>
       <c r="AB91" s="9">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5696,8 +5856,12 @@
       <c r="Q93" s="9"/>
       <c r="R93" s="9"/>
       <c r="S93" s="9"/>
-      <c r="T93" s="9"/>
-      <c r="U93" s="9"/>
+      <c r="T93" s="9">
+        <v>15</v>
+      </c>
+      <c r="U93" s="9">
+        <v>10</v>
+      </c>
       <c r="V93" s="9"/>
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
@@ -5706,7 +5870,7 @@
       <c r="AA93" s="9"/>
       <c r="AB93" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5884,8 +6048,12 @@
       <c r="Q97" s="9"/>
       <c r="R97" s="9"/>
       <c r="S97" s="9"/>
-      <c r="T97" s="9"/>
-      <c r="U97" s="9"/>
+      <c r="T97" s="9">
+        <v>21</v>
+      </c>
+      <c r="U97" s="9">
+        <v>6</v>
+      </c>
       <c r="V97" s="9"/>
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
@@ -5894,7 +6062,7 @@
       <c r="AA97" s="9"/>
       <c r="AB97" s="9">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5968,8 +6136,12 @@
       </c>
       <c r="R99" s="9"/>
       <c r="S99" s="9"/>
-      <c r="T99" s="9"/>
-      <c r="U99" s="9"/>
+      <c r="T99" s="9">
+        <v>1</v>
+      </c>
+      <c r="U99" s="9">
+        <v>4</v>
+      </c>
       <c r="V99" s="9"/>
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
@@ -5978,7 +6150,7 @@
       <c r="AA99" s="9"/>
       <c r="AB99" s="9">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6023,8 +6195,12 @@
       </c>
       <c r="R100" s="9"/>
       <c r="S100" s="9"/>
-      <c r="T100" s="9"/>
-      <c r="U100" s="9"/>
+      <c r="T100" s="9">
+        <v>6</v>
+      </c>
+      <c r="U100" s="9">
+        <v>1</v>
+      </c>
       <c r="V100" s="9"/>
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
@@ -6033,7 +6209,7 @@
       <c r="AA100" s="9"/>
       <c r="AB100" s="9">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6078,8 +6254,12 @@
       </c>
       <c r="R101" s="9"/>
       <c r="S101" s="9"/>
-      <c r="T101" s="9"/>
-      <c r="U101" s="9"/>
+      <c r="T101" s="9">
+        <v>2</v>
+      </c>
+      <c r="U101" s="9">
+        <v>3</v>
+      </c>
       <c r="V101" s="9"/>
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
@@ -6088,7 +6268,7 @@
       <c r="AA101" s="9"/>
       <c r="AB101" s="9">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6133,8 +6313,12 @@
       </c>
       <c r="R102" s="9"/>
       <c r="S102" s="9"/>
-      <c r="T102" s="9"/>
-      <c r="U102" s="9"/>
+      <c r="T102" s="9">
+        <v>10</v>
+      </c>
+      <c r="U102" s="9">
+        <v>4</v>
+      </c>
       <c r="V102" s="9"/>
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
@@ -6143,7 +6327,7 @@
       <c r="AA102" s="9"/>
       <c r="AB102" s="9">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6188,8 +6372,12 @@
       </c>
       <c r="R103" s="9"/>
       <c r="S103" s="9"/>
-      <c r="T103" s="9"/>
-      <c r="U103" s="9"/>
+      <c r="T103" s="9">
+        <v>1</v>
+      </c>
+      <c r="U103" s="9">
+        <v>3</v>
+      </c>
       <c r="V103" s="9"/>
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
@@ -6198,7 +6386,7 @@
       <c r="AA103" s="9"/>
       <c r="AB103" s="9">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6513,8 +6701,12 @@
       </c>
       <c r="R110" s="9"/>
       <c r="S110" s="9"/>
-      <c r="T110" s="9"/>
-      <c r="U110" s="9"/>
+      <c r="T110" s="9">
+        <v>2</v>
+      </c>
+      <c r="U110" s="9">
+        <v>14</v>
+      </c>
       <c r="V110" s="9"/>
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
@@ -6523,7 +6715,7 @@
       <c r="AA110" s="9"/>
       <c r="AB110" s="9">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6597,8 +6789,12 @@
       </c>
       <c r="R112" s="9"/>
       <c r="S112" s="9"/>
-      <c r="T112" s="9"/>
-      <c r="U112" s="9"/>
+      <c r="T112" s="9">
+        <v>23</v>
+      </c>
+      <c r="U112" s="9">
+        <v>9</v>
+      </c>
       <c r="V112" s="9"/>
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
@@ -6607,7 +6803,7 @@
       <c r="AA112" s="9"/>
       <c r="AB112" s="9">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6652,8 +6848,12 @@
       </c>
       <c r="R113" s="9"/>
       <c r="S113" s="9"/>
-      <c r="T113" s="9"/>
-      <c r="U113" s="9"/>
+      <c r="T113" s="9">
+        <v>12</v>
+      </c>
+      <c r="U113" s="9">
+        <v>4</v>
+      </c>
       <c r="V113" s="9"/>
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
@@ -6662,7 +6862,7 @@
       <c r="AA113" s="9"/>
       <c r="AB113" s="9">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6707,8 +6907,12 @@
       </c>
       <c r="R114" s="9"/>
       <c r="S114" s="9"/>
-      <c r="T114" s="9"/>
-      <c r="U114" s="9"/>
+      <c r="T114" s="9">
+        <v>18</v>
+      </c>
+      <c r="U114" s="9">
+        <v>4</v>
+      </c>
       <c r="V114" s="9"/>
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
@@ -6717,7 +6921,7 @@
       <c r="AA114" s="9"/>
       <c r="AB114" s="9">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6762,8 +6966,12 @@
       </c>
       <c r="R115" s="9"/>
       <c r="S115" s="9"/>
-      <c r="T115" s="9"/>
-      <c r="U115" s="9"/>
+      <c r="T115" s="9">
+        <v>7</v>
+      </c>
+      <c r="U115" s="9">
+        <v>11</v>
+      </c>
       <c r="V115" s="9"/>
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
@@ -6772,7 +6980,7 @@
       <c r="AA115" s="9"/>
       <c r="AB115" s="9">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6817,8 +7025,12 @@
       </c>
       <c r="R116" s="9"/>
       <c r="S116" s="9"/>
-      <c r="T116" s="9"/>
-      <c r="U116" s="9"/>
+      <c r="T116" s="9">
+        <v>12</v>
+      </c>
+      <c r="U116" s="9">
+        <v>4</v>
+      </c>
       <c r="V116" s="9"/>
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
@@ -6827,7 +7039,7 @@
       <c r="AA116" s="9"/>
       <c r="AB116" s="9">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7142,8 +7354,12 @@
       </c>
       <c r="R123" s="9"/>
       <c r="S123" s="9"/>
-      <c r="T123" s="9"/>
-      <c r="U123" s="9"/>
+      <c r="T123" s="9">
+        <v>36</v>
+      </c>
+      <c r="U123" s="9">
+        <v>4</v>
+      </c>
       <c r="V123" s="9"/>
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
@@ -7152,7 +7368,7 @@
       <c r="AA123" s="9"/>
       <c r="AB123" s="9">
         <f t="shared" si="1"/>
-        <v>208</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7226,8 +7442,12 @@
       </c>
       <c r="R125" s="9"/>
       <c r="S125" s="9"/>
-      <c r="T125" s="9"/>
-      <c r="U125" s="9"/>
+      <c r="T125" s="9">
+        <v>7</v>
+      </c>
+      <c r="U125" s="9">
+        <v>9</v>
+      </c>
       <c r="V125" s="9"/>
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
@@ -7236,7 +7456,7 @@
       <c r="AA125" s="9"/>
       <c r="AB125" s="9">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7328,8 +7548,12 @@
       </c>
       <c r="R127" s="9"/>
       <c r="S127" s="9"/>
-      <c r="T127" s="9"/>
-      <c r="U127" s="9"/>
+      <c r="T127" s="9">
+        <v>7</v>
+      </c>
+      <c r="U127" s="9">
+        <v>9</v>
+      </c>
       <c r="V127" s="9"/>
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
@@ -7338,7 +7562,7 @@
       <c r="AA127" s="9"/>
       <c r="AB127" s="9">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7428,8 +7652,12 @@
       </c>
       <c r="R129" s="9"/>
       <c r="S129" s="9"/>
-      <c r="T129" s="9"/>
-      <c r="U129" s="9"/>
+      <c r="T129" s="9">
+        <v>5</v>
+      </c>
+      <c r="U129" s="9">
+        <v>7</v>
+      </c>
       <c r="V129" s="9"/>
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
@@ -7438,7 +7666,7 @@
       <c r="AA129" s="9"/>
       <c r="AB129" s="9">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7484,7 +7712,9 @@
       <c r="R130" s="9"/>
       <c r="S130" s="9"/>
       <c r="T130" s="9"/>
-      <c r="U130" s="9"/>
+      <c r="U130" s="9">
+        <v>15</v>
+      </c>
       <c r="V130" s="9"/>
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
@@ -7493,7 +7723,7 @@
       <c r="AA130" s="9"/>
       <c r="AB130" s="9">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7628,8 +7858,12 @@
       </c>
       <c r="R133" s="9"/>
       <c r="S133" s="9"/>
-      <c r="T133" s="9"/>
-      <c r="U133" s="9"/>
+      <c r="T133" s="9">
+        <v>3</v>
+      </c>
+      <c r="U133" s="9">
+        <v>7</v>
+      </c>
       <c r="V133" s="9"/>
       <c r="W133" s="9"/>
       <c r="X133" s="9"/>
@@ -7638,7 +7872,7 @@
       <c r="AA133" s="9"/>
       <c r="AB133" s="9">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7763,7 +7997,9 @@
       <c r="Q136" s="9"/>
       <c r="R136" s="9"/>
       <c r="S136" s="9"/>
-      <c r="T136" s="9"/>
+      <c r="T136" s="9">
+        <v>1</v>
+      </c>
       <c r="U136" s="9"/>
       <c r="V136" s="9"/>
       <c r="W136" s="9"/>
@@ -7773,7 +8009,7 @@
       <c r="AA136" s="9"/>
       <c r="AB136" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7863,8 +8099,12 @@
       </c>
       <c r="R138" s="9"/>
       <c r="S138" s="9"/>
-      <c r="T138" s="9"/>
-      <c r="U138" s="9"/>
+      <c r="T138" s="9">
+        <v>9</v>
+      </c>
+      <c r="U138" s="9">
+        <v>-2</v>
+      </c>
       <c r="V138" s="9"/>
       <c r="W138" s="9"/>
       <c r="X138" s="9"/>
@@ -7873,7 +8113,7 @@
       <c r="AA138" s="9"/>
       <c r="AB138" s="9">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="139" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/LEC.xlsx
+++ b/LEC.xlsx
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:AC705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1433,15 +1433,19 @@
       <c r="U5" s="9">
         <v>16</v>
       </c>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
+      <c r="V5" s="9">
+        <v>1</v>
+      </c>
+      <c r="W5" s="9">
+        <v>15</v>
+      </c>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9">
         <f>SUM(J5:AA5)</f>
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1492,15 +1496,19 @@
       <c r="U6" s="9">
         <v>23</v>
       </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
+      <c r="V6" s="9">
+        <v>4</v>
+      </c>
+      <c r="W6" s="9">
+        <v>6</v>
+      </c>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9">
         <f t="shared" ref="AB6:AB69" si="0">SUM(J6:AA6)</f>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1551,15 +1559,19 @@
       <c r="U7" s="9">
         <v>20</v>
       </c>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
+      <c r="V7" s="9">
+        <v>8</v>
+      </c>
+      <c r="W7" s="9">
+        <v>15</v>
+      </c>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1610,15 +1622,19 @@
       <c r="U8" s="9">
         <v>18</v>
       </c>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>16</v>
+      </c>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1669,15 +1685,19 @@
       <c r="U9" s="9">
         <v>21</v>
       </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
+      <c r="V9" s="9">
+        <v>4</v>
+      </c>
+      <c r="W9" s="9">
+        <v>15</v>
+      </c>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1998,15 +2018,19 @@
       <c r="U16" s="9">
         <v>31</v>
       </c>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
+      <c r="V16" s="9">
+        <v>11</v>
+      </c>
+      <c r="W16" s="9">
+        <v>25</v>
+      </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2086,15 +2110,19 @@
       <c r="U18" s="9">
         <v>10</v>
       </c>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
+      <c r="V18" s="9">
+        <v>14</v>
+      </c>
+      <c r="W18" s="9">
+        <v>7</v>
+      </c>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2145,15 +2173,19 @@
       <c r="U19" s="9">
         <v>8</v>
       </c>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
+      <c r="V19" s="9">
+        <v>14</v>
+      </c>
+      <c r="W19" s="9">
+        <v>8</v>
+      </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2204,15 +2236,19 @@
       <c r="U20" s="9">
         <v>14</v>
       </c>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
+      <c r="V20" s="9">
+        <v>16</v>
+      </c>
+      <c r="W20" s="9">
+        <v>6</v>
+      </c>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2263,15 +2299,19 @@
       <c r="U21" s="9">
         <v>27</v>
       </c>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
+      <c r="V21" s="9">
+        <v>30</v>
+      </c>
+      <c r="W21" s="9">
+        <v>9</v>
+      </c>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2322,15 +2362,19 @@
       <c r="U22" s="9">
         <v>21</v>
       </c>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
+      <c r="V22" s="9">
+        <v>15</v>
+      </c>
+      <c r="W22" s="9">
+        <v>4</v>
+      </c>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2651,15 +2695,19 @@
       <c r="U29" s="9">
         <v>34</v>
       </c>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
+      <c r="V29" s="9">
+        <v>31</v>
+      </c>
+      <c r="W29" s="9">
+        <v>12</v>
+      </c>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2739,15 +2787,19 @@
       <c r="U31" s="9">
         <v>18</v>
       </c>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
+      <c r="V31" s="9">
+        <v>9</v>
+      </c>
+      <c r="W31" s="9">
+        <v>9</v>
+      </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2798,15 +2850,19 @@
       <c r="U32" s="9">
         <v>16</v>
       </c>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
+      <c r="V32" s="9">
+        <v>20</v>
+      </c>
+      <c r="W32" s="9">
+        <v>11</v>
+      </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2857,15 +2913,19 @@
       <c r="U33" s="9">
         <v>22</v>
       </c>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
+      <c r="V33" s="9">
+        <v>25</v>
+      </c>
+      <c r="W33" s="9">
+        <v>22</v>
+      </c>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2916,15 +2976,19 @@
       <c r="U34" s="9">
         <v>19</v>
       </c>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
+      <c r="V34" s="9">
+        <v>9</v>
+      </c>
+      <c r="W34" s="9">
+        <v>13</v>
+      </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2975,15 +3039,19 @@
       <c r="U35" s="9">
         <v>27</v>
       </c>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
+      <c r="V35" s="9">
+        <v>20</v>
+      </c>
+      <c r="W35" s="9">
+        <v>2</v>
+      </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3352,15 +3420,19 @@
       <c r="U43" s="9">
         <v>33</v>
       </c>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
+      <c r="V43" s="9">
+        <v>33</v>
+      </c>
+      <c r="W43" s="9">
+        <v>25</v>
+      </c>
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9">
         <f t="shared" si="0"/>
-        <v>261</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3485,15 +3557,19 @@
       <c r="U46" s="9">
         <v>15</v>
       </c>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
+      <c r="V46" s="9">
+        <v>15</v>
+      </c>
+      <c r="W46" s="9">
+        <v>12</v>
+      </c>
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3544,15 +3620,19 @@
       <c r="U47" s="9">
         <v>10</v>
       </c>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
+      <c r="V47" s="9">
+        <v>15</v>
+      </c>
+      <c r="W47" s="9">
+        <v>3</v>
+      </c>
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="9"/>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3648,15 +3728,19 @@
       <c r="U49" s="9">
         <v>20</v>
       </c>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
+      <c r="V49" s="9">
+        <v>23</v>
+      </c>
+      <c r="W49" s="9">
+        <v>5</v>
+      </c>
       <c r="X49" s="9"/>
       <c r="Y49" s="9"/>
       <c r="Z49" s="9"/>
       <c r="AA49" s="9"/>
       <c r="AB49" s="9">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3707,15 +3791,19 @@
       <c r="U50" s="9">
         <v>15</v>
       </c>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
+      <c r="V50" s="9">
+        <v>14</v>
+      </c>
+      <c r="W50" s="9">
+        <v>7</v>
+      </c>
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
       <c r="Z50" s="9"/>
       <c r="AA50" s="9"/>
       <c r="AB50" s="9">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3766,15 +3854,19 @@
       <c r="U51" s="9">
         <v>11</v>
       </c>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
+      <c r="V51" s="9">
+        <v>15</v>
+      </c>
+      <c r="W51" s="9">
+        <v>3</v>
+      </c>
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
       <c r="Z51" s="9"/>
       <c r="AA51" s="9"/>
       <c r="AB51" s="9">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4050,15 +4142,19 @@
       <c r="U57" s="9">
         <v>30</v>
       </c>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
+      <c r="V57" s="9">
+        <v>18</v>
+      </c>
+      <c r="W57" s="9">
+        <v>7</v>
+      </c>
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4138,15 +4234,19 @@
       <c r="U59" s="9">
         <v>8</v>
       </c>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
+      <c r="V59" s="9">
+        <v>10</v>
+      </c>
+      <c r="W59" s="9">
+        <v>15</v>
+      </c>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4197,15 +4297,19 @@
       <c r="U60" s="9">
         <v>12</v>
       </c>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
+      <c r="V60" s="9">
+        <v>11</v>
+      </c>
+      <c r="W60" s="9">
+        <v>12</v>
+      </c>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4256,15 +4360,19 @@
       <c r="U61" s="9">
         <v>13</v>
       </c>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
+      <c r="V61" s="9">
+        <v>6</v>
+      </c>
+      <c r="W61" s="9">
+        <v>19</v>
+      </c>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4315,15 +4423,19 @@
       <c r="U62" s="9">
         <v>16</v>
       </c>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
+      <c r="V62" s="9">
+        <v>13</v>
+      </c>
+      <c r="W62" s="9">
+        <v>16</v>
+      </c>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4374,15 +4486,19 @@
       <c r="U63" s="9">
         <v>14</v>
       </c>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
+      <c r="V63" s="9">
+        <v>6</v>
+      </c>
+      <c r="W63" s="9">
+        <v>9</v>
+      </c>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4703,15 +4819,19 @@
       <c r="U70" s="9">
         <v>35</v>
       </c>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
+      <c r="V70" s="9">
+        <v>5</v>
+      </c>
+      <c r="W70" s="9">
+        <v>24</v>
+      </c>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
       <c r="AB70" s="9">
         <f t="shared" ref="AB70:AB133" si="1">SUM(J70:AA70)</f>
-        <v>263</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4791,15 +4911,19 @@
       <c r="U72" s="9">
         <v>7</v>
       </c>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
+      <c r="V72" s="9">
+        <v>6</v>
+      </c>
+      <c r="W72" s="9">
+        <v>22</v>
+      </c>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4850,15 +4974,19 @@
       <c r="U73" s="9">
         <v>0</v>
       </c>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
+      <c r="V73" s="9">
+        <v>12</v>
+      </c>
+      <c r="W73" s="9">
+        <v>21</v>
+      </c>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
       <c r="AB73" s="9">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4909,15 +5037,19 @@
       <c r="U74" s="9">
         <v>3</v>
       </c>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
+      <c r="V74" s="9">
+        <v>22</v>
+      </c>
+      <c r="W74" s="9">
+        <v>28</v>
+      </c>
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
       <c r="AB74" s="9">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4968,15 +5100,19 @@
       <c r="U75" s="9">
         <v>5</v>
       </c>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
+      <c r="V75" s="9">
+        <v>20</v>
+      </c>
+      <c r="W75" s="9">
+        <v>27</v>
+      </c>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5027,15 +5163,19 @@
       <c r="U76" s="9">
         <v>5</v>
       </c>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
+      <c r="V76" s="9">
+        <v>23</v>
+      </c>
+      <c r="W76" s="9">
+        <v>24</v>
+      </c>
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5356,15 +5496,19 @@
       <c r="U83" s="9">
         <v>1</v>
       </c>
-      <c r="V83" s="9"/>
-      <c r="W83" s="9"/>
+      <c r="V83" s="9">
+        <v>32</v>
+      </c>
+      <c r="W83" s="9">
+        <v>31</v>
+      </c>
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
       <c r="AB83" s="9">
         <f t="shared" si="1"/>
-        <v>231</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5444,15 +5588,19 @@
       <c r="U85" s="9">
         <v>5</v>
       </c>
-      <c r="V85" s="9"/>
-      <c r="W85" s="9"/>
+      <c r="V85" s="9">
+        <v>13</v>
+      </c>
+      <c r="W85" s="9">
+        <v>12</v>
+      </c>
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
       <c r="AB85" s="9">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5556,15 +5704,19 @@
       <c r="U87" s="9">
         <v>5</v>
       </c>
-      <c r="V87" s="9"/>
-      <c r="W87" s="9"/>
+      <c r="V87" s="9">
+        <v>9</v>
+      </c>
+      <c r="W87" s="9">
+        <v>22</v>
+      </c>
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5670,15 +5822,19 @@
       <c r="U89" s="9">
         <v>13</v>
       </c>
-      <c r="V89" s="9"/>
-      <c r="W89" s="9"/>
+      <c r="V89" s="9">
+        <v>4</v>
+      </c>
+      <c r="W89" s="9">
+        <v>12</v>
+      </c>
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
       <c r="AB89" s="9">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5768,15 +5924,19 @@
       <c r="U91" s="9">
         <v>13</v>
       </c>
-      <c r="V91" s="9"/>
-      <c r="W91" s="9"/>
+      <c r="V91" s="9">
+        <v>4</v>
+      </c>
+      <c r="W91" s="9">
+        <v>25</v>
+      </c>
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
       <c r="AB91" s="9">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5862,15 +6022,19 @@
       <c r="U93" s="9">
         <v>10</v>
       </c>
-      <c r="V93" s="9"/>
-      <c r="W93" s="9"/>
+      <c r="V93" s="9">
+        <v>16</v>
+      </c>
+      <c r="W93" s="9">
+        <v>22</v>
+      </c>
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
       <c r="AA93" s="9"/>
       <c r="AB93" s="9">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6054,15 +6218,19 @@
       <c r="U97" s="9">
         <v>6</v>
       </c>
-      <c r="V97" s="9"/>
-      <c r="W97" s="9"/>
+      <c r="V97" s="9">
+        <v>12</v>
+      </c>
+      <c r="W97" s="9">
+        <v>28</v>
+      </c>
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
       <c r="AA97" s="9"/>
       <c r="AB97" s="9">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6142,15 +6310,19 @@
       <c r="U99" s="9">
         <v>4</v>
       </c>
-      <c r="V99" s="9"/>
-      <c r="W99" s="9"/>
+      <c r="V99" s="9">
+        <v>6</v>
+      </c>
+      <c r="W99" s="9">
+        <v>13</v>
+      </c>
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
       <c r="Z99" s="9"/>
       <c r="AA99" s="9"/>
       <c r="AB99" s="9">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6201,15 +6373,19 @@
       <c r="U100" s="9">
         <v>1</v>
       </c>
-      <c r="V100" s="9"/>
-      <c r="W100" s="9"/>
+      <c r="V100" s="9">
+        <v>2</v>
+      </c>
+      <c r="W100" s="9">
+        <v>7</v>
+      </c>
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
       <c r="Z100" s="9"/>
       <c r="AA100" s="9"/>
       <c r="AB100" s="9">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6260,15 +6436,19 @@
       <c r="U101" s="9">
         <v>3</v>
       </c>
-      <c r="V101" s="9"/>
-      <c r="W101" s="9"/>
+      <c r="V101" s="9">
+        <v>8</v>
+      </c>
+      <c r="W101" s="9">
+        <v>12</v>
+      </c>
       <c r="X101" s="9"/>
       <c r="Y101" s="9"/>
       <c r="Z101" s="9"/>
       <c r="AA101" s="9"/>
       <c r="AB101" s="9">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6319,15 +6499,19 @@
       <c r="U102" s="9">
         <v>4</v>
       </c>
-      <c r="V102" s="9"/>
-      <c r="W102" s="9"/>
+      <c r="V102" s="9">
+        <v>4</v>
+      </c>
+      <c r="W102" s="9">
+        <v>14</v>
+      </c>
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
       <c r="Z102" s="9"/>
       <c r="AA102" s="9"/>
       <c r="AB102" s="9">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6378,15 +6562,19 @@
       <c r="U103" s="9">
         <v>3</v>
       </c>
-      <c r="V103" s="9"/>
-      <c r="W103" s="9"/>
+      <c r="V103" s="9">
+        <v>4</v>
+      </c>
+      <c r="W103" s="9">
+        <v>7</v>
+      </c>
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
       <c r="Z103" s="9"/>
       <c r="AA103" s="9"/>
       <c r="AB103" s="9">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6707,15 +6895,19 @@
       <c r="U110" s="9">
         <v>14</v>
       </c>
-      <c r="V110" s="9"/>
-      <c r="W110" s="9"/>
+      <c r="V110" s="9">
+        <v>14</v>
+      </c>
+      <c r="W110" s="9">
+        <v>5</v>
+      </c>
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
       <c r="AB110" s="9">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6795,15 +6987,19 @@
       <c r="U112" s="9">
         <v>9</v>
       </c>
-      <c r="V112" s="9"/>
-      <c r="W112" s="9"/>
+      <c r="V112" s="9">
+        <v>14</v>
+      </c>
+      <c r="W112" s="9">
+        <v>3</v>
+      </c>
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
       <c r="AB112" s="9">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6854,15 +7050,19 @@
       <c r="U113" s="9">
         <v>4</v>
       </c>
-      <c r="V113" s="9"/>
-      <c r="W113" s="9"/>
+      <c r="V113" s="9">
+        <v>18</v>
+      </c>
+      <c r="W113" s="9">
+        <v>2</v>
+      </c>
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6913,15 +7113,19 @@
       <c r="U114" s="9">
         <v>4</v>
       </c>
-      <c r="V114" s="9"/>
-      <c r="W114" s="9"/>
+      <c r="V114" s="9">
+        <v>20</v>
+      </c>
+      <c r="W114" s="9">
+        <v>-4</v>
+      </c>
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
       <c r="AB114" s="9">
         <f t="shared" si="1"/>
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6972,15 +7176,19 @@
       <c r="U115" s="9">
         <v>11</v>
       </c>
-      <c r="V115" s="9"/>
-      <c r="W115" s="9"/>
+      <c r="V115" s="9">
+        <v>16</v>
+      </c>
+      <c r="W115" s="9">
+        <v>-5</v>
+      </c>
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
       <c r="AB115" s="9">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7031,15 +7239,19 @@
       <c r="U116" s="9">
         <v>4</v>
       </c>
-      <c r="V116" s="9"/>
-      <c r="W116" s="9"/>
+      <c r="V116" s="9">
+        <v>20</v>
+      </c>
+      <c r="W116" s="9">
+        <v>0</v>
+      </c>
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7360,7 +7572,9 @@
       <c r="U123" s="9">
         <v>4</v>
       </c>
-      <c r="V123" s="9"/>
+      <c r="V123" s="9">
+        <v>44</v>
+      </c>
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
       <c r="Y123" s="9"/>
@@ -7368,7 +7582,7 @@
       <c r="AA123" s="9"/>
       <c r="AB123" s="9">
         <f t="shared" si="1"/>
-        <v>248</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7448,15 +7662,19 @@
       <c r="U125" s="9">
         <v>9</v>
       </c>
-      <c r="V125" s="9"/>
-      <c r="W125" s="9"/>
+      <c r="V125" s="9">
+        <v>4</v>
+      </c>
+      <c r="W125" s="9">
+        <v>5</v>
+      </c>
       <c r="X125" s="9"/>
       <c r="Y125" s="9"/>
       <c r="Z125" s="9"/>
       <c r="AA125" s="9"/>
       <c r="AB125" s="9">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="126" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7554,15 +7772,19 @@
       <c r="U127" s="9">
         <v>9</v>
       </c>
-      <c r="V127" s="9"/>
-      <c r="W127" s="9"/>
+      <c r="V127" s="9">
+        <v>3</v>
+      </c>
+      <c r="W127" s="9">
+        <v>12</v>
+      </c>
       <c r="X127" s="9"/>
       <c r="Y127" s="9"/>
       <c r="Z127" s="9"/>
       <c r="AA127" s="9"/>
       <c r="AB127" s="9">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="128" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7599,15 +7821,19 @@
       <c r="S128" s="9"/>
       <c r="T128" s="9"/>
       <c r="U128" s="9"/>
-      <c r="V128" s="9"/>
-      <c r="W128" s="9"/>
+      <c r="V128" s="9">
+        <v>-4</v>
+      </c>
+      <c r="W128" s="9">
+        <v>16</v>
+      </c>
       <c r="X128" s="9"/>
       <c r="Y128" s="9"/>
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
       <c r="AB128" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7658,15 +7884,19 @@
       <c r="U129" s="9">
         <v>7</v>
       </c>
-      <c r="V129" s="9"/>
-      <c r="W129" s="9"/>
+      <c r="V129" s="9">
+        <v>-1</v>
+      </c>
+      <c r="W129" s="9">
+        <v>13</v>
+      </c>
       <c r="X129" s="9"/>
       <c r="Y129" s="9"/>
       <c r="Z129" s="9"/>
       <c r="AA129" s="9"/>
       <c r="AB129" s="9">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8001,15 +8231,19 @@
         <v>1</v>
       </c>
       <c r="U136" s="9"/>
-      <c r="V136" s="9"/>
-      <c r="W136" s="9"/>
+      <c r="V136" s="9">
+        <v>2</v>
+      </c>
+      <c r="W136" s="9">
+        <v>11</v>
+      </c>
       <c r="X136" s="9"/>
       <c r="Y136" s="9"/>
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
       <c r="AB136" s="9">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8105,15 +8339,19 @@
       <c r="U138" s="9">
         <v>-2</v>
       </c>
-      <c r="V138" s="9"/>
-      <c r="W138" s="9"/>
+      <c r="V138" s="9">
+        <v>1</v>
+      </c>
+      <c r="W138" s="9">
+        <v>13</v>
+      </c>
       <c r="X138" s="9"/>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/LEC.xlsx
+++ b/LEC.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="160">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -504,6 +505,12 @@
   </si>
   <si>
     <t>WEEK 9</t>
+  </si>
+  <si>
+    <t>25millones</t>
+  </si>
+  <si>
+    <t>35millones</t>
   </si>
 </sst>
 </file>
@@ -790,7 +797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -904,6 +911,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1235,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:AC705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView tabSelected="1" topLeftCell="H115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC138" sqref="AC138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1249,11 +1262,12 @@
     <col min="9" max="9" width="22.85546875" style="1" customWidth="1"/>
     <col min="10" max="27" width="12.7109375" style="1" customWidth="1"/>
     <col min="28" max="28" width="24.28515625" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="11.42578125" style="1"/>
+    <col min="29" max="29" width="34.28515625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:28" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:29" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="5:29" x14ac:dyDescent="0.25">
       <c r="J2" s="35" t="s">
         <v>151</v>
       </c>
@@ -1291,7 +1305,7 @@
       </c>
       <c r="AA2" s="33"/>
     </row>
-    <row r="3" spans="5:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J3" s="37"/>
       <c r="K3" s="38"/>
       <c r="L3" s="31"/>
@@ -1311,7 +1325,7 @@
       <c r="Z3" s="31"/>
       <c r="AA3" s="34"/>
     </row>
-    <row r="4" spans="5:28" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:29" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1385,7 +1399,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="5">
         <v>1</v>
       </c>
@@ -1447,8 +1461,11 @@
         <f>SUM(J5:AA5)</f>
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC5" s="39">
+        <v>15378787</v>
+      </c>
+    </row>
+    <row r="6" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="5">
         <v>1</v>
       </c>
@@ -1510,8 +1527,11 @@
         <f t="shared" ref="AB6:AB69" si="0">SUM(J6:AA6)</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC6" s="39">
+        <v>15909090</v>
+      </c>
+    </row>
+    <row r="7" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="5">
         <v>1</v>
       </c>
@@ -1573,8 +1593,11 @@
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-    </row>
-    <row r="8" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC7" s="39">
+        <v>21609848</v>
+      </c>
+    </row>
+    <row r="8" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="5">
         <v>1</v>
       </c>
@@ -1636,8 +1659,11 @@
         <f t="shared" si="0"/>
         <v>166</v>
       </c>
-    </row>
-    <row r="9" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC8" s="39">
+        <v>22007575</v>
+      </c>
+    </row>
+    <row r="9" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="5">
         <v>1</v>
       </c>
@@ -1699,8 +1725,11 @@
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-    </row>
-    <row r="10" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC9" s="39">
+        <v>20946969</v>
+      </c>
+    </row>
+    <row r="10" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="5">
         <v>1</v>
       </c>
@@ -1745,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="5">
         <v>1</v>
       </c>
@@ -1790,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="5">
         <v>1</v>
       </c>
@@ -1835,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="5">
         <v>1</v>
       </c>
@@ -1880,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="5">
         <v>1</v>
       </c>
@@ -1925,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="5">
         <v>1</v>
       </c>
@@ -1970,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="5">
         <v>1</v>
       </c>
@@ -2032,8 +2061,12 @@
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
-    </row>
-    <row r="17" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC16" s="1">
+        <f>AB16*30000000/319</f>
+        <v>21818181.818181816</v>
+      </c>
+    </row>
+    <row r="17" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -2062,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="2">
         <v>2</v>
       </c>
@@ -2124,8 +2157,11 @@
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-    </row>
-    <row r="19" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC18" s="39">
+        <v>15511363</v>
+      </c>
+    </row>
+    <row r="19" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="2">
         <v>2</v>
       </c>
@@ -2187,8 +2223,11 @@
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
-    </row>
-    <row r="20" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC19" s="39">
+        <v>18428030</v>
+      </c>
+    </row>
+    <row r="20" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="2">
         <v>2</v>
       </c>
@@ -2250,8 +2289,11 @@
         <f t="shared" si="0"/>
         <v>137</v>
       </c>
-    </row>
-    <row r="21" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC20" s="39">
+        <v>18162878</v>
+      </c>
+    </row>
+    <row r="21" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="2">
         <v>2</v>
       </c>
@@ -2313,8 +2355,11 @@
         <f t="shared" si="0"/>
         <v>219</v>
       </c>
-    </row>
-    <row r="22" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC21" s="39">
+        <v>29034090</v>
+      </c>
+    </row>
+    <row r="22" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="2">
         <v>2</v>
       </c>
@@ -2376,8 +2421,11 @@
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-    </row>
-    <row r="23" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC22" s="39">
+        <v>16306818</v>
+      </c>
+    </row>
+    <row r="23" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="2">
         <v>2</v>
       </c>
@@ -2422,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="2">
         <v>2</v>
       </c>
@@ -2467,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="2">
         <v>2</v>
       </c>
@@ -2512,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="2">
         <v>2</v>
       </c>
@@ -2557,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="2">
         <v>2</v>
       </c>
@@ -2602,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="2">
         <v>2</v>
       </c>
@@ -2647,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="2">
         <v>2</v>
       </c>
@@ -2709,8 +2757,12 @@
         <f t="shared" si="0"/>
         <v>282</v>
       </c>
-    </row>
-    <row r="30" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC29" s="1">
+        <f>AB29*30000000/319</f>
+        <v>26520376.175548591</v>
+      </c>
+    </row>
+    <row r="30" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2739,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31" s="22">
         <v>3</v>
       </c>
@@ -2801,8 +2853,11 @@
         <f t="shared" si="0"/>
         <v>171</v>
       </c>
-    </row>
-    <row r="32" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC31" s="39">
+        <v>22670454</v>
+      </c>
+    </row>
+    <row r="32" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32" s="22">
         <v>3</v>
       </c>
@@ -2864,6 +2919,9 @@
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
+      <c r="AC32" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="33" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="22">
@@ -2927,6 +2985,9 @@
         <f t="shared" si="0"/>
         <v>264</v>
       </c>
+      <c r="AC33" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="34" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E34" s="22">
@@ -2990,6 +3051,9 @@
         <f t="shared" si="0"/>
         <v>199</v>
       </c>
+      <c r="AC34" s="39">
+        <v>26382575</v>
+      </c>
     </row>
     <row r="35" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="22">
@@ -3052,6 +3116,9 @@
       <c r="AB35" s="9">
         <f t="shared" si="0"/>
         <v>210</v>
+      </c>
+      <c r="AC35" s="39">
+        <v>27840909</v>
       </c>
     </row>
     <row r="36" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3433,6 +3500,9 @@
       <c r="AB43" s="9">
         <f t="shared" si="0"/>
         <v>319</v>
+      </c>
+      <c r="AC43" s="39">
+        <v>30000000</v>
       </c>
     </row>
     <row r="44" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3571,6 +3641,9 @@
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
+      <c r="AC46" s="39">
+        <v>20946969</v>
+      </c>
     </row>
     <row r="47" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="20">
@@ -3633,6 +3706,9 @@
       <c r="AB47" s="9">
         <f t="shared" si="0"/>
         <v>144</v>
+      </c>
+      <c r="AC47" s="39">
+        <v>19090909</v>
       </c>
     </row>
     <row r="48" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3680,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E49" s="20">
         <v>4</v>
       </c>
@@ -3742,8 +3818,11 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="50" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC49" s="39">
+        <v>23863636</v>
+      </c>
+    </row>
+    <row r="50" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50" s="20">
         <v>4</v>
       </c>
@@ -3805,8 +3884,11 @@
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-    </row>
-    <row r="51" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC50" s="39">
+        <v>22405303</v>
+      </c>
+    </row>
+    <row r="51" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E51" s="20">
         <v>4</v>
       </c>
@@ -3868,8 +3950,11 @@
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
-    </row>
-    <row r="52" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC51" s="39">
+        <v>17765151</v>
+      </c>
+    </row>
+    <row r="52" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E52" s="20">
         <v>4</v>
       </c>
@@ -3914,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E53" s="20">
         <v>4</v>
       </c>
@@ -3959,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E54" s="20">
         <v>4</v>
       </c>
@@ -4004,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E55" s="20">
         <v>4</v>
       </c>
@@ -4049,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E56" s="20">
         <v>4</v>
       </c>
@@ -4094,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E57" s="20">
         <v>4</v>
       </c>
@@ -4156,8 +4241,12 @@
         <f t="shared" si="0"/>
         <v>259</v>
       </c>
-    </row>
-    <row r="58" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC57" s="1">
+        <f>AB57*30000000/319</f>
+        <v>24357366.771159876</v>
+      </c>
+    </row>
+    <row r="58" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -4186,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E59" s="17">
         <v>5</v>
       </c>
@@ -4248,8 +4337,11 @@
         <f t="shared" si="0"/>
         <v>166</v>
       </c>
-    </row>
-    <row r="60" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC59" s="39">
+        <v>22007575</v>
+      </c>
+    </row>
+    <row r="60" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E60" s="17">
         <v>5</v>
       </c>
@@ -4311,8 +4403,11 @@
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
-    </row>
-    <row r="61" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC60" s="39">
+        <v>19621212</v>
+      </c>
+    </row>
+    <row r="61" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E61" s="17">
         <v>5</v>
       </c>
@@ -4374,8 +4469,11 @@
         <f t="shared" si="0"/>
         <v>149</v>
       </c>
-    </row>
-    <row r="62" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC61" s="39">
+        <v>19753787</v>
+      </c>
+    </row>
+    <row r="62" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E62" s="17">
         <v>5</v>
       </c>
@@ -4437,8 +4535,11 @@
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
-    </row>
-    <row r="63" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC62" s="39">
+        <v>28503787</v>
+      </c>
+    </row>
+    <row r="63" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E63" s="17">
         <v>5</v>
       </c>
@@ -4500,8 +4601,11 @@
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-    </row>
-    <row r="64" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC63" s="39">
+        <v>18825757</v>
+      </c>
+    </row>
+    <row r="64" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E64" s="17">
         <v>5</v>
       </c>
@@ -4546,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E65" s="17">
         <v>5</v>
       </c>
@@ -4591,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E66" s="17">
         <v>5</v>
       </c>
@@ -4636,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E67" s="17">
         <v>5</v>
       </c>
@@ -4681,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E68" s="17">
         <v>5</v>
       </c>
@@ -4726,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E69" s="17">
         <v>5</v>
       </c>
@@ -4771,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E70" s="17">
         <v>5</v>
       </c>
@@ -4833,8 +4937,12 @@
         <f t="shared" ref="AB70:AB133" si="1">SUM(J70:AA70)</f>
         <v>292</v>
       </c>
-    </row>
-    <row r="71" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC70" s="1">
+        <f>AB70*30000000/319</f>
+        <v>27460815.047021944</v>
+      </c>
+    </row>
+    <row r="71" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -4863,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E72" s="15">
         <v>6</v>
       </c>
@@ -4925,8 +5033,12 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="73" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC72" s="39">
+        <f>AB72*35000000/AB33</f>
+        <v>17234848.484848484</v>
+      </c>
+    </row>
+    <row r="73" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E73" s="15">
         <v>6</v>
       </c>
@@ -4988,8 +5100,12 @@
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-    </row>
-    <row r="74" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC73" s="39">
+        <f>AB73*35000000/AB33</f>
+        <v>18030303.030303031</v>
+      </c>
+    </row>
+    <row r="74" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E74" s="15">
         <v>6</v>
       </c>
@@ -5051,8 +5167,12 @@
         <f t="shared" si="1"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="75" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC74" s="39">
+        <f>AB74*35000000/AB33</f>
+        <v>23333333.333333332</v>
+      </c>
+    </row>
+    <row r="75" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E75" s="15">
         <v>6</v>
       </c>
@@ -5114,8 +5234,12 @@
         <f t="shared" si="1"/>
         <v>174</v>
       </c>
-    </row>
-    <row r="76" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC75" s="39">
+        <f>AB75*35000000/AB33</f>
+        <v>23068181.818181816</v>
+      </c>
+    </row>
+    <row r="76" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E76" s="15">
         <v>6</v>
       </c>
@@ -5177,8 +5301,12 @@
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC76" s="39">
+        <f>AB76*35000000/AB33</f>
+        <v>20549242.424242426</v>
+      </c>
+    </row>
+    <row r="77" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E77" s="15">
         <v>6</v>
       </c>
@@ -5223,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E78" s="15">
         <v>6</v>
       </c>
@@ -5268,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E79" s="15">
         <v>6</v>
       </c>
@@ -5313,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E80" s="15">
         <v>6</v>
       </c>
@@ -5358,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E81" s="15">
         <v>6</v>
       </c>
@@ -5403,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E82" s="15">
         <v>6</v>
       </c>
@@ -5448,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E83" s="15">
         <v>6</v>
       </c>
@@ -5510,8 +5638,12 @@
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
-    </row>
-    <row r="84" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC83" s="1">
+        <f>AB83*30000000/319</f>
+        <v>27648902.821316615</v>
+      </c>
+    </row>
+    <row r="84" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -5540,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E85" s="7">
         <v>7</v>
       </c>
@@ -5602,8 +5734,12 @@
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-    </row>
-    <row r="86" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC85" s="40">
+        <f>AB85*35000000/AB33</f>
+        <v>14981060.606060605</v>
+      </c>
+    </row>
+    <row r="86" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E86" s="7">
         <v>7</v>
       </c>
@@ -5655,8 +5791,12 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="87" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC86" s="40">
+        <f>AB86*35000000/AB33</f>
+        <v>4375000</v>
+      </c>
+    </row>
+    <row r="87" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E87" s="7">
         <v>7</v>
       </c>
@@ -5718,8 +5858,12 @@
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="88" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC87" s="40">
+        <f>AB87*35000000/AB33</f>
+        <v>16041666.666666666</v>
+      </c>
+    </row>
+    <row r="88" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E88" s="7">
         <v>7</v>
       </c>
@@ -5773,8 +5917,12 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="89" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC88" s="40">
+        <f>AB88*35000000/AB33</f>
+        <v>10340909.090909092</v>
+      </c>
+    </row>
+    <row r="89" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E89" s="7">
         <v>7</v>
       </c>
@@ -5836,8 +5984,12 @@
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="90" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC89" s="40">
+        <f>AB89*35000000/AB33</f>
+        <v>13522727.272727273</v>
+      </c>
+    </row>
+    <row r="90" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E90" s="7">
         <v>7</v>
       </c>
@@ -5881,8 +6033,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC90" s="40">
+        <f>AB90*35000000/AB33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E91" s="7">
         <v>7</v>
       </c>
@@ -5938,8 +6094,12 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="92" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC91" s="40">
+        <f>AB91*35000000/AB33</f>
+        <v>10075757.575757576</v>
+      </c>
+    </row>
+    <row r="92" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E92" s="7">
         <v>7</v>
       </c>
@@ -5983,8 +6143,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC92" s="40">
+        <f>AB92*35000000/AB43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E93" s="7">
         <v>7</v>
       </c>
@@ -6036,8 +6200,12 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="94" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC93" s="40">
+        <f>AB93*35000000/AB33</f>
+        <v>8352272.7272727275</v>
+      </c>
+    </row>
+    <row r="94" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E94" s="7">
         <v>7</v>
       </c>
@@ -6082,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E95" s="7">
         <v>7</v>
       </c>
@@ -6127,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E96" s="7">
         <v>7</v>
       </c>
@@ -6172,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E97" s="7">
         <v>7</v>
       </c>
@@ -6232,8 +6400,12 @@
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="98" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC97" s="1">
+        <f>AB97*30000000/319</f>
+        <v>10438871.473354232</v>
+      </c>
+    </row>
+    <row r="98" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -6262,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E99" s="24">
         <v>8</v>
       </c>
@@ -6324,8 +6496,12 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="100" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC99" s="40">
+        <f>AB99*35000000/264</f>
+        <v>8087121.2121212119</v>
+      </c>
+    </row>
+    <row r="100" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E100" s="24">
         <v>8</v>
       </c>
@@ -6387,8 +6563,12 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="101" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC100" s="40">
+        <f>AB100*35000000/264</f>
+        <v>8352272.7272727275</v>
+      </c>
+    </row>
+    <row r="101" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E101" s="24">
         <v>8</v>
       </c>
@@ -6450,8 +6630,12 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="102" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC101" s="40">
+        <f t="shared" ref="AC100:AC103" si="2">AB101*35000000/264</f>
+        <v>7689393.9393939395</v>
+      </c>
+    </row>
+    <row r="102" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E102" s="24">
         <v>8</v>
       </c>
@@ -6513,8 +6697,12 @@
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-    </row>
-    <row r="103" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC102" s="40">
+        <f t="shared" si="2"/>
+        <v>15511363.636363637</v>
+      </c>
+    </row>
+    <row r="103" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E103" s="24">
         <v>8</v>
       </c>
@@ -6576,8 +6764,12 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="104" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC103" s="40">
+        <f t="shared" si="2"/>
+        <v>7556818.1818181816</v>
+      </c>
+    </row>
+    <row r="104" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E104" s="24">
         <v>8</v>
       </c>
@@ -6622,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E105" s="24">
         <v>8</v>
       </c>
@@ -6667,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E106" s="24">
         <v>8</v>
       </c>
@@ -6712,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E107" s="24">
         <v>8</v>
       </c>
@@ -6757,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E108" s="24">
         <v>8</v>
       </c>
@@ -6802,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E109" s="24">
         <v>8</v>
       </c>
@@ -6847,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E110" s="24">
         <v>8</v>
       </c>
@@ -6909,8 +7101,12 @@
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
-    </row>
-    <row r="111" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC110" s="1">
+        <f>AB110*30000000/319</f>
+        <v>12319749.21630094</v>
+      </c>
+    </row>
+    <row r="111" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -6939,7 +7135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E112" s="26">
         <v>9</v>
       </c>
@@ -7001,8 +7197,12 @@
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
-    </row>
-    <row r="113" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC112" s="40">
+        <f>AB112*35000000/264</f>
+        <v>18958333.333333332</v>
+      </c>
+    </row>
+    <row r="113" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E113" s="26">
         <v>9</v>
       </c>
@@ -7064,8 +7264,12 @@
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="114" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC113" s="40">
+        <f t="shared" ref="AC113:AC116" si="3">AB113*35000000/264</f>
+        <v>17897727.272727273</v>
+      </c>
+    </row>
+    <row r="114" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E114" s="26">
         <v>9</v>
       </c>
@@ -7127,8 +7331,12 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="115" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC114" s="40">
+        <f t="shared" si="3"/>
+        <v>19886363.636363637</v>
+      </c>
+    </row>
+    <row r="115" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E115" s="26">
         <v>9</v>
       </c>
@@ -7190,8 +7398,12 @@
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC115" s="40">
+        <f t="shared" si="3"/>
+        <v>14981060.606060605</v>
+      </c>
+    </row>
+    <row r="116" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E116" s="26">
         <v>9</v>
       </c>
@@ -7253,8 +7465,12 @@
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
-    </row>
-    <row r="117" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC116" s="40">
+        <f>AB116*35000000/264</f>
+        <v>17367424.242424242</v>
+      </c>
+    </row>
+    <row r="117" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E117" s="26">
         <v>9</v>
       </c>
@@ -7299,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E118" s="26">
         <v>9</v>
       </c>
@@ -7344,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E119" s="26">
         <v>9</v>
       </c>
@@ -7389,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E120" s="26">
         <v>9</v>
       </c>
@@ -7434,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E121" s="26">
         <v>9</v>
       </c>
@@ -7479,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E122" s="26">
         <v>9</v>
       </c>
@@ -7524,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E123" s="26">
         <v>9</v>
       </c>
@@ -7584,8 +7800,12 @@
         <f t="shared" si="1"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="124" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC123" s="1">
+        <f>AB123*30000000/319</f>
+        <v>27460815.047021944</v>
+      </c>
+    </row>
+    <row r="124" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -7614,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E125" s="13">
         <v>10</v>
       </c>
@@ -7676,8 +7896,12 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="126" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC125" s="40">
+        <f>AB125*35000000/264</f>
+        <v>8352272.7272727275</v>
+      </c>
+    </row>
+    <row r="126" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E126" s="13">
         <v>10</v>
       </c>
@@ -7723,8 +7947,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC126" s="40">
+        <f t="shared" ref="AC126:AC136" si="4">AB126*35000000/264</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E127" s="13">
         <v>10</v>
       </c>
@@ -7786,8 +8014,12 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="128" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC127" s="40">
+        <f t="shared" si="4"/>
+        <v>9810606.0606060605</v>
+      </c>
+    </row>
+    <row r="128" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E128" s="13">
         <v>10</v>
       </c>
@@ -7835,8 +8067,12 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="129" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC128" s="40">
+        <f t="shared" si="4"/>
+        <v>1590909.0909090908</v>
+      </c>
+    </row>
+    <row r="129" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E129" s="13">
         <v>10</v>
       </c>
@@ -7898,8 +8134,12 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="130" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC129" s="40">
+        <f>AB129*35000000/264</f>
+        <v>10075757.575757576</v>
+      </c>
+    </row>
+    <row r="130" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E130" s="13">
         <v>10</v>
       </c>
@@ -7955,8 +8195,12 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="131" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC130" s="40">
+        <f t="shared" si="4"/>
+        <v>4507575.7575757578</v>
+      </c>
+    </row>
+    <row r="131" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E131" s="13">
         <v>10</v>
       </c>
@@ -8000,8 +8244,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC131" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E132" s="13">
         <v>10</v>
       </c>
@@ -8045,8 +8293,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC132" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E133" s="13">
         <v>10</v>
       </c>
@@ -8104,8 +8356,12 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="134" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC133" s="40">
+        <f t="shared" si="4"/>
+        <v>5965909.0909090908</v>
+      </c>
+    </row>
+    <row r="134" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E134" s="13">
         <v>10</v>
       </c>
@@ -8146,11 +8402,15 @@
       <c r="Z134" s="9"/>
       <c r="AA134" s="9"/>
       <c r="AB134" s="9">
-        <f t="shared" ref="AB134:AB138" si="2">SUM(J134:AA134)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="AB134:AB138" si="5">SUM(J134:AA134)</f>
+        <v>0</v>
+      </c>
+      <c r="AC134" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E135" s="13">
         <v>10</v>
       </c>
@@ -8191,11 +8451,15 @@
       <c r="Z135" s="9"/>
       <c r="AA135" s="9"/>
       <c r="AB135" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC135" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E136" s="13">
         <v>10</v>
       </c>
@@ -8242,11 +8506,15 @@
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
       <c r="AB136" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="137" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC136" s="40">
+        <f t="shared" si="4"/>
+        <v>1856060.606060606</v>
+      </c>
+    </row>
+    <row r="137" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E137" s="13">
         <v>10</v>
       </c>
@@ -8287,11 +8555,12 @@
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC137" s="40"/>
+    </row>
+    <row r="138" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E138" s="13">
         <v>10</v>
       </c>
@@ -8350,11 +8619,15 @@
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="139" spans="5:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC138" s="40">
+        <f>AB138*30000000/319</f>
+        <v>6771159.8746081507</v>
+      </c>
+    </row>
+    <row r="139" spans="5:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -8380,11 +8653,11 @@
       <c r="AA139" s="3"/>
       <c r="AB139" s="3"/>
     </row>
-    <row r="140" spans="5:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="5:28" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="5:28" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="5:28" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="5:28" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="5:29" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="5:29" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="5:29" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="5:29" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="5:29" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="145" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="146" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="147" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8976,4 +9249,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>